--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BDEC75-10D5-FC49-B58C-8EBCF82C5330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3783B488-1002-2C43-8E7F-B6A125252D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="900" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="900" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +580,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,9 +993,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W133"/>
+  <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1078,8 +1081,12 @@
       <c r="A2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="59">
+        <v>3</v>
+      </c>
+      <c r="C2" s="59">
+        <v>15</v>
+      </c>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="49"/>
@@ -1098,9 +1105,9 @@
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
       <c r="U2" s="49"/>
-      <c r="V2" s="39" t="e">
-        <f>$V$34 * ( (SUM(B2:U2))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V2" s="39">
+        <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
+        <v>0.6</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1108,8 +1115,12 @@
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="59">
+        <v>15</v>
+      </c>
+      <c r="C3" s="59">
+        <v>15</v>
+      </c>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="49"/>
@@ -1128,9 +1139,9 @@
       <c r="S3" s="49"/>
       <c r="T3" s="49"/>
       <c r="U3" s="49"/>
-      <c r="V3" s="39" t="e">
-        <f>$V$34 * ( (SUM(B3:U3))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V3" s="39">
+        <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
+        <v>1</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1138,8 +1149,12 @@
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="59">
+        <v>0</v>
+      </c>
+      <c r="C4" s="59">
+        <v>0</v>
+      </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="F4" s="49"/>
@@ -1158,9 +1173,9 @@
       <c r="S4" s="49"/>
       <c r="T4" s="49"/>
       <c r="U4" s="49"/>
-      <c r="V4" s="39" t="e">
-        <f>$V$34 * ( (SUM(B4:U4))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V4" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W4"/>
     </row>
@@ -1168,8 +1183,12 @@
       <c r="A5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="59">
+        <v>3</v>
+      </c>
+      <c r="C5" s="59">
+        <v>15</v>
+      </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="49"/>
@@ -1188,9 +1207,9 @@
       <c r="S5" s="49"/>
       <c r="T5" s="49"/>
       <c r="U5" s="49"/>
-      <c r="V5" s="39" t="e">
-        <f>$V$34 * ( (SUM(B5:U5))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V5" s="39">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1198,8 +1217,12 @@
       <c r="A6" s="29">
         <v>1019</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="59">
+        <v>15</v>
+      </c>
+      <c r="C6" s="59">
+        <v>15</v>
+      </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="49"/>
@@ -1218,9 +1241,9 @@
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="39" t="e">
-        <f>$V$34 * ( (SUM(B6:U6))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V6" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1228,8 +1251,12 @@
       <c r="A7" s="29">
         <v>1395</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="59">
+        <v>15</v>
+      </c>
+      <c r="C7" s="59">
+        <v>15</v>
+      </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="49"/>
@@ -1248,9 +1275,9 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="39" t="e">
-        <f>$V$34 * ( (SUM(B7:U7))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V7" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1258,8 +1285,12 @@
       <c r="A8" s="29">
         <v>1506</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="59">
+        <v>15</v>
+      </c>
+      <c r="C8" s="59">
+        <v>15</v>
+      </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="49"/>
@@ -1278,9 +1309,9 @@
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
-      <c r="V8" s="39" t="e">
-        <f>$V$34 * ( (SUM(B8:U8))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V8" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1288,8 +1319,12 @@
       <c r="A9" s="29">
         <v>2441</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="59">
+        <v>15</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0</v>
+      </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="49"/>
@@ -1308,9 +1343,9 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="39" t="e">
-        <f>$V$34 * ( (SUM(B9:U9))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V9" s="39">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1318,8 +1353,12 @@
       <c r="A10" s="29">
         <v>2564</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="59">
+        <v>15</v>
+      </c>
+      <c r="C10" s="59">
+        <v>15</v>
+      </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="49"/>
@@ -1338,9 +1377,9 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="39" t="e">
-        <f>$V$34 * ( (SUM(B10:U10))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V10" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1348,8 +1387,12 @@
       <c r="A11" s="29">
         <v>2693</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="59">
+        <v>0</v>
+      </c>
+      <c r="C11" s="59">
+        <v>0</v>
+      </c>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="49"/>
@@ -1368,9 +1411,9 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49"/>
-      <c r="V11" s="39" t="e">
-        <f>$V$34 * ( (SUM(B11:U11))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V11" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W11"/>
     </row>
@@ -1378,8 +1421,12 @@
       <c r="A12" s="29">
         <v>2771</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="59">
+        <v>0</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0</v>
+      </c>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="49"/>
@@ -1398,9 +1445,9 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
-      <c r="V12" s="39" t="e">
-        <f>$V$34 * ( (SUM(B12:U12))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V12" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1408,8 +1455,12 @@
       <c r="A13" s="29">
         <v>2899</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="59">
+        <v>15</v>
+      </c>
+      <c r="C13" s="59">
+        <v>15</v>
+      </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="49"/>
@@ -1428,9 +1479,9 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="39" t="e">
-        <f>$V$34 * ( (SUM(B13:U13))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V13" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1438,8 +1489,12 @@
       <c r="A14" s="29">
         <v>3517</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="59">
+        <v>15</v>
+      </c>
+      <c r="C14" s="59">
+        <v>15</v>
+      </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="49"/>
@@ -1458,17 +1513,21 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
-      <c r="V14" s="39" t="e">
-        <f>$V$34 * ( (SUM(B14:U14))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V14" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>4490</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="59">
+        <v>15</v>
+      </c>
+      <c r="C15" s="59">
+        <v>15</v>
+      </c>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="49"/>
@@ -1487,9 +1546,9 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49"/>
-      <c r="V15" s="39" t="e">
-        <f>$V$34 * ( (SUM(B15:U15))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V15" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1497,8 +1556,12 @@
       <c r="A16" s="29">
         <v>4582</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="59">
+        <v>15</v>
+      </c>
+      <c r="C16" s="59">
+        <v>15</v>
+      </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="49"/>
@@ -1517,9 +1580,9 @@
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
       <c r="U16" s="49"/>
-      <c r="V16" s="39" t="e">
-        <f>$V$34 * ( (SUM(B16:U16))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V16" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1527,8 +1590,12 @@
       <c r="A17" s="29">
         <v>4622</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="59">
+        <v>15</v>
+      </c>
+      <c r="C17" s="59">
+        <v>15</v>
+      </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="49"/>
@@ -1547,9 +1614,9 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49"/>
-      <c r="V17" s="39" t="e">
-        <f>$V$34 * ( (SUM(B17:U17))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V17" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1557,8 +1624,12 @@
       <c r="A18" s="29">
         <v>5500</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="59">
+        <v>15</v>
+      </c>
+      <c r="C18" s="59">
+        <v>15</v>
+      </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="49"/>
@@ -1577,9 +1648,9 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49"/>
-      <c r="V18" s="39" t="e">
-        <f>$V$34 * ( (SUM(B18:U18))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V18" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1587,8 +1658,12 @@
       <c r="A19" s="29">
         <v>5687</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="59">
+        <v>15</v>
+      </c>
+      <c r="C19" s="59">
+        <v>15</v>
+      </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="49"/>
@@ -1607,9 +1682,9 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49"/>
-      <c r="V19" s="39" t="e">
-        <f>$V$34 * ( (SUM(B19:U19))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V19" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W19"/>
     </row>
@@ -1617,8 +1692,12 @@
       <c r="A20" s="29">
         <v>5711</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="59">
+        <v>15</v>
+      </c>
+      <c r="C20" s="59">
+        <v>15</v>
+      </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="49"/>
@@ -1637,9 +1716,9 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49"/>
-      <c r="V20" s="39" t="e">
-        <f>$V$34 * ( (SUM(B20:U20))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V20" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W20"/>
     </row>
@@ -1647,8 +1726,12 @@
       <c r="A21" s="29">
         <v>5810</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="59">
+        <v>15</v>
+      </c>
+      <c r="C21" s="59">
+        <v>15</v>
+      </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="49"/>
@@ -1667,9 +1750,9 @@
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
       <c r="U21" s="49"/>
-      <c r="V21" s="39" t="e">
-        <f>$V$34 * ( (SUM(B21:U21))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V21" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W21"/>
     </row>
@@ -1677,8 +1760,12 @@
       <c r="A22" s="29">
         <v>6347</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="59">
+        <v>15</v>
+      </c>
+      <c r="C22" s="59">
+        <v>15</v>
+      </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="49"/>
@@ -1697,9 +1784,9 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
-      <c r="V22" s="39" t="e">
-        <f>$V$34 * ( (SUM(B22:U22))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V22" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W22"/>
     </row>
@@ -1707,8 +1794,12 @@
       <c r="A23" s="29">
         <v>7905</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="59">
+        <v>15</v>
+      </c>
+      <c r="C23" s="59">
+        <v>15</v>
+      </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="49"/>
@@ -1727,9 +1818,9 @@
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
       <c r="U23" s="49"/>
-      <c r="V23" s="39" t="e">
-        <f>$V$34 * ( (SUM(B23:U23))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V23" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W23"/>
     </row>
@@ -1737,8 +1828,12 @@
       <c r="A24" s="29">
         <v>8335</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="59">
+        <v>15</v>
+      </c>
+      <c r="C24" s="59">
+        <v>15</v>
+      </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="49"/>
@@ -1757,9 +1852,9 @@
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
-      <c r="V24" s="39" t="e">
-        <f>$V$34 * ( (SUM(B24:U24))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V24" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W24"/>
     </row>
@@ -1767,8 +1862,12 @@
       <c r="A25" s="29">
         <v>8490</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="59">
+        <v>3</v>
+      </c>
+      <c r="C25" s="59">
+        <v>15</v>
+      </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="49"/>
@@ -1787,18 +1886,22 @@
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
       <c r="U25" s="49"/>
-      <c r="V25" s="39" t="e">
-        <f>$V$34 * ( (SUM(B25:U25))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V25" s="39">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="W25"/>
     </row>
     <row r="26" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
-        <v>8695</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
+        <v>8688</v>
+      </c>
+      <c r="B26" s="59">
+        <v>15</v>
+      </c>
+      <c r="C26" s="59">
+        <v>0</v>
+      </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="49"/>
@@ -1817,18 +1920,22 @@
       <c r="S26" s="49"/>
       <c r="T26" s="49"/>
       <c r="U26" s="49"/>
-      <c r="V26" s="39" t="e">
-        <f>$V$34 * ( (SUM(B26:U26))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V26" s="39">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="W26"/>
     </row>
     <row r="27" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
-        <v>8743</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+        <v>8695</v>
+      </c>
+      <c r="B27" s="59">
+        <v>15</v>
+      </c>
+      <c r="C27" s="59">
+        <v>15</v>
+      </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="49"/>
@@ -1847,18 +1954,22 @@
       <c r="S27" s="49"/>
       <c r="T27" s="49"/>
       <c r="U27" s="49"/>
-      <c r="V27" s="39" t="e">
-        <f>$V$34 * ( (SUM(B27:U27))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V27" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W27"/>
     </row>
     <row r="28" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
-        <v>8745</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
+        <v>8743</v>
+      </c>
+      <c r="B28" s="59">
+        <v>15</v>
+      </c>
+      <c r="C28" s="59">
+        <v>15</v>
+      </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="49"/>
@@ -1877,18 +1988,22 @@
       <c r="S28" s="49"/>
       <c r="T28" s="49"/>
       <c r="U28" s="49"/>
-      <c r="V28" s="39" t="e">
-        <f>$V$34 * ( (SUM(B28:U28))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V28" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W28"/>
     </row>
     <row r="29" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
-        <v>9550</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
+        <v>8745</v>
+      </c>
+      <c r="B29" s="59">
+        <v>15</v>
+      </c>
+      <c r="C29" s="59">
+        <v>15</v>
+      </c>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="49"/>
@@ -1907,18 +2022,22 @@
       <c r="S29" s="49"/>
       <c r="T29" s="49"/>
       <c r="U29" s="49"/>
-      <c r="V29" s="39" t="e">
-        <f>$V$34 * ( (SUM(B29:U29))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V29" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W29"/>
     </row>
     <row r="30" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
-        <v>9610</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
+        <v>9550</v>
+      </c>
+      <c r="B30" s="59">
+        <v>15</v>
+      </c>
+      <c r="C30" s="59">
+        <v>15</v>
+      </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="49"/>
@@ -1937,18 +2056,22 @@
       <c r="S30" s="49"/>
       <c r="T30" s="49"/>
       <c r="U30" s="49"/>
-      <c r="V30" s="39" t="e">
-        <f>$V$34 * ( (SUM(B30:U30))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V30" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W30"/>
     </row>
     <row r="31" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
-        <v>9611</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+        <v>9610</v>
+      </c>
+      <c r="B31" s="59">
+        <v>15</v>
+      </c>
+      <c r="C31" s="59">
+        <v>15</v>
+      </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="49"/>
@@ -1967,18 +2090,22 @@
       <c r="S31" s="49"/>
       <c r="T31" s="49"/>
       <c r="U31" s="49"/>
-      <c r="V31" s="39" t="e">
-        <f>$V$34 * ( (SUM(B31:U31))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V31" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W31"/>
     </row>
     <row r="32" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
-        <v>9674</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
+        <v>9611</v>
+      </c>
+      <c r="B32" s="59">
+        <v>15</v>
+      </c>
+      <c r="C32" s="59">
+        <v>15</v>
+      </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="49"/>
@@ -1997,474 +2124,505 @@
       <c r="S32" s="49"/>
       <c r="T32" s="49"/>
       <c r="U32" s="49"/>
-      <c r="V32" s="39" t="e">
-        <f>$V$34 * ( (SUM(B32:U32))/((SUM($B$38:$U$38)-#REF!)*$B$34) )</f>
-        <v>#REF!</v>
+      <c r="V32" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W32"/>
     </row>
     <row r="33" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="A33" s="29">
+        <v>9674</v>
+      </c>
+      <c r="B33" s="59">
+        <v>15</v>
+      </c>
+      <c r="C33" s="59">
+        <v>15</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="W33"/>
     </row>
     <row r="34" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34"/>
+    </row>
+    <row r="35" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="32">
-        <v>15</v>
-      </c>
-      <c r="C34" s="32">
-        <v>15</v>
-      </c>
-      <c r="D34" s="32">
-        <v>15</v>
-      </c>
-      <c r="E34" s="32">
-        <v>15</v>
-      </c>
-      <c r="F34" s="32">
-        <v>15</v>
-      </c>
-      <c r="G34" s="32">
-        <v>15</v>
-      </c>
-      <c r="H34" s="32">
-        <v>15</v>
-      </c>
-      <c r="I34" s="32">
-        <v>15</v>
-      </c>
-      <c r="J34" s="32">
-        <v>15</v>
-      </c>
-      <c r="K34" s="32">
-        <v>15</v>
-      </c>
-      <c r="L34" s="32">
-        <v>15</v>
-      </c>
-      <c r="M34" s="32">
-        <v>15</v>
-      </c>
-      <c r="N34" s="32">
-        <v>15</v>
-      </c>
-      <c r="O34" s="32">
-        <v>15</v>
-      </c>
-      <c r="P34" s="32">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="32">
-        <v>15</v>
-      </c>
-      <c r="R34" s="32">
-        <v>15</v>
-      </c>
-      <c r="S34" s="32">
-        <v>15</v>
-      </c>
-      <c r="T34" s="32">
-        <v>15</v>
-      </c>
-      <c r="U34" s="32">
-        <v>15</v>
-      </c>
-      <c r="V34" s="33">
-        <v>1</v>
-      </c>
-      <c r="W34"/>
-    </row>
-    <row r="35" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="B35" s="32">
+        <v>15</v>
+      </c>
+      <c r="C35" s="32">
+        <v>15</v>
+      </c>
+      <c r="D35" s="32">
+        <v>15</v>
+      </c>
+      <c r="E35" s="32">
+        <v>15</v>
+      </c>
+      <c r="F35" s="32">
+        <v>15</v>
+      </c>
+      <c r="G35" s="32">
+        <v>15</v>
+      </c>
+      <c r="H35" s="32">
+        <v>15</v>
+      </c>
+      <c r="I35" s="32">
+        <v>15</v>
+      </c>
+      <c r="J35" s="32">
+        <v>15</v>
+      </c>
+      <c r="K35" s="32">
+        <v>15</v>
+      </c>
+      <c r="L35" s="32">
+        <v>15</v>
+      </c>
+      <c r="M35" s="32">
+        <v>15</v>
+      </c>
+      <c r="N35" s="32">
+        <v>15</v>
+      </c>
+      <c r="O35" s="32">
+        <v>15</v>
+      </c>
+      <c r="P35" s="32">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>15</v>
+      </c>
+      <c r="R35" s="32">
+        <v>15</v>
+      </c>
+      <c r="S35" s="32">
+        <v>15</v>
+      </c>
+      <c r="T35" s="32">
+        <v>15</v>
+      </c>
+      <c r="U35" s="32">
+        <v>15</v>
+      </c>
+      <c r="V35" s="33">
+        <v>1</v>
+      </c>
+      <c r="W35"/>
+    </row>
+    <row r="36" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="35" t="e">
-        <f>AVERAGE(B$2:B$32)</f>
+      <c r="B36" s="35">
+        <f t="shared" ref="B36:V36" si="1">AVERAGE(B$2:B$33)</f>
+        <v>12.46875</v>
+      </c>
+      <c r="C36" s="35">
+        <f t="shared" si="1"/>
+        <v>12.65625</v>
+      </c>
+      <c r="D36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C35" s="35" t="e">
-        <f>AVERAGE(C$2:C$32)</f>
+      <c r="E36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="35" t="e">
-        <f>AVERAGE(D$2:D$32)</f>
+      <c r="F36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="35" t="e">
-        <f>AVERAGE(E$2:E$32)</f>
+      <c r="G36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="35" t="e">
-        <f>AVERAGE(F$2:F$32)</f>
+      <c r="H36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="35" t="e">
-        <f>AVERAGE(G$2:G$32)</f>
+      <c r="I36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="35" t="e">
-        <f>AVERAGE(H$2:H$32)</f>
+      <c r="J36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="35" t="e">
-        <f>AVERAGE(I$2:I$32)</f>
+      <c r="K36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="35" t="e">
-        <f>AVERAGE(J$2:J$32)</f>
+      <c r="L36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="35" t="e">
-        <f>AVERAGE(K$2:K$32)</f>
+      <c r="M36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="35" t="e">
-        <f>AVERAGE(L$2:L$32)</f>
+      <c r="N36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="35" t="e">
-        <f>AVERAGE(M$2:M$32)</f>
+      <c r="O36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="35" t="e">
-        <f>AVERAGE(N$2:N$32)</f>
+      <c r="P36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" s="35" t="e">
-        <f>AVERAGE(O$2:O$32)</f>
+      <c r="Q36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P35" s="35" t="e">
-        <f>AVERAGE(P$2:P$32)</f>
+      <c r="R36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q35" s="35" t="e">
-        <f>AVERAGE(Q$2:Q$32)</f>
+      <c r="S36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="35" t="e">
-        <f>AVERAGE(R$2:R$32)</f>
+      <c r="T36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="35" t="e">
-        <f>AVERAGE(S$2:S$32)</f>
+      <c r="U36" s="35" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="35" t="e">
-        <f>AVERAGE(T$2:T$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" s="35" t="e">
-        <f>AVERAGE(U$2:U$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V35" s="35" t="e">
-        <f>AVERAGE(V$2:V$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W35"/>
-    </row>
-    <row r="36" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="35" t="e">
-        <f>STDEV(B$2:B$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C36" s="35" t="e">
-        <f>STDEV(C$2:C$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="35" t="e">
-        <f>STDEV(D$2:D$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="35" t="e">
-        <f>STDEV(E$2:E$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="35" t="e">
-        <f>STDEV(F$2:F$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="35" t="e">
-        <f>STDEV(G$2:G$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="35" t="e">
-        <f>STDEV(H$2:H$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="35" t="e">
-        <f>STDEV(I$2:I$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="35" t="e">
-        <f>STDEV(J$2:J$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="35" t="e">
-        <f>STDEV(K$2:K$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="35" t="e">
-        <f>STDEV(L$2:L$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="35" t="e">
-        <f>STDEV(M$2:M$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="35" t="e">
-        <f>STDEV(N$2:N$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="35" t="e">
-        <f>STDEV(O$2:O$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" s="35" t="e">
-        <f>STDEV(P$2:P$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="35" t="e">
-        <f>STDEV(Q$2:Q$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="35" t="e">
-        <f>STDEV(R$2:R$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="35" t="e">
-        <f>STDEV(S$2:S$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="35" t="e">
-        <f>STDEV(T$2:T$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U36" s="35" t="e">
-        <f>STDEV(U$2:U$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V36" s="35" t="e">
-        <f>STDEV(V$2:V$32)</f>
-        <v>#REF!</v>
+      <c r="V36" s="35">
+        <f t="shared" si="1"/>
+        <v>0.83750000000000002</v>
       </c>
       <c r="W36"/>
     </row>
     <row r="37" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="35">
+        <f t="shared" ref="B37:V37" si="2">STDEV(B$2:B$33)</f>
+        <v>5.3940491403983577</v>
+      </c>
+      <c r="C37" s="35">
+        <f t="shared" si="2"/>
+        <v>5.5335304894271031</v>
+      </c>
+      <c r="D37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" s="35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" s="35">
+        <f t="shared" si="2"/>
+        <v>0.31800791225701358</v>
+      </c>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="35" t="e">
-        <f>MEDIAN(B$2:B$32)</f>
+      <c r="B38" s="35">
+        <f t="shared" ref="B38:V38" si="3">MEDIAN(B$2:B$33)</f>
+        <v>15</v>
+      </c>
+      <c r="C38" s="35">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="C37" s="35" t="e">
-        <f>MEDIAN(C$2:C$32)</f>
+      <c r="E38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="D37" s="35" t="e">
-        <f>MEDIAN(D$2:D$32)</f>
+      <c r="F38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="E37" s="35" t="e">
-        <f>MEDIAN(E$2:E$32)</f>
+      <c r="G38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="F37" s="35" t="e">
-        <f>MEDIAN(F$2:F$32)</f>
+      <c r="H38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G37" s="35" t="e">
-        <f>MEDIAN(G$2:G$32)</f>
+      <c r="I38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="H37" s="35" t="e">
-        <f>MEDIAN(H$2:H$32)</f>
+      <c r="J38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="I37" s="35" t="e">
-        <f>MEDIAN(I$2:I$32)</f>
+      <c r="K38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="J37" s="35" t="e">
-        <f>MEDIAN(J$2:J$32)</f>
+      <c r="L38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="K37" s="35" t="e">
-        <f>MEDIAN(K$2:K$32)</f>
+      <c r="M38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L37" s="35" t="e">
-        <f>MEDIAN(L$2:L$32)</f>
+      <c r="N38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="M37" s="35" t="e">
-        <f>MEDIAN(M$2:M$32)</f>
+      <c r="O38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="N37" s="35" t="e">
-        <f>MEDIAN(N$2:N$32)</f>
+      <c r="P38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="O37" s="35" t="e">
-        <f>MEDIAN(O$2:O$32)</f>
+      <c r="Q38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="P37" s="35" t="e">
-        <f>MEDIAN(P$2:P$32)</f>
+      <c r="R38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q37" s="35" t="e">
-        <f>MEDIAN(Q$2:Q$32)</f>
+      <c r="S38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="R37" s="35" t="e">
-        <f>MEDIAN(R$2:R$32)</f>
+      <c r="T38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="S37" s="35" t="e">
-        <f>MEDIAN(S$2:S$32)</f>
+      <c r="U38" s="35" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="T37" s="35" t="e">
-        <f>MEDIAN(T$2:T$32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="U37" s="35" t="e">
-        <f>MEDIAN(U$2:U$32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V37" s="35" t="e">
-        <f>MEDIAN(V$2:V$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W37"/>
-    </row>
-    <row r="38" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="37" t="s">
+      <c r="V38" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="38">
-        <f>IF(SUM(B2:B32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="38">
-        <f>IF(SUM(C2:C32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="38">
-        <f>IF(SUM(D2:D32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="38">
-        <f>IF(SUM(E2:E32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="38">
-        <f>IF(SUM(F2:F32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="38">
-        <f>IF(SUM(G2:G32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="38">
-        <f>IF(SUM(H2:H32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="38">
-        <f>IF(SUM(I2:I32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="38">
-        <f>IF(SUM(J2:J32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="38">
-        <f>IF(SUM(K2:K32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="38">
-        <f>IF(SUM(L2:L32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="38">
-        <f>IF(SUM(M2:M32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="38">
-        <f>IF(SUM(N2:N32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="38">
-        <f>IF(SUM(O2:O32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="38">
-        <f>IF(SUM(P2:P32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="38">
-        <f>IF(SUM(Q2:Q32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="38">
-        <f>IF(SUM(R2:R32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="38">
-        <f>IF(SUM(S2:S32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T38" s="38">
-        <f>IF(SUM(T2:T32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="38">
-        <f>IF(SUM(U2:U32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="38" t="e">
-        <f>IF(SUM(V2:V32)&gt;0,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W38"/>
-    </row>
-    <row r="39" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B39" s="38">
+        <f t="shared" ref="B39:V39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40"/>
+    </row>
     <row r="41" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42"/>
-    </row>
+    <row r="42" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43"/>
     </row>
@@ -2507,10 +2665,10 @@
     <row r="56" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58"/>
     </row>
     <row r="59" spans="2:2" ht="14" x14ac:dyDescent="0.15">
@@ -2737,6 +2895,9 @@
     </row>
     <row r="133" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B134"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -2746,12 +2907,15 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="V6 V7:V33" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -2817,7 +2981,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
       <c r="L2" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B2/$B$34+C2/$C$34+D2/$D$34+E2/$E$34+F2/$F$34+G2/$G$34+H2/$H$34+I2/$I$34+J2/$J$34+K2/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2836,7 +3000,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B3/$B$34+C3/$C$34+D3/$D$34+E3/$E$34+F3/$F$34+G3/$G$34+H3/$H$34+I3/$I$34+J3/$J$34+K3/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B3/$B$35+C3/$C$35+D3/$D$35+E3/$E$35+F3/$F$35+G3/$G$35+H3/$H$35+I3/$I$35+J3/$J$35+K3/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2855,7 +3019,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B4/$B$34+C4/$C$34+D4/$D$34+E4/$E$34+F4/$F$34+G4/$G$34+H4/$H$34+I4/$I$34+J4/$J$34+K4/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B4/$B$35+C4/$C$35+D4/$D$35+E4/$E$35+F4/$F$35+G4/$G$35+H4/$H$35+I4/$I$35+J4/$J$35+K4/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2874,7 +3038,7 @@
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B5/$B$34+C5/$C$34+D5/$D$34+E5/$E$34+F5/$F$34+G5/$G$34+H5/$H$34+I5/$I$34+J5/$J$34+K5/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B5/$B$35+C5/$C$35+D5/$D$35+E5/$E$35+F5/$F$35+G5/$G$35+H5/$H$35+I5/$I$35+J5/$J$35+K5/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2893,7 +3057,7 @@
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B6/$B$34+C6/$C$34+D6/$D$34+E6/$E$34+F6/$F$34+G6/$G$34+H6/$H$34+I6/$I$34+J6/$J$34+K6/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B6/$B$35+C6/$C$35+D6/$D$35+E6/$E$35+F6/$F$35+G6/$G$35+H6/$H$35+I6/$I$35+J6/$J$35+K6/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2912,7 +3076,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B7/$B$34+C7/$C$34+D7/$D$34+E7/$E$34+F7/$F$34+G7/$G$34+H7/$H$34+I7/$I$34+J7/$J$34+K7/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B7/$B$35+C7/$C$35+D7/$D$35+E7/$E$35+F7/$F$35+G7/$G$35+H7/$H$35+I7/$I$35+J7/$J$35+K7/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2931,7 +3095,7 @@
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
       <c r="L8" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B8/$B$34+C8/$C$34+D8/$D$34+E8/$E$34+F8/$F$34+G8/$G$34+H8/$H$34+I8/$I$34+J8/$J$34+K8/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B8/$B$35+C8/$C$35+D8/$D$35+E8/$E$35+F8/$F$35+G8/$G$35+H8/$H$35+I8/$I$35+J8/$J$35+K8/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2950,7 +3114,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B9/$B$34+C9/$C$34+D9/$D$34+E9/$E$34+F9/$F$34+G9/$G$34+H9/$H$34+I9/$I$34+J9/$J$34+K9/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B9/$B$35+C9/$C$35+D9/$D$35+E9/$E$35+F9/$F$35+G9/$G$35+H9/$H$35+I9/$I$35+J9/$J$35+K9/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +3133,7 @@
       <c r="J10" s="48"/>
       <c r="K10" s="48"/>
       <c r="L10" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B10/$B$34+C10/$C$34+D10/$D$34+E10/$E$34+F10/$F$34+G10/$G$34+H10/$H$34+I10/$I$34+J10/$J$34+K10/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B10/$B$35+C10/$C$35+D10/$D$35+E10/$E$35+F10/$F$35+G10/$G$35+H10/$H$35+I10/$I$35+J10/$J$35+K10/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2988,7 +3152,7 @@
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B11/$B$34+C11/$C$34+D11/$D$34+E11/$E$34+F11/$F$34+G11/$G$34+H11/$H$34+I11/$I$34+J11/$J$34+K11/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B11/$B$35+C11/$C$35+D11/$D$35+E11/$E$35+F11/$F$35+G11/$G$35+H11/$H$35+I11/$I$35+J11/$J$35+K11/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3007,7 +3171,7 @@
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B12/$B$34+C12/$C$34+D12/$D$34+E12/$E$34+F12/$F$34+G12/$G$34+H12/$H$34+I12/$I$34+J12/$J$34+K12/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B12/$B$35+C12/$C$35+D12/$D$35+E12/$E$35+F12/$F$35+G12/$G$35+H12/$H$35+I12/$I$35+J12/$J$35+K12/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3026,7 +3190,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
       <c r="L13" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B13/$B$34+C13/$C$34+D13/$D$34+E13/$E$34+F13/$F$34+G13/$G$34+H13/$H$34+I13/$I$34+J13/$J$34+K13/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B13/$B$35+C13/$C$35+D13/$D$35+E13/$E$35+F13/$F$35+G13/$G$35+H13/$H$35+I13/$I$35+J13/$J$35+K13/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3045,7 +3209,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B14/$B$34+C14/$C$34+D14/$D$34+E14/$E$34+F14/$F$34+G14/$G$34+H14/$H$34+I14/$I$34+J14/$J$34+K14/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B14/$B$35+C14/$C$35+D14/$D$35+E14/$E$35+F14/$F$35+G14/$G$35+H14/$H$35+I14/$I$35+J14/$J$35+K14/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3064,7 +3228,7 @@
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
       <c r="L15" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B15/$B$34+C15/$C$34+D15/$D$34+E15/$E$34+F15/$F$34+G15/$G$34+H15/$H$34+I15/$I$34+J15/$J$34+K15/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B15/$B$35+C15/$C$35+D15/$D$35+E15/$E$35+F15/$F$35+G15/$G$35+H15/$H$35+I15/$I$35+J15/$J$35+K15/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3083,7 +3247,7 @@
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B16/$B$34+C16/$C$34+D16/$D$34+E16/$E$34+F16/$F$34+G16/$G$34+H16/$H$34+I16/$I$34+J16/$J$34+K16/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B16/$B$35+C16/$C$35+D16/$D$35+E16/$E$35+F16/$F$35+G16/$G$35+H16/$H$35+I16/$I$35+J16/$J$35+K16/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3102,7 +3266,7 @@
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B17/$B$34+C17/$C$34+D17/$D$34+E17/$E$34+F17/$F$34+G17/$G$34+H17/$H$34+I17/$I$34+J17/$J$34+K17/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B17/$B$35+C17/$C$35+D17/$D$35+E17/$E$35+F17/$F$35+G17/$G$35+H17/$H$35+I17/$I$35+J17/$J$35+K17/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3121,7 +3285,7 @@
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
       <c r="L18" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B18/$B$34+C18/$C$34+D18/$D$34+E18/$E$34+F18/$F$34+G18/$G$34+H18/$H$34+I18/$I$34+J18/$J$34+K18/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B18/$B$35+C18/$C$35+D18/$D$35+E18/$E$35+F18/$F$35+G18/$G$35+H18/$H$35+I18/$I$35+J18/$J$35+K18/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3140,7 +3304,7 @@
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B19/$B$34+C19/$C$34+D19/$D$34+E19/$E$34+F19/$F$34+G19/$G$34+H19/$H$34+I19/$I$34+J19/$J$34+K19/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B19/$B$35+C19/$C$35+D19/$D$35+E19/$E$35+F19/$F$35+G19/$G$35+H19/$H$35+I19/$I$35+J19/$J$35+K19/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3159,7 +3323,7 @@
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B20/$B$34+C20/$C$34+D20/$D$34+E20/$E$34+F20/$F$34+G20/$G$34+H20/$H$34+I20/$I$34+J20/$J$34+K20/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B20/$B$35+C20/$C$35+D20/$D$35+E20/$E$35+F20/$F$35+G20/$G$35+H20/$H$35+I20/$I$35+J20/$J$35+K20/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3178,7 +3342,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B21/$B$34+C21/$C$34+D21/$D$34+E21/$E$34+F21/$F$34+G21/$G$34+H21/$H$34+I21/$I$34+J21/$J$34+K21/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B21/$B$35+C21/$C$35+D21/$D$35+E21/$E$35+F21/$F$35+G21/$G$35+H21/$H$35+I21/$I$35+J21/$J$35+K21/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3197,7 +3361,7 @@
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
       <c r="L22" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B22/$B$34+C22/$C$34+D22/$D$34+E22/$E$34+F22/$F$34+G22/$G$34+H22/$H$34+I22/$I$34+J22/$J$34+K22/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B22/$B$35+C22/$C$35+D22/$D$35+E22/$E$35+F22/$F$35+G22/$G$35+H22/$H$35+I22/$I$35+J22/$J$35+K22/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3380,7 @@
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
       <c r="L23" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B23/$B$34+C23/$C$34+D23/$D$34+E23/$E$34+F23/$F$34+G23/$G$34+H23/$H$34+I23/$I$34+J23/$J$34+K23/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B23/$B$35+C23/$C$35+D23/$D$35+E23/$E$35+F23/$F$35+G23/$G$35+H23/$H$35+I23/$I$35+J23/$J$35+K23/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3235,7 +3399,7 @@
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
       <c r="L24" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B24/$B$34+C24/$C$34+D24/$D$34+E24/$E$34+F24/$F$34+G24/$G$34+H24/$H$34+I24/$I$34+J24/$J$34+K24/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B24/$B$35+C24/$C$35+D24/$D$35+E24/$E$35+F24/$F$35+G24/$G$35+H24/$H$35+I24/$I$35+J24/$J$35+K24/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3254,13 +3418,13 @@
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
       <c r="L25" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B25/$B$34+C25/$C$34+D25/$D$34+E25/$E$34+F25/$F$34+G25/$G$34+H25/$H$34+I25/$I$34+J25/$J$34+K25/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B25/$B$35+C25/$C$35+D25/$D$35+E25/$E$35+F25/$F$35+G25/$G$35+H25/$H$35+I25/$I$35+J25/$J$35+K25/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
-        <v>8695</v>
+        <v>8688</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="48"/>
@@ -3273,13 +3437,13 @@
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B26/$B$34+C26/$C$34+D26/$D$34+E26/$E$34+F26/$F$34+G26/$G$34+H26/$H$34+I26/$I$34+J26/$J$34+K26/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B26/$B$35+C26/$C$35+D26/$D$35+E26/$E$35+F26/$F$35+G26/$G$35+H26/$H$35+I26/$I$35+J26/$J$35+K26/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
-        <v>8743</v>
+        <v>8695</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="48"/>
@@ -3292,13 +3456,13 @@
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
       <c r="L27" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B27/$B$34+C27/$C$34+D27/$D$34+E27/$E$34+F27/$F$34+G27/$G$34+H27/$H$34+I27/$I$34+J27/$J$34+K27/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B27/$B$35+C27/$C$35+D27/$D$35+E27/$E$35+F27/$F$35+G27/$G$35+H27/$H$35+I27/$I$35+J27/$J$35+K27/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
-        <v>8745</v>
+        <v>8743</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="48"/>
@@ -3311,13 +3475,13 @@
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
       <c r="L28" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B28/$B$34+C28/$C$34+D28/$D$34+E28/$E$34+F28/$F$34+G28/$G$34+H28/$H$34+I28/$I$34+J28/$J$34+K28/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B28/$B$35+C28/$C$35+D28/$D$35+E28/$E$35+F28/$F$35+G28/$G$35+H28/$H$35+I28/$I$35+J28/$J$35+K28/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
-        <v>9550</v>
+        <v>8745</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="48"/>
@@ -3330,13 +3494,13 @@
       <c r="J29" s="48"/>
       <c r="K29" s="48"/>
       <c r="L29" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B29/$B$34+C29/$C$34+D29/$D$34+E29/$E$34+F29/$F$34+G29/$G$34+H29/$H$34+I29/$I$34+J29/$J$34+K29/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B29/$B$35+C29/$C$35+D29/$D$35+E29/$E$35+F29/$F$35+G29/$G$35+H29/$H$35+I29/$I$35+J29/$J$35+K29/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
-        <v>9610</v>
+        <v>9550</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="48"/>
@@ -3349,13 +3513,13 @@
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
       <c r="L30" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B30/$B$34+C30/$C$34+D30/$D$34+E30/$E$34+F30/$F$34+G30/$G$34+H30/$H$34+I30/$I$34+J30/$J$34+K30/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B30/$B$35+C30/$C$35+D30/$D$35+E30/$E$35+F30/$F$35+G30/$G$35+H30/$H$35+I30/$I$35+J30/$J$35+K30/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
-        <v>9611</v>
+        <v>9610</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="48"/>
@@ -3368,13 +3532,13 @@
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
       <c r="L31" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B31/$B$34+C31/$C$34+D31/$D$34+E31/$E$34+F31/$F$34+G31/$G$34+H31/$H$34+I31/$I$34+J31/$J$34+K31/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B31/$B$35+C31/$C$35+D31/$D$35+E31/$E$35+F31/$F$35+G31/$G$35+H31/$H$35+I31/$I$35+J31/$J$35+K31/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
-        <v>9674</v>
+        <v>9611</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="48"/>
@@ -3387,267 +3551,285 @@
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="39">
-        <f>IF(SUM($B$38:$K$38)&gt;0,1.5*(B32/$B$34+C32/$C$34+D32/$D$34+E32/$E$34+F32/$F$34+G32/$G$34+H32/$H$34+I32/$I$34+J32/$J$34+K32/$K$34)/SUM($B$38:$K$38),0)</f>
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B32/$B$35+C32/$C$35+D32/$D$35+E32/$E$35+F32/$F$35+G32/$G$35+H32/$H$35+I32/$I$35+J32/$J$35+K32/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="A33" s="29">
+        <v>9674</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="39">
+        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B33/$B$35+C33/$C$35+D33/$D$35+E33/$E$35+F33/$F$35+G33/$G$35+H33/$H$35+I33/$I$35+J33/$J$35+K33/$K$35)/SUM($B$39:$K$39),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B35" s="45">
         <v>100</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C35" s="45">
         <v>30</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D35" s="45">
         <v>100</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E35" s="45">
         <v>100</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F35" s="45">
         <v>100</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G35" s="45">
         <v>100</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H35" s="45">
         <v>100</v>
       </c>
-      <c r="I34" s="45">
+      <c r="I35" s="45">
         <v>100</v>
       </c>
-      <c r="J34" s="45">
+      <c r="J35" s="45">
         <v>100</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K35" s="45">
         <v>100</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L35" s="33">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="35" t="e">
-        <f>AVERAGE(B$2:B$32)</f>
+      <c r="B36" s="35" t="e">
+        <f t="shared" ref="B36:L36" si="0">AVERAGE(B$2:B$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C35" s="35" t="e">
-        <f>AVERAGE(C$2:C$32)</f>
+      <c r="C36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="35" t="e">
-        <f>AVERAGE(D$2:D$32)</f>
+      <c r="D36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="35" t="e">
-        <f>AVERAGE(E$2:E$32)</f>
+      <c r="E36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="35" t="e">
-        <f>AVERAGE(F$2:F$32)</f>
+      <c r="F36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="35" t="e">
-        <f>AVERAGE(G$2:G$32)</f>
+      <c r="G36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="35" t="e">
-        <f>AVERAGE(H$2:H$32)</f>
+      <c r="H36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="35" t="e">
-        <f>AVERAGE(I$2:I$32)</f>
+      <c r="I36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="35" t="e">
-        <f>AVERAGE(J$2:J$32)</f>
+      <c r="J36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="35" t="e">
-        <f>AVERAGE(K$2:K$32)</f>
+      <c r="K36" s="35" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="35">
-        <f>AVERAGE(L$2:L$32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="35" t="e">
-        <f>STDEV(B$2:B$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C36" s="35" t="e">
-        <f>STDEV(C$2:C$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="35" t="e">
-        <f>STDEV(D$2:D$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="35" t="e">
-        <f>STDEV(E$2:E$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="35" t="e">
-        <f>STDEV(F$2:F$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="35" t="e">
-        <f>STDEV(G$2:G$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="35" t="e">
-        <f>STDEV(H$2:H$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="35" t="e">
-        <f>STDEV(I$2:I$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="35" t="e">
-        <f>STDEV(J$2:J$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="35" t="e">
-        <f>STDEV(K$2:K$32)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L36" s="35">
-        <f>STDEV(L$2:L$32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="35" t="e">
+        <f t="shared" ref="B37:L37" si="1">STDEV(B$2:B$33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="35" t="e">
-        <f>MEDIAN(B$2:B$32)</f>
+      <c r="B38" s="35" t="e">
+        <f t="shared" ref="B38:L38" si="2">MEDIAN(B$2:B$33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C37" s="35" t="e">
-        <f>MEDIAN(C$2:C$32)</f>
+      <c r="C38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D37" s="35" t="e">
-        <f>MEDIAN(D$2:D$32)</f>
+      <c r="D38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="E37" s="35" t="e">
-        <f>MEDIAN(E$2:E$32)</f>
+      <c r="E38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F37" s="35" t="e">
-        <f>MEDIAN(F$2:F$32)</f>
+      <c r="F38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="G37" s="35" t="e">
-        <f>MEDIAN(G$2:G$32)</f>
+      <c r="G38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="H37" s="35" t="e">
-        <f>MEDIAN(H$2:H$32)</f>
+      <c r="H38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="I37" s="35" t="e">
-        <f>MEDIAN(I$2:I$32)</f>
+      <c r="I38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="J37" s="35" t="e">
-        <f>MEDIAN(J$2:J$32)</f>
+      <c r="J38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K37" s="35" t="e">
-        <f>MEDIAN(K$2:K$32)</f>
+      <c r="K38" s="35" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="L37" s="35">
-        <f>MEDIAN(L$2:L$32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="37" t="s">
+      <c r="L38" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="38">
-        <f>IF(SUM(B2:B32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="38">
-        <f>IF(SUM(C2:C32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="38">
-        <f>IF(SUM(D2:D32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="38">
-        <f>IF(SUM(E2:E32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="38">
-        <f>IF(SUM(F2:F32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="38">
-        <f>IF(SUM(G2:G32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="38">
-        <f>IF(SUM(H2:H32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="38">
-        <f>IF(SUM(I2:I32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="38">
-        <f>IF(SUM(J2:J32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="38">
-        <f>IF(SUM(K2:K32)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="45"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="17"/>
-    </row>
-    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B39" s="38">
+        <f t="shared" ref="B39:K39" si="3">IF(SUM(B2:B33)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="45"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="17"/>
+    </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3660,12 +3842,13 @@
     <row r="49" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3675,7 +3858,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3932,7 +4115,7 @@
     </row>
     <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
-        <v>8695</v>
+        <v>8688</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
@@ -3940,7 +4123,7 @@
     </row>
     <row r="27" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
-        <v>8743</v>
+        <v>8695</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -3948,7 +4131,7 @@
     </row>
     <row r="28" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
-        <v>8745</v>
+        <v>8743</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -3956,7 +4139,7 @@
     </row>
     <row r="29" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
-        <v>9550</v>
+        <v>8745</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
@@ -3964,7 +4147,7 @@
     </row>
     <row r="30" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
-        <v>9610</v>
+        <v>9550</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -3972,7 +4155,7 @@
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
-        <v>9611</v>
+        <v>9610</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
@@ -3980,107 +4163,102 @@
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
-        <v>9674</v>
+        <v>9611</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="22"/>
     </row>
-    <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
+    <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="29">
+        <v>9674</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="22"/>
     </row>
-    <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B35" s="46">
         <v>100</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C35" s="46">
         <v>180</v>
       </c>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="47" t="e">
-        <f>AVERAGE(B$2:B$32)</f>
+      <c r="B36" s="47" t="e">
+        <f>AVERAGE(B$2:B$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C35" s="47" t="e">
-        <f>AVERAGE(C$2:C$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="47" t="e">
-        <f>STDEV(B$2:B$32)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="C36" s="47" t="e">
-        <f>STDEV(C$2:C$32)</f>
+        <f>AVERAGE(C$2:C$33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="47" t="e">
+        <f>STDEV(B$2:B$33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" s="47" t="e">
+        <f>STDEV(C$2:C$33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="47" t="e">
-        <f>MEDIAN(B$2:B$32)</f>
+      <c r="B38" s="47" t="e">
+        <f>MEDIAN(B$2:B$33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C37" s="47" t="e">
-        <f>MEDIAN(C$2:C$32)</f>
+      <c r="C38" s="47" t="e">
+        <f>MEDIAN(C$2:C$33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="15"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="17"/>
-    </row>
-    <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
       <c r="P39" s="22"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="17"/>
     </row>
     <row r="40" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="22"/>
@@ -4238,22 +4416,35 @@
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
     </row>
-    <row r="52" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="6:16" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+    </row>
     <row r="53" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-    </row>
-    <row r="55" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+    </row>
     <row r="56" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4266,9 +4457,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -4313,9 +4504,9 @@
       <c r="A2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="21" t="e">
+      <c r="B2" s="21">
         <f>Quiz!V2</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
@@ -4329,17 +4520,17 @@
         <f>Exams!C2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="21" t="e">
-        <f>$B2+$C2+($D2/$D$34)*3+($E2/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="21" t="e">
+      <c r="F2" s="21">
+        <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="19" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="19">
         <f>IF(G2&gt;4.75,1,0)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I2" s="28"/>
     </row>
@@ -4347,9 +4538,9 @@
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="21" t="e">
+      <c r="B3" s="21">
         <f>Quiz!V3</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
@@ -4363,26 +4554,26 @@
         <f>Exams!C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="21" t="e">
-        <f>$B3+$C3+($D3/$D$34)*3+($E3/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G3" s="21" t="e">
-        <f t="shared" ref="G3:G19" si="0">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" s="19" t="e">
-        <f t="shared" ref="H3:H19" si="1">IF(G3&gt;4.75,1,0)</f>
-        <v>#REF!</v>
+      <c r="F3" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
+        <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="21" t="e">
+      <c r="B4" s="21">
         <f>Quiz!V4</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="C4" s="20">
         <f>Homework!L4</f>
@@ -4396,26 +4587,26 @@
         <f>Exams!C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="21" t="e">
-        <f>$B4+$C4+($D4/$D$34)*3+($E4/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" s="21" t="e">
+      <c r="F4" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" s="19" t="e">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="21" t="e">
+      <c r="B5" s="21">
         <f>Quiz!V5</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
@@ -4429,26 +4620,26 @@
         <f>Exams!C5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="21" t="e">
-        <f>$B5+$C5+($D5/$D$34)*3+($E5/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G5" s="21" t="e">
+      <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" s="19" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>1019</v>
       </c>
-      <c r="B6" s="21" t="e">
+      <c r="B6" s="21">
         <f>Quiz!V6</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C6" s="20">
         <f>Homework!L6</f>
@@ -4462,26 +4653,26 @@
         <f>Exams!C6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="21" t="e">
-        <f>$B6+$C6+($D6/$D$34)*3+($E6/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="21" t="e">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>1395</v>
       </c>
-      <c r="B7" s="21" t="e">
+      <c r="B7" s="21">
         <f>Quiz!V7</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
@@ -4495,26 +4686,26 @@
         <f>Exams!C7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="21" t="e">
-        <f>$B7+$C7+($D7/$D$34)*3+($E7/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="21" t="e">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1506</v>
       </c>
-      <c r="B8" s="21" t="e">
+      <c r="B8" s="21">
         <f>Quiz!V8</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
@@ -4528,26 +4719,26 @@
         <f>Exams!C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="21" t="e">
-        <f>$B8+$C8+($D8/$D$34)*3+($E8/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="21" t="e">
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>2441</v>
       </c>
-      <c r="B9" s="21" t="e">
+      <c r="B9" s="21">
         <f>Quiz!V9</f>
-        <v>#REF!</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="20">
         <f>Homework!L9</f>
@@ -4561,26 +4752,26 @@
         <f>Exams!C9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="21" t="e">
-        <f>$B9+$C9+($D9/$D$34)*3+($E9/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="21" t="e">
+      <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="19" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>2564</v>
       </c>
-      <c r="B10" s="21" t="e">
+      <c r="B10" s="21">
         <f>Quiz!V10</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
@@ -4594,26 +4785,26 @@
         <f>Exams!C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21" t="e">
-        <f>$B10+$C10+($D10/$D$34)*3+($E10/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="21" t="e">
+      <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>2693</v>
       </c>
-      <c r="B11" s="21" t="e">
+      <c r="B11" s="21">
         <f>Quiz!V11</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="C11" s="20">
         <f>Homework!L11</f>
@@ -4627,26 +4818,26 @@
         <f>Exams!C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21" t="e">
-        <f>$B11+$C11+($D11/$D$34)*3+($E11/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="21" t="e">
+      <c r="F11" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="19" t="e">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
         <v>2771</v>
       </c>
-      <c r="B12" s="21" t="e">
+      <c r="B12" s="21">
         <f>Quiz!V12</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="C12" s="20">
         <f>Homework!L12</f>
@@ -4660,26 +4851,26 @@
         <f>Exams!C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21" t="e">
-        <f>$B12+$C12+($D12/$D$34)*3+($E12/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="21" t="e">
+      <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="19" t="e">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29">
         <v>2899</v>
       </c>
-      <c r="B13" s="21" t="e">
+      <c r="B13" s="21">
         <f>Quiz!V13</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
@@ -4693,26 +4884,26 @@
         <f>Exams!C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21" t="e">
-        <f>$B13+$C13+($D13/$D$34)*3+($E13/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="21" t="e">
+      <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
         <v>3517</v>
       </c>
-      <c r="B14" s="21" t="e">
+      <c r="B14" s="21">
         <f>Quiz!V14</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
@@ -4726,26 +4917,26 @@
         <f>Exams!C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21" t="e">
-        <f>$B14+$C14+($D14/$D$34)*3+($E14/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="21" t="e">
+      <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>4490</v>
       </c>
-      <c r="B15" s="21" t="e">
+      <c r="B15" s="21">
         <f>Quiz!V15</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C15" s="20">
         <f>Homework!L15</f>
@@ -4759,26 +4950,26 @@
         <f>Exams!C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="21" t="e">
-        <f>$B15+$C15+($D15/$D$34)*3+($E15/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="21" t="e">
+      <c r="F15" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>4582</v>
       </c>
-      <c r="B16" s="21" t="e">
+      <c r="B16" s="21">
         <f>Quiz!V16</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
@@ -4792,26 +4983,26 @@
         <f>Exams!C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="21" t="e">
-        <f>$B16+$C16+($D16/$D$34)*3+($E16/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="21" t="e">
+      <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>4622</v>
       </c>
-      <c r="B17" s="21" t="e">
+      <c r="B17" s="21">
         <f>Quiz!V17</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C17" s="20">
         <f>Homework!L17</f>
@@ -4825,26 +5016,26 @@
         <f>Exams!C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="21" t="e">
-        <f>$B17+$C17+($D17/$D$34)*3+($E17/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="21" t="e">
+      <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="19" t="e">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
         <v>5500</v>
       </c>
-      <c r="B18" s="21" t="e">
+      <c r="B18" s="21">
         <f>Quiz!V18</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
@@ -4858,26 +5049,26 @@
         <f>Exams!C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="21" t="e">
-        <f>$B18+$C18+($D18/100)*3+($E18/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="19" t="e">
+      <c r="F18" s="21">
+        <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29">
         <v>5687</v>
       </c>
-      <c r="B19" s="21" t="e">
+      <c r="B19" s="21">
         <f>Quiz!V19</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
@@ -4891,26 +5082,26 @@
         <f>Exams!C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="21" t="e">
-        <f>$B19+$C19+($D19/$D$34)*3+($E19/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="19" t="e">
+      <c r="F19" s="21">
+        <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>5711</v>
       </c>
-      <c r="B20" s="21" t="e">
+      <c r="B20" s="21">
         <f>Quiz!V20</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
@@ -4924,26 +5115,26 @@
         <f>Exams!C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="21" t="e">
-        <f>$B20+$C20+($D20/$D$34)*3+($E20/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="21" t="e">
-        <f t="shared" ref="G20:G32" si="2">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="19" t="e">
-        <f t="shared" ref="H20:H32" si="3">IF(G20&gt;4.75,1,0)</f>
-        <v>#REF!</v>
+      <c r="F20" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" ref="G20:G33" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" ref="H20:H33" si="5">IF(G20&gt;4.75,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>5810</v>
       </c>
-      <c r="B21" s="21" t="e">
+      <c r="B21" s="21">
         <f>Quiz!V21</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
@@ -4957,26 +5148,26 @@
         <f>Exams!C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="21" t="e">
-        <f>$B21+$C21+($D21/$D$34)*3+($E21/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="19" t="e">
+      <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>6347</v>
       </c>
-      <c r="B22" s="21" t="e">
+      <c r="B22" s="21">
         <f>Quiz!V22</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
@@ -4990,26 +5181,26 @@
         <f>Exams!C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="21" t="e">
-        <f>$B22+$C22+($D22/$D$34)*3+($E22/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="19" t="e">
+      <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>7905</v>
       </c>
-      <c r="B23" s="21" t="e">
+      <c r="B23" s="21">
         <f>Quiz!V23</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
@@ -5023,26 +5214,26 @@
         <f>Exams!C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="21" t="e">
-        <f>$B23+$C23+($D23/$D$34)*3+($E23/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="19" t="e">
+      <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
         <v>8335</v>
       </c>
-      <c r="B24" s="21" t="e">
+      <c r="B24" s="21">
         <f>Quiz!V24</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
@@ -5056,26 +5247,26 @@
         <f>Exams!C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="21" t="e">
-        <f>$B24+$C24+($D24/$D$34)*3+($E24/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="19" t="e">
+      <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="29">
         <v>8490</v>
       </c>
-      <c r="B25" s="21" t="e">
+      <c r="B25" s="21">
         <f>Quiz!V25</f>
-        <v>#REF!</v>
+        <v>0.6</v>
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
@@ -5089,26 +5280,26 @@
         <f>Exams!C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="21" t="e">
-        <f>$B25+$C25+($D25/$D$34)*3+($E25/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="19" t="e">
+      <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
-        <v>8695</v>
-      </c>
-      <c r="B26" s="21" t="e">
+        <v>8688</v>
+      </c>
+      <c r="B26" s="21">
         <f>Quiz!V26</f>
-        <v>#REF!</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="20">
         <f>Homework!L26</f>
@@ -5122,26 +5313,26 @@
         <f>Exams!C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="21" t="e">
-        <f>$B26+$C26+($D26/$D$34)*3+($E26/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="19" t="e">
+      <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" ref="H26:H33" si="7">IF(G26&gt;4.75,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
-        <v>8743</v>
-      </c>
-      <c r="B27" s="21" t="e">
+        <v>8695</v>
+      </c>
+      <c r="B27" s="21">
         <f>Quiz!V27</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
@@ -5155,26 +5346,26 @@
         <f>Exams!C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="21" t="e">
-        <f>$B27+$C27+($D27/$D$34)*3+($E27/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="19" t="e">
+      <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
-        <v>8745</v>
-      </c>
-      <c r="B28" s="21" t="e">
+        <v>8743</v>
+      </c>
+      <c r="B28" s="21">
         <f>Quiz!V28</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
@@ -5188,26 +5379,26 @@
         <f>Exams!C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="21" t="e">
-        <f>$B28+$C28+($D28/$D$34)*3+($E28/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="19" t="e">
+      <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
-        <v>9550</v>
-      </c>
-      <c r="B29" s="21" t="e">
+        <v>8745</v>
+      </c>
+      <c r="B29" s="21">
         <f>Quiz!V29</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
@@ -5221,26 +5412,26 @@
         <f>Exams!C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="21" t="e">
-        <f>$B29+$C29+($D29/$D$34)*3+($E29/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="19" t="e">
+      <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
-        <v>9610</v>
-      </c>
-      <c r="B30" s="21" t="e">
+        <v>9550</v>
+      </c>
+      <c r="B30" s="21">
         <f>Quiz!V30</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
@@ -5254,26 +5445,26 @@
         <f>Exams!C30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="21" t="e">
-        <f>$B30+$C30+($D30/$D$34)*3+($E30/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="19" t="e">
+      <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
-        <v>9611</v>
-      </c>
-      <c r="B31" s="21" t="e">
+        <v>9610</v>
+      </c>
+      <c r="B31" s="21">
         <f>Quiz!V31</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
@@ -5287,26 +5478,26 @@
         <f>Exams!C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="21" t="e">
-        <f>$B31+$C31+($D31/$D$34)*3+($E31/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="19" t="e">
+      <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
-        <v>9674</v>
-      </c>
-      <c r="B32" s="21" t="e">
+        <v>9611</v>
+      </c>
+      <c r="B32" s="21">
         <f>Quiz!V32</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
@@ -5320,160 +5511,190 @@
         <f>Exams!C32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="21" t="e">
-        <f>$B32+$C32+($D32/$D$34)*3+($E32/$E$34)*4.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="19" t="e">
+      <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="29">
+        <v>9674</v>
+      </c>
+      <c r="B33" s="21">
+        <f>Quiz!V33</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="20">
+        <f>Homework!L33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <f>Exams!B33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <f>Exams!C33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="51">
-        <f>Quiz!V34</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="51">
-        <f>Homework!L34</f>
+      <c r="B35" s="51">
+        <f>Quiz!V35</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="51">
+        <f>Homework!L35</f>
         <v>1.5</v>
       </c>
-      <c r="D34" s="32">
-        <f>Exams!B34</f>
+      <c r="D35" s="32">
+        <f>Exams!B35</f>
         <v>100</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E35" s="45">
         <v>100</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F35" s="45">
         <v>10</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G35" s="45">
         <v>10</v>
       </c>
-      <c r="H34" s="45" t="e">
-        <f>SUM(H2:H32)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="H35" s="45">
+        <f>SUM(H2:H33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="35" t="e">
-        <f>AVERAGE(B$2:B$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C35" s="35">
-        <f>AVERAGE(C$2:C$32)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="35">
-        <f>AVERAGE(D$2:D$32)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="35">
-        <f>AVERAGE(E$2:E$32)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="35" t="e">
-        <f>AVERAGE(F$2:F$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" s="35" t="e">
-        <f>AVERAGE(G$2:G$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="35" t="e">
-        <f>AVERAGE(H$2:H$32)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="35" t="e">
-        <f>STDEV(B$2:B$32)</f>
-        <v>#REF!</v>
+      <c r="B36" s="35">
+        <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
+        <v>0.83750000000000002</v>
       </c>
       <c r="C36" s="35">
-        <f>STDEV(C$2:C$32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D36" s="35">
-        <f>STDEV(D$2:D$32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E36" s="35">
-        <f>STDEV(E$2:E$32)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="35" t="e">
-        <f>STDEV(F$2:F$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G36" s="35" t="e">
-        <f>STDEV(G$2:G$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="35" t="e">
-        <f>STDEV(H$2:H$32)</f>
-        <v>#REF!</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <f t="shared" si="8"/>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="G36" s="35">
+        <f t="shared" si="8"/>
+        <v>0.828125</v>
+      </c>
+      <c r="H36" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="35">
+        <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
+        <v>0.31800791225701358</v>
+      </c>
+      <c r="C37" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <f t="shared" si="9"/>
+        <v>0.31800791225701358</v>
+      </c>
+      <c r="G37" s="35">
+        <f t="shared" si="9"/>
+        <v>0.32650087684513984</v>
+      </c>
+      <c r="H37" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="35" t="e">
-        <f>MEDIAN(B$2:B$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="35">
-        <f>MEDIAN(C$2:C$32)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="35">
-        <f>MEDIAN(D$2:D$32)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="35">
-        <f>MEDIAN(E$2:E$32)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="35" t="e">
-        <f>MEDIAN(F$2:F$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G37" s="35" t="e">
-        <f>MEDIAN(G$2:G$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="35" t="e">
-        <f>MEDIAN(H$2:H$32)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38"/>
+      <c r="B38" s="35">
+        <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39"/>
@@ -5514,7 +5735,7 @@
     <row r="51" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52"/>
     </row>
     <row r="53" spans="2:2" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -5529,7 +5750,7 @@
     <row r="56" spans="2:2" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
@@ -5759,6 +5980,9 @@
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B134"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3783B488-1002-2C43-8E7F-B6A125252D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901818C3-1A90-F549-AF01-F3F7DC0C6729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="900" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="10580" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1087,8 +1087,12 @@
       <c r="C2" s="59">
         <v>15</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="59">
+        <v>12</v>
+      </c>
+      <c r="E2" s="59">
+        <v>3</v>
+      </c>
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -1107,7 +1111,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="39">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1121,8 +1125,12 @@
       <c r="C3" s="59">
         <v>15</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="D3" s="59">
+        <v>12</v>
+      </c>
+      <c r="E3" s="59">
+        <v>8</v>
+      </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
@@ -1141,7 +1149,7 @@
       <c r="U3" s="49"/>
       <c r="V3" s="39">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1155,8 +1163,12 @@
       <c r="C4" s="59">
         <v>0</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="59">
+        <v>0</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0</v>
+      </c>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
@@ -1189,8 +1201,12 @@
       <c r="C5" s="59">
         <v>15</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="D5" s="59">
+        <v>12</v>
+      </c>
+      <c r="E5" s="59">
+        <v>15</v>
+      </c>
       <c r="F5" s="49"/>
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
@@ -1209,7 +1225,7 @@
       <c r="U5" s="49"/>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1223,8 +1239,12 @@
       <c r="C6" s="59">
         <v>15</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="59">
+        <v>15</v>
+      </c>
+      <c r="E6" s="59">
+        <v>15</v>
+      </c>
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -1257,8 +1277,8 @@
       <c r="C7" s="59">
         <v>15</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -1277,7 +1297,7 @@
       <c r="U7" s="49"/>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1291,8 +1311,12 @@
       <c r="C8" s="59">
         <v>15</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="D8" s="59">
+        <v>3</v>
+      </c>
+      <c r="E8" s="59">
+        <v>3</v>
+      </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -1311,7 +1335,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1325,8 +1349,12 @@
       <c r="C9" s="59">
         <v>0</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="59">
+        <v>3</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0</v>
+      </c>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
@@ -1345,7 +1373,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1359,8 +1387,12 @@
       <c r="C10" s="59">
         <v>15</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="59">
+        <v>3</v>
+      </c>
+      <c r="E10" s="59">
+        <v>15</v>
+      </c>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
@@ -1379,7 +1411,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1393,8 +1425,12 @@
       <c r="C11" s="59">
         <v>0</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="D11" s="59">
+        <v>0</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
@@ -1427,8 +1463,12 @@
       <c r="C12" s="59">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="59">
+        <v>3</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
@@ -1447,7 +1487,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1461,8 +1501,12 @@
       <c r="C13" s="59">
         <v>15</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="D13" s="59">
+        <v>0</v>
+      </c>
+      <c r="E13" s="59">
+        <v>3</v>
+      </c>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
@@ -1481,7 +1525,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1495,8 +1539,12 @@
       <c r="C14" s="59">
         <v>15</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="59">
+        <v>3</v>
+      </c>
+      <c r="E14" s="59">
+        <v>3</v>
+      </c>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
       <c r="H14" s="49"/>
@@ -1515,7 +1563,7 @@
       <c r="U14" s="49"/>
       <c r="V14" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1528,8 +1576,12 @@
       <c r="C15" s="59">
         <v>15</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="D15" s="59">
+        <v>15</v>
+      </c>
+      <c r="E15" s="59">
+        <v>15</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
       <c r="H15" s="49"/>
@@ -1562,8 +1614,12 @@
       <c r="C16" s="59">
         <v>15</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="D16" s="59">
+        <v>0</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0</v>
+      </c>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
@@ -1582,7 +1638,7 @@
       <c r="U16" s="49"/>
       <c r="V16" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1596,8 +1652,12 @@
       <c r="C17" s="59">
         <v>15</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="59">
+        <v>12</v>
+      </c>
+      <c r="E17" s="59">
+        <v>8</v>
+      </c>
       <c r="F17" s="49"/>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
@@ -1616,7 +1676,7 @@
       <c r="U17" s="49"/>
       <c r="V17" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1630,8 +1690,12 @@
       <c r="C18" s="59">
         <v>15</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="D18" s="59">
+        <v>3</v>
+      </c>
+      <c r="E18" s="59">
+        <v>12</v>
+      </c>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
@@ -1650,7 +1714,7 @@
       <c r="U18" s="49"/>
       <c r="V18" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1664,8 +1728,12 @@
       <c r="C19" s="59">
         <v>15</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+      <c r="D19" s="59">
+        <v>0</v>
+      </c>
+      <c r="E19" s="59">
+        <v>15</v>
+      </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
@@ -1684,7 +1752,7 @@
       <c r="U19" s="49"/>
       <c r="V19" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W19"/>
     </row>
@@ -1698,8 +1766,12 @@
       <c r="C20" s="59">
         <v>15</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
+      <c r="D20" s="59">
+        <v>3</v>
+      </c>
+      <c r="E20" s="59">
+        <v>3</v>
+      </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
@@ -1718,7 +1790,7 @@
       <c r="U20" s="49"/>
       <c r="V20" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W20"/>
     </row>
@@ -1732,8 +1804,12 @@
       <c r="C21" s="59">
         <v>15</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+      <c r="D21" s="59">
+        <v>12</v>
+      </c>
+      <c r="E21" s="59">
+        <v>12</v>
+      </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
       <c r="H21" s="49"/>
@@ -1752,7 +1828,7 @@
       <c r="U21" s="49"/>
       <c r="V21" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W21"/>
     </row>
@@ -1766,8 +1842,12 @@
       <c r="C22" s="59">
         <v>15</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+      <c r="D22" s="59">
+        <v>3</v>
+      </c>
+      <c r="E22" s="59">
+        <v>12</v>
+      </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
@@ -1786,7 +1866,7 @@
       <c r="U22" s="49"/>
       <c r="V22" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W22"/>
     </row>
@@ -1800,8 +1880,12 @@
       <c r="C23" s="59">
         <v>15</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="D23" s="59">
+        <v>12</v>
+      </c>
+      <c r="E23" s="59">
+        <v>3</v>
+      </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
@@ -1820,7 +1904,7 @@
       <c r="U23" s="49"/>
       <c r="V23" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W23"/>
     </row>
@@ -1834,8 +1918,12 @@
       <c r="C24" s="59">
         <v>15</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="D24" s="59">
+        <v>3</v>
+      </c>
+      <c r="E24" s="59">
+        <v>12</v>
+      </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
@@ -1854,7 +1942,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W24"/>
     </row>
@@ -1868,8 +1956,12 @@
       <c r="C25" s="59">
         <v>15</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="D25" s="59">
+        <v>12</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0</v>
+      </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
@@ -1888,7 +1980,7 @@
       <c r="U25" s="49"/>
       <c r="V25" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W25"/>
     </row>
@@ -1902,8 +1994,12 @@
       <c r="C26" s="59">
         <v>0</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="D26" s="59">
+        <v>15</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0</v>
+      </c>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
@@ -1936,8 +2032,12 @@
       <c r="C27" s="59">
         <v>15</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="D27" s="59">
+        <v>3</v>
+      </c>
+      <c r="E27" s="59">
+        <v>15</v>
+      </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
@@ -1956,7 +2056,7 @@
       <c r="U27" s="49"/>
       <c r="V27" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W27"/>
     </row>
@@ -1970,8 +2070,12 @@
       <c r="C28" s="59">
         <v>15</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="D28" s="59">
+        <v>3</v>
+      </c>
+      <c r="E28" s="59">
+        <v>3</v>
+      </c>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
@@ -1990,7 +2094,7 @@
       <c r="U28" s="49"/>
       <c r="V28" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2004,8 +2108,12 @@
       <c r="C29" s="59">
         <v>15</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="D29" s="59">
+        <v>12</v>
+      </c>
+      <c r="E29" s="59">
+        <v>15</v>
+      </c>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
@@ -2024,7 +2132,7 @@
       <c r="U29" s="49"/>
       <c r="V29" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2038,8 +2146,12 @@
       <c r="C30" s="59">
         <v>15</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="D30" s="59">
+        <v>3</v>
+      </c>
+      <c r="E30" s="59">
+        <v>3</v>
+      </c>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
@@ -2058,7 +2170,7 @@
       <c r="U30" s="49"/>
       <c r="V30" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2072,8 +2184,12 @@
       <c r="C31" s="59">
         <v>15</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="D31" s="59">
+        <v>3</v>
+      </c>
+      <c r="E31" s="59">
+        <v>3</v>
+      </c>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
@@ -2092,7 +2208,7 @@
       <c r="U31" s="49"/>
       <c r="V31" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2106,8 +2222,12 @@
       <c r="C32" s="59">
         <v>15</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
+      <c r="D32" s="59">
+        <v>3</v>
+      </c>
+      <c r="E32" s="59">
+        <v>3</v>
+      </c>
       <c r="F32" s="49"/>
       <c r="G32" s="49"/>
       <c r="H32" s="49"/>
@@ -2126,7 +2246,7 @@
       <c r="U32" s="49"/>
       <c r="V32" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2140,8 +2260,12 @@
       <c r="C33" s="59">
         <v>15</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="D33" s="59">
+        <v>8</v>
+      </c>
+      <c r="E33" s="59">
+        <v>12</v>
+      </c>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
@@ -2160,7 +2284,7 @@
       <c r="U33" s="49"/>
       <c r="V33" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2270,13 +2394,13 @@
         <f t="shared" si="1"/>
         <v>12.65625</v>
       </c>
-      <c r="D36" s="35" t="e">
+      <c r="D36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="35" t="e">
+        <v>6.161290322580645</v>
+      </c>
+      <c r="E36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.806451612903226</v>
       </c>
       <c r="F36" s="35" t="e">
         <f t="shared" si="1"/>
@@ -2344,7 +2468,7 @@
       </c>
       <c r="V36" s="35">
         <f t="shared" si="1"/>
-        <v>0.83750000000000002</v>
+        <v>0.62812500000000004</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2360,13 +2484,13 @@
         <f t="shared" si="2"/>
         <v>5.5335304894271031</v>
       </c>
-      <c r="D37" s="35" t="e">
+      <c r="D37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="35" t="e">
+        <v>5.2921122071346174</v>
+      </c>
+      <c r="E37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.9912122025441539</v>
       </c>
       <c r="F37" s="35" t="e">
         <f t="shared" si="2"/>
@@ -2434,7 +2558,7 @@
       </c>
       <c r="V37" s="35">
         <f t="shared" si="2"/>
-        <v>0.31800791225701358</v>
+        <v>0.25671754488048204</v>
       </c>
       <c r="W37"/>
     </row>
@@ -2450,13 +2574,13 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="D38" s="35" t="e">
+      <c r="D38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E38" s="35" t="e">
+        <v>3</v>
+      </c>
+      <c r="E38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="F38" s="35" t="e">
         <f t="shared" si="3"/>
@@ -2524,7 +2648,7 @@
       </c>
       <c r="V38" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W38"/>
     </row>
@@ -2542,11 +2666,11 @@
       </c>
       <c r="D39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="38">
         <f t="shared" si="4"/>
@@ -2981,7 +3105,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
       <c r="L2" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" ref="L2:L33" si="0">IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3000,7 +3124,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B3/$B$35+C3/$C$35+D3/$D$35+E3/$E$35+F3/$F$35+G3/$G$35+H3/$H$35+I3/$I$35+J3/$J$35+K3/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3019,7 +3143,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B4/$B$35+C4/$C$35+D4/$D$35+E4/$E$35+F4/$F$35+G4/$G$35+H4/$H$35+I4/$I$35+J4/$J$35+K4/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3038,7 +3162,7 @@
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B5/$B$35+C5/$C$35+D5/$D$35+E5/$E$35+F5/$F$35+G5/$G$35+H5/$H$35+I5/$I$35+J5/$J$35+K5/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3057,7 +3181,7 @@
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B6/$B$35+C6/$C$35+D6/$D$35+E6/$E$35+F6/$F$35+G6/$G$35+H6/$H$35+I6/$I$35+J6/$J$35+K6/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3076,7 +3200,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B7/$B$35+C7/$C$35+D7/$D$35+E7/$E$35+F7/$F$35+G7/$G$35+H7/$H$35+I7/$I$35+J7/$J$35+K7/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3219,7 @@
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
       <c r="L8" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B8/$B$35+C8/$C$35+D8/$D$35+E8/$E$35+F8/$F$35+G8/$G$35+H8/$H$35+I8/$I$35+J8/$J$35+K8/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3114,7 +3238,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B9/$B$35+C9/$C$35+D9/$D$35+E9/$E$35+F9/$F$35+G9/$G$35+H9/$H$35+I9/$I$35+J9/$J$35+K9/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3133,7 +3257,7 @@
       <c r="J10" s="48"/>
       <c r="K10" s="48"/>
       <c r="L10" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B10/$B$35+C10/$C$35+D10/$D$35+E10/$E$35+F10/$F$35+G10/$G$35+H10/$H$35+I10/$I$35+J10/$J$35+K10/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3152,7 +3276,7 @@
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B11/$B$35+C11/$C$35+D11/$D$35+E11/$E$35+F11/$F$35+G11/$G$35+H11/$H$35+I11/$I$35+J11/$J$35+K11/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3171,7 +3295,7 @@
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B12/$B$35+C12/$C$35+D12/$D$35+E12/$E$35+F12/$F$35+G12/$G$35+H12/$H$35+I12/$I$35+J12/$J$35+K12/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3314,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
       <c r="L13" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B13/$B$35+C13/$C$35+D13/$D$35+E13/$E$35+F13/$F$35+G13/$G$35+H13/$H$35+I13/$I$35+J13/$J$35+K13/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3209,7 +3333,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B14/$B$35+C14/$C$35+D14/$D$35+E14/$E$35+F14/$F$35+G14/$G$35+H14/$H$35+I14/$I$35+J14/$J$35+K14/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3228,7 +3352,7 @@
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
       <c r="L15" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B15/$B$35+C15/$C$35+D15/$D$35+E15/$E$35+F15/$F$35+G15/$G$35+H15/$H$35+I15/$I$35+J15/$J$35+K15/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3247,7 +3371,7 @@
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B16/$B$35+C16/$C$35+D16/$D$35+E16/$E$35+F16/$F$35+G16/$G$35+H16/$H$35+I16/$I$35+J16/$J$35+K16/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3266,7 +3390,7 @@
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B17/$B$35+C17/$C$35+D17/$D$35+E17/$E$35+F17/$F$35+G17/$G$35+H17/$H$35+I17/$I$35+J17/$J$35+K17/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3409,7 @@
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
       <c r="L18" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B18/$B$35+C18/$C$35+D18/$D$35+E18/$E$35+F18/$F$35+G18/$G$35+H18/$H$35+I18/$I$35+J18/$J$35+K18/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3304,7 +3428,7 @@
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B19/$B$35+C19/$C$35+D19/$D$35+E19/$E$35+F19/$F$35+G19/$G$35+H19/$H$35+I19/$I$35+J19/$J$35+K19/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3323,7 +3447,7 @@
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B20/$B$35+C20/$C$35+D20/$D$35+E20/$E$35+F20/$F$35+G20/$G$35+H20/$H$35+I20/$I$35+J20/$J$35+K20/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3342,7 +3466,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B21/$B$35+C21/$C$35+D21/$D$35+E21/$E$35+F21/$F$35+G21/$G$35+H21/$H$35+I21/$I$35+J21/$J$35+K21/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3361,7 +3485,7 @@
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
       <c r="L22" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B22/$B$35+C22/$C$35+D22/$D$35+E22/$E$35+F22/$F$35+G22/$G$35+H22/$H$35+I22/$I$35+J22/$J$35+K22/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3380,7 +3504,7 @@
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
       <c r="L23" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B23/$B$35+C23/$C$35+D23/$D$35+E23/$E$35+F23/$F$35+G23/$G$35+H23/$H$35+I23/$I$35+J23/$J$35+K23/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3399,7 +3523,7 @@
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
       <c r="L24" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B24/$B$35+C24/$C$35+D24/$D$35+E24/$E$35+F24/$F$35+G24/$G$35+H24/$H$35+I24/$I$35+J24/$J$35+K24/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3418,7 +3542,7 @@
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
       <c r="L25" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B25/$B$35+C25/$C$35+D25/$D$35+E25/$E$35+F25/$F$35+G25/$G$35+H25/$H$35+I25/$I$35+J25/$J$35+K25/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3437,7 +3561,7 @@
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B26/$B$35+C26/$C$35+D26/$D$35+E26/$E$35+F26/$F$35+G26/$G$35+H26/$H$35+I26/$I$35+J26/$J$35+K26/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3456,7 +3580,7 @@
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
       <c r="L27" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B27/$B$35+C27/$C$35+D27/$D$35+E27/$E$35+F27/$F$35+G27/$G$35+H27/$H$35+I27/$I$35+J27/$J$35+K27/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3475,7 +3599,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
       <c r="L28" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B28/$B$35+C28/$C$35+D28/$D$35+E28/$E$35+F28/$F$35+G28/$G$35+H28/$H$35+I28/$I$35+J28/$J$35+K28/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3618,7 @@
       <c r="J29" s="48"/>
       <c r="K29" s="48"/>
       <c r="L29" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B29/$B$35+C29/$C$35+D29/$D$35+E29/$E$35+F29/$F$35+G29/$G$35+H29/$H$35+I29/$I$35+J29/$J$35+K29/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3513,7 +3637,7 @@
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
       <c r="L30" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B30/$B$35+C30/$C$35+D30/$D$35+E30/$E$35+F30/$F$35+G30/$G$35+H30/$H$35+I30/$I$35+J30/$J$35+K30/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3532,7 +3656,7 @@
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
       <c r="L31" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B31/$B$35+C31/$C$35+D31/$D$35+E31/$E$35+F31/$F$35+G31/$G$35+H31/$H$35+I31/$I$35+J31/$J$35+K31/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +3675,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B32/$B$35+C32/$C$35+D32/$D$35+E32/$E$35+F32/$F$35+G32/$G$35+H32/$H$35+I32/$I$35+J32/$J$35+K32/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3570,7 +3694,7 @@
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
       <c r="L33" s="39">
-        <f>IF(SUM($B$39:$K$39)&gt;0,1.5*(B33/$B$35+C33/$C$35+D33/$D$35+E33/$E$35+F33/$F$35+G33/$G$35+H33/$H$35+I33/$I$35+J33/$J$35+K33/$K$35)/SUM($B$39:$K$39),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3630,47 +3754,47 @@
         <v>35</v>
       </c>
       <c r="B36" s="35" t="e">
-        <f t="shared" ref="B36:L36" si="0">AVERAGE(B$2:B$33)</f>
+        <f t="shared" ref="B36:L36" si="1">AVERAGE(B$2:B$33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3679,47 +3803,47 @@
         <v>36</v>
       </c>
       <c r="B37" s="35" t="e">
-        <f t="shared" ref="B37:L37" si="1">STDEV(B$2:B$33)</f>
+        <f t="shared" ref="B37:L37" si="2">STDEV(B$2:B$33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3728,47 +3852,47 @@
         <v>37</v>
       </c>
       <c r="B38" s="35" t="e">
-        <f t="shared" ref="B38:L38" si="2">MEDIAN(B$2:B$33)</f>
+        <f t="shared" ref="B38:L38" si="3">MEDIAN(B$2:B$33)</f>
         <v>#NUM!</v>
       </c>
       <c r="C38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="D38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="E38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="F38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="G38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="H38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="I38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="J38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="K38" s="35" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="L38" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3777,43 +3901,43 @@
         <v>38</v>
       </c>
       <c r="B39" s="38">
-        <f t="shared" ref="B39:K39" si="3">IF(SUM(B2:B33)&gt;0,1,0)</f>
+        <f t="shared" ref="B39:K39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="C39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K39" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L39" s="45"/>
@@ -4506,7 +4630,7 @@
       </c>
       <c r="B2" s="21">
         <f>Quiz!V2</f>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
@@ -4522,7 +4646,7 @@
       </c>
       <c r="F2" s="21">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4540,7 +4664,7 @@
       </c>
       <c r="B3" s="21">
         <f>Quiz!V3</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
@@ -4556,7 +4680,7 @@
       </c>
       <c r="F3" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4606,7 +4730,7 @@
       </c>
       <c r="B5" s="21">
         <f>Quiz!V5</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
@@ -4622,11 +4746,11 @@
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" si="2"/>
@@ -4672,7 +4796,7 @@
       </c>
       <c r="B7" s="21">
         <f>Quiz!V7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
@@ -4688,11 +4812,11 @@
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="2"/>
@@ -4705,7 +4829,7 @@
       </c>
       <c r="B8" s="21">
         <f>Quiz!V8</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
@@ -4721,11 +4845,11 @@
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="2"/>
@@ -4738,7 +4862,7 @@
       </c>
       <c r="B9" s="21">
         <f>Quiz!V9</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C9" s="20">
         <f>Homework!L9</f>
@@ -4754,7 +4878,7 @@
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="1"/>
@@ -4771,7 +4895,7 @@
       </c>
       <c r="B10" s="21">
         <f>Quiz!V10</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
@@ -4787,7 +4911,7 @@
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="1"/>
@@ -4837,7 +4961,7 @@
       </c>
       <c r="B12" s="21">
         <f>Quiz!V12</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C12" s="20">
         <f>Homework!L12</f>
@@ -4853,7 +4977,7 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="1"/>
@@ -4870,7 +4994,7 @@
       </c>
       <c r="B13" s="21">
         <f>Quiz!V13</f>
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
@@ -4886,11 +5010,11 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="2"/>
@@ -4903,7 +5027,7 @@
       </c>
       <c r="B14" s="21">
         <f>Quiz!V14</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
@@ -4919,11 +5043,11 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="2"/>
@@ -4969,7 +5093,7 @@
       </c>
       <c r="B16" s="21">
         <f>Quiz!V16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
@@ -4985,11 +5109,11 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="2"/>
@@ -5002,7 +5126,7 @@
       </c>
       <c r="B17" s="21">
         <f>Quiz!V17</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C17" s="20">
         <f>Homework!L17</f>
@@ -5018,7 +5142,7 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
@@ -5035,7 +5159,7 @@
       </c>
       <c r="B18" s="21">
         <f>Quiz!V18</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
@@ -5051,7 +5175,7 @@
       </c>
       <c r="F18" s="21">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
@@ -5068,7 +5192,7 @@
       </c>
       <c r="B19" s="21">
         <f>Quiz!V19</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
@@ -5084,7 +5208,7 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
@@ -5101,7 +5225,7 @@
       </c>
       <c r="B20" s="21">
         <f>Quiz!V20</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
@@ -5117,14 +5241,14 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G20" s="21">
-        <f t="shared" ref="G20:G33" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
+        <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
+        <v>0.5</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" ref="H20:H33" si="5">IF(G20&gt;4.75,1,0)</f>
+        <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5134,7 +5258,7 @@
       </c>
       <c r="B21" s="21">
         <f>Quiz!V21</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
@@ -5150,7 +5274,7 @@
       </c>
       <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="4"/>
@@ -5167,7 +5291,7 @@
       </c>
       <c r="B22" s="21">
         <f>Quiz!V22</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
@@ -5183,7 +5307,7 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
@@ -5200,7 +5324,7 @@
       </c>
       <c r="B23" s="21">
         <f>Quiz!V23</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
@@ -5216,7 +5340,7 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="4"/>
@@ -5233,7 +5357,7 @@
       </c>
       <c r="B24" s="21">
         <f>Quiz!V24</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
@@ -5249,7 +5373,7 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="4"/>
@@ -5266,7 +5390,7 @@
       </c>
       <c r="B25" s="21">
         <f>Quiz!V25</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
@@ -5282,7 +5406,7 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="4"/>
@@ -5332,7 +5456,7 @@
       </c>
       <c r="B27" s="21">
         <f>Quiz!V27</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
@@ -5348,7 +5472,7 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
@@ -5365,7 +5489,7 @@
       </c>
       <c r="B28" s="21">
         <f>Quiz!V28</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
@@ -5381,11 +5505,11 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="7"/>
@@ -5398,7 +5522,7 @@
       </c>
       <c r="B29" s="21">
         <f>Quiz!V29</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
@@ -5414,7 +5538,7 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="6"/>
@@ -5431,7 +5555,7 @@
       </c>
       <c r="B30" s="21">
         <f>Quiz!V30</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
@@ -5447,11 +5571,11 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="7"/>
@@ -5464,7 +5588,7 @@
       </c>
       <c r="B31" s="21">
         <f>Quiz!V31</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
@@ -5480,11 +5604,11 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="7"/>
@@ -5497,7 +5621,7 @@
       </c>
       <c r="B32" s="21">
         <f>Quiz!V32</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
@@ -5513,11 +5637,11 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="7"/>
@@ -5530,7 +5654,7 @@
       </c>
       <c r="B33" s="21">
         <f>Quiz!V33</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C33" s="20">
         <f>Homework!L33</f>
@@ -5546,7 +5670,7 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="6"/>
@@ -5603,7 +5727,7 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.83750000000000002</v>
+        <v>0.62812500000000004</v>
       </c>
       <c r="C36" s="35">
         <f t="shared" si="8"/>
@@ -5619,11 +5743,11 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="8"/>
-        <v>0.83750000000000002</v>
+        <v>0.62812500000000004</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="8"/>
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
       <c r="H36" s="35">
         <f t="shared" si="8"/>
@@ -5636,7 +5760,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.31800791225701358</v>
+        <v>0.25671754488048204</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" si="9"/>
@@ -5652,11 +5776,11 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="9"/>
-        <v>0.31800791225701358</v>
+        <v>0.25671754488048204</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="9"/>
-        <v>0.32650087684513984</v>
+        <v>0.32995600879804488</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="9"/>
@@ -5669,7 +5793,7 @@
       </c>
       <c r="B38" s="35">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C38" s="35">
         <f t="shared" si="10"/>
@@ -5685,11 +5809,11 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G38" s="35">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="35">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901818C3-1A90-F549-AF01-F3F7DC0C6729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006696CC-FCA9-CC4C-BA84-C1AC461CB532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="10580" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="3160" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -1093,7 +1093,9 @@
       <c r="E2" s="59">
         <v>3</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="18">
+        <v>3</v>
+      </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -1111,7 +1113,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="39">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1131,7 +1133,9 @@
       <c r="E3" s="59">
         <v>8</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="18">
+        <v>15</v>
+      </c>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
@@ -1149,7 +1153,7 @@
       <c r="U3" s="49"/>
       <c r="V3" s="39">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1169,7 +1173,9 @@
       <c r="E4" s="59">
         <v>0</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
@@ -1207,7 +1213,9 @@
       <c r="E5" s="59">
         <v>15</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
@@ -1225,7 +1233,7 @@
       <c r="U5" s="49"/>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1245,7 +1253,9 @@
       <c r="E6" s="59">
         <v>15</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="18">
+        <v>15</v>
+      </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
@@ -1279,7 +1289,9 @@
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="18">
+        <v>15</v>
+      </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
@@ -1297,7 +1309,7 @@
       <c r="U7" s="49"/>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1317,7 +1329,9 @@
       <c r="E8" s="59">
         <v>3</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
@@ -1335,7 +1349,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1355,7 +1369,9 @@
       <c r="E9" s="59">
         <v>0</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="18">
+        <v>3</v>
+      </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
       <c r="I9" s="49"/>
@@ -1373,7 +1389,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="39">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1393,7 +1409,9 @@
       <c r="E10" s="59">
         <v>15</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
       <c r="I10" s="49"/>
@@ -1411,7 +1429,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="39">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1431,7 +1449,9 @@
       <c r="E11" s="59">
         <v>0</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
@@ -1469,7 +1489,9 @@
       <c r="E12" s="59">
         <v>0</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="18">
+        <v>3</v>
+      </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
@@ -1487,7 +1509,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="39">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1507,7 +1529,9 @@
       <c r="E13" s="59">
         <v>3</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
@@ -1525,7 +1549,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="39">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1545,7 +1569,9 @@
       <c r="E14" s="59">
         <v>3</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
       <c r="G14" s="49"/>
       <c r="H14" s="49"/>
       <c r="I14" s="49"/>
@@ -1563,7 +1589,7 @@
       <c r="U14" s="49"/>
       <c r="V14" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1582,7 +1608,9 @@
       <c r="E15" s="59">
         <v>15</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="18">
+        <v>15</v>
+      </c>
       <c r="G15" s="49"/>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
@@ -1620,7 +1648,9 @@
       <c r="E16" s="59">
         <v>0</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="18">
+        <v>15</v>
+      </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
@@ -1638,7 +1668,7 @@
       <c r="U16" s="49"/>
       <c r="V16" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1658,7 +1688,9 @@
       <c r="E17" s="59">
         <v>8</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="18">
+        <v>12</v>
+      </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
@@ -1676,7 +1708,7 @@
       <c r="U17" s="49"/>
       <c r="V17" s="39">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1696,7 +1728,9 @@
       <c r="E18" s="59">
         <v>12</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="18">
+        <v>3</v>
+      </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -1714,7 +1748,7 @@
       <c r="U18" s="49"/>
       <c r="V18" s="39">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1734,7 +1768,9 @@
       <c r="E19" s="59">
         <v>15</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="18">
+        <v>3</v>
+      </c>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -1752,7 +1788,7 @@
       <c r="U19" s="49"/>
       <c r="V19" s="39">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="W19"/>
     </row>
@@ -1772,7 +1808,9 @@
       <c r="E20" s="59">
         <v>3</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
@@ -1790,7 +1828,7 @@
       <c r="U20" s="49"/>
       <c r="V20" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="W20"/>
     </row>
@@ -1810,7 +1848,9 @@
       <c r="E21" s="59">
         <v>12</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="18">
+        <v>3</v>
+      </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
@@ -1828,7 +1868,7 @@
       <c r="U21" s="49"/>
       <c r="V21" s="39">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="W21"/>
     </row>
@@ -1848,7 +1888,9 @@
       <c r="E22" s="59">
         <v>12</v>
       </c>
-      <c r="F22" s="49"/>
+      <c r="F22" s="18">
+        <v>15</v>
+      </c>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
@@ -1866,7 +1908,7 @@
       <c r="U22" s="49"/>
       <c r="V22" s="39">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="W22"/>
     </row>
@@ -1886,7 +1928,9 @@
       <c r="E23" s="59">
         <v>3</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="18">
+        <v>3</v>
+      </c>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
@@ -1904,7 +1948,7 @@
       <c r="U23" s="49"/>
       <c r="V23" s="39">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="W23"/>
     </row>
@@ -1924,7 +1968,9 @@
       <c r="E24" s="59">
         <v>12</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
@@ -1942,7 +1988,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="39">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W24"/>
     </row>
@@ -1962,7 +2008,9 @@
       <c r="E25" s="59">
         <v>0</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="18">
+        <v>3</v>
+      </c>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
@@ -1980,7 +2028,7 @@
       <c r="U25" s="49"/>
       <c r="V25" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2000,7 +2048,9 @@
       <c r="E26" s="59">
         <v>0</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="18">
+        <v>15</v>
+      </c>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
@@ -2018,7 +2068,7 @@
       <c r="U26" s="49"/>
       <c r="V26" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2038,7 +2088,9 @@
       <c r="E27" s="59">
         <v>15</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="18">
+        <v>3</v>
+      </c>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
@@ -2056,7 +2108,7 @@
       <c r="U27" s="49"/>
       <c r="V27" s="39">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2076,7 +2128,9 @@
       <c r="E28" s="59">
         <v>3</v>
       </c>
-      <c r="F28" s="49"/>
+      <c r="F28" s="18">
+        <v>3</v>
+      </c>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
@@ -2094,7 +2148,7 @@
       <c r="U28" s="49"/>
       <c r="V28" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2114,7 +2168,9 @@
       <c r="E29" s="59">
         <v>15</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="18">
+        <v>3</v>
+      </c>
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
@@ -2132,7 +2188,7 @@
       <c r="U29" s="49"/>
       <c r="V29" s="39">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2152,7 +2208,9 @@
       <c r="E30" s="59">
         <v>3</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="18">
+        <v>3</v>
+      </c>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
@@ -2170,7 +2228,7 @@
       <c r="U30" s="49"/>
       <c r="V30" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2190,7 +2248,9 @@
       <c r="E31" s="59">
         <v>3</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="18">
+        <v>3</v>
+      </c>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
@@ -2208,7 +2268,7 @@
       <c r="U31" s="49"/>
       <c r="V31" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2228,7 +2288,9 @@
       <c r="E32" s="59">
         <v>3</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="18">
+        <v>3</v>
+      </c>
       <c r="G32" s="49"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
@@ -2246,7 +2308,7 @@
       <c r="U32" s="49"/>
       <c r="V32" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2266,7 +2328,9 @@
       <c r="E33" s="59">
         <v>12</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="18">
+        <v>3</v>
+      </c>
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
       <c r="I33" s="49"/>
@@ -2284,7 +2348,7 @@
       <c r="U33" s="49"/>
       <c r="V33" s="39">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2402,9 +2466,9 @@
         <f t="shared" si="1"/>
         <v>6.806451612903226</v>
       </c>
-      <c r="F36" s="35" t="e">
+      <c r="F36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.25</v>
       </c>
       <c r="G36" s="35" t="e">
         <f t="shared" si="1"/>
@@ -2468,7 +2532,7 @@
       </c>
       <c r="V36" s="35">
         <f t="shared" si="1"/>
-        <v>0.62812500000000004</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2492,9 +2556,9 @@
         <f t="shared" si="2"/>
         <v>5.9912122025441539</v>
       </c>
-      <c r="F37" s="35" t="e">
+      <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.6511488983186187</v>
       </c>
       <c r="G37" s="35" t="e">
         <f t="shared" si="2"/>
@@ -2558,7 +2622,7 @@
       </c>
       <c r="V37" s="35">
         <f t="shared" si="2"/>
-        <v>0.25671754488048204</v>
+        <v>0.23908877192418526</v>
       </c>
       <c r="W37"/>
     </row>
@@ -2582,9 +2646,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F38" s="35" t="e">
+      <c r="F38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="G38" s="35" t="e">
         <f t="shared" si="3"/>
@@ -2674,7 +2738,7 @@
       </c>
       <c r="F39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" si="4"/>
@@ -4630,7 +4694,7 @@
       </c>
       <c r="B2" s="21">
         <f>Quiz!V2</f>
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
@@ -4646,7 +4710,7 @@
       </c>
       <c r="F2" s="21">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4664,7 +4728,7 @@
       </c>
       <c r="B3" s="21">
         <f>Quiz!V3</f>
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
@@ -4680,7 +4744,7 @@
       </c>
       <c r="F3" s="21">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4730,7 +4794,7 @@
       </c>
       <c r="B5" s="21">
         <f>Quiz!V5</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
@@ -4746,11 +4810,11 @@
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" si="2"/>
@@ -4796,7 +4860,7 @@
       </c>
       <c r="B7" s="21">
         <f>Quiz!V7</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
@@ -4812,7 +4876,7 @@
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
@@ -4829,7 +4893,7 @@
       </c>
       <c r="B8" s="21">
         <f>Quiz!V8</f>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
@@ -4845,7 +4909,7 @@
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
@@ -4862,7 +4926,7 @@
       </c>
       <c r="B9" s="21">
         <f>Quiz!V9</f>
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C9" s="20">
         <f>Homework!L9</f>
@@ -4878,7 +4942,7 @@
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="1"/>
@@ -4895,7 +4959,7 @@
       </c>
       <c r="B10" s="21">
         <f>Quiz!V10</f>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
@@ -4911,11 +4975,11 @@
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
@@ -4961,7 +5025,7 @@
       </c>
       <c r="B12" s="21">
         <f>Quiz!V12</f>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C12" s="20">
         <f>Homework!L12</f>
@@ -4977,7 +5041,7 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="1"/>
@@ -4994,7 +5058,7 @@
       </c>
       <c r="B13" s="21">
         <f>Quiz!V13</f>
-        <v>0.55000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
@@ -5010,7 +5074,7 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
@@ -5027,7 +5091,7 @@
       </c>
       <c r="B14" s="21">
         <f>Quiz!V14</f>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
@@ -5043,7 +5107,7 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
@@ -5093,7 +5157,7 @@
       </c>
       <c r="B16" s="21">
         <f>Quiz!V16</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
@@ -5109,7 +5173,7 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
@@ -5126,7 +5190,7 @@
       </c>
       <c r="B17" s="21">
         <f>Quiz!V17</f>
-        <v>0.83333333333333337</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="C17" s="20">
         <f>Homework!L17</f>
@@ -5142,7 +5206,7 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
@@ -5159,7 +5223,7 @@
       </c>
       <c r="B18" s="21">
         <f>Quiz!V18</f>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
@@ -5175,11 +5239,11 @@
       </c>
       <c r="F18" s="21">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="2"/>
@@ -5192,7 +5256,7 @@
       </c>
       <c r="B19" s="21">
         <f>Quiz!V19</f>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
@@ -5208,11 +5272,11 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="2"/>
@@ -5225,7 +5289,7 @@
       </c>
       <c r="B20" s="21">
         <f>Quiz!V20</f>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
@@ -5241,7 +5305,7 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5258,7 +5322,7 @@
       </c>
       <c r="B21" s="21">
         <f>Quiz!V21</f>
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
@@ -5274,7 +5338,7 @@
       </c>
       <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="4"/>
@@ -5291,7 +5355,7 @@
       </c>
       <c r="B22" s="21">
         <f>Quiz!V22</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
@@ -5307,7 +5371,7 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
@@ -5324,7 +5388,7 @@
       </c>
       <c r="B23" s="21">
         <f>Quiz!V23</f>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
@@ -5340,11 +5404,11 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="5"/>
@@ -5357,7 +5421,7 @@
       </c>
       <c r="B24" s="21">
         <f>Quiz!V24</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
@@ -5373,11 +5437,11 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" si="5"/>
@@ -5390,7 +5454,7 @@
       </c>
       <c r="B25" s="21">
         <f>Quiz!V25</f>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
@@ -5406,7 +5470,7 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="4"/>
@@ -5423,7 +5487,7 @@
       </c>
       <c r="B26" s="21">
         <f>Quiz!V26</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C26" s="20">
         <f>Homework!L26</f>
@@ -5439,7 +5503,7 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5456,7 +5520,7 @@
       </c>
       <c r="B27" s="21">
         <f>Quiz!V27</f>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
@@ -5472,11 +5536,11 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="7"/>
@@ -5489,7 +5553,7 @@
       </c>
       <c r="B28" s="21">
         <f>Quiz!V28</f>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
@@ -5505,7 +5569,7 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
@@ -5522,7 +5586,7 @@
       </c>
       <c r="B29" s="21">
         <f>Quiz!V29</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
@@ -5538,7 +5602,7 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="6"/>
@@ -5555,7 +5619,7 @@
       </c>
       <c r="B30" s="21">
         <f>Quiz!V30</f>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
@@ -5571,7 +5635,7 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="6"/>
@@ -5588,7 +5652,7 @@
       </c>
       <c r="B31" s="21">
         <f>Quiz!V31</f>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
@@ -5604,7 +5668,7 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="6"/>
@@ -5621,7 +5685,7 @@
       </c>
       <c r="B32" s="21">
         <f>Quiz!V32</f>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
@@ -5637,7 +5701,7 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="6"/>
@@ -5654,7 +5718,7 @@
       </c>
       <c r="B33" s="21">
         <f>Quiz!V33</f>
-        <v>0.83333333333333337</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="C33" s="20">
         <f>Homework!L33</f>
@@ -5670,11 +5734,11 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="7"/>
@@ -5727,7 +5791,7 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.62812500000000004</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="C36" s="35">
         <f t="shared" si="8"/>
@@ -5743,11 +5807,11 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="8"/>
-        <v>0.62812500000000004</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="8"/>
-        <v>0.6875</v>
+        <v>0.5625</v>
       </c>
       <c r="H36" s="35">
         <f t="shared" si="8"/>
@@ -5760,7 +5824,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.25671754488048204</v>
+        <v>0.23908877192418526</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" si="9"/>
@@ -5776,11 +5840,11 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="9"/>
-        <v>0.25671754488048204</v>
+        <v>0.23908877192418526</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="9"/>
-        <v>0.32995600879804488</v>
+        <v>0.27679035970533089</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="9"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006696CC-FCA9-CC4C-BA84-C1AC461CB532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AAA75B-522A-244B-8054-797E85BF9464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="3160" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
   <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1096,7 +1096,9 @@
       <c r="F2" s="18">
         <v>3</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="18">
+        <v>3</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -1113,7 +1115,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="39">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.48</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1136,7 +1138,9 @@
       <c r="F3" s="18">
         <v>15</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="18">
+        <v>3</v>
+      </c>
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
@@ -1153,7 +1157,7 @@
       <c r="U3" s="49"/>
       <c r="V3" s="39">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.8666666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1176,7 +1180,9 @@
       <c r="F4" s="18">
         <v>0</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -1216,7 +1222,9 @@
       <c r="F5" s="18">
         <v>0</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="18">
+        <v>3</v>
+      </c>
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
@@ -1233,7 +1241,7 @@
       <c r="U5" s="49"/>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1256,7 +1264,9 @@
       <c r="F6" s="18">
         <v>15</v>
       </c>
-      <c r="G6" s="49"/>
+      <c r="G6" s="18">
+        <v>8</v>
+      </c>
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
@@ -1273,7 +1283,7 @@
       <c r="U6" s="49"/>
       <c r="V6" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1287,12 +1297,18 @@
       <c r="C7" s="59">
         <v>15</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="D7" s="59">
+        <v>9</v>
+      </c>
+      <c r="E7" s="59">
+        <v>13</v>
+      </c>
       <c r="F7" s="18">
         <v>15</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="18">
+        <v>12</v>
+      </c>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
@@ -1309,7 +1325,7 @@
       <c r="U7" s="49"/>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1332,7 +1348,9 @@
       <c r="F8" s="18">
         <v>3</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
@@ -1349,7 +1367,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="39">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1372,7 +1390,9 @@
       <c r="F9" s="18">
         <v>3</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="18">
+        <v>3</v>
+      </c>
       <c r="H9" s="49"/>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
@@ -1389,7 +1409,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="39">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1412,7 +1432,9 @@
       <c r="F10" s="18">
         <v>3</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="18">
+        <v>15</v>
+      </c>
       <c r="H10" s="49"/>
       <c r="I10" s="49"/>
       <c r="J10" s="49"/>
@@ -1429,7 +1451,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="39">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1452,7 +1474,9 @@
       <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
@@ -1492,7 +1516,9 @@
       <c r="F12" s="18">
         <v>3</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
@@ -1509,7 +1535,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="39">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1532,7 +1558,9 @@
       <c r="F13" s="18">
         <v>0</v>
       </c>
-      <c r="G13" s="49"/>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
@@ -1549,7 +1577,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="39">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1572,7 +1600,9 @@
       <c r="F14" s="18">
         <v>0</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="18">
+        <v>15</v>
+      </c>
       <c r="H14" s="49"/>
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
@@ -1589,7 +1619,7 @@
       <c r="U14" s="49"/>
       <c r="V14" s="39">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1611,7 +1641,9 @@
       <c r="F15" s="18">
         <v>15</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="18">
+        <v>15</v>
+      </c>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
@@ -1643,15 +1675,17 @@
         <v>15</v>
       </c>
       <c r="D16" s="59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="18">
         <v>15</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="18">
+        <v>8</v>
+      </c>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
@@ -1668,7 +1702,7 @@
       <c r="U16" s="49"/>
       <c r="V16" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1691,7 +1725,9 @@
       <c r="F17" s="18">
         <v>12</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="18">
+        <v>3</v>
+      </c>
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
@@ -1708,7 +1744,7 @@
       <c r="U17" s="49"/>
       <c r="V17" s="39">
         <f t="shared" si="0"/>
-        <v>0.82666666666666666</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1731,7 +1767,9 @@
       <c r="F18" s="18">
         <v>3</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="18">
+        <v>15</v>
+      </c>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
@@ -1748,7 +1786,7 @@
       <c r="U18" s="49"/>
       <c r="V18" s="39">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1771,7 +1809,9 @@
       <c r="F19" s="18">
         <v>3</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="18">
+        <v>12</v>
+      </c>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
@@ -1788,7 +1828,7 @@
       <c r="U19" s="49"/>
       <c r="V19" s="39">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W19"/>
     </row>
@@ -1811,7 +1851,9 @@
       <c r="F20" s="18">
         <v>0</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="18">
+        <v>3</v>
+      </c>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
@@ -1828,7 +1870,7 @@
       <c r="U20" s="49"/>
       <c r="V20" s="39">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W20"/>
     </row>
@@ -1851,7 +1893,9 @@
       <c r="F21" s="18">
         <v>3</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="18">
+        <v>15</v>
+      </c>
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
@@ -1868,7 +1912,7 @@
       <c r="U21" s="49"/>
       <c r="V21" s="39">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="W21"/>
     </row>
@@ -1891,7 +1935,9 @@
       <c r="F22" s="18">
         <v>15</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="18">
+        <v>8</v>
+      </c>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -1908,7 +1954,7 @@
       <c r="U22" s="49"/>
       <c r="V22" s="39">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W22"/>
     </row>
@@ -1931,7 +1977,9 @@
       <c r="F23" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
@@ -1948,7 +1996,7 @@
       <c r="U23" s="49"/>
       <c r="V23" s="39">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W23"/>
     </row>
@@ -1971,7 +2019,9 @@
       <c r="F24" s="18">
         <v>0</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="18">
+        <v>3</v>
+      </c>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
@@ -1988,7 +2038,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2011,7 +2061,9 @@
       <c r="F25" s="18">
         <v>3</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="18">
+        <v>12</v>
+      </c>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
@@ -2028,7 +2080,7 @@
       <c r="U25" s="49"/>
       <c r="V25" s="39">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2051,7 +2103,9 @@
       <c r="F26" s="18">
         <v>15</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="18">
+        <v>3</v>
+      </c>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
@@ -2068,7 +2122,7 @@
       <c r="U26" s="49"/>
       <c r="V26" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2091,7 +2145,9 @@
       <c r="F27" s="18">
         <v>3</v>
       </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="18">
+        <v>8</v>
+      </c>
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
@@ -2108,7 +2164,7 @@
       <c r="U27" s="49"/>
       <c r="V27" s="39">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2131,7 +2187,9 @@
       <c r="F28" s="18">
         <v>3</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="18">
+        <v>3</v>
+      </c>
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
@@ -2148,7 +2206,7 @@
       <c r="U28" s="49"/>
       <c r="V28" s="39">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2171,7 +2229,9 @@
       <c r="F29" s="18">
         <v>3</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="18">
+        <v>3</v>
+      </c>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
@@ -2188,7 +2248,7 @@
       <c r="U29" s="49"/>
       <c r="V29" s="39">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2211,7 +2271,9 @@
       <c r="F30" s="18">
         <v>3</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="18">
+        <v>3</v>
+      </c>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
@@ -2228,7 +2290,7 @@
       <c r="U30" s="49"/>
       <c r="V30" s="39">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2251,7 +2313,9 @@
       <c r="F31" s="18">
         <v>3</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="18">
+        <v>3</v>
+      </c>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
@@ -2268,7 +2332,7 @@
       <c r="U31" s="49"/>
       <c r="V31" s="39">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2291,7 +2355,9 @@
       <c r="F32" s="18">
         <v>3</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="18">
+        <v>3</v>
+      </c>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
@@ -2308,7 +2374,7 @@
       <c r="U32" s="49"/>
       <c r="V32" s="39">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2331,7 +2397,9 @@
       <c r="F33" s="18">
         <v>3</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="18">
+        <v>15</v>
+      </c>
       <c r="H33" s="49"/>
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
@@ -2348,7 +2416,7 @@
       <c r="U33" s="49"/>
       <c r="V33" s="39">
         <f t="shared" si="0"/>
-        <v>0.70666666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2460,19 +2528,19 @@
       </c>
       <c r="D36" s="35">
         <f t="shared" si="1"/>
-        <v>6.161290322580645</v>
+        <v>6.34375</v>
       </c>
       <c r="E36" s="35">
         <f t="shared" si="1"/>
-        <v>6.806451612903226</v>
+        <v>7.3125</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
-      <c r="G36" s="35" t="e">
+      <c r="G36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.25</v>
       </c>
       <c r="H36" s="35" t="e">
         <f t="shared" si="1"/>
@@ -2532,7 +2600,7 @@
       </c>
       <c r="V36" s="35">
         <f t="shared" si="1"/>
-        <v>0.57250000000000001</v>
+        <v>0.5586805555555554</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2550,19 +2618,19 @@
       </c>
       <c r="D37" s="35">
         <f t="shared" si="2"/>
-        <v>5.2921122071346174</v>
+        <v>5.1406625341800627</v>
       </c>
       <c r="E37" s="35">
         <f t="shared" si="2"/>
-        <v>5.9912122025441539</v>
+        <v>5.8774445840611449</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
         <v>5.6511488983186187</v>
       </c>
-      <c r="G37" s="35" t="e">
+      <c r="G37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.4299052448216756</v>
       </c>
       <c r="H37" s="35" t="e">
         <f t="shared" si="2"/>
@@ -2622,7 +2690,7 @@
       </c>
       <c r="V37" s="35">
         <f t="shared" si="2"/>
-        <v>0.23908877192418526</v>
+        <v>0.24232108690680965</v>
       </c>
       <c r="W37"/>
     </row>
@@ -2644,15 +2712,15 @@
       </c>
       <c r="E38" s="35">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G38" s="35" t="e">
+      <c r="G38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="H38" s="35" t="e">
         <f t="shared" si="3"/>
@@ -2712,7 +2780,7 @@
       </c>
       <c r="V38" s="35">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W38"/>
     </row>
@@ -2742,7 +2810,7 @@
       </c>
       <c r="G39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="38">
         <f t="shared" si="4"/>
@@ -4694,7 +4762,7 @@
       </c>
       <c r="B2" s="21">
         <f>Quiz!V2</f>
-        <v>0.48</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
@@ -4710,7 +4778,7 @@
       </c>
       <c r="F2" s="21">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>0.48</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4728,7 +4796,7 @@
       </c>
       <c r="B3" s="21">
         <f>Quiz!V3</f>
-        <v>0.8666666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
@@ -4744,7 +4812,7 @@
       </c>
       <c r="F3" s="21">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4794,7 +4862,7 @@
       </c>
       <c r="B5" s="21">
         <f>Quiz!V5</f>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
@@ -4810,7 +4878,7 @@
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="1"/>
@@ -4827,7 +4895,7 @@
       </c>
       <c r="B6" s="21">
         <f>Quiz!V6</f>
-        <v>1</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="C6" s="20">
         <f>Homework!L6</f>
@@ -4843,7 +4911,7 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="1"/>
@@ -4860,7 +4928,7 @@
       </c>
       <c r="B7" s="21">
         <f>Quiz!V7</f>
-        <v>0.6</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
@@ -4876,11 +4944,11 @@
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="2"/>
@@ -4893,7 +4961,7 @@
       </c>
       <c r="B8" s="21">
         <f>Quiz!V8</f>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
@@ -4909,7 +4977,7 @@
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
@@ -4926,7 +4994,7 @@
       </c>
       <c r="B9" s="21">
         <f>Quiz!V9</f>
-        <v>0.28000000000000003</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C9" s="20">
         <f>Homework!L9</f>
@@ -4942,7 +5010,7 @@
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="1"/>
@@ -4959,7 +5027,7 @@
       </c>
       <c r="B10" s="21">
         <f>Quiz!V10</f>
-        <v>0.68</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
@@ -4975,7 +5043,7 @@
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="1"/>
@@ -5025,7 +5093,7 @@
       </c>
       <c r="B12" s="21">
         <f>Quiz!V12</f>
-        <v>0.08</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C12" s="20">
         <f>Homework!L12</f>
@@ -5041,7 +5109,7 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="1"/>
@@ -5058,7 +5126,7 @@
       </c>
       <c r="B13" s="21">
         <f>Quiz!V13</f>
-        <v>0.44</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
@@ -5074,7 +5142,7 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
@@ -5091,7 +5159,7 @@
       </c>
       <c r="B14" s="21">
         <f>Quiz!V14</f>
-        <v>0.48</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
@@ -5107,7 +5175,7 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
@@ -5157,7 +5225,7 @@
       </c>
       <c r="B16" s="21">
         <f>Quiz!V16</f>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
@@ -5173,7 +5241,7 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
@@ -5190,7 +5258,7 @@
       </c>
       <c r="B17" s="21">
         <f>Quiz!V17</f>
-        <v>0.82666666666666666</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C17" s="20">
         <f>Homework!L17</f>
@@ -5206,11 +5274,11 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>0.82666666666666666</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" si="2"/>
@@ -5223,7 +5291,7 @@
       </c>
       <c r="B18" s="21">
         <f>Quiz!V18</f>
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
@@ -5239,7 +5307,7 @@
       </c>
       <c r="F18" s="21">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
@@ -5256,7 +5324,7 @@
       </c>
       <c r="B19" s="21">
         <f>Quiz!V19</f>
-        <v>0.64</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
@@ -5272,7 +5340,7 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>0.64</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
@@ -5289,7 +5357,7 @@
       </c>
       <c r="B20" s="21">
         <f>Quiz!V20</f>
-        <v>0.48</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
@@ -5305,7 +5373,7 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="3"/>
-        <v>0.48</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5322,7 +5390,7 @@
       </c>
       <c r="B21" s="21">
         <f>Quiz!V21</f>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
@@ -5338,7 +5406,7 @@
       </c>
       <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="4"/>
@@ -5355,7 +5423,7 @@
       </c>
       <c r="B22" s="21">
         <f>Quiz!V22</f>
-        <v>0.8</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
@@ -5371,7 +5439,7 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
@@ -5388,7 +5456,7 @@
       </c>
       <c r="B23" s="21">
         <f>Quiz!V23</f>
-        <v>0.64</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
@@ -5404,7 +5472,7 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="4"/>
@@ -5421,7 +5489,7 @@
       </c>
       <c r="B24" s="21">
         <f>Quiz!V24</f>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
@@ -5437,7 +5505,7 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="4"/>
@@ -5454,7 +5522,7 @@
       </c>
       <c r="B25" s="21">
         <f>Quiz!V25</f>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
@@ -5470,7 +5538,7 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="4"/>
@@ -5487,7 +5555,7 @@
       </c>
       <c r="B26" s="21">
         <f>Quiz!V26</f>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C26" s="20">
         <f>Homework!L26</f>
@@ -5503,7 +5571,7 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5520,7 +5588,7 @@
       </c>
       <c r="B27" s="21">
         <f>Quiz!V27</f>
-        <v>0.68</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
@@ -5536,7 +5604,7 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>0.68</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
@@ -5553,7 +5621,7 @@
       </c>
       <c r="B28" s="21">
         <f>Quiz!V28</f>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
@@ -5569,7 +5637,7 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
@@ -5586,7 +5654,7 @@
       </c>
       <c r="B29" s="21">
         <f>Quiz!V29</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
@@ -5602,11 +5670,11 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="7"/>
@@ -5619,7 +5687,7 @@
       </c>
       <c r="B30" s="21">
         <f>Quiz!V30</f>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
@@ -5635,7 +5703,7 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="6"/>
@@ -5652,7 +5720,7 @@
       </c>
       <c r="B31" s="21">
         <f>Quiz!V31</f>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
@@ -5668,7 +5736,7 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="6"/>
@@ -5685,7 +5753,7 @@
       </c>
       <c r="B32" s="21">
         <f>Quiz!V32</f>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
@@ -5701,7 +5769,7 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="6"/>
@@ -5718,7 +5786,7 @@
       </c>
       <c r="B33" s="21">
         <f>Quiz!V33</f>
-        <v>0.70666666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="C33" s="20">
         <f>Homework!L33</f>
@@ -5734,11 +5802,11 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" si="3"/>
-        <v>0.70666666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="7"/>
@@ -5791,7 +5859,7 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.57250000000000001</v>
+        <v>0.5586805555555554</v>
       </c>
       <c r="C36" s="35">
         <f t="shared" si="8"/>
@@ -5807,7 +5875,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="8"/>
-        <v>0.57250000000000001</v>
+        <v>0.5586805555555554</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="8"/>
@@ -5824,7 +5892,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.23908877192418526</v>
+        <v>0.24232108690680965</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" si="9"/>
@@ -5840,7 +5908,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="9"/>
-        <v>0.23908877192418526</v>
+        <v>0.24232108690680965</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="9"/>
@@ -5857,7 +5925,7 @@
       </c>
       <c r="B38" s="35">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C38" s="35">
         <f t="shared" si="10"/>
@@ -5873,7 +5941,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G38" s="35">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AAA75B-522A-244B-8054-797E85BF9464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F989E3-9B67-CF42-B4BC-675ACF0803B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1081,26 +1081,30 @@
       <c r="A2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="59">
-        <v>3</v>
-      </c>
-      <c r="C2" s="59">
-        <v>15</v>
-      </c>
-      <c r="D2" s="59">
+      <c r="B2" s="55">
+        <v>3</v>
+      </c>
+      <c r="C2" s="55">
+        <v>15</v>
+      </c>
+      <c r="D2" s="55">
         <v>12</v>
       </c>
-      <c r="E2" s="59">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18">
-        <v>3</v>
-      </c>
-      <c r="G2" s="18">
-        <v>3</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="E2" s="55">
+        <v>3</v>
+      </c>
+      <c r="F2" s="49">
+        <v>3</v>
+      </c>
+      <c r="G2" s="49">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18">
+        <v>3</v>
+      </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
@@ -1115,7 +1119,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="39">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.43333333333333335</v>
+        <v>0.375</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1123,26 +1127,30 @@
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="59">
-        <v>15</v>
-      </c>
-      <c r="C3" s="59">
-        <v>15</v>
-      </c>
-      <c r="D3" s="59">
+      <c r="B3" s="55">
+        <v>15</v>
+      </c>
+      <c r="C3" s="55">
+        <v>15</v>
+      </c>
+      <c r="D3" s="55">
         <v>12</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="18">
-        <v>15</v>
-      </c>
-      <c r="G3" s="18">
-        <v>3</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="F3" s="49">
+        <v>15</v>
+      </c>
+      <c r="G3" s="49">
+        <v>3</v>
+      </c>
+      <c r="H3" s="49">
+        <v>8</v>
+      </c>
+      <c r="I3" s="18">
+        <v>3</v>
+      </c>
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
@@ -1157,7 +1165,7 @@
       <c r="U3" s="49"/>
       <c r="V3" s="39">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.75555555555555554</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1165,26 +1173,30 @@
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="59">
-        <v>0</v>
-      </c>
-      <c r="C4" s="59">
-        <v>0</v>
-      </c>
-      <c r="D4" s="59">
-        <v>0</v>
-      </c>
-      <c r="E4" s="59">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="B4" s="55">
+        <v>0</v>
+      </c>
+      <c r="C4" s="55">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
@@ -1207,26 +1219,30 @@
       <c r="A5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="59">
-        <v>3</v>
-      </c>
-      <c r="C5" s="59">
-        <v>15</v>
-      </c>
-      <c r="D5" s="59">
+      <c r="B5" s="55">
+        <v>3</v>
+      </c>
+      <c r="C5" s="55">
+        <v>15</v>
+      </c>
+      <c r="D5" s="55">
         <v>12</v>
       </c>
-      <c r="E5" s="59">
-        <v>15</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>3</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="E5" s="55">
+        <v>15</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="49">
+        <v>3</v>
+      </c>
+      <c r="H5" s="49">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
@@ -1241,7 +1257,7 @@
       <c r="U5" s="49"/>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1249,26 +1265,30 @@
       <c r="A6" s="29">
         <v>1019</v>
       </c>
-      <c r="B6" s="59">
-        <v>15</v>
-      </c>
-      <c r="C6" s="59">
-        <v>15</v>
-      </c>
-      <c r="D6" s="59">
-        <v>15</v>
-      </c>
-      <c r="E6" s="59">
-        <v>15</v>
-      </c>
-      <c r="F6" s="18">
-        <v>15</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="B6" s="55">
+        <v>15</v>
+      </c>
+      <c r="C6" s="55">
+        <v>15</v>
+      </c>
+      <c r="D6" s="55">
+        <v>15</v>
+      </c>
+      <c r="E6" s="55">
+        <v>15</v>
+      </c>
+      <c r="F6" s="49">
+        <v>15</v>
+      </c>
+      <c r="G6" s="49">
         <v>8</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>3</v>
+      </c>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
@@ -1283,7 +1303,7 @@
       <c r="U6" s="49"/>
       <c r="V6" s="39">
         <f t="shared" si="0"/>
-        <v>0.92222222222222228</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1291,26 +1311,30 @@
       <c r="A7" s="29">
         <v>1395</v>
       </c>
-      <c r="B7" s="59">
-        <v>15</v>
-      </c>
-      <c r="C7" s="59">
-        <v>15</v>
-      </c>
-      <c r="D7" s="59">
+      <c r="B7" s="55">
+        <v>15</v>
+      </c>
+      <c r="C7" s="55">
+        <v>15</v>
+      </c>
+      <c r="D7" s="55">
         <v>9</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="55">
         <v>13</v>
       </c>
-      <c r="F7" s="18">
-        <v>15</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="F7" s="49">
+        <v>15</v>
+      </c>
+      <c r="G7" s="49">
         <v>12</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="H7" s="49">
+        <v>3</v>
+      </c>
+      <c r="I7" s="18">
+        <v>3</v>
+      </c>
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
@@ -1325,7 +1349,7 @@
       <c r="U7" s="49"/>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>0.87777777777777777</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1333,26 +1357,30 @@
       <c r="A8" s="29">
         <v>1506</v>
       </c>
-      <c r="B8" s="59">
-        <v>15</v>
-      </c>
-      <c r="C8" s="59">
-        <v>15</v>
-      </c>
-      <c r="D8" s="59">
-        <v>3</v>
-      </c>
-      <c r="E8" s="59">
-        <v>3</v>
-      </c>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
-      <c r="G8" s="18">
-        <v>3</v>
-      </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="B8" s="55">
+        <v>15</v>
+      </c>
+      <c r="C8" s="55">
+        <v>15</v>
+      </c>
+      <c r="D8" s="55">
+        <v>3</v>
+      </c>
+      <c r="E8" s="55">
+        <v>3</v>
+      </c>
+      <c r="F8" s="49">
+        <v>3</v>
+      </c>
+      <c r="G8" s="49">
+        <v>3</v>
+      </c>
+      <c r="H8" s="49">
+        <v>3</v>
+      </c>
+      <c r="I8" s="18">
+        <v>3</v>
+      </c>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
@@ -1367,7 +1395,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="39">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1375,26 +1403,30 @@
       <c r="A9" s="29">
         <v>2441</v>
       </c>
-      <c r="B9" s="59">
-        <v>15</v>
-      </c>
-      <c r="C9" s="59">
-        <v>0</v>
-      </c>
-      <c r="D9" s="59">
-        <v>3</v>
-      </c>
-      <c r="E9" s="59">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>3</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="B9" s="55">
+        <v>15</v>
+      </c>
+      <c r="C9" s="55">
+        <v>0</v>
+      </c>
+      <c r="D9" s="55">
+        <v>3</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <v>3</v>
+      </c>
+      <c r="G9" s="49">
+        <v>3</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
@@ -1409,7 +1441,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="39">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1417,26 +1449,28 @@
       <c r="A10" s="29">
         <v>2564</v>
       </c>
-      <c r="B10" s="59">
-        <v>15</v>
-      </c>
-      <c r="C10" s="59">
-        <v>15</v>
-      </c>
-      <c r="D10" s="59">
-        <v>3</v>
-      </c>
-      <c r="E10" s="59">
-        <v>15</v>
-      </c>
-      <c r="F10" s="18">
-        <v>3</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="B10" s="55">
+        <v>15</v>
+      </c>
+      <c r="C10" s="55">
+        <v>15</v>
+      </c>
+      <c r="D10" s="55">
+        <v>3</v>
+      </c>
+      <c r="E10" s="55">
+        <v>15</v>
+      </c>
+      <c r="F10" s="49">
+        <v>3</v>
+      </c>
+      <c r="G10" s="49">
         <v>15</v>
       </c>
       <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="I10" s="18">
+        <v>3</v>
+      </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
@@ -1451,7 +1485,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="39">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1459,26 +1493,30 @@
       <c r="A11" s="29">
         <v>2693</v>
       </c>
-      <c r="B11" s="59">
-        <v>0</v>
-      </c>
-      <c r="C11" s="59">
-        <v>0</v>
-      </c>
-      <c r="D11" s="59">
-        <v>0</v>
-      </c>
-      <c r="E11" s="59">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+      <c r="B11" s="55">
+        <v>0</v>
+      </c>
+      <c r="C11" s="55">
+        <v>0</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <v>0</v>
+      </c>
+      <c r="G11" s="49">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
@@ -1501,26 +1539,30 @@
       <c r="A12" s="29">
         <v>2771</v>
       </c>
-      <c r="B12" s="59">
-        <v>0</v>
-      </c>
-      <c r="C12" s="59">
-        <v>0</v>
-      </c>
-      <c r="D12" s="59">
-        <v>3</v>
-      </c>
-      <c r="E12" s="59">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>3</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+      <c r="B12" s="55">
+        <v>0</v>
+      </c>
+      <c r="C12" s="55">
+        <v>0</v>
+      </c>
+      <c r="D12" s="55">
+        <v>3</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0</v>
+      </c>
+      <c r="F12" s="49">
+        <v>3</v>
+      </c>
+      <c r="G12" s="49">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
@@ -1535,7 +1577,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="39">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1543,26 +1585,30 @@
       <c r="A13" s="29">
         <v>2899</v>
       </c>
-      <c r="B13" s="59">
-        <v>15</v>
-      </c>
-      <c r="C13" s="59">
-        <v>15</v>
-      </c>
-      <c r="D13" s="59">
-        <v>0</v>
-      </c>
-      <c r="E13" s="59">
-        <v>3</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="B13" s="55">
+        <v>15</v>
+      </c>
+      <c r="C13" s="55">
+        <v>15</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0</v>
+      </c>
+      <c r="E13" s="55">
+        <v>3</v>
+      </c>
+      <c r="F13" s="49">
+        <v>0</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>3</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
@@ -1577,7 +1623,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="39">
         <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
+        <v>0.3</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1585,26 +1631,30 @@
       <c r="A14" s="29">
         <v>3517</v>
       </c>
-      <c r="B14" s="59">
-        <v>15</v>
-      </c>
-      <c r="C14" s="59">
-        <v>15</v>
-      </c>
-      <c r="D14" s="59">
-        <v>3</v>
-      </c>
-      <c r="E14" s="59">
-        <v>3</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>15</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="B14" s="55">
+        <v>15</v>
+      </c>
+      <c r="C14" s="55">
+        <v>15</v>
+      </c>
+      <c r="D14" s="55">
+        <v>3</v>
+      </c>
+      <c r="E14" s="55">
+        <v>3</v>
+      </c>
+      <c r="F14" s="49">
+        <v>0</v>
+      </c>
+      <c r="G14" s="49">
+        <v>15</v>
+      </c>
+      <c r="H14" s="49">
+        <v>3</v>
+      </c>
+      <c r="I14" s="18">
+        <v>3</v>
+      </c>
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
@@ -1619,33 +1669,37 @@
       <c r="U14" s="49"/>
       <c r="V14" s="39">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>4490</v>
       </c>
-      <c r="B15" s="59">
-        <v>15</v>
-      </c>
-      <c r="C15" s="59">
-        <v>15</v>
-      </c>
-      <c r="D15" s="59">
-        <v>15</v>
-      </c>
-      <c r="E15" s="59">
-        <v>15</v>
-      </c>
-      <c r="F15" s="18">
-        <v>15</v>
-      </c>
-      <c r="G15" s="18">
-        <v>15</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="B15" s="55">
+        <v>15</v>
+      </c>
+      <c r="C15" s="55">
+        <v>15</v>
+      </c>
+      <c r="D15" s="55">
+        <v>15</v>
+      </c>
+      <c r="E15" s="55">
+        <v>15</v>
+      </c>
+      <c r="F15" s="49">
+        <v>15</v>
+      </c>
+      <c r="G15" s="49">
+        <v>15</v>
+      </c>
+      <c r="H15" s="49">
+        <v>3</v>
+      </c>
+      <c r="I15" s="18">
+        <v>6</v>
+      </c>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
@@ -1660,7 +1714,7 @@
       <c r="U15" s="49"/>
       <c r="V15" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1668,26 +1722,30 @@
       <c r="A16" s="29">
         <v>4582</v>
       </c>
-      <c r="B16" s="59">
-        <v>15</v>
-      </c>
-      <c r="C16" s="59">
-        <v>15</v>
-      </c>
-      <c r="D16" s="59">
-        <v>3</v>
-      </c>
-      <c r="E16" s="59">
+      <c r="B16" s="55">
+        <v>15</v>
+      </c>
+      <c r="C16" s="55">
+        <v>15</v>
+      </c>
+      <c r="D16" s="55">
+        <v>3</v>
+      </c>
+      <c r="E16" s="55">
         <v>10</v>
       </c>
-      <c r="F16" s="18">
-        <v>15</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="F16" s="49">
+        <v>15</v>
+      </c>
+      <c r="G16" s="49">
         <v>8</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="H16" s="49">
+        <v>3</v>
+      </c>
+      <c r="I16" s="18">
+        <v>3</v>
+      </c>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -1702,7 +1760,7 @@
       <c r="U16" s="49"/>
       <c r="V16" s="39">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.6</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1710,26 +1768,30 @@
       <c r="A17" s="29">
         <v>4622</v>
       </c>
-      <c r="B17" s="59">
-        <v>15</v>
-      </c>
-      <c r="C17" s="59">
-        <v>15</v>
-      </c>
-      <c r="D17" s="59">
+      <c r="B17" s="55">
+        <v>15</v>
+      </c>
+      <c r="C17" s="55">
+        <v>15</v>
+      </c>
+      <c r="D17" s="55">
         <v>12</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="55">
         <v>8</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="49">
         <v>12</v>
       </c>
-      <c r="G17" s="18">
-        <v>3</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="G17" s="49">
+        <v>3</v>
+      </c>
+      <c r="H17" s="49">
+        <v>12</v>
+      </c>
+      <c r="I17" s="18">
+        <v>3</v>
+      </c>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -1744,7 +1806,7 @@
       <c r="U17" s="49"/>
       <c r="V17" s="39">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1752,26 +1814,30 @@
       <c r="A18" s="29">
         <v>5500</v>
       </c>
-      <c r="B18" s="59">
-        <v>15</v>
-      </c>
-      <c r="C18" s="59">
-        <v>15</v>
-      </c>
-      <c r="D18" s="59">
-        <v>3</v>
-      </c>
-      <c r="E18" s="59">
+      <c r="B18" s="55">
+        <v>15</v>
+      </c>
+      <c r="C18" s="55">
+        <v>15</v>
+      </c>
+      <c r="D18" s="55">
+        <v>3</v>
+      </c>
+      <c r="E18" s="55">
         <v>12</v>
       </c>
-      <c r="F18" s="18">
-        <v>3</v>
-      </c>
-      <c r="G18" s="18">
-        <v>15</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="F18" s="49">
+        <v>3</v>
+      </c>
+      <c r="G18" s="49">
+        <v>15</v>
+      </c>
+      <c r="H18" s="49">
+        <v>3</v>
+      </c>
+      <c r="I18" s="18">
+        <v>3</v>
+      </c>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
@@ -1786,7 +1852,7 @@
       <c r="U18" s="49"/>
       <c r="V18" s="39">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1794,26 +1860,30 @@
       <c r="A19" s="29">
         <v>5687</v>
       </c>
-      <c r="B19" s="59">
-        <v>15</v>
-      </c>
-      <c r="C19" s="59">
-        <v>15</v>
-      </c>
-      <c r="D19" s="59">
-        <v>0</v>
-      </c>
-      <c r="E19" s="59">
-        <v>15</v>
-      </c>
-      <c r="F19" s="18">
-        <v>3</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="B19" s="55">
+        <v>15</v>
+      </c>
+      <c r="C19" s="55">
+        <v>15</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="55">
+        <v>15</v>
+      </c>
+      <c r="F19" s="49">
+        <v>3</v>
+      </c>
+      <c r="G19" s="49">
         <v>12</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="H19" s="49">
+        <v>3</v>
+      </c>
+      <c r="I19" s="18">
+        <v>3</v>
+      </c>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
@@ -1828,7 +1898,7 @@
       <c r="U19" s="49"/>
       <c r="V19" s="39">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W19"/>
     </row>
@@ -1836,26 +1906,30 @@
       <c r="A20" s="29">
         <v>5711</v>
       </c>
-      <c r="B20" s="59">
-        <v>15</v>
-      </c>
-      <c r="C20" s="59">
-        <v>15</v>
-      </c>
-      <c r="D20" s="59">
-        <v>3</v>
-      </c>
-      <c r="E20" s="59">
-        <v>3</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>3</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
+      <c r="B20" s="55">
+        <v>15</v>
+      </c>
+      <c r="C20" s="55">
+        <v>15</v>
+      </c>
+      <c r="D20" s="55">
+        <v>3</v>
+      </c>
+      <c r="E20" s="55">
+        <v>3</v>
+      </c>
+      <c r="F20" s="49">
+        <v>0</v>
+      </c>
+      <c r="G20" s="49">
+        <v>3</v>
+      </c>
+      <c r="H20" s="49">
+        <v>3</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
@@ -1870,7 +1944,7 @@
       <c r="U20" s="49"/>
       <c r="V20" s="39">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.35</v>
       </c>
       <c r="W20"/>
     </row>
@@ -1878,26 +1952,30 @@
       <c r="A21" s="29">
         <v>5810</v>
       </c>
-      <c r="B21" s="59">
-        <v>15</v>
-      </c>
-      <c r="C21" s="59">
-        <v>15</v>
-      </c>
-      <c r="D21" s="59">
+      <c r="B21" s="55">
+        <v>15</v>
+      </c>
+      <c r="C21" s="55">
+        <v>15</v>
+      </c>
+      <c r="D21" s="55">
         <v>12</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="55">
         <v>12</v>
       </c>
-      <c r="F21" s="18">
-        <v>3</v>
-      </c>
-      <c r="G21" s="18">
-        <v>15</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="F21" s="49">
+        <v>3</v>
+      </c>
+      <c r="G21" s="49">
+        <v>15</v>
+      </c>
+      <c r="H21" s="49">
+        <v>3</v>
+      </c>
+      <c r="I21" s="18">
+        <v>3</v>
+      </c>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
@@ -1912,7 +1990,7 @@
       <c r="U21" s="49"/>
       <c r="V21" s="39">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W21"/>
     </row>
@@ -1920,26 +1998,30 @@
       <c r="A22" s="29">
         <v>6347</v>
       </c>
-      <c r="B22" s="59">
-        <v>15</v>
-      </c>
-      <c r="C22" s="59">
-        <v>15</v>
-      </c>
-      <c r="D22" s="59">
-        <v>3</v>
-      </c>
-      <c r="E22" s="59">
+      <c r="B22" s="55">
+        <v>15</v>
+      </c>
+      <c r="C22" s="55">
+        <v>15</v>
+      </c>
+      <c r="D22" s="55">
+        <v>3</v>
+      </c>
+      <c r="E22" s="55">
         <v>12</v>
       </c>
-      <c r="F22" s="18">
-        <v>15</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="F22" s="49">
+        <v>15</v>
+      </c>
+      <c r="G22" s="49">
         <v>8</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="H22" s="49">
+        <v>3</v>
+      </c>
+      <c r="I22" s="18">
+        <v>3</v>
+      </c>
       <c r="J22" s="49"/>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
@@ -1954,7 +2036,7 @@
       <c r="U22" s="49"/>
       <c r="V22" s="39">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="W22"/>
     </row>
@@ -1962,26 +2044,30 @@
       <c r="A23" s="29">
         <v>7905</v>
       </c>
-      <c r="B23" s="59">
-        <v>15</v>
-      </c>
-      <c r="C23" s="59">
-        <v>15</v>
-      </c>
-      <c r="D23" s="59">
+      <c r="B23" s="55">
+        <v>15</v>
+      </c>
+      <c r="C23" s="55">
+        <v>15</v>
+      </c>
+      <c r="D23" s="55">
         <v>12</v>
       </c>
-      <c r="E23" s="59">
-        <v>3</v>
-      </c>
-      <c r="F23" s="18">
-        <v>3</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="E23" s="55">
+        <v>3</v>
+      </c>
+      <c r="F23" s="49">
+        <v>3</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0</v>
+      </c>
+      <c r="H23" s="49">
+        <v>3</v>
+      </c>
+      <c r="I23" s="18">
+        <v>3</v>
+      </c>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -1996,7 +2082,7 @@
       <c r="U23" s="49"/>
       <c r="V23" s="39">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2004,26 +2090,30 @@
       <c r="A24" s="29">
         <v>8335</v>
       </c>
-      <c r="B24" s="59">
-        <v>15</v>
-      </c>
-      <c r="C24" s="59">
-        <v>15</v>
-      </c>
-      <c r="D24" s="59">
-        <v>3</v>
-      </c>
-      <c r="E24" s="59">
+      <c r="B24" s="55">
+        <v>15</v>
+      </c>
+      <c r="C24" s="55">
+        <v>15</v>
+      </c>
+      <c r="D24" s="55">
+        <v>3</v>
+      </c>
+      <c r="E24" s="55">
         <v>12</v>
       </c>
-      <c r="F24" s="18">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>3</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="F24" s="49">
+        <v>0</v>
+      </c>
+      <c r="G24" s="49">
+        <v>3</v>
+      </c>
+      <c r="H24" s="49">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
       <c r="J24" s="49"/>
       <c r="K24" s="49"/>
       <c r="L24" s="49"/>
@@ -2038,7 +2128,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="39">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2046,26 +2136,30 @@
       <c r="A25" s="29">
         <v>8490</v>
       </c>
-      <c r="B25" s="59">
-        <v>3</v>
-      </c>
-      <c r="C25" s="59">
-        <v>15</v>
-      </c>
-      <c r="D25" s="59">
+      <c r="B25" s="55">
+        <v>3</v>
+      </c>
+      <c r="C25" s="55">
+        <v>15</v>
+      </c>
+      <c r="D25" s="55">
         <v>12</v>
       </c>
-      <c r="E25" s="59">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>3</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
+      <c r="F25" s="49">
+        <v>3</v>
+      </c>
+      <c r="G25" s="49">
         <v>12</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
+      <c r="H25" s="49">
+        <v>3</v>
+      </c>
+      <c r="I25" s="18">
+        <v>3</v>
+      </c>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
@@ -2080,7 +2174,7 @@
       <c r="U25" s="49"/>
       <c r="V25" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2088,26 +2182,30 @@
       <c r="A26" s="29">
         <v>8688</v>
       </c>
-      <c r="B26" s="59">
-        <v>15</v>
-      </c>
-      <c r="C26" s="59">
-        <v>0</v>
-      </c>
-      <c r="D26" s="59">
-        <v>15</v>
-      </c>
-      <c r="E26" s="59">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>15</v>
-      </c>
-      <c r="G26" s="18">
-        <v>3</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="B26" s="55">
+        <v>15</v>
+      </c>
+      <c r="C26" s="55">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55">
+        <v>15</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
+      <c r="F26" s="49">
+        <v>15</v>
+      </c>
+      <c r="G26" s="49">
+        <v>3</v>
+      </c>
+      <c r="H26" s="49">
+        <v>3</v>
+      </c>
+      <c r="I26" s="18">
+        <v>15</v>
+      </c>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
@@ -2122,7 +2220,7 @@
       <c r="U26" s="49"/>
       <c r="V26" s="39">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2130,26 +2228,30 @@
       <c r="A27" s="29">
         <v>8695</v>
       </c>
-      <c r="B27" s="59">
-        <v>15</v>
-      </c>
-      <c r="C27" s="59">
-        <v>15</v>
-      </c>
-      <c r="D27" s="59">
-        <v>3</v>
-      </c>
-      <c r="E27" s="59">
-        <v>15</v>
-      </c>
-      <c r="F27" s="18">
-        <v>3</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="B27" s="55">
+        <v>15</v>
+      </c>
+      <c r="C27" s="55">
+        <v>15</v>
+      </c>
+      <c r="D27" s="55">
+        <v>3</v>
+      </c>
+      <c r="E27" s="55">
+        <v>15</v>
+      </c>
+      <c r="F27" s="49">
+        <v>3</v>
+      </c>
+      <c r="G27" s="49">
         <v>8</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="H27" s="49">
+        <v>3</v>
+      </c>
+      <c r="I27" s="18">
+        <v>3</v>
+      </c>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
@@ -2164,7 +2266,7 @@
       <c r="U27" s="49"/>
       <c r="V27" s="39">
         <f t="shared" si="0"/>
-        <v>0.65555555555555556</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2172,26 +2274,30 @@
       <c r="A28" s="29">
         <v>8743</v>
       </c>
-      <c r="B28" s="59">
-        <v>15</v>
-      </c>
-      <c r="C28" s="59">
-        <v>15</v>
-      </c>
-      <c r="D28" s="59">
-        <v>3</v>
-      </c>
-      <c r="E28" s="59">
-        <v>3</v>
-      </c>
-      <c r="F28" s="18">
-        <v>3</v>
-      </c>
-      <c r="G28" s="18">
-        <v>3</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="B28" s="55">
+        <v>15</v>
+      </c>
+      <c r="C28" s="55">
+        <v>15</v>
+      </c>
+      <c r="D28" s="55">
+        <v>3</v>
+      </c>
+      <c r="E28" s="55">
+        <v>3</v>
+      </c>
+      <c r="F28" s="49">
+        <v>3</v>
+      </c>
+      <c r="G28" s="49">
+        <v>3</v>
+      </c>
+      <c r="H28" s="49">
+        <v>3</v>
+      </c>
+      <c r="I28" s="18">
+        <v>3</v>
+      </c>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
@@ -2206,7 +2312,7 @@
       <c r="U28" s="49"/>
       <c r="V28" s="39">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2214,26 +2320,28 @@
       <c r="A29" s="29">
         <v>8745</v>
       </c>
-      <c r="B29" s="59">
-        <v>15</v>
-      </c>
-      <c r="C29" s="59">
-        <v>15</v>
-      </c>
-      <c r="D29" s="59">
+      <c r="B29" s="55">
+        <v>15</v>
+      </c>
+      <c r="C29" s="55">
+        <v>15</v>
+      </c>
+      <c r="D29" s="55">
         <v>12</v>
       </c>
-      <c r="E29" s="59">
-        <v>15</v>
-      </c>
-      <c r="F29" s="18">
-        <v>3</v>
-      </c>
-      <c r="G29" s="18">
-        <v>3</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
+      <c r="E29" s="55">
+        <v>15</v>
+      </c>
+      <c r="F29" s="49">
+        <v>3</v>
+      </c>
+      <c r="G29" s="49">
+        <v>3</v>
+      </c>
+      <c r="H29" s="59"/>
+      <c r="I29" s="18">
+        <v>3</v>
+      </c>
       <c r="J29" s="49"/>
       <c r="K29" s="49"/>
       <c r="L29" s="49"/>
@@ -2248,7 +2356,7 @@
       <c r="U29" s="49"/>
       <c r="V29" s="39">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2256,26 +2364,30 @@
       <c r="A30" s="29">
         <v>9550</v>
       </c>
-      <c r="B30" s="59">
-        <v>15</v>
-      </c>
-      <c r="C30" s="59">
-        <v>15</v>
-      </c>
-      <c r="D30" s="59">
-        <v>3</v>
-      </c>
-      <c r="E30" s="59">
-        <v>3</v>
-      </c>
-      <c r="F30" s="18">
-        <v>3</v>
-      </c>
-      <c r="G30" s="18">
-        <v>3</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
+      <c r="B30" s="55">
+        <v>15</v>
+      </c>
+      <c r="C30" s="55">
+        <v>15</v>
+      </c>
+      <c r="D30" s="55">
+        <v>3</v>
+      </c>
+      <c r="E30" s="55">
+        <v>3</v>
+      </c>
+      <c r="F30" s="49">
+        <v>3</v>
+      </c>
+      <c r="G30" s="49">
+        <v>3</v>
+      </c>
+      <c r="H30" s="49">
+        <v>3</v>
+      </c>
+      <c r="I30" s="18">
+        <v>3</v>
+      </c>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
       <c r="L30" s="49"/>
@@ -2290,7 +2402,7 @@
       <c r="U30" s="49"/>
       <c r="V30" s="39">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2298,26 +2410,30 @@
       <c r="A31" s="29">
         <v>9610</v>
       </c>
-      <c r="B31" s="59">
-        <v>15</v>
-      </c>
-      <c r="C31" s="59">
-        <v>15</v>
-      </c>
-      <c r="D31" s="59">
-        <v>3</v>
-      </c>
-      <c r="E31" s="59">
-        <v>3</v>
-      </c>
-      <c r="F31" s="18">
-        <v>3</v>
-      </c>
-      <c r="G31" s="18">
-        <v>3</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
+      <c r="B31" s="55">
+        <v>15</v>
+      </c>
+      <c r="C31" s="55">
+        <v>15</v>
+      </c>
+      <c r="D31" s="55">
+        <v>3</v>
+      </c>
+      <c r="E31" s="55">
+        <v>3</v>
+      </c>
+      <c r="F31" s="49">
+        <v>3</v>
+      </c>
+      <c r="G31" s="49">
+        <v>3</v>
+      </c>
+      <c r="H31" s="49">
+        <v>3</v>
+      </c>
+      <c r="I31" s="18">
+        <v>3</v>
+      </c>
       <c r="J31" s="49"/>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -2332,7 +2448,7 @@
       <c r="U31" s="49"/>
       <c r="V31" s="39">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2340,26 +2456,30 @@
       <c r="A32" s="29">
         <v>9611</v>
       </c>
-      <c r="B32" s="59">
-        <v>15</v>
-      </c>
-      <c r="C32" s="59">
-        <v>15</v>
-      </c>
-      <c r="D32" s="59">
-        <v>3</v>
-      </c>
-      <c r="E32" s="59">
-        <v>3</v>
-      </c>
-      <c r="F32" s="18">
-        <v>3</v>
-      </c>
-      <c r="G32" s="18">
-        <v>3</v>
-      </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
+      <c r="B32" s="55">
+        <v>15</v>
+      </c>
+      <c r="C32" s="55">
+        <v>15</v>
+      </c>
+      <c r="D32" s="55">
+        <v>3</v>
+      </c>
+      <c r="E32" s="55">
+        <v>3</v>
+      </c>
+      <c r="F32" s="49">
+        <v>3</v>
+      </c>
+      <c r="G32" s="49">
+        <v>3</v>
+      </c>
+      <c r="H32" s="49">
+        <v>3</v>
+      </c>
+      <c r="I32" s="18">
+        <v>3</v>
+      </c>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -2374,7 +2494,7 @@
       <c r="U32" s="49"/>
       <c r="V32" s="39">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2382,26 +2502,30 @@
       <c r="A33" s="29">
         <v>9674</v>
       </c>
-      <c r="B33" s="59">
-        <v>15</v>
-      </c>
-      <c r="C33" s="59">
-        <v>15</v>
-      </c>
-      <c r="D33" s="59">
+      <c r="B33" s="55">
+        <v>15</v>
+      </c>
+      <c r="C33" s="55">
+        <v>15</v>
+      </c>
+      <c r="D33" s="55">
         <v>8</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="55">
         <v>12</v>
       </c>
-      <c r="F33" s="18">
-        <v>3</v>
-      </c>
-      <c r="G33" s="18">
-        <v>15</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
+      <c r="F33" s="49">
+        <v>3</v>
+      </c>
+      <c r="G33" s="49">
+        <v>15</v>
+      </c>
+      <c r="H33" s="49">
+        <v>3</v>
+      </c>
+      <c r="I33" s="18">
+        <v>3</v>
+      </c>
       <c r="J33" s="49"/>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -2416,7 +2540,7 @@
       <c r="U33" s="49"/>
       <c r="V33" s="39">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2542,13 +2666,13 @@
         <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
-      <c r="H36" s="35" t="e">
+      <c r="H36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="35" t="e">
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="I36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.8125</v>
       </c>
       <c r="J36" s="35" t="e">
         <f t="shared" si="1"/>
@@ -2600,7 +2724,7 @@
       </c>
       <c r="V36" s="35">
         <f t="shared" si="1"/>
-        <v>0.5586805555555554</v>
+        <v>0.46484375000000011</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2632,13 +2756,13 @@
         <f t="shared" si="2"/>
         <v>5.4299052448216756</v>
       </c>
-      <c r="H37" s="35" t="e">
+      <c r="H37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="35" t="e">
+        <v>2.3449628088122516</v>
+      </c>
+      <c r="I37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6327650128530702</v>
       </c>
       <c r="J37" s="35" t="e">
         <f t="shared" si="2"/>
@@ -2690,7 +2814,7 @@
       </c>
       <c r="V37" s="35">
         <f t="shared" si="2"/>
-        <v>0.24232108690680965</v>
+        <v>0.19930136012094168</v>
       </c>
       <c r="W37"/>
     </row>
@@ -2722,13 +2846,13 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H38" s="35" t="e">
+      <c r="H38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I38" s="35" t="e">
+        <v>3</v>
+      </c>
+      <c r="I38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="J38" s="35" t="e">
         <f t="shared" si="3"/>
@@ -2780,7 +2904,7 @@
       </c>
       <c r="V38" s="35">
         <f t="shared" si="3"/>
-        <v>0.53333333333333333</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="W38"/>
     </row>
@@ -2814,11 +2938,11 @@
       </c>
       <c r="H39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="38">
         <f t="shared" si="4"/>
@@ -4762,7 +4886,7 @@
       </c>
       <c r="B2" s="21">
         <f>Quiz!V2</f>
-        <v>0.43333333333333335</v>
+        <v>0.375</v>
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
@@ -4778,7 +4902,7 @@
       </c>
       <c r="F2" s="21">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>0.43333333333333335</v>
+        <v>0.375</v>
       </c>
       <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4796,7 +4920,7 @@
       </c>
       <c r="B3" s="21">
         <f>Quiz!V3</f>
-        <v>0.75555555555555554</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
@@ -4812,11 +4936,11 @@
       </c>
       <c r="F3" s="21">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="19">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -4862,7 +4986,7 @@
       </c>
       <c r="B5" s="21">
         <f>Quiz!V5</f>
-        <v>0.53333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
@@ -4878,7 +5002,7 @@
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="1"/>
@@ -4895,7 +5019,7 @@
       </c>
       <c r="B6" s="21">
         <f>Quiz!V6</f>
-        <v>0.92222222222222228</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C6" s="20">
         <f>Homework!L6</f>
@@ -4911,11 +5035,11 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>0.92222222222222228</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="2"/>
@@ -4928,7 +5052,7 @@
       </c>
       <c r="B7" s="21">
         <f>Quiz!V7</f>
-        <v>0.87777777777777777</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
@@ -4944,11 +5068,11 @@
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>0.87777777777777777</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="2"/>
@@ -4961,7 +5085,7 @@
       </c>
       <c r="B8" s="21">
         <f>Quiz!V8</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
@@ -4977,7 +5101,7 @@
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
@@ -4994,7 +5118,7 @@
       </c>
       <c r="B9" s="21">
         <f>Quiz!V9</f>
-        <v>0.26666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="20">
         <f>Homework!L9</f>
@@ -5010,11 +5134,11 @@
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="2"/>
@@ -5027,7 +5151,7 @@
       </c>
       <c r="B10" s="21">
         <f>Quiz!V10</f>
-        <v>0.73333333333333328</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
@@ -5043,7 +5167,7 @@
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="1"/>
@@ -5093,7 +5217,7 @@
       </c>
       <c r="B12" s="21">
         <f>Quiz!V12</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C12" s="20">
         <f>Homework!L12</f>
@@ -5109,7 +5233,7 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="1"/>
@@ -5126,7 +5250,7 @@
       </c>
       <c r="B13" s="21">
         <f>Quiz!V13</f>
-        <v>0.36666666666666664</v>
+        <v>0.3</v>
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
@@ -5142,7 +5266,7 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
@@ -5159,7 +5283,7 @@
       </c>
       <c r="B14" s="21">
         <f>Quiz!V14</f>
-        <v>0.56666666666666665</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
@@ -5175,7 +5299,7 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
@@ -5192,7 +5316,7 @@
       </c>
       <c r="B15" s="21">
         <f>Quiz!V15</f>
-        <v>1</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C15" s="20">
         <f>Homework!L15</f>
@@ -5208,7 +5332,7 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="1"/>
@@ -5225,7 +5349,7 @@
       </c>
       <c r="B16" s="21">
         <f>Quiz!V16</f>
-        <v>0.73333333333333328</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
@@ -5241,7 +5365,7 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.6</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
@@ -5258,7 +5382,7 @@
       </c>
       <c r="B17" s="21">
         <f>Quiz!V17</f>
-        <v>0.72222222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C17" s="20">
         <f>Homework!L17</f>
@@ -5274,7 +5398,7 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
@@ -5291,7 +5415,7 @@
       </c>
       <c r="B18" s="21">
         <f>Quiz!V18</f>
-        <v>0.7</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
@@ -5307,7 +5431,7 @@
       </c>
       <c r="F18" s="21">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>0.7</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
@@ -5324,7 +5448,7 @@
       </c>
       <c r="B19" s="21">
         <f>Quiz!V19</f>
-        <v>0.66666666666666663</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
@@ -5340,7 +5464,7 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>0.66666666666666663</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
@@ -5357,7 +5481,7 @@
       </c>
       <c r="B20" s="21">
         <f>Quiz!V20</f>
-        <v>0.43333333333333335</v>
+        <v>0.35</v>
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
@@ -5373,7 +5497,7 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="3"/>
-        <v>0.43333333333333335</v>
+        <v>0.35</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5390,7 +5514,7 @@
       </c>
       <c r="B21" s="21">
         <f>Quiz!V21</f>
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
@@ -5406,11 +5530,11 @@
       </c>
       <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="19">
         <f t="shared" si="5"/>
@@ -5423,7 +5547,7 @@
       </c>
       <c r="B22" s="21">
         <f>Quiz!V22</f>
-        <v>0.75555555555555554</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
@@ -5439,11 +5563,11 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>0.75555555555555554</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" si="5"/>
@@ -5456,7 +5580,7 @@
       </c>
       <c r="B23" s="21">
         <f>Quiz!V23</f>
-        <v>0.53333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
@@ -5472,7 +5596,7 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>0.53333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="4"/>
@@ -5489,7 +5613,7 @@
       </c>
       <c r="B24" s="21">
         <f>Quiz!V24</f>
-        <v>0.53333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
@@ -5505,7 +5629,7 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>0.53333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="4"/>
@@ -5522,7 +5646,7 @@
       </c>
       <c r="B25" s="21">
         <f>Quiz!V25</f>
-        <v>0.5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
@@ -5538,7 +5662,7 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="4"/>
@@ -5555,7 +5679,7 @@
       </c>
       <c r="B26" s="21">
         <f>Quiz!V26</f>
-        <v>0.53333333333333333</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C26" s="20">
         <f>Homework!L26</f>
@@ -5571,7 +5695,7 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>0.53333333333333333</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5588,7 +5712,7 @@
       </c>
       <c r="B27" s="21">
         <f>Quiz!V27</f>
-        <v>0.65555555555555556</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
@@ -5604,7 +5728,7 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>0.65555555555555556</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
@@ -5621,7 +5745,7 @@
       </c>
       <c r="B28" s="21">
         <f>Quiz!V28</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
@@ -5637,7 +5761,7 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
@@ -5654,7 +5778,7 @@
       </c>
       <c r="B29" s="21">
         <f>Quiz!V29</f>
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
@@ -5670,7 +5794,7 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="6"/>
@@ -5687,7 +5811,7 @@
       </c>
       <c r="B30" s="21">
         <f>Quiz!V30</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
@@ -5703,7 +5827,7 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="6"/>
@@ -5720,7 +5844,7 @@
       </c>
       <c r="B31" s="21">
         <f>Quiz!V31</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
@@ -5736,7 +5860,7 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="6"/>
@@ -5753,7 +5877,7 @@
       </c>
       <c r="B32" s="21">
         <f>Quiz!V32</f>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
@@ -5769,7 +5893,7 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>0.46666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="6"/>
@@ -5786,7 +5910,7 @@
       </c>
       <c r="B33" s="21">
         <f>Quiz!V33</f>
-        <v>0.75555555555555554</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C33" s="20">
         <f>Homework!L33</f>
@@ -5802,11 +5926,11 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" si="3"/>
-        <v>0.75555555555555554</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="7"/>
@@ -5859,7 +5983,7 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.5586805555555554</v>
+        <v>0.46484375000000011</v>
       </c>
       <c r="C36" s="35">
         <f t="shared" si="8"/>
@@ -5875,11 +5999,11 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="8"/>
-        <v>0.5586805555555554</v>
+        <v>0.46484375000000011</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="8"/>
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="H36" s="35">
         <f t="shared" si="8"/>
@@ -5892,7 +6016,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.24232108690680965</v>
+        <v>0.19930136012094168</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" si="9"/>
@@ -5908,11 +6032,11 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="9"/>
-        <v>0.24232108690680965</v>
+        <v>0.19930136012094168</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="9"/>
-        <v>0.27679035970533089</v>
+        <v>0.1950754609987401</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="9"/>
@@ -5925,7 +6049,7 @@
       </c>
       <c r="B38" s="35">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.53333333333333333</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="C38" s="35">
         <f t="shared" si="10"/>
@@ -5941,7 +6065,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="10"/>
-        <v>0.53333333333333333</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="G38" s="35">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F989E3-9B67-CF42-B4BC-675ACF0803B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C135D6-2145-634D-A4DB-199110D6F8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,9 +580,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1105,7 +1102,9 @@
       <c r="I2" s="18">
         <v>3</v>
       </c>
-      <c r="J2" s="49"/>
+      <c r="J2" s="18">
+        <v>3</v>
+      </c>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
       <c r="M2" s="49"/>
@@ -1119,7 +1118,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="39">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.375</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1151,7 +1150,9 @@
       <c r="I3" s="18">
         <v>3</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="49"/>
@@ -1165,7 +1166,7 @@
       <c r="U3" s="49"/>
       <c r="V3" s="39">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.65833333333333333</v>
+        <v>0.58518518518518514</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1197,7 +1198,9 @@
       <c r="I4" s="18">
         <v>0</v>
       </c>
-      <c r="J4" s="49"/>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
@@ -1243,7 +1246,9 @@
       <c r="I5" s="18">
         <v>3</v>
       </c>
-      <c r="J5" s="49"/>
+      <c r="J5" s="18">
+        <v>3</v>
+      </c>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
@@ -1257,7 +1262,7 @@
       <c r="U5" s="49"/>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1289,7 +1294,9 @@
       <c r="I6" s="18">
         <v>3</v>
       </c>
-      <c r="J6" s="49"/>
+      <c r="J6" s="18">
+        <v>15</v>
+      </c>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
       <c r="M6" s="49"/>
@@ -1303,7 +1310,7 @@
       <c r="U6" s="49"/>
       <c r="V6" s="39">
         <f t="shared" si="0"/>
-        <v>0.71666666666666667</v>
+        <v>0.74814814814814812</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1335,7 +1342,9 @@
       <c r="I7" s="18">
         <v>3</v>
       </c>
-      <c r="J7" s="49"/>
+      <c r="J7" s="18">
+        <v>3</v>
+      </c>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
@@ -1349,7 +1358,7 @@
       <c r="U7" s="49"/>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1381,7 +1390,9 @@
       <c r="I8" s="18">
         <v>3</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="18">
+        <v>3</v>
+      </c>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
@@ -1395,7 +1406,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1427,7 +1438,9 @@
       <c r="I9" s="18">
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
@@ -1441,7 +1454,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="39">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1467,11 +1480,15 @@
       <c r="G10" s="49">
         <v>15</v>
       </c>
-      <c r="H10" s="49"/>
+      <c r="H10" s="49">
+        <v>15</v>
+      </c>
       <c r="I10" s="18">
         <v>3</v>
       </c>
-      <c r="J10" s="49"/>
+      <c r="J10" s="18">
+        <v>15</v>
+      </c>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
@@ -1485,7 +1502,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="39">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1517,7 +1534,9 @@
       <c r="I11" s="18">
         <v>0</v>
       </c>
-      <c r="J11" s="49"/>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
@@ -1563,7 +1582,9 @@
       <c r="I12" s="18">
         <v>0</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
@@ -1577,7 +1598,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="39">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1609,7 +1630,9 @@
       <c r="I13" s="18">
         <v>0</v>
       </c>
-      <c r="J13" s="49"/>
+      <c r="J13" s="18">
+        <v>3</v>
+      </c>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
@@ -1623,7 +1646,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="39">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1655,7 +1678,9 @@
       <c r="I14" s="18">
         <v>3</v>
       </c>
-      <c r="J14" s="49"/>
+      <c r="J14" s="18">
+        <v>3</v>
+      </c>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
@@ -1669,7 +1694,7 @@
       <c r="U14" s="49"/>
       <c r="V14" s="39">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1700,7 +1725,9 @@
       <c r="I15" s="18">
         <v>6</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="18">
+        <v>3</v>
+      </c>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
       <c r="M15" s="49"/>
@@ -1714,7 +1741,7 @@
       <c r="U15" s="49"/>
       <c r="V15" s="39">
         <f t="shared" si="0"/>
-        <v>0.82499999999999996</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1746,7 +1773,9 @@
       <c r="I16" s="18">
         <v>3</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="18">
+        <v>3</v>
+      </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
       <c r="M16" s="49"/>
@@ -1760,7 +1789,7 @@
       <c r="U16" s="49"/>
       <c r="V16" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1792,7 +1821,9 @@
       <c r="I17" s="18">
         <v>3</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="18">
+        <v>3</v>
+      </c>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
       <c r="M17" s="49"/>
@@ -1806,7 +1837,7 @@
       <c r="U17" s="49"/>
       <c r="V17" s="39">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1838,7 +1869,9 @@
       <c r="I18" s="18">
         <v>3</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="18">
+        <v>15</v>
+      </c>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
@@ -1852,7 +1885,7 @@
       <c r="U18" s="49"/>
       <c r="V18" s="39">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1884,7 +1917,9 @@
       <c r="I19" s="18">
         <v>3</v>
       </c>
-      <c r="J19" s="49"/>
+      <c r="J19" s="18">
+        <v>3</v>
+      </c>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
@@ -1898,7 +1933,7 @@
       <c r="U19" s="49"/>
       <c r="V19" s="39">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="W19"/>
     </row>
@@ -1930,7 +1965,9 @@
       <c r="I20" s="18">
         <v>0</v>
       </c>
-      <c r="J20" s="49"/>
+      <c r="J20" s="18">
+        <v>3</v>
+      </c>
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
@@ -1944,7 +1981,7 @@
       <c r="U20" s="49"/>
       <c r="V20" s="39">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W20"/>
     </row>
@@ -1976,7 +2013,9 @@
       <c r="I21" s="18">
         <v>3</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="18">
+        <v>3</v>
+      </c>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
@@ -1990,7 +2029,7 @@
       <c r="U21" s="49"/>
       <c r="V21" s="39">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2022,7 +2061,9 @@
       <c r="I22" s="18">
         <v>3</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="18">
+        <v>3</v>
+      </c>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
       <c r="M22" s="49"/>
@@ -2036,7 +2077,7 @@
       <c r="U22" s="49"/>
       <c r="V22" s="39">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2068,7 +2109,9 @@
       <c r="I23" s="18">
         <v>3</v>
       </c>
-      <c r="J23" s="49"/>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
@@ -2082,7 +2125,7 @@
       <c r="U23" s="49"/>
       <c r="V23" s="39">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2114,7 +2157,9 @@
       <c r="I24" s="18">
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="18">
+        <v>3</v>
+      </c>
       <c r="K24" s="49"/>
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
@@ -2128,7 +2173,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2160,7 +2205,9 @@
       <c r="I25" s="18">
         <v>3</v>
       </c>
-      <c r="J25" s="49"/>
+      <c r="J25" s="18">
+        <v>3</v>
+      </c>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
@@ -2174,7 +2221,7 @@
       <c r="U25" s="49"/>
       <c r="V25" s="39">
         <f t="shared" si="0"/>
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2206,7 +2253,9 @@
       <c r="I26" s="18">
         <v>15</v>
       </c>
-      <c r="J26" s="49"/>
+      <c r="J26" s="18">
+        <v>15</v>
+      </c>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
@@ -2220,7 +2269,7 @@
       <c r="U26" s="49"/>
       <c r="V26" s="39">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2252,7 +2301,9 @@
       <c r="I27" s="18">
         <v>3</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="18">
+        <v>3</v>
+      </c>
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
       <c r="M27" s="49"/>
@@ -2266,7 +2317,7 @@
       <c r="U27" s="49"/>
       <c r="V27" s="39">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.50370370370370365</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2298,7 +2349,9 @@
       <c r="I28" s="18">
         <v>3</v>
       </c>
-      <c r="J28" s="49"/>
+      <c r="J28" s="18">
+        <v>3</v>
+      </c>
       <c r="K28" s="49"/>
       <c r="L28" s="49"/>
       <c r="M28" s="49"/>
@@ -2312,7 +2365,7 @@
       <c r="U28" s="49"/>
       <c r="V28" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2338,11 +2391,15 @@
       <c r="G29" s="49">
         <v>3</v>
       </c>
-      <c r="H29" s="59"/>
+      <c r="H29" s="49">
+        <v>3</v>
+      </c>
       <c r="I29" s="18">
         <v>3</v>
       </c>
-      <c r="J29" s="49"/>
+      <c r="J29" s="18">
+        <v>3</v>
+      </c>
       <c r="K29" s="49"/>
       <c r="L29" s="49"/>
       <c r="M29" s="49"/>
@@ -2356,7 +2413,7 @@
       <c r="U29" s="49"/>
       <c r="V29" s="39">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2388,7 +2445,9 @@
       <c r="I30" s="18">
         <v>3</v>
       </c>
-      <c r="J30" s="49"/>
+      <c r="J30" s="18">
+        <v>3</v>
+      </c>
       <c r="K30" s="49"/>
       <c r="L30" s="49"/>
       <c r="M30" s="49"/>
@@ -2402,7 +2461,7 @@
       <c r="U30" s="49"/>
       <c r="V30" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2434,7 +2493,9 @@
       <c r="I31" s="18">
         <v>3</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="18">
+        <v>3</v>
+      </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
@@ -2448,7 +2509,7 @@
       <c r="U31" s="49"/>
       <c r="V31" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2480,7 +2541,9 @@
       <c r="I32" s="18">
         <v>3</v>
       </c>
-      <c r="J32" s="49"/>
+      <c r="J32" s="18">
+        <v>3</v>
+      </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
       <c r="M32" s="49"/>
@@ -2494,7 +2557,7 @@
       <c r="U32" s="49"/>
       <c r="V32" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2526,7 +2589,9 @@
       <c r="I33" s="18">
         <v>3</v>
       </c>
-      <c r="J33" s="49"/>
+      <c r="J33" s="18">
+        <v>3</v>
+      </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
       <c r="M33" s="49"/>
@@ -2540,7 +2605,7 @@
       <c r="U33" s="49"/>
       <c r="V33" s="39">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2668,15 +2733,15 @@
       </c>
       <c r="H36" s="35">
         <f t="shared" si="1"/>
-        <v>2.8666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="I36" s="35">
         <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
-      <c r="J36" s="35" t="e">
+      <c r="J36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.9375</v>
       </c>
       <c r="K36" s="35" t="e">
         <f t="shared" si="1"/>
@@ -2724,7 +2789,7 @@
       </c>
       <c r="V36" s="35">
         <f t="shared" si="1"/>
-        <v>0.46484375000000011</v>
+        <v>0.44652777777777786</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2758,15 +2823,15 @@
       </c>
       <c r="H37" s="35">
         <f t="shared" si="2"/>
-        <v>2.3449628088122516</v>
+        <v>3.1212073759798415</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="2"/>
         <v>2.6327650128530702</v>
       </c>
-      <c r="J37" s="35" t="e">
+      <c r="J37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.4062821721543388</v>
       </c>
       <c r="K37" s="35" t="e">
         <f t="shared" si="2"/>
@@ -2814,7 +2879,7 @@
       </c>
       <c r="V37" s="35">
         <f t="shared" si="2"/>
-        <v>0.19930136012094168</v>
+        <v>0.1972260784563625</v>
       </c>
       <c r="W37"/>
     </row>
@@ -2854,9 +2919,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J38" s="35" t="e">
+      <c r="J38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="K38" s="35" t="e">
         <f t="shared" si="3"/>
@@ -2904,7 +2969,7 @@
       </c>
       <c r="V38" s="35">
         <f t="shared" si="3"/>
-        <v>0.46250000000000002</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W38"/>
     </row>
@@ -2946,7 +3011,7 @@
       </c>
       <c r="J39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="38">
         <f t="shared" si="4"/>
@@ -4886,7 +4951,7 @@
       </c>
       <c r="B2" s="21">
         <f>Quiz!V2</f>
-        <v>0.375</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
@@ -4902,7 +4967,7 @@
       </c>
       <c r="F2" s="21">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>0.375</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4920,7 +4985,7 @@
       </c>
       <c r="B3" s="21">
         <f>Quiz!V3</f>
-        <v>0.65833333333333333</v>
+        <v>0.58518518518518514</v>
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
@@ -4936,7 +5001,7 @@
       </c>
       <c r="F3" s="21">
         <f t="shared" si="0"/>
-        <v>0.65833333333333333</v>
+        <v>0.58518518518518514</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4986,7 +5051,7 @@
       </c>
       <c r="B5" s="21">
         <f>Quiz!V5</f>
-        <v>0.45</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
@@ -5002,7 +5067,7 @@
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="1"/>
@@ -5019,7 +5084,7 @@
       </c>
       <c r="B6" s="21">
         <f>Quiz!V6</f>
-        <v>0.71666666666666667</v>
+        <v>0.74814814814814812</v>
       </c>
       <c r="C6" s="20">
         <f>Homework!L6</f>
@@ -5035,7 +5100,7 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>0.71666666666666667</v>
+        <v>0.74814814814814812</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="1"/>
@@ -5052,7 +5117,7 @@
       </c>
       <c r="B7" s="21">
         <f>Quiz!V7</f>
-        <v>0.70833333333333337</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
@@ -5068,7 +5133,7 @@
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
@@ -5085,7 +5150,7 @@
       </c>
       <c r="B8" s="21">
         <f>Quiz!V8</f>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
@@ -5101,7 +5166,7 @@
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
@@ -5118,7 +5183,7 @@
       </c>
       <c r="B9" s="21">
         <f>Quiz!V9</f>
-        <v>0.2</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="C9" s="20">
         <f>Homework!L9</f>
@@ -5134,7 +5199,7 @@
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="1"/>
@@ -5151,7 +5216,7 @@
       </c>
       <c r="B10" s="21">
         <f>Quiz!V10</f>
-        <v>0.57499999999999996</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
@@ -5167,7 +5232,7 @@
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="1"/>
@@ -5217,7 +5282,7 @@
       </c>
       <c r="B12" s="21">
         <f>Quiz!V12</f>
-        <v>0.05</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="C12" s="20">
         <f>Homework!L12</f>
@@ -5233,7 +5298,7 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="1"/>
@@ -5250,7 +5315,7 @@
       </c>
       <c r="B13" s="21">
         <f>Quiz!V13</f>
-        <v>0.3</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
@@ -5266,7 +5331,7 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
@@ -5283,7 +5348,7 @@
       </c>
       <c r="B14" s="21">
         <f>Quiz!V14</f>
-        <v>0.47499999999999998</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
@@ -5299,7 +5364,7 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
@@ -5316,7 +5381,7 @@
       </c>
       <c r="B15" s="21">
         <f>Quiz!V15</f>
-        <v>0.82499999999999996</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="C15" s="20">
         <f>Homework!L15</f>
@@ -5332,7 +5397,7 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
-        <v>0.82499999999999996</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="1"/>
@@ -5349,7 +5414,7 @@
       </c>
       <c r="B16" s="21">
         <f>Quiz!V16</f>
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
@@ -5365,7 +5430,7 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
@@ -5382,7 +5447,7 @@
       </c>
       <c r="B17" s="21">
         <f>Quiz!V17</f>
-        <v>0.66666666666666663</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="C17" s="20">
         <f>Homework!L17</f>
@@ -5398,7 +5463,7 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
@@ -5415,7 +5480,7 @@
       </c>
       <c r="B18" s="21">
         <f>Quiz!V18</f>
-        <v>0.57499999999999996</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
@@ -5431,7 +5496,7 @@
       </c>
       <c r="F18" s="21">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>0.57499999999999996</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
@@ -5448,7 +5513,7 @@
       </c>
       <c r="B19" s="21">
         <f>Quiz!V19</f>
-        <v>0.55000000000000004</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
@@ -5464,7 +5529,7 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>0.55000000000000004</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
@@ -5481,7 +5546,7 @@
       </c>
       <c r="B20" s="21">
         <f>Quiz!V20</f>
-        <v>0.35</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
@@ -5497,7 +5562,7 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5514,7 +5579,7 @@
       </c>
       <c r="B21" s="21">
         <f>Quiz!V21</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
@@ -5530,7 +5595,7 @@
       </c>
       <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="4"/>
@@ -5547,7 +5612,7 @@
       </c>
       <c r="B22" s="21">
         <f>Quiz!V22</f>
-        <v>0.6166666666666667</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
@@ -5563,7 +5628,7 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>0.6166666666666667</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
@@ -5580,7 +5645,7 @@
       </c>
       <c r="B23" s="21">
         <f>Quiz!V23</f>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
@@ -5596,7 +5661,7 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="4"/>
@@ -5613,7 +5678,7 @@
       </c>
       <c r="B24" s="21">
         <f>Quiz!V24</f>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
@@ -5629,7 +5694,7 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="4"/>
@@ -5646,7 +5711,7 @@
       </c>
       <c r="B25" s="21">
         <f>Quiz!V25</f>
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
@@ -5662,7 +5727,7 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="4"/>
@@ -5679,7 +5744,7 @@
       </c>
       <c r="B26" s="21">
         <f>Quiz!V26</f>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="C26" s="20">
         <f>Homework!L26</f>
@@ -5695,7 +5760,7 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5712,7 +5777,7 @@
       </c>
       <c r="B27" s="21">
         <f>Quiz!V27</f>
-        <v>0.54166666666666663</v>
+        <v>0.50370370370370365</v>
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
@@ -5728,7 +5793,7 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>0.54166666666666663</v>
+        <v>0.50370370370370365</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
@@ -5745,7 +5810,7 @@
       </c>
       <c r="B28" s="21">
         <f>Quiz!V28</f>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
@@ -5761,7 +5826,7 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
@@ -5778,7 +5843,7 @@
       </c>
       <c r="B29" s="21">
         <f>Quiz!V29</f>
-        <v>0.55000000000000004</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
@@ -5794,7 +5859,7 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="6"/>
@@ -5811,7 +5876,7 @@
       </c>
       <c r="B30" s="21">
         <f>Quiz!V30</f>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
@@ -5827,7 +5892,7 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="6"/>
@@ -5844,7 +5909,7 @@
       </c>
       <c r="B31" s="21">
         <f>Quiz!V31</f>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
@@ -5860,7 +5925,7 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="6"/>
@@ -5877,7 +5942,7 @@
       </c>
       <c r="B32" s="21">
         <f>Quiz!V32</f>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
@@ -5893,7 +5958,7 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="6"/>
@@ -5910,7 +5975,7 @@
       </c>
       <c r="B33" s="21">
         <f>Quiz!V33</f>
-        <v>0.6166666666666667</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="C33" s="20">
         <f>Homework!L33</f>
@@ -5926,7 +5991,7 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" si="3"/>
-        <v>0.6166666666666667</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="6"/>
@@ -5983,7 +6048,7 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.46484375000000011</v>
+        <v>0.44652777777777786</v>
       </c>
       <c r="C36" s="35">
         <f t="shared" si="8"/>
@@ -5999,7 +6064,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="8"/>
-        <v>0.46484375000000011</v>
+        <v>0.44652777777777786</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="8"/>
@@ -6016,7 +6081,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.19930136012094168</v>
+        <v>0.1972260784563625</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" si="9"/>
@@ -6032,7 +6097,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="9"/>
-        <v>0.19930136012094168</v>
+        <v>0.1972260784563625</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="9"/>
@@ -6049,7 +6114,7 @@
       </c>
       <c r="B38" s="35">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.46250000000000002</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C38" s="35">
         <f t="shared" si="10"/>
@@ -6065,7 +6130,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="10"/>
-        <v>0.46250000000000002</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="G38" s="35">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C135D6-2145-634D-A4DB-199110D6F8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33237174-9429-0C45-91A5-8E99810A3B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,7 +1105,9 @@
       <c r="J2" s="18">
         <v>3</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="18">
+        <v>15</v>
+      </c>
       <c r="L2" s="49"/>
       <c r="M2" s="49"/>
       <c r="N2" s="49"/>
@@ -1118,7 +1120,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="39">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.35555555555555557</v>
+        <v>0.42</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1153,7 +1155,9 @@
       <c r="J3" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="49"/>
+      <c r="K3" s="18">
+        <v>15</v>
+      </c>
       <c r="L3" s="49"/>
       <c r="M3" s="49"/>
       <c r="N3" s="49"/>
@@ -1166,7 +1170,7 @@
       <c r="U3" s="49"/>
       <c r="V3" s="39">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.58518518518518514</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1201,7 +1205,9 @@
       <c r="J4" s="18">
         <v>0</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
@@ -1249,7 +1255,9 @@
       <c r="J5" s="18">
         <v>3</v>
       </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="18">
+        <v>15</v>
+      </c>
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
@@ -1262,7 +1270,7 @@
       <c r="U5" s="49"/>
       <c r="V5" s="39">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.48</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1297,7 +1305,9 @@
       <c r="J6" s="18">
         <v>15</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="18">
+        <v>15</v>
+      </c>
       <c r="L6" s="49"/>
       <c r="M6" s="49"/>
       <c r="N6" s="49"/>
@@ -1310,7 +1320,7 @@
       <c r="U6" s="49"/>
       <c r="V6" s="39">
         <f t="shared" si="0"/>
-        <v>0.74814814814814812</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1345,7 +1355,9 @@
       <c r="J7" s="18">
         <v>3</v>
       </c>
-      <c r="K7" s="49"/>
+      <c r="K7" s="18">
+        <v>15</v>
+      </c>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
       <c r="N7" s="49"/>
@@ -1358,7 +1370,7 @@
       <c r="U7" s="49"/>
       <c r="V7" s="39">
         <f t="shared" si="0"/>
-        <v>0.6518518518518519</v>
+        <v>0.68666666666666665</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1393,7 +1405,9 @@
       <c r="J8" s="18">
         <v>3</v>
       </c>
-      <c r="K8" s="49"/>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
@@ -1406,7 +1420,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="39">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.36</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1441,7 +1455,9 @@
       <c r="J9" s="18">
         <v>0</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
@@ -1454,7 +1470,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="39">
         <f t="shared" si="0"/>
-        <v>0.17777777777777778</v>
+        <v>0.16</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1489,7 +1505,9 @@
       <c r="J10" s="18">
         <v>15</v>
       </c>
-      <c r="K10" s="49"/>
+      <c r="K10" s="18">
+        <v>15</v>
+      </c>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
@@ -1502,7 +1520,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="39">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.76</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1537,7 +1555,9 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="49"/>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
@@ -1585,7 +1605,9 @@
       <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="49"/>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
@@ -1598,7 +1620,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="39">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
+        <v>0.04</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1633,7 +1655,9 @@
       <c r="J13" s="18">
         <v>3</v>
       </c>
-      <c r="K13" s="49"/>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
@@ -1646,7 +1670,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="39">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
+        <v>0.26</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1681,7 +1705,9 @@
       <c r="J14" s="18">
         <v>3</v>
       </c>
-      <c r="K14" s="49"/>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
@@ -1694,7 +1720,7 @@
       <c r="U14" s="49"/>
       <c r="V14" s="39">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1728,7 +1754,9 @@
       <c r="J15" s="18">
         <v>3</v>
       </c>
-      <c r="K15" s="49"/>
+      <c r="K15" s="18">
+        <v>15</v>
+      </c>
       <c r="L15" s="49"/>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -1741,7 +1769,7 @@
       <c r="U15" s="49"/>
       <c r="V15" s="39">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.78</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1776,7 +1804,9 @@
       <c r="J16" s="18">
         <v>3</v>
       </c>
-      <c r="K16" s="49"/>
+      <c r="K16" s="18">
+        <v>3</v>
+      </c>
       <c r="L16" s="49"/>
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
@@ -1789,7 +1819,7 @@
       <c r="U16" s="49"/>
       <c r="V16" s="39">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.52</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1824,7 +1854,9 @@
       <c r="J17" s="18">
         <v>3</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="18">
+        <v>15</v>
+      </c>
       <c r="L17" s="49"/>
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
@@ -1837,7 +1869,7 @@
       <c r="U17" s="49"/>
       <c r="V17" s="39">
         <f t="shared" si="0"/>
-        <v>0.61481481481481481</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1872,7 +1904,9 @@
       <c r="J18" s="18">
         <v>15</v>
       </c>
-      <c r="K18" s="49"/>
+      <c r="K18" s="18">
+        <v>15</v>
+      </c>
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
@@ -1885,7 +1919,7 @@
       <c r="U18" s="49"/>
       <c r="V18" s="39">
         <f t="shared" si="0"/>
-        <v>0.62222222222222223</v>
+        <v>0.66</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1920,7 +1954,9 @@
       <c r="J19" s="18">
         <v>3</v>
       </c>
-      <c r="K19" s="49"/>
+      <c r="K19" s="18">
+        <v>3</v>
+      </c>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
       <c r="N19" s="49"/>
@@ -1933,7 +1969,7 @@
       <c r="U19" s="49"/>
       <c r="V19" s="39">
         <f t="shared" si="0"/>
-        <v>0.51111111111111107</v>
+        <v>0.48</v>
       </c>
       <c r="W19"/>
     </row>
@@ -1968,7 +2004,9 @@
       <c r="J20" s="18">
         <v>3</v>
       </c>
-      <c r="K20" s="49"/>
+      <c r="K20" s="18">
+        <v>15</v>
+      </c>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
       <c r="N20" s="49"/>
@@ -1981,7 +2019,7 @@
       <c r="U20" s="49"/>
       <c r="V20" s="39">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2016,7 +2054,9 @@
       <c r="J21" s="18">
         <v>3</v>
       </c>
-      <c r="K21" s="49"/>
+      <c r="K21" s="18">
+        <v>15</v>
+      </c>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="49"/>
@@ -2029,7 +2069,7 @@
       <c r="U21" s="49"/>
       <c r="V21" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2064,7 +2104,9 @@
       <c r="J22" s="18">
         <v>3</v>
       </c>
-      <c r="K22" s="49"/>
+      <c r="K22" s="18">
+        <v>15</v>
+      </c>
       <c r="L22" s="49"/>
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
@@ -2077,7 +2119,7 @@
       <c r="U22" s="49"/>
       <c r="V22" s="39">
         <f t="shared" si="0"/>
-        <v>0.57037037037037042</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2112,7 +2154,9 @@
       <c r="J23" s="18">
         <v>0</v>
       </c>
-      <c r="K23" s="49"/>
+      <c r="K23" s="18">
+        <v>3</v>
+      </c>
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
@@ -2125,7 +2169,7 @@
       <c r="U23" s="49"/>
       <c r="V23" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2160,7 +2204,9 @@
       <c r="J24" s="18">
         <v>3</v>
       </c>
-      <c r="K24" s="49"/>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
       <c r="N24" s="49"/>
@@ -2173,7 +2219,7 @@
       <c r="U24" s="49"/>
       <c r="V24" s="39">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.34</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2208,7 +2254,9 @@
       <c r="J25" s="18">
         <v>3</v>
       </c>
-      <c r="K25" s="49"/>
+      <c r="K25" s="18">
+        <v>15</v>
+      </c>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
@@ -2221,7 +2269,7 @@
       <c r="U25" s="49"/>
       <c r="V25" s="39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2256,7 +2304,9 @@
       <c r="J26" s="18">
         <v>15</v>
       </c>
-      <c r="K26" s="49"/>
+      <c r="K26" s="18">
+        <v>15</v>
+      </c>
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
@@ -2269,7 +2319,7 @@
       <c r="U26" s="49"/>
       <c r="V26" s="39">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2304,7 +2354,9 @@
       <c r="J27" s="18">
         <v>3</v>
       </c>
-      <c r="K27" s="49"/>
+      <c r="K27" s="18">
+        <v>15</v>
+      </c>
       <c r="L27" s="49"/>
       <c r="M27" s="49"/>
       <c r="N27" s="49"/>
@@ -2317,7 +2369,7 @@
       <c r="U27" s="49"/>
       <c r="V27" s="39">
         <f t="shared" si="0"/>
-        <v>0.50370370370370365</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2352,7 +2404,9 @@
       <c r="J28" s="18">
         <v>3</v>
       </c>
-      <c r="K28" s="49"/>
+      <c r="K28" s="18">
+        <v>15</v>
+      </c>
       <c r="L28" s="49"/>
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
@@ -2365,7 +2419,7 @@
       <c r="U28" s="49"/>
       <c r="V28" s="39">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2400,7 +2454,9 @@
       <c r="J29" s="18">
         <v>3</v>
       </c>
-      <c r="K29" s="49"/>
+      <c r="K29" s="18">
+        <v>3</v>
+      </c>
       <c r="L29" s="49"/>
       <c r="M29" s="49"/>
       <c r="N29" s="49"/>
@@ -2413,7 +2469,7 @@
       <c r="U29" s="49"/>
       <c r="V29" s="39">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2448,7 +2504,9 @@
       <c r="J30" s="18">
         <v>3</v>
       </c>
-      <c r="K30" s="49"/>
+      <c r="K30" s="18">
+        <v>3</v>
+      </c>
       <c r="L30" s="49"/>
       <c r="M30" s="49"/>
       <c r="N30" s="49"/>
@@ -2461,7 +2519,7 @@
       <c r="U30" s="49"/>
       <c r="V30" s="39">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.36</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2496,7 +2554,9 @@
       <c r="J31" s="18">
         <v>3</v>
       </c>
-      <c r="K31" s="49"/>
+      <c r="K31" s="18">
+        <v>15</v>
+      </c>
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
@@ -2509,7 +2569,7 @@
       <c r="U31" s="49"/>
       <c r="V31" s="39">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2544,7 +2604,9 @@
       <c r="J32" s="18">
         <v>3</v>
       </c>
-      <c r="K32" s="49"/>
+      <c r="K32" s="18">
+        <v>15</v>
+      </c>
       <c r="L32" s="49"/>
       <c r="M32" s="49"/>
       <c r="N32" s="49"/>
@@ -2557,7 +2619,7 @@
       <c r="U32" s="49"/>
       <c r="V32" s="39">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2592,7 +2654,9 @@
       <c r="J33" s="18">
         <v>3</v>
       </c>
-      <c r="K33" s="49"/>
+      <c r="K33" s="18">
+        <v>15</v>
+      </c>
       <c r="L33" s="49"/>
       <c r="M33" s="49"/>
       <c r="N33" s="49"/>
@@ -2605,7 +2669,7 @@
       <c r="U33" s="49"/>
       <c r="V33" s="39">
         <f t="shared" si="0"/>
-        <v>0.57037037037037042</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2743,9 +2807,9 @@
         <f t="shared" si="1"/>
         <v>3.9375</v>
       </c>
-      <c r="K36" s="35" t="e">
+      <c r="K36" s="35">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.46875</v>
       </c>
       <c r="L36" s="35" t="e">
         <f t="shared" si="1"/>
@@ -2789,7 +2853,7 @@
       </c>
       <c r="V36" s="35">
         <f t="shared" si="1"/>
-        <v>0.44652777777777786</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2833,9 +2897,9 @@
         <f t="shared" si="2"/>
         <v>4.4062821721543388</v>
       </c>
-      <c r="K37" s="35" t="e">
+      <c r="K37" s="35">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.8626355089741038</v>
       </c>
       <c r="L37" s="35" t="e">
         <f t="shared" si="2"/>
@@ -2879,7 +2943,7 @@
       </c>
       <c r="V37" s="35">
         <f t="shared" si="2"/>
-        <v>0.1972260784563625</v>
+        <v>0.20893311512295518</v>
       </c>
       <c r="W37"/>
     </row>
@@ -2923,9 +2987,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K38" s="35" t="e">
+      <c r="K38" s="35">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>15</v>
       </c>
       <c r="L38" s="35" t="e">
         <f t="shared" si="3"/>
@@ -2969,7 +3033,7 @@
       </c>
       <c r="V38" s="35">
         <f t="shared" si="3"/>
-        <v>0.43333333333333335</v>
+        <v>0.47</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3015,7 +3079,7 @@
       </c>
       <c r="K39" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="38">
         <f t="shared" si="4"/>
@@ -4951,7 +5015,7 @@
       </c>
       <c r="B2" s="21">
         <f>Quiz!V2</f>
-        <v>0.35555555555555557</v>
+        <v>0.42</v>
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
@@ -4967,7 +5031,7 @@
       </c>
       <c r="F2" s="21">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>0.35555555555555557</v>
+        <v>0.42</v>
       </c>
       <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4985,7 +5049,7 @@
       </c>
       <c r="B3" s="21">
         <f>Quiz!V3</f>
-        <v>0.58518518518518514</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
@@ -5001,7 +5065,7 @@
       </c>
       <c r="F3" s="21">
         <f t="shared" si="0"/>
-        <v>0.58518518518518514</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5051,7 +5115,7 @@
       </c>
       <c r="B5" s="21">
         <f>Quiz!V5</f>
-        <v>0.42222222222222222</v>
+        <v>0.48</v>
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
@@ -5067,7 +5131,7 @@
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.48</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="1"/>
@@ -5084,7 +5148,7 @@
       </c>
       <c r="B6" s="21">
         <f>Quiz!V6</f>
-        <v>0.74814814814814812</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="C6" s="20">
         <f>Homework!L6</f>
@@ -5100,11 +5164,11 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>0.74814814814814812</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="2"/>
@@ -5117,7 +5181,7 @@
       </c>
       <c r="B7" s="21">
         <f>Quiz!V7</f>
-        <v>0.6518518518518519</v>
+        <v>0.68666666666666665</v>
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
@@ -5133,7 +5197,7 @@
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>0.6518518518518519</v>
+        <v>0.68666666666666665</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
@@ -5150,7 +5214,7 @@
       </c>
       <c r="B8" s="21">
         <f>Quiz!V8</f>
-        <v>0.37777777777777777</v>
+        <v>0.36</v>
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
@@ -5166,7 +5230,7 @@
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.36</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
@@ -5183,7 +5247,7 @@
       </c>
       <c r="B9" s="21">
         <f>Quiz!V9</f>
-        <v>0.17777777777777778</v>
+        <v>0.16</v>
       </c>
       <c r="C9" s="20">
         <f>Homework!L9</f>
@@ -5199,7 +5263,7 @@
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
-        <v>0.17777777777777778</v>
+        <v>0.16</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="1"/>
@@ -5216,7 +5280,7 @@
       </c>
       <c r="B10" s="21">
         <f>Quiz!V10</f>
-        <v>0.73333333333333328</v>
+        <v>0.76</v>
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
@@ -5232,11 +5296,11 @@
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.76</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
@@ -5282,7 +5346,7 @@
       </c>
       <c r="B12" s="21">
         <f>Quiz!V12</f>
-        <v>4.4444444444444446E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C12" s="20">
         <f>Homework!L12</f>
@@ -5298,7 +5362,7 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="1"/>
@@ -5315,7 +5379,7 @@
       </c>
       <c r="B13" s="21">
         <f>Quiz!V13</f>
-        <v>0.28888888888888886</v>
+        <v>0.26</v>
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
@@ -5331,7 +5395,7 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
+        <v>0.26</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
@@ -5348,7 +5412,7 @@
       </c>
       <c r="B14" s="21">
         <f>Quiz!V14</f>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
@@ -5364,7 +5428,7 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
@@ -5381,7 +5445,7 @@
       </c>
       <c r="B15" s="21">
         <f>Quiz!V15</f>
-        <v>0.75555555555555554</v>
+        <v>0.78</v>
       </c>
       <c r="C15" s="20">
         <f>Homework!L15</f>
@@ -5397,7 +5461,7 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.78</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="1"/>
@@ -5414,7 +5478,7 @@
       </c>
       <c r="B16" s="21">
         <f>Quiz!V16</f>
-        <v>0.55555555555555558</v>
+        <v>0.52</v>
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
@@ -5430,7 +5494,7 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.52</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
@@ -5447,7 +5511,7 @@
       </c>
       <c r="B17" s="21">
         <f>Quiz!V17</f>
-        <v>0.61481481481481481</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="C17" s="20">
         <f>Homework!L17</f>
@@ -5463,7 +5527,7 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" si="0"/>
-        <v>0.61481481481481481</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
@@ -5480,7 +5544,7 @@
       </c>
       <c r="B18" s="21">
         <f>Quiz!V18</f>
-        <v>0.62222222222222223</v>
+        <v>0.66</v>
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
@@ -5496,7 +5560,7 @@
       </c>
       <c r="F18" s="21">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>0.62222222222222223</v>
+        <v>0.66</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
@@ -5513,7 +5577,7 @@
       </c>
       <c r="B19" s="21">
         <f>Quiz!V19</f>
-        <v>0.51111111111111107</v>
+        <v>0.48</v>
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
@@ -5529,7 +5593,7 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>0.51111111111111107</v>
+        <v>0.48</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
@@ -5546,7 +5610,7 @@
       </c>
       <c r="B20" s="21">
         <f>Quiz!V20</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
@@ -5562,7 +5626,7 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5579,7 +5643,7 @@
       </c>
       <c r="B21" s="21">
         <f>Quiz!V21</f>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
@@ -5595,7 +5659,7 @@
       </c>
       <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="4"/>
@@ -5612,7 +5676,7 @@
       </c>
       <c r="B22" s="21">
         <f>Quiz!V22</f>
-        <v>0.57037037037037042</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
@@ -5628,7 +5692,7 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>0.57037037037037042</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
@@ -5645,7 +5709,7 @@
       </c>
       <c r="B23" s="21">
         <f>Quiz!V23</f>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
@@ -5661,7 +5725,7 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="4"/>
@@ -5678,7 +5742,7 @@
       </c>
       <c r="B24" s="21">
         <f>Quiz!V24</f>
-        <v>0.37777777777777777</v>
+        <v>0.34</v>
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
@@ -5694,7 +5758,7 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>0.37777777777777777</v>
+        <v>0.34</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="4"/>
@@ -5711,7 +5775,7 @@
       </c>
       <c r="B25" s="21">
         <f>Quiz!V25</f>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
@@ -5727,7 +5791,7 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="4"/>
@@ -5744,7 +5808,7 @@
       </c>
       <c r="B26" s="21">
         <f>Quiz!V26</f>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="C26" s="20">
         <f>Homework!L26</f>
@@ -5760,7 +5824,7 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5777,7 +5841,7 @@
       </c>
       <c r="B27" s="21">
         <f>Quiz!V27</f>
-        <v>0.50370370370370365</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
@@ -5793,7 +5857,7 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>0.50370370370370365</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
@@ -5810,7 +5874,7 @@
       </c>
       <c r="B28" s="21">
         <f>Quiz!V28</f>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
@@ -5826,7 +5890,7 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
@@ -5843,7 +5907,7 @@
       </c>
       <c r="B29" s="21">
         <f>Quiz!V29</f>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
@@ -5859,7 +5923,7 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="6"/>
@@ -5876,7 +5940,7 @@
       </c>
       <c r="B30" s="21">
         <f>Quiz!V30</f>
-        <v>0.37777777777777777</v>
+        <v>0.36</v>
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
@@ -5892,7 +5956,7 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>0.37777777777777777</v>
+        <v>0.36</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="6"/>
@@ -5909,7 +5973,7 @@
       </c>
       <c r="B31" s="21">
         <f>Quiz!V31</f>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
@@ -5925,7 +5989,7 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="6"/>
@@ -5942,7 +6006,7 @@
       </c>
       <c r="B32" s="21">
         <f>Quiz!V32</f>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
@@ -5958,7 +6022,7 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>0.37777777777777777</v>
+        <v>0.44</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="6"/>
@@ -5975,7 +6039,7 @@
       </c>
       <c r="B33" s="21">
         <f>Quiz!V33</f>
-        <v>0.57037037037037042</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="C33" s="20">
         <f>Homework!L33</f>
@@ -5991,7 +6055,7 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" si="3"/>
-        <v>0.57037037037037042</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="6"/>
@@ -6048,7 +6112,7 @@
       </c>
       <c r="B36" s="35">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.44652777777777786</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C36" s="35">
         <f t="shared" si="8"/>
@@ -6064,11 +6128,11 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="8"/>
-        <v>0.44652777777777786</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="8"/>
-        <v>0.453125</v>
+        <v>0.484375</v>
       </c>
       <c r="H36" s="35">
         <f t="shared" si="8"/>
@@ -6081,7 +6145,7 @@
       </c>
       <c r="B37" s="35">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.1972260784563625</v>
+        <v>0.20893311512295518</v>
       </c>
       <c r="C37" s="35">
         <f t="shared" si="9"/>
@@ -6097,11 +6161,11 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="9"/>
-        <v>0.1972260784563625</v>
+        <v>0.20893311512295518</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="9"/>
-        <v>0.1950754609987401</v>
+        <v>0.23706454136836563</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="9"/>
@@ -6114,7 +6178,7 @@
       </c>
       <c r="B38" s="35">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.43333333333333335</v>
+        <v>0.47</v>
       </c>
       <c r="C38" s="35">
         <f t="shared" si="10"/>
@@ -6130,7 +6194,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="10"/>
-        <v>0.43333333333333335</v>
+        <v>0.47</v>
       </c>
       <c r="G38" s="35">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33237174-9429-0C45-91A5-8E99810A3B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384A230-E6F8-4D46-9B0B-872DE16F7AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
   <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -3479,7 +3479,10 @@
       <c r="A2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="53">
+        <f>9+2+9+3+3.5+1+10+6+3+3</f>
+        <v>49.5</v>
+      </c>
       <c r="C2" s="48"/>
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
@@ -3491,14 +3494,17 @@
       <c r="K2" s="48"/>
       <c r="L2" s="39">
         <f t="shared" ref="L2:L33" si="0">IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
-        <v>0</v>
+        <v>0.74249999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="53">
+        <f>9+1+7+9+4.5+6+3+4+0+2</f>
+        <v>45.5</v>
+      </c>
       <c r="C3" s="48"/>
       <c r="D3" s="54"/>
       <c r="E3" s="55"/>
@@ -3510,14 +3516,16 @@
       <c r="K3" s="48"/>
       <c r="L3" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="53">
+        <v>0</v>
+      </c>
       <c r="C4" s="48"/>
       <c r="D4" s="54"/>
       <c r="E4" s="55"/>
@@ -3536,7 +3544,10 @@
       <c r="A5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="53">
+        <f>9+8+10+3+2+8+10+4+3</f>
+        <v>57</v>
+      </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5" s="55"/>
@@ -3548,14 +3559,17 @@
       <c r="K5" s="48"/>
       <c r="L5" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>1019</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="53">
+        <f>10+10+7+10+9+10+10+10+3+10</f>
+        <v>89</v>
+      </c>
       <c r="C6" s="48"/>
       <c r="D6" s="49"/>
       <c r="E6" s="55"/>
@@ -3567,14 +3581,17 @@
       <c r="K6" s="48"/>
       <c r="L6" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.335</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>1395</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="53">
+        <f>4+4+9+3+7+1+10+4+5+9</f>
+        <v>56</v>
+      </c>
       <c r="C7" s="48"/>
       <c r="D7" s="49"/>
       <c r="E7" s="55"/>
@@ -3586,14 +3603,17 @@
       <c r="K7" s="48"/>
       <c r="L7" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1506</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="53">
+        <f>7+2.5+10+3+1+8+7+6+10+10</f>
+        <v>64.5</v>
+      </c>
       <c r="C8" s="48"/>
       <c r="D8" s="54"/>
       <c r="E8" s="55"/>
@@ -3605,14 +3625,16 @@
       <c r="K8" s="48"/>
       <c r="L8" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.96750000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>2441</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="53">
+        <v>0</v>
+      </c>
       <c r="C9" s="48"/>
       <c r="D9" s="54"/>
       <c r="E9" s="55"/>
@@ -3631,7 +3653,10 @@
       <c r="A10" s="29">
         <v>2564</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="53">
+        <f>10+10+10+10+10+10+10+10+8+10</f>
+        <v>98</v>
+      </c>
       <c r="C10" s="48"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -3643,14 +3668,16 @@
       <c r="K10" s="48"/>
       <c r="L10" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>2693</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="53">
+        <v>0</v>
+      </c>
       <c r="C11" s="48"/>
       <c r="D11" s="54"/>
       <c r="E11" s="55"/>
@@ -3669,7 +3696,9 @@
       <c r="A12" s="29">
         <v>2771</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="53">
+        <v>0</v>
+      </c>
       <c r="C12" s="48"/>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
@@ -3688,7 +3717,10 @@
       <c r="A13" s="29">
         <v>2899</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="53">
+        <f>3+5.5+2.5+10+0+9.5+9+10+0+2</f>
+        <v>51.5</v>
+      </c>
       <c r="C13" s="48"/>
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
@@ -3700,14 +3732,17 @@
       <c r="K13" s="48"/>
       <c r="L13" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.77249999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
         <v>3517</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="53">
+        <f>7+9+9+6+2+1+1+1+0+6</f>
+        <v>42</v>
+      </c>
       <c r="C14" s="48"/>
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
@@ -3719,14 +3754,17 @@
       <c r="K14" s="48"/>
       <c r="L14" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29">
         <v>4490</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="53">
+        <f>4+2+9+3+8.5+1+10+2+5+9</f>
+        <v>53.5</v>
+      </c>
       <c r="C15" s="48"/>
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
@@ -3738,14 +3776,17 @@
       <c r="K15" s="48"/>
       <c r="L15" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>4582</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="53">
+        <f>4+4+9+4+1.5+1+5+1+2+9</f>
+        <v>40.5</v>
+      </c>
       <c r="C16" s="48"/>
       <c r="D16" s="54"/>
       <c r="E16" s="55"/>
@@ -3757,14 +3798,16 @@
       <c r="K16" s="48"/>
       <c r="L16" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60750000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
         <v>4622</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="53">
+        <v>0</v>
+      </c>
       <c r="C17" s="48"/>
       <c r="D17" s="54"/>
       <c r="E17" s="55"/>
@@ -3783,7 +3826,10 @@
       <c r="A18" s="29">
         <v>5500</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="53">
+        <f>7+2.5+10+10+10+2+9.5+10+7+9.5</f>
+        <v>77.5</v>
+      </c>
       <c r="C18" s="48"/>
       <c r="D18" s="54"/>
       <c r="E18" s="49"/>
@@ -3795,14 +3841,17 @@
       <c r="K18" s="48"/>
       <c r="L18" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1625000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29">
         <v>5687</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="53">
+        <f>10+6+4+10+5+1+1+2+0+2</f>
+        <v>41</v>
+      </c>
       <c r="C19" s="48"/>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
@@ -3814,14 +3863,17 @@
       <c r="K19" s="48"/>
       <c r="L19" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>5711</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="53">
+        <f>7+3+10+6+0+1+1+1+0+6</f>
+        <v>35</v>
+      </c>
       <c r="C20" s="48"/>
       <c r="D20" s="56"/>
       <c r="E20" s="55"/>
@@ -3833,14 +3885,17 @@
       <c r="K20" s="48"/>
       <c r="L20" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.52499999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>5810</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="53">
+        <f>7+9.5+10+10+10+9+10+10+10+10</f>
+        <v>95.5</v>
+      </c>
       <c r="C21" s="48"/>
       <c r="D21" s="56"/>
       <c r="E21" s="55"/>
@@ -3852,14 +3907,17 @@
       <c r="K21" s="48"/>
       <c r="L21" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4324999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>6347</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="53">
+        <f>10+4+9+9.5+1.5+1+9+9+1+5</f>
+        <v>59</v>
+      </c>
       <c r="C22" s="48"/>
       <c r="D22" s="56"/>
       <c r="E22" s="55"/>
@@ -3871,14 +3929,17 @@
       <c r="K22" s="48"/>
       <c r="L22" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
         <v>7905</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="53">
+        <f>10+10+9+4+2+8+8+5+0+3</f>
+        <v>59</v>
+      </c>
       <c r="C23" s="48"/>
       <c r="D23" s="56"/>
       <c r="E23" s="55"/>
@@ -3890,14 +3951,17 @@
       <c r="K23" s="48"/>
       <c r="L23" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29">
         <v>8335</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="53">
+        <f>8+9.5+10+4+8.5+10+1+4+2+7</f>
+        <v>64</v>
+      </c>
       <c r="C24" s="48"/>
       <c r="D24" s="56"/>
       <c r="E24" s="55"/>
@@ -3909,14 +3973,17 @@
       <c r="K24" s="48"/>
       <c r="L24" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="29">
         <v>8490</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="53">
+        <f>7+6+0+9.5+3.5+8+10+1+0+4</f>
+        <v>49</v>
+      </c>
       <c r="C25" s="48"/>
       <c r="D25" s="56"/>
       <c r="E25" s="55"/>
@@ -3928,14 +3995,17 @@
       <c r="K25" s="48"/>
       <c r="L25" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
         <v>8688</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="53">
+        <f>6+4+0+10+2+3+10+10+2+10</f>
+        <v>57</v>
+      </c>
       <c r="C26" s="48"/>
       <c r="D26" s="56"/>
       <c r="E26" s="55"/>
@@ -3947,14 +4017,17 @@
       <c r="K26" s="48"/>
       <c r="L26" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29">
         <v>8695</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="53">
+        <f>10+6+10+3+6.5+3+10+1+0+4</f>
+        <v>53.5</v>
+      </c>
       <c r="C27" s="48"/>
       <c r="D27" s="56"/>
       <c r="E27" s="55"/>
@@ -3966,14 +4039,17 @@
       <c r="K27" s="48"/>
       <c r="L27" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29">
         <v>8743</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="53">
+        <f>7+3+2.5+3+4.5+1+1+1+1+5</f>
+        <v>29</v>
+      </c>
       <c r="C28" s="48"/>
       <c r="D28" s="56"/>
       <c r="E28" s="55"/>
@@ -3985,14 +4061,17 @@
       <c r="K28" s="48"/>
       <c r="L28" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43499999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
         <v>8745</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="53">
+        <f>7+9.5+10+4+8.5+10+1+4+2+6</f>
+        <v>62</v>
+      </c>
       <c r="C29" s="48"/>
       <c r="D29" s="56"/>
       <c r="E29" s="55"/>
@@ -4004,14 +4083,17 @@
       <c r="K29" s="48"/>
       <c r="L29" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29">
         <v>9550</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="53">
+        <f>10+7.5+9+10+0+1+10+4+2+0</f>
+        <v>53.5</v>
+      </c>
       <c r="C30" s="48"/>
       <c r="D30" s="56"/>
       <c r="E30" s="55"/>
@@ -4023,14 +4105,17 @@
       <c r="K30" s="48"/>
       <c r="L30" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29">
         <v>9610</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="53">
+        <f>7+9+9+7+8+3+10+5+1+3</f>
+        <v>62</v>
+      </c>
       <c r="C31" s="48"/>
       <c r="D31" s="56"/>
       <c r="E31" s="55"/>
@@ -4042,14 +4127,17 @@
       <c r="K31" s="48"/>
       <c r="L31" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
         <v>9611</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="53">
+        <f>7+9+9+7+8+3+10+5+1+3</f>
+        <v>62</v>
+      </c>
       <c r="C32" s="48"/>
       <c r="D32" s="56"/>
       <c r="E32" s="55"/>
@@ -4061,14 +4149,17 @@
       <c r="K32" s="48"/>
       <c r="L32" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="29">
         <v>9674</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="53">
+        <f>10+9.5+10+9+10+10+10+10+10+10</f>
+        <v>98.5</v>
+      </c>
       <c r="C33" s="48"/>
       <c r="D33" s="56"/>
       <c r="E33" s="55"/>
@@ -4080,7 +4171,7 @@
       <c r="K33" s="48"/>
       <c r="L33" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4775</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4138,9 +4229,9 @@
       <c r="A36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="35" t="e">
+      <c r="B36" s="35">
         <f t="shared" ref="B36:L36" si="1">AVERAGE(B$2:B$33)</f>
-        <v>#DIV/0!</v>
+        <v>50.140625</v>
       </c>
       <c r="C36" s="35" t="e">
         <f t="shared" si="1"/>
@@ -4180,16 +4271,16 @@
       </c>
       <c r="L36" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75210937499999975</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="35" t="e">
+      <c r="B37" s="35">
         <f t="shared" ref="B37:L37" si="2">STDEV(B$2:B$33)</f>
-        <v>#DIV/0!</v>
+        <v>27.590973972624898</v>
       </c>
       <c r="C37" s="35" t="e">
         <f t="shared" si="2"/>
@@ -4229,16 +4320,16 @@
       </c>
       <c r="L37" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.41386460958937377</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="35" t="e">
+      <c r="B38" s="35">
         <f t="shared" ref="B38:L38" si="3">MEDIAN(B$2:B$33)</f>
-        <v>#NUM!</v>
+        <v>53.5</v>
       </c>
       <c r="C38" s="35" t="e">
         <f t="shared" si="3"/>
@@ -4278,7 +4369,7 @@
       </c>
       <c r="L38" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4287,7 +4378,7 @@
       </c>
       <c r="B39" s="38">
         <f t="shared" ref="B39:K39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="38">
         <f t="shared" si="4"/>
@@ -5019,7 +5110,7 @@
       </c>
       <c r="C2" s="20">
         <f>Homework!L2</f>
-        <v>0</v>
+        <v>0.74249999999999994</v>
       </c>
       <c r="D2" s="26">
         <f>Exams!B2</f>
@@ -5031,11 +5122,11 @@
       </c>
       <c r="F2" s="21">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>0.42</v>
+        <v>1.1624999999999999</v>
       </c>
       <c r="G2" s="21">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="19">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -5053,7 +5144,7 @@
       </c>
       <c r="C3" s="20">
         <f>Homework!L3</f>
-        <v>0</v>
+        <v>0.6825</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -5065,11 +5156,11 @@
       </c>
       <c r="F3" s="21">
         <f t="shared" si="0"/>
-        <v>0.62666666666666671</v>
+        <v>1.3091666666666666</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H3" s="19">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -5119,7 +5210,7 @@
       </c>
       <c r="C5" s="20">
         <f>Homework!L5</f>
-        <v>0</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -5131,11 +5222,11 @@
       </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>1.335</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" si="2"/>
@@ -5152,7 +5243,7 @@
       </c>
       <c r="C6" s="20">
         <f>Homework!L6</f>
-        <v>0</v>
+        <v>1.335</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -5164,11 +5255,11 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>0.77333333333333332</v>
+        <v>2.1083333333333334</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="2"/>
@@ -5185,7 +5276,7 @@
       </c>
       <c r="C7" s="20">
         <f>Homework!L7</f>
-        <v>0</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -5197,11 +5288,11 @@
       </c>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
-        <v>0.68666666666666665</v>
+        <v>1.5266666666666668</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="2"/>
@@ -5218,7 +5309,7 @@
       </c>
       <c r="C8" s="20">
         <f>Homework!L8</f>
-        <v>0</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="D8" s="26">
         <f>Exams!B8</f>
@@ -5230,11 +5321,11 @@
       </c>
       <c r="F8" s="21">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>1.3275000000000001</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="2"/>
@@ -5284,7 +5375,7 @@
       </c>
       <c r="C10" s="20">
         <f>Homework!L10</f>
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -5296,11 +5387,11 @@
       </c>
       <c r="F10" s="21">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>2.23</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="2"/>
@@ -5383,7 +5474,7 @@
       </c>
       <c r="C13" s="20">
         <f>Homework!L13</f>
-        <v>0</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -5395,11 +5486,11 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>1.0325</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="2"/>
@@ -5416,7 +5507,7 @@
       </c>
       <c r="C14" s="20">
         <f>Homework!L14</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -5428,11 +5519,11 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1.03</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="2"/>
@@ -5449,7 +5540,7 @@
       </c>
       <c r="C15" s="20">
         <f>Homework!L15</f>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -5461,11 +5552,11 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>1.5825</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" si="2"/>
@@ -5482,7 +5573,7 @@
       </c>
       <c r="C16" s="20">
         <f>Homework!L16</f>
-        <v>0</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -5494,11 +5585,11 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>1.1274999999999999</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="2"/>
@@ -5548,7 +5639,7 @@
       </c>
       <c r="C18" s="20">
         <f>Homework!L18</f>
-        <v>0</v>
+        <v>1.1625000000000001</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -5560,11 +5651,11 @@
       </c>
       <c r="F18" s="21">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>0.66</v>
+        <v>1.8225000000000002</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="2"/>
@@ -5581,7 +5672,7 @@
       </c>
       <c r="C19" s="20">
         <f>Homework!L19</f>
-        <v>0</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -5593,11 +5684,11 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>0.48</v>
+        <v>1.095</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="2"/>
@@ -5614,7 +5705,7 @@
       </c>
       <c r="C20" s="20">
         <f>Homework!L20</f>
-        <v>0</v>
+        <v>0.52499999999999991</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -5626,11 +5717,11 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.92499999999999993</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H20" s="19">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
@@ -5647,7 +5738,7 @@
       </c>
       <c r="C21" s="20">
         <f>Homework!L21</f>
-        <v>0</v>
+        <v>1.4324999999999999</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -5659,11 +5750,11 @@
       </c>
       <c r="F21" s="21">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>2.0724999999999998</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="19">
         <f t="shared" si="5"/>
@@ -5680,7 +5771,7 @@
       </c>
       <c r="C22" s="20">
         <f>Homework!L22</f>
-        <v>0</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -5692,11 +5783,11 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="3"/>
-        <v>0.61333333333333329</v>
+        <v>1.4983333333333333</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" si="5"/>
@@ -5713,7 +5804,7 @@
       </c>
       <c r="C23" s="20">
         <f>Homework!L23</f>
-        <v>0</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -5725,11 +5816,11 @@
       </c>
       <c r="F23" s="21">
         <f t="shared" si="3"/>
-        <v>0.38</v>
+        <v>1.2650000000000001</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="5"/>
@@ -5746,7 +5837,7 @@
       </c>
       <c r="C24" s="20">
         <f>Homework!L24</f>
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -5758,11 +5849,11 @@
       </c>
       <c r="F24" s="21">
         <f t="shared" si="3"/>
-        <v>0.34</v>
+        <v>1.3</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" si="5"/>
@@ -5779,7 +5870,7 @@
       </c>
       <c r="C25" s="20">
         <f>Homework!L25</f>
-        <v>0</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -5791,11 +5882,11 @@
       </c>
       <c r="F25" s="21">
         <f t="shared" si="3"/>
-        <v>0.46</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" si="5"/>
@@ -5812,7 +5903,7 @@
       </c>
       <c r="C26" s="20">
         <f>Homework!L26</f>
-        <v>0</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -5824,11 +5915,11 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" ref="H26:H33" si="7">IF(G26&gt;4.75,1,0)</f>
@@ -5845,7 +5936,7 @@
       </c>
       <c r="C27" s="20">
         <f>Homework!L27</f>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -5857,11 +5948,11 @@
       </c>
       <c r="F27" s="21">
         <f t="shared" si="3"/>
-        <v>0.55333333333333334</v>
+        <v>1.3558333333333334</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="7"/>
@@ -5878,7 +5969,7 @@
       </c>
       <c r="C28" s="20">
         <f>Homework!L28</f>
-        <v>0</v>
+        <v>0.43499999999999994</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -5890,11 +5981,11 @@
       </c>
       <c r="F28" s="21">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>0.875</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="7"/>
@@ -5911,7 +6002,7 @@
       </c>
       <c r="C29" s="20">
         <f>Homework!L29</f>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
@@ -5923,11 +6014,11 @@
       </c>
       <c r="F29" s="21">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="7"/>
@@ -5944,7 +6035,7 @@
       </c>
       <c r="C30" s="20">
         <f>Homework!L30</f>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -5956,11 +6047,11 @@
       </c>
       <c r="F30" s="21">
         <f t="shared" si="3"/>
-        <v>0.36</v>
+        <v>1.1625000000000001</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="7"/>
@@ -5977,7 +6068,7 @@
       </c>
       <c r="C31" s="20">
         <f>Homework!L31</f>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -5989,11 +6080,11 @@
       </c>
       <c r="F31" s="21">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>1.3699999999999999</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="7"/>
@@ -6010,7 +6101,7 @@
       </c>
       <c r="C32" s="20">
         <f>Homework!L32</f>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -6022,11 +6113,11 @@
       </c>
       <c r="F32" s="21">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>1.3699999999999999</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="7"/>
@@ -6043,7 +6134,7 @@
       </c>
       <c r="C33" s="20">
         <f>Homework!L33</f>
-        <v>0</v>
+        <v>1.4775</v>
       </c>
       <c r="D33" s="26">
         <f>Exams!B33</f>
@@ -6055,11 +6146,11 @@
       </c>
       <c r="F33" s="21">
         <f t="shared" si="3"/>
-        <v>0.61333333333333329</v>
+        <v>2.0908333333333333</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="7"/>
@@ -6116,7 +6207,7 @@
       </c>
       <c r="C36" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.75210937499999975</v>
       </c>
       <c r="D36" s="35">
         <f t="shared" si="8"/>
@@ -6128,11 +6219,11 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="8"/>
-        <v>0.46500000000000002</v>
+        <v>1.2171093750000002</v>
       </c>
       <c r="G36" s="35">
         <f t="shared" si="8"/>
-        <v>0.484375</v>
+        <v>1.21875</v>
       </c>
       <c r="H36" s="35">
         <f t="shared" si="8"/>
@@ -6149,7 +6240,7 @@
       </c>
       <c r="C37" s="35">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.41386460958937377</v>
       </c>
       <c r="D37" s="35">
         <f t="shared" si="9"/>
@@ -6161,11 +6252,11 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="9"/>
-        <v>0.20893311512295518</v>
+        <v>0.57661332746259131</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="9"/>
-        <v>0.23706454136836563</v>
+        <v>0.59483665418439902</v>
       </c>
       <c r="H37" s="35">
         <f t="shared" si="9"/>
@@ -6182,7 +6273,7 @@
       </c>
       <c r="C38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="D38" s="35">
         <f t="shared" si="10"/>
@@ -6194,11 +6285,11 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="10"/>
-        <v>0.47</v>
+        <v>1.3045833333333334</v>
       </c>
       <c r="G38" s="35">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H38" s="35">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384A230-E6F8-4D46-9B0B-872DE16F7AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C8188F-8A48-6A4A-B4B5-DB56F2CF4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,15 +462,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,9 +472,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -580,6 +568,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,7 +987,7 @@
   <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1006,97 +1000,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="39" t="s">
         <v>6</v>
       </c>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="55">
-        <v>3</v>
-      </c>
-      <c r="C2" s="55">
-        <v>15</v>
-      </c>
-      <c r="D2" s="55">
+      <c r="B2" s="51">
+        <v>3</v>
+      </c>
+      <c r="C2" s="51">
+        <v>15</v>
+      </c>
+      <c r="D2" s="51">
         <v>12</v>
       </c>
-      <c r="E2" s="55">
-        <v>3</v>
-      </c>
-      <c r="F2" s="49">
-        <v>3</v>
-      </c>
-      <c r="G2" s="49">
-        <v>3</v>
-      </c>
-      <c r="H2" s="49">
+      <c r="E2" s="51">
+        <v>3</v>
+      </c>
+      <c r="F2" s="45">
+        <v>3</v>
+      </c>
+      <c r="G2" s="45">
+        <v>3</v>
+      </c>
+      <c r="H2" s="45">
         <v>3</v>
       </c>
       <c r="I2" s="18">
@@ -1108,45 +1102,45 @@
       <c r="K2" s="18">
         <v>15</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="39">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
         <v>0.42</v>
       </c>
       <c r="W2"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="55">
-        <v>15</v>
-      </c>
-      <c r="C3" s="55">
-        <v>15</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="B3" s="51">
+        <v>15</v>
+      </c>
+      <c r="C3" s="51">
+        <v>15</v>
+      </c>
+      <c r="D3" s="51">
         <v>12</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="51">
         <v>8</v>
       </c>
-      <c r="F3" s="49">
-        <v>15</v>
-      </c>
-      <c r="G3" s="49">
-        <v>3</v>
-      </c>
-      <c r="H3" s="49">
+      <c r="F3" s="45">
+        <v>15</v>
+      </c>
+      <c r="G3" s="45">
+        <v>3</v>
+      </c>
+      <c r="H3" s="45">
         <v>8</v>
       </c>
       <c r="I3" s="18">
@@ -1158,45 +1152,45 @@
       <c r="K3" s="18">
         <v>15</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="39">
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
         <v>0.62666666666666671</v>
       </c>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="55">
-        <v>0</v>
-      </c>
-      <c r="C4" s="55">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55">
-        <v>0</v>
-      </c>
-      <c r="E4" s="55">
-        <v>0</v>
-      </c>
-      <c r="F4" s="49">
-        <v>0</v>
-      </c>
-      <c r="G4" s="49">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49">
+      <c r="B4" s="51">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51">
+        <v>0</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
         <v>0</v>
       </c>
       <c r="I4" s="18">
@@ -1208,45 +1202,45 @@
       <c r="K4" s="18">
         <v>0</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="39">
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W4"/>
     </row>
     <row r="5" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="55">
-        <v>3</v>
-      </c>
-      <c r="C5" s="55">
-        <v>15</v>
-      </c>
-      <c r="D5" s="55">
+      <c r="B5" s="51">
+        <v>3</v>
+      </c>
+      <c r="C5" s="51">
+        <v>15</v>
+      </c>
+      <c r="D5" s="51">
         <v>12</v>
       </c>
-      <c r="E5" s="55">
-        <v>15</v>
-      </c>
-      <c r="F5" s="49">
-        <v>0</v>
-      </c>
-      <c r="G5" s="49">
-        <v>3</v>
-      </c>
-      <c r="H5" s="49">
+      <c r="E5" s="51">
+        <v>15</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <v>3</v>
+      </c>
+      <c r="H5" s="45">
         <v>3</v>
       </c>
       <c r="I5" s="18">
@@ -1258,45 +1252,45 @@
       <c r="K5" s="18">
         <v>15</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="39">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="35">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="55">
-        <v>15</v>
-      </c>
-      <c r="C6" s="55">
-        <v>15</v>
-      </c>
-      <c r="D6" s="55">
-        <v>15</v>
-      </c>
-      <c r="E6" s="55">
-        <v>15</v>
-      </c>
-      <c r="F6" s="49">
-        <v>15</v>
-      </c>
-      <c r="G6" s="49">
+      <c r="B6" s="51">
+        <v>15</v>
+      </c>
+      <c r="C6" s="51">
+        <v>15</v>
+      </c>
+      <c r="D6" s="51">
+        <v>15</v>
+      </c>
+      <c r="E6" s="51">
+        <v>15</v>
+      </c>
+      <c r="F6" s="45">
+        <v>15</v>
+      </c>
+      <c r="G6" s="45">
         <v>8</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="45">
         <v>0</v>
       </c>
       <c r="I6" s="18">
@@ -1308,45 +1302,45 @@
       <c r="K6" s="18">
         <v>15</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="39">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="35">
         <f t="shared" si="0"/>
         <v>0.77333333333333332</v>
       </c>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="55">
-        <v>15</v>
-      </c>
-      <c r="C7" s="55">
-        <v>15</v>
-      </c>
-      <c r="D7" s="55">
+      <c r="B7" s="51">
+        <v>15</v>
+      </c>
+      <c r="C7" s="51">
+        <v>15</v>
+      </c>
+      <c r="D7" s="51">
         <v>9</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="51">
         <v>13</v>
       </c>
-      <c r="F7" s="49">
-        <v>15</v>
-      </c>
-      <c r="G7" s="49">
+      <c r="F7" s="45">
+        <v>15</v>
+      </c>
+      <c r="G7" s="45">
         <v>12</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="45">
         <v>3</v>
       </c>
       <c r="I7" s="18">
@@ -1358,45 +1352,45 @@
       <c r="K7" s="18">
         <v>15</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="39">
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="35">
         <f t="shared" si="0"/>
         <v>0.68666666666666665</v>
       </c>
       <c r="W7"/>
     </row>
     <row r="8" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="55">
-        <v>15</v>
-      </c>
-      <c r="C8" s="55">
-        <v>15</v>
-      </c>
-      <c r="D8" s="55">
-        <v>3</v>
-      </c>
-      <c r="E8" s="55">
-        <v>3</v>
-      </c>
-      <c r="F8" s="49">
-        <v>3</v>
-      </c>
-      <c r="G8" s="49">
-        <v>3</v>
-      </c>
-      <c r="H8" s="49">
+      <c r="B8" s="51">
+        <v>15</v>
+      </c>
+      <c r="C8" s="51">
+        <v>15</v>
+      </c>
+      <c r="D8" s="51">
+        <v>3</v>
+      </c>
+      <c r="E8" s="51">
+        <v>3</v>
+      </c>
+      <c r="F8" s="45">
+        <v>3</v>
+      </c>
+      <c r="G8" s="45">
+        <v>3</v>
+      </c>
+      <c r="H8" s="45">
         <v>3</v>
       </c>
       <c r="I8" s="18">
@@ -1408,45 +1402,45 @@
       <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="39">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="35">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
       <c r="W8"/>
     </row>
     <row r="9" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>2441</v>
       </c>
-      <c r="B9" s="55">
-        <v>15</v>
-      </c>
-      <c r="C9" s="55">
-        <v>0</v>
-      </c>
-      <c r="D9" s="55">
-        <v>3</v>
-      </c>
-      <c r="E9" s="55">
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
-        <v>3</v>
-      </c>
-      <c r="G9" s="49">
-        <v>3</v>
-      </c>
-      <c r="H9" s="49">
+      <c r="B9" s="51">
+        <v>15</v>
+      </c>
+      <c r="C9" s="51">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51">
+        <v>3</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>3</v>
+      </c>
+      <c r="G9" s="45">
+        <v>3</v>
+      </c>
+      <c r="H9" s="45">
         <v>0</v>
       </c>
       <c r="I9" s="18">
@@ -1458,45 +1452,45 @@
       <c r="K9" s="18">
         <v>0</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="39">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="35">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="W9"/>
     </row>
     <row r="10" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="55">
-        <v>15</v>
-      </c>
-      <c r="C10" s="55">
-        <v>15</v>
-      </c>
-      <c r="D10" s="55">
-        <v>3</v>
-      </c>
-      <c r="E10" s="55">
-        <v>15</v>
-      </c>
-      <c r="F10" s="49">
-        <v>3</v>
-      </c>
-      <c r="G10" s="49">
-        <v>15</v>
-      </c>
-      <c r="H10" s="49">
+      <c r="B10" s="51">
+        <v>15</v>
+      </c>
+      <c r="C10" s="51">
+        <v>15</v>
+      </c>
+      <c r="D10" s="51">
+        <v>3</v>
+      </c>
+      <c r="E10" s="51">
+        <v>15</v>
+      </c>
+      <c r="F10" s="45">
+        <v>3</v>
+      </c>
+      <c r="G10" s="45">
+        <v>15</v>
+      </c>
+      <c r="H10" s="45">
         <v>15</v>
       </c>
       <c r="I10" s="18">
@@ -1508,45 +1502,45 @@
       <c r="K10" s="18">
         <v>15</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="39">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="35">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="W10"/>
     </row>
     <row r="11" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="55">
-        <v>0</v>
-      </c>
-      <c r="C11" s="55">
-        <v>0</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0</v>
-      </c>
-      <c r="F11" s="49">
-        <v>0</v>
-      </c>
-      <c r="G11" s="49">
-        <v>0</v>
-      </c>
-      <c r="H11" s="49">
+      <c r="B11" s="51">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45">
         <v>0</v>
       </c>
       <c r="I11" s="18">
@@ -1558,45 +1552,45 @@
       <c r="K11" s="18">
         <v>0</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="39">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W11"/>
     </row>
     <row r="12" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="55">
-        <v>0</v>
-      </c>
-      <c r="C12" s="55">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55">
-        <v>3</v>
-      </c>
-      <c r="E12" s="55">
-        <v>0</v>
-      </c>
-      <c r="F12" s="49">
-        <v>3</v>
-      </c>
-      <c r="G12" s="49">
-        <v>0</v>
-      </c>
-      <c r="H12" s="49">
+      <c r="B12" s="51">
+        <v>0</v>
+      </c>
+      <c r="C12" s="51">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>3</v>
+      </c>
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="45">
+        <v>3</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
         <v>0</v>
       </c>
       <c r="I12" s="18">
@@ -1608,45 +1602,45 @@
       <c r="K12" s="18">
         <v>0</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="39">
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="35">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="W12"/>
     </row>
     <row r="13" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="55">
-        <v>15</v>
-      </c>
-      <c r="C13" s="55">
-        <v>15</v>
-      </c>
-      <c r="D13" s="55">
-        <v>0</v>
-      </c>
-      <c r="E13" s="55">
-        <v>3</v>
-      </c>
-      <c r="F13" s="49">
-        <v>0</v>
-      </c>
-      <c r="G13" s="49">
-        <v>0</v>
-      </c>
-      <c r="H13" s="49">
+      <c r="B13" s="51">
+        <v>15</v>
+      </c>
+      <c r="C13" s="51">
+        <v>15</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="51">
+        <v>3</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <v>0</v>
+      </c>
+      <c r="H13" s="45">
         <v>3</v>
       </c>
       <c r="I13" s="18">
@@ -1658,45 +1652,45 @@
       <c r="K13" s="18">
         <v>0</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="39">
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="35">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
       <c r="W13"/>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="55">
-        <v>15</v>
-      </c>
-      <c r="C14" s="55">
-        <v>15</v>
-      </c>
-      <c r="D14" s="55">
-        <v>3</v>
-      </c>
-      <c r="E14" s="55">
-        <v>3</v>
-      </c>
-      <c r="F14" s="49">
-        <v>0</v>
-      </c>
-      <c r="G14" s="49">
-        <v>15</v>
-      </c>
-      <c r="H14" s="49">
+      <c r="B14" s="51">
+        <v>15</v>
+      </c>
+      <c r="C14" s="51">
+        <v>15</v>
+      </c>
+      <c r="D14" s="51">
+        <v>3</v>
+      </c>
+      <c r="E14" s="51">
+        <v>3</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0</v>
+      </c>
+      <c r="G14" s="45">
+        <v>15</v>
+      </c>
+      <c r="H14" s="45">
         <v>3</v>
       </c>
       <c r="I14" s="18">
@@ -1708,44 +1702,44 @@
       <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="39">
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="35">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="55">
-        <v>15</v>
-      </c>
-      <c r="C15" s="55">
-        <v>15</v>
-      </c>
-      <c r="D15" s="55">
-        <v>15</v>
-      </c>
-      <c r="E15" s="55">
-        <v>15</v>
-      </c>
-      <c r="F15" s="49">
-        <v>15</v>
-      </c>
-      <c r="G15" s="49">
-        <v>15</v>
-      </c>
-      <c r="H15" s="49">
+      <c r="B15" s="51">
+        <v>15</v>
+      </c>
+      <c r="C15" s="51">
+        <v>15</v>
+      </c>
+      <c r="D15" s="51">
+        <v>15</v>
+      </c>
+      <c r="E15" s="51">
+        <v>15</v>
+      </c>
+      <c r="F15" s="45">
+        <v>15</v>
+      </c>
+      <c r="G15" s="45">
+        <v>15</v>
+      </c>
+      <c r="H15" s="45">
         <v>3</v>
       </c>
       <c r="I15" s="18">
@@ -1757,45 +1751,45 @@
       <c r="K15" s="18">
         <v>15</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="39">
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="35">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
       <c r="W15"/>
     </row>
     <row r="16" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="55">
-        <v>15</v>
-      </c>
-      <c r="C16" s="55">
-        <v>15</v>
-      </c>
-      <c r="D16" s="55">
-        <v>3</v>
-      </c>
-      <c r="E16" s="55">
+      <c r="B16" s="51">
+        <v>15</v>
+      </c>
+      <c r="C16" s="51">
+        <v>15</v>
+      </c>
+      <c r="D16" s="51">
+        <v>3</v>
+      </c>
+      <c r="E16" s="51">
         <v>10</v>
       </c>
-      <c r="F16" s="49">
-        <v>15</v>
-      </c>
-      <c r="G16" s="49">
+      <c r="F16" s="45">
+        <v>15</v>
+      </c>
+      <c r="G16" s="45">
         <v>8</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="45">
         <v>3</v>
       </c>
       <c r="I16" s="18">
@@ -1807,45 +1801,45 @@
       <c r="K16" s="18">
         <v>3</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="39">
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="35">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
       <c r="W16"/>
     </row>
     <row r="17" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="55">
-        <v>15</v>
-      </c>
-      <c r="C17" s="55">
-        <v>15</v>
-      </c>
-      <c r="D17" s="55">
+      <c r="B17" s="51">
+        <v>15</v>
+      </c>
+      <c r="C17" s="51">
+        <v>15</v>
+      </c>
+      <c r="D17" s="51">
         <v>12</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="51">
         <v>8</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="45">
         <v>12</v>
       </c>
-      <c r="G17" s="49">
-        <v>3</v>
-      </c>
-      <c r="H17" s="49">
+      <c r="G17" s="45">
+        <v>3</v>
+      </c>
+      <c r="H17" s="45">
         <v>12</v>
       </c>
       <c r="I17" s="18">
@@ -1857,45 +1851,45 @@
       <c r="K17" s="18">
         <v>15</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="39">
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="35">
         <f t="shared" si="0"/>
         <v>0.65333333333333332</v>
       </c>
       <c r="W17"/>
     </row>
     <row r="18" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="55">
-        <v>15</v>
-      </c>
-      <c r="C18" s="55">
-        <v>15</v>
-      </c>
-      <c r="D18" s="55">
-        <v>3</v>
-      </c>
-      <c r="E18" s="55">
+      <c r="B18" s="51">
+        <v>15</v>
+      </c>
+      <c r="C18" s="51">
+        <v>15</v>
+      </c>
+      <c r="D18" s="51">
+        <v>3</v>
+      </c>
+      <c r="E18" s="51">
         <v>12</v>
       </c>
-      <c r="F18" s="49">
-        <v>3</v>
-      </c>
-      <c r="G18" s="49">
-        <v>15</v>
-      </c>
-      <c r="H18" s="49">
+      <c r="F18" s="45">
+        <v>3</v>
+      </c>
+      <c r="G18" s="45">
+        <v>15</v>
+      </c>
+      <c r="H18" s="45">
         <v>3</v>
       </c>
       <c r="I18" s="18">
@@ -1907,45 +1901,45 @@
       <c r="K18" s="18">
         <v>15</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="39">
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="35">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
       <c r="W18"/>
     </row>
     <row r="19" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="55">
-        <v>15</v>
-      </c>
-      <c r="C19" s="55">
-        <v>15</v>
-      </c>
-      <c r="D19" s="55">
-        <v>0</v>
-      </c>
-      <c r="E19" s="55">
-        <v>15</v>
-      </c>
-      <c r="F19" s="49">
-        <v>3</v>
-      </c>
-      <c r="G19" s="49">
+      <c r="B19" s="51">
+        <v>15</v>
+      </c>
+      <c r="C19" s="51">
+        <v>15</v>
+      </c>
+      <c r="D19" s="51">
+        <v>0</v>
+      </c>
+      <c r="E19" s="51">
+        <v>15</v>
+      </c>
+      <c r="F19" s="45">
+        <v>3</v>
+      </c>
+      <c r="G19" s="45">
         <v>12</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="45">
         <v>3</v>
       </c>
       <c r="I19" s="18">
@@ -1957,45 +1951,45 @@
       <c r="K19" s="18">
         <v>3</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="39">
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="35">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="W19"/>
     </row>
     <row r="20" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="55">
-        <v>15</v>
-      </c>
-      <c r="C20" s="55">
-        <v>15</v>
-      </c>
-      <c r="D20" s="55">
-        <v>3</v>
-      </c>
-      <c r="E20" s="55">
-        <v>3</v>
-      </c>
-      <c r="F20" s="49">
-        <v>0</v>
-      </c>
-      <c r="G20" s="49">
-        <v>3</v>
-      </c>
-      <c r="H20" s="49">
+      <c r="B20" s="51">
+        <v>15</v>
+      </c>
+      <c r="C20" s="51">
+        <v>15</v>
+      </c>
+      <c r="D20" s="51">
+        <v>3</v>
+      </c>
+      <c r="E20" s="51">
+        <v>3</v>
+      </c>
+      <c r="F20" s="45">
+        <v>0</v>
+      </c>
+      <c r="G20" s="45">
+        <v>3</v>
+      </c>
+      <c r="H20" s="45">
         <v>3</v>
       </c>
       <c r="I20" s="18">
@@ -2007,45 +2001,45 @@
       <c r="K20" s="18">
         <v>15</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="39">
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="35">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="W20"/>
     </row>
     <row r="21" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="55">
-        <v>15</v>
-      </c>
-      <c r="C21" s="55">
-        <v>15</v>
-      </c>
-      <c r="D21" s="55">
+      <c r="B21" s="51">
+        <v>15</v>
+      </c>
+      <c r="C21" s="51">
+        <v>15</v>
+      </c>
+      <c r="D21" s="51">
         <v>12</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="51">
         <v>12</v>
       </c>
-      <c r="F21" s="49">
-        <v>3</v>
-      </c>
-      <c r="G21" s="49">
-        <v>15</v>
-      </c>
-      <c r="H21" s="49">
+      <c r="F21" s="45">
+        <v>3</v>
+      </c>
+      <c r="G21" s="45">
+        <v>15</v>
+      </c>
+      <c r="H21" s="45">
         <v>3</v>
       </c>
       <c r="I21" s="18">
@@ -2057,45 +2051,45 @@
       <c r="K21" s="18">
         <v>15</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="39">
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="35">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="W21"/>
     </row>
     <row r="22" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="55">
-        <v>15</v>
-      </c>
-      <c r="C22" s="55">
-        <v>15</v>
-      </c>
-      <c r="D22" s="55">
-        <v>3</v>
-      </c>
-      <c r="E22" s="55">
+      <c r="B22" s="51">
+        <v>15</v>
+      </c>
+      <c r="C22" s="51">
+        <v>15</v>
+      </c>
+      <c r="D22" s="51">
+        <v>3</v>
+      </c>
+      <c r="E22" s="51">
         <v>12</v>
       </c>
-      <c r="F22" s="49">
-        <v>15</v>
-      </c>
-      <c r="G22" s="49">
+      <c r="F22" s="45">
+        <v>15</v>
+      </c>
+      <c r="G22" s="45">
         <v>8</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="45">
         <v>3</v>
       </c>
       <c r="I22" s="18">
@@ -2107,45 +2101,45 @@
       <c r="K22" s="18">
         <v>15</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="39">
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="35">
         <f t="shared" si="0"/>
         <v>0.61333333333333329</v>
       </c>
       <c r="W22"/>
     </row>
     <row r="23" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="55">
-        <v>15</v>
-      </c>
-      <c r="C23" s="55">
-        <v>15</v>
-      </c>
-      <c r="D23" s="55">
+      <c r="B23" s="51">
+        <v>15</v>
+      </c>
+      <c r="C23" s="51">
+        <v>15</v>
+      </c>
+      <c r="D23" s="51">
         <v>12</v>
       </c>
-      <c r="E23" s="55">
-        <v>3</v>
-      </c>
-      <c r="F23" s="49">
-        <v>3</v>
-      </c>
-      <c r="G23" s="49">
-        <v>0</v>
-      </c>
-      <c r="H23" s="49">
+      <c r="E23" s="51">
+        <v>3</v>
+      </c>
+      <c r="F23" s="45">
+        <v>3</v>
+      </c>
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
         <v>3</v>
       </c>
       <c r="I23" s="18">
@@ -2157,45 +2151,45 @@
       <c r="K23" s="18">
         <v>3</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="39">
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="35">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
       <c r="W23"/>
     </row>
     <row r="24" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="55">
-        <v>15</v>
-      </c>
-      <c r="C24" s="55">
-        <v>15</v>
-      </c>
-      <c r="D24" s="55">
-        <v>3</v>
-      </c>
-      <c r="E24" s="55">
+      <c r="B24" s="51">
+        <v>15</v>
+      </c>
+      <c r="C24" s="51">
+        <v>15</v>
+      </c>
+      <c r="D24" s="51">
+        <v>3</v>
+      </c>
+      <c r="E24" s="51">
         <v>12</v>
       </c>
-      <c r="F24" s="49">
-        <v>0</v>
-      </c>
-      <c r="G24" s="49">
-        <v>3</v>
-      </c>
-      <c r="H24" s="49">
+      <c r="F24" s="45">
+        <v>0</v>
+      </c>
+      <c r="G24" s="45">
+        <v>3</v>
+      </c>
+      <c r="H24" s="45">
         <v>0</v>
       </c>
       <c r="I24" s="18">
@@ -2207,45 +2201,45 @@
       <c r="K24" s="18">
         <v>0</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="39">
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="35">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="W24"/>
     </row>
     <row r="25" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="55">
-        <v>3</v>
-      </c>
-      <c r="C25" s="55">
-        <v>15</v>
-      </c>
-      <c r="D25" s="55">
+      <c r="B25" s="51">
+        <v>3</v>
+      </c>
+      <c r="C25" s="51">
+        <v>15</v>
+      </c>
+      <c r="D25" s="51">
         <v>12</v>
       </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="49">
-        <v>3</v>
-      </c>
-      <c r="G25" s="49">
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+      <c r="F25" s="45">
+        <v>3</v>
+      </c>
+      <c r="G25" s="45">
         <v>12</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="45">
         <v>3</v>
       </c>
       <c r="I25" s="18">
@@ -2257,45 +2251,45 @@
       <c r="K25" s="18">
         <v>15</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="39">
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="35">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
       <c r="W25"/>
     </row>
     <row r="26" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29">
+      <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="55">
-        <v>15</v>
-      </c>
-      <c r="C26" s="55">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55">
-        <v>15</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0</v>
-      </c>
-      <c r="F26" s="49">
-        <v>15</v>
-      </c>
-      <c r="G26" s="49">
-        <v>3</v>
-      </c>
-      <c r="H26" s="49">
+      <c r="B26" s="51">
+        <v>15</v>
+      </c>
+      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="51">
+        <v>15</v>
+      </c>
+      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="45">
+        <v>15</v>
+      </c>
+      <c r="G26" s="45">
+        <v>3</v>
+      </c>
+      <c r="H26" s="45">
         <v>3</v>
       </c>
       <c r="I26" s="18">
@@ -2307,45 +2301,45 @@
       <c r="K26" s="18">
         <v>15</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="39">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="35">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="W26"/>
     </row>
     <row r="27" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+      <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="55">
-        <v>15</v>
-      </c>
-      <c r="C27" s="55">
-        <v>15</v>
-      </c>
-      <c r="D27" s="55">
-        <v>3</v>
-      </c>
-      <c r="E27" s="55">
-        <v>15</v>
-      </c>
-      <c r="F27" s="49">
-        <v>3</v>
-      </c>
-      <c r="G27" s="49">
+      <c r="B27" s="51">
+        <v>15</v>
+      </c>
+      <c r="C27" s="51">
+        <v>15</v>
+      </c>
+      <c r="D27" s="51">
+        <v>3</v>
+      </c>
+      <c r="E27" s="51">
+        <v>15</v>
+      </c>
+      <c r="F27" s="45">
+        <v>3</v>
+      </c>
+      <c r="G27" s="45">
         <v>8</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="45">
         <v>3</v>
       </c>
       <c r="I27" s="18">
@@ -2357,45 +2351,45 @@
       <c r="K27" s="18">
         <v>15</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="39">
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="35">
         <f t="shared" si="0"/>
         <v>0.55333333333333334</v>
       </c>
       <c r="W27"/>
     </row>
     <row r="28" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+      <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="55">
-        <v>15</v>
-      </c>
-      <c r="C28" s="55">
-        <v>15</v>
-      </c>
-      <c r="D28" s="55">
-        <v>3</v>
-      </c>
-      <c r="E28" s="55">
-        <v>3</v>
-      </c>
-      <c r="F28" s="49">
-        <v>3</v>
-      </c>
-      <c r="G28" s="49">
-        <v>3</v>
-      </c>
-      <c r="H28" s="49">
+      <c r="B28" s="51">
+        <v>15</v>
+      </c>
+      <c r="C28" s="51">
+        <v>15</v>
+      </c>
+      <c r="D28" s="51">
+        <v>3</v>
+      </c>
+      <c r="E28" s="51">
+        <v>3</v>
+      </c>
+      <c r="F28" s="45">
+        <v>3</v>
+      </c>
+      <c r="G28" s="45">
+        <v>3</v>
+      </c>
+      <c r="H28" s="45">
         <v>3</v>
       </c>
       <c r="I28" s="18">
@@ -2407,45 +2401,45 @@
       <c r="K28" s="18">
         <v>15</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="39">
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="35">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
       <c r="W28"/>
     </row>
     <row r="29" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29">
+      <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="55">
-        <v>15</v>
-      </c>
-      <c r="C29" s="55">
-        <v>15</v>
-      </c>
-      <c r="D29" s="55">
+      <c r="B29" s="51">
+        <v>15</v>
+      </c>
+      <c r="C29" s="51">
+        <v>15</v>
+      </c>
+      <c r="D29" s="51">
         <v>12</v>
       </c>
-      <c r="E29" s="55">
-        <v>15</v>
-      </c>
-      <c r="F29" s="49">
-        <v>3</v>
-      </c>
-      <c r="G29" s="49">
-        <v>3</v>
-      </c>
-      <c r="H29" s="49">
+      <c r="E29" s="51">
+        <v>15</v>
+      </c>
+      <c r="F29" s="45">
+        <v>3</v>
+      </c>
+      <c r="G29" s="45">
+        <v>3</v>
+      </c>
+      <c r="H29" s="45">
         <v>3</v>
       </c>
       <c r="I29" s="18">
@@ -2457,45 +2451,45 @@
       <c r="K29" s="18">
         <v>3</v>
       </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="39">
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="35">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="W29"/>
     </row>
     <row r="30" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29">
+      <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="55">
-        <v>15</v>
-      </c>
-      <c r="C30" s="55">
-        <v>15</v>
-      </c>
-      <c r="D30" s="55">
-        <v>3</v>
-      </c>
-      <c r="E30" s="55">
-        <v>3</v>
-      </c>
-      <c r="F30" s="49">
-        <v>3</v>
-      </c>
-      <c r="G30" s="49">
-        <v>3</v>
-      </c>
-      <c r="H30" s="49">
+      <c r="B30" s="51">
+        <v>15</v>
+      </c>
+      <c r="C30" s="51">
+        <v>15</v>
+      </c>
+      <c r="D30" s="51">
+        <v>3</v>
+      </c>
+      <c r="E30" s="51">
+        <v>3</v>
+      </c>
+      <c r="F30" s="45">
+        <v>3</v>
+      </c>
+      <c r="G30" s="45">
+        <v>3</v>
+      </c>
+      <c r="H30" s="45">
         <v>3</v>
       </c>
       <c r="I30" s="18">
@@ -2507,45 +2501,45 @@
       <c r="K30" s="18">
         <v>3</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="39">
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="35">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
       <c r="W30"/>
     </row>
     <row r="31" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29">
+      <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="55">
-        <v>15</v>
-      </c>
-      <c r="C31" s="55">
-        <v>15</v>
-      </c>
-      <c r="D31" s="55">
-        <v>3</v>
-      </c>
-      <c r="E31" s="55">
-        <v>3</v>
-      </c>
-      <c r="F31" s="49">
-        <v>3</v>
-      </c>
-      <c r="G31" s="49">
-        <v>3</v>
-      </c>
-      <c r="H31" s="49">
+      <c r="B31" s="51">
+        <v>15</v>
+      </c>
+      <c r="C31" s="51">
+        <v>15</v>
+      </c>
+      <c r="D31" s="51">
+        <v>3</v>
+      </c>
+      <c r="E31" s="51">
+        <v>3</v>
+      </c>
+      <c r="F31" s="45">
+        <v>3</v>
+      </c>
+      <c r="G31" s="45">
+        <v>3</v>
+      </c>
+      <c r="H31" s="45">
         <v>3</v>
       </c>
       <c r="I31" s="18">
@@ -2557,45 +2551,45 @@
       <c r="K31" s="18">
         <v>15</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="39">
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="35">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
       <c r="W31"/>
     </row>
     <row r="32" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="55">
-        <v>15</v>
-      </c>
-      <c r="C32" s="55">
-        <v>15</v>
-      </c>
-      <c r="D32" s="55">
-        <v>3</v>
-      </c>
-      <c r="E32" s="55">
-        <v>3</v>
-      </c>
-      <c r="F32" s="49">
-        <v>3</v>
-      </c>
-      <c r="G32" s="49">
-        <v>3</v>
-      </c>
-      <c r="H32" s="49">
+      <c r="B32" s="51">
+        <v>15</v>
+      </c>
+      <c r="C32" s="51">
+        <v>15</v>
+      </c>
+      <c r="D32" s="51">
+        <v>3</v>
+      </c>
+      <c r="E32" s="51">
+        <v>3</v>
+      </c>
+      <c r="F32" s="45">
+        <v>3</v>
+      </c>
+      <c r="G32" s="45">
+        <v>3</v>
+      </c>
+      <c r="H32" s="45">
         <v>3</v>
       </c>
       <c r="I32" s="18">
@@ -2607,45 +2601,45 @@
       <c r="K32" s="18">
         <v>15</v>
       </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="39">
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="35">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
       <c r="W32"/>
     </row>
     <row r="33" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="55">
-        <v>15</v>
-      </c>
-      <c r="C33" s="55">
-        <v>15</v>
-      </c>
-      <c r="D33" s="55">
+      <c r="B33" s="51">
+        <v>15</v>
+      </c>
+      <c r="C33" s="51">
+        <v>15</v>
+      </c>
+      <c r="D33" s="51">
         <v>8</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="51">
         <v>12</v>
       </c>
-      <c r="F33" s="49">
-        <v>3</v>
-      </c>
-      <c r="G33" s="49">
-        <v>15</v>
-      </c>
-      <c r="H33" s="49">
+      <c r="F33" s="45">
+        <v>3</v>
+      </c>
+      <c r="G33" s="45">
+        <v>15</v>
+      </c>
+      <c r="H33" s="45">
         <v>3</v>
       </c>
       <c r="I33" s="18">
@@ -2657,17 +2651,17 @@
       <c r="K33" s="18">
         <v>15</v>
       </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="39">
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="35">
         <f t="shared" si="0"/>
         <v>0.61333333333333329</v>
       </c>
@@ -2699,429 +2693,429 @@
       <c r="W34"/>
     </row>
     <row r="35" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="32">
-        <v>15</v>
-      </c>
-      <c r="C35" s="32">
-        <v>15</v>
-      </c>
-      <c r="D35" s="32">
-        <v>15</v>
-      </c>
-      <c r="E35" s="32">
-        <v>15</v>
-      </c>
-      <c r="F35" s="32">
-        <v>15</v>
-      </c>
-      <c r="G35" s="32">
-        <v>15</v>
-      </c>
-      <c r="H35" s="32">
-        <v>15</v>
-      </c>
-      <c r="I35" s="32">
-        <v>15</v>
-      </c>
-      <c r="J35" s="32">
-        <v>15</v>
-      </c>
-      <c r="K35" s="32">
-        <v>15</v>
-      </c>
-      <c r="L35" s="32">
-        <v>15</v>
-      </c>
-      <c r="M35" s="32">
-        <v>15</v>
-      </c>
-      <c r="N35" s="32">
-        <v>15</v>
-      </c>
-      <c r="O35" s="32">
-        <v>15</v>
-      </c>
-      <c r="P35" s="32">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="32">
-        <v>15</v>
-      </c>
-      <c r="R35" s="32">
-        <v>15</v>
-      </c>
-      <c r="S35" s="32">
-        <v>15</v>
-      </c>
-      <c r="T35" s="32">
-        <v>15</v>
-      </c>
-      <c r="U35" s="32">
-        <v>15</v>
-      </c>
-      <c r="V35" s="33">
+      <c r="B35" s="28">
+        <v>15</v>
+      </c>
+      <c r="C35" s="28">
+        <v>15</v>
+      </c>
+      <c r="D35" s="28">
+        <v>15</v>
+      </c>
+      <c r="E35" s="28">
+        <v>15</v>
+      </c>
+      <c r="F35" s="28">
+        <v>15</v>
+      </c>
+      <c r="G35" s="28">
+        <v>15</v>
+      </c>
+      <c r="H35" s="28">
+        <v>15</v>
+      </c>
+      <c r="I35" s="28">
+        <v>15</v>
+      </c>
+      <c r="J35" s="28">
+        <v>15</v>
+      </c>
+      <c r="K35" s="28">
+        <v>15</v>
+      </c>
+      <c r="L35" s="28">
+        <v>15</v>
+      </c>
+      <c r="M35" s="28">
+        <v>15</v>
+      </c>
+      <c r="N35" s="28">
+        <v>15</v>
+      </c>
+      <c r="O35" s="28">
+        <v>15</v>
+      </c>
+      <c r="P35" s="28">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>15</v>
+      </c>
+      <c r="R35" s="28">
+        <v>15</v>
+      </c>
+      <c r="S35" s="28">
+        <v>15</v>
+      </c>
+      <c r="T35" s="28">
+        <v>15</v>
+      </c>
+      <c r="U35" s="28">
+        <v>15</v>
+      </c>
+      <c r="V35" s="29">
         <v>1</v>
       </c>
       <c r="W35"/>
     </row>
     <row r="36" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="31">
         <f t="shared" ref="B36:V36" si="1">AVERAGE(B$2:B$33)</f>
         <v>12.46875</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="31">
         <f t="shared" si="1"/>
         <v>12.65625</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="31">
         <f t="shared" si="1"/>
         <v>6.34375</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="31">
         <f t="shared" si="1"/>
         <v>7.3125</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="31">
         <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="31">
         <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="31">
         <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="31">
         <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="31">
         <f t="shared" si="1"/>
         <v>3.9375</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="31">
         <f t="shared" si="1"/>
         <v>9.46875</v>
       </c>
-      <c r="L36" s="35" t="e">
+      <c r="L36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="35" t="e">
+      <c r="M36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N36" s="35" t="e">
+      <c r="N36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O36" s="35" t="e">
+      <c r="O36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P36" s="35" t="e">
+      <c r="P36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q36" s="35" t="e">
+      <c r="Q36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="35" t="e">
+      <c r="R36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S36" s="35" t="e">
+      <c r="S36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="35" t="e">
+      <c r="T36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U36" s="35" t="e">
+      <c r="U36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V36" s="35">
+      <c r="V36" s="31">
         <f t="shared" si="1"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="W36"/>
     </row>
     <row r="37" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="31">
         <f t="shared" ref="B37:V37" si="2">STDEV(B$2:B$33)</f>
         <v>5.3940491403983577</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="31">
         <f t="shared" si="2"/>
         <v>5.5335304894271031</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="31">
         <f t="shared" si="2"/>
         <v>5.1406625341800627</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <f t="shared" si="2"/>
         <v>5.8774445840611449</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="31">
         <f t="shared" si="2"/>
         <v>5.6511488983186187</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="31">
         <f t="shared" si="2"/>
         <v>5.4299052448216756</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="31">
         <f t="shared" si="2"/>
         <v>3.1212073759798415</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="31">
         <f t="shared" si="2"/>
         <v>2.6327650128530702</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="31">
         <f t="shared" si="2"/>
         <v>4.4062821721543388</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="31">
         <f t="shared" si="2"/>
         <v>6.8626355089741038</v>
       </c>
-      <c r="L37" s="35" t="e">
+      <c r="L37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="35" t="e">
+      <c r="M37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="35" t="e">
+      <c r="N37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O37" s="35" t="e">
+      <c r="O37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P37" s="35" t="e">
+      <c r="P37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="35" t="e">
+      <c r="Q37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="35" t="e">
+      <c r="R37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S37" s="35" t="e">
+      <c r="S37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="35" t="e">
+      <c r="T37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U37" s="35" t="e">
+      <c r="U37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V37" s="35">
+      <c r="V37" s="31">
         <f t="shared" si="2"/>
         <v>0.20893311512295518</v>
       </c>
       <c r="W37"/>
     </row>
     <row r="38" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="31">
         <f t="shared" ref="B38:V38" si="3">MEDIAN(B$2:B$33)</f>
         <v>15</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="31">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="31">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="31">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="31">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L38" s="35" t="e">
+      <c r="L38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="M38" s="35" t="e">
+      <c r="M38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="N38" s="35" t="e">
+      <c r="N38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="O38" s="35" t="e">
+      <c r="O38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="P38" s="35" t="e">
+      <c r="P38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q38" s="35" t="e">
+      <c r="Q38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="R38" s="35" t="e">
+      <c r="R38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="S38" s="35" t="e">
+      <c r="S38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="T38" s="35" t="e">
+      <c r="T38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="U38" s="35" t="e">
+      <c r="U38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V38" s="35">
+      <c r="V38" s="31">
         <f t="shared" si="3"/>
         <v>0.47</v>
       </c>
       <c r="W38"/>
     </row>
     <row r="39" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="34">
         <f t="shared" ref="B39:V39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O39" s="38">
+      <c r="O39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P39" s="38">
+      <c r="P39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="Q39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R39" s="38">
+      <c r="R39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S39" s="38">
+      <c r="S39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T39" s="38">
+      <c r="T39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U39" s="38">
+      <c r="U39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V39" s="38">
+      <c r="V39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3438,738 +3432,738 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="49">
         <f>9+2+9+3+3.5+1+10+6+3+3</f>
         <v>49.5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="39">
+      <c r="C2" s="44"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="35">
         <f t="shared" ref="L2:L33" si="0">IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
         <v>0.74249999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="49">
         <f>9+1+7+9+4.5+6+3+4+0+2</f>
         <v>45.5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="39">
+      <c r="C3" s="44"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="35">
         <f t="shared" si="0"/>
         <v>0.6825</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="53">
-        <v>0</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="39">
+      <c r="B4" s="49">
+        <v>0</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="49">
         <f>9+8+10+3+2+8+10+4+3</f>
         <v>57</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="39">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="35">
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="49">
         <f>10+10+7+10+9+10+10+10+3+10</f>
         <v>89</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="39">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="35">
         <f t="shared" si="0"/>
         <v>1.335</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="49">
         <f>4+4+9+3+7+1+10+4+5+9</f>
         <v>56</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="39">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="35">
         <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="49">
         <f>7+2.5+10+3+1+8+7+6+10+10</f>
         <v>64.5</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="39">
+      <c r="C8" s="44"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="35">
         <f t="shared" si="0"/>
         <v>0.96750000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>2441</v>
       </c>
-      <c r="B9" s="53">
-        <v>0</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="39">
+      <c r="B9" s="49">
+        <v>0</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="49">
         <f>10+10+10+10+10+10+10+10+8+10</f>
         <v>98</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="39">
+      <c r="C10" s="44"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="35">
         <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="53">
-        <v>0</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="39">
+      <c r="B11" s="49">
+        <v>0</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="53">
-        <v>0</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="39">
+      <c r="B12" s="49">
+        <v>0</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="49">
         <f>3+5.5+2.5+10+0+9.5+9+10+0+2</f>
         <v>51.5</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="39">
+      <c r="C13" s="44"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="35">
         <f t="shared" si="0"/>
         <v>0.77249999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="49">
         <f>7+9+9+6+2+1+1+1+0+6</f>
         <v>42</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="39">
+      <c r="C14" s="44"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="35">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="49">
         <f>4+2+9+3+8.5+1+10+2+5+9</f>
         <v>53.5</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="39">
+      <c r="C15" s="44"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="35">
         <f t="shared" si="0"/>
         <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="49">
         <f>4+4+9+4+1.5+1+5+1+2+9</f>
         <v>40.5</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="39">
+      <c r="C16" s="44"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="35">
         <f t="shared" si="0"/>
         <v>0.60750000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="53">
-        <v>0</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="39">
+      <c r="B17" s="49">
+        <v>0</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="49">
         <f>7+2.5+10+10+10+2+9.5+10+7+9.5</f>
         <v>77.5</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="39">
+      <c r="C18" s="44"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="35">
         <f t="shared" si="0"/>
         <v>1.1625000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="49">
         <f>10+6+4+10+5+1+1+2+0+2</f>
         <v>41</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="39">
+      <c r="C19" s="44"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="35">
         <f t="shared" si="0"/>
         <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="49">
         <f>7+3+10+6+0+1+1+1+0+6</f>
         <v>35</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="39">
+      <c r="C20" s="44"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="35">
         <f t="shared" si="0"/>
         <v>0.52499999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="49">
         <f>7+9.5+10+10+10+9+10+10+10+10</f>
         <v>95.5</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="39">
+      <c r="C21" s="44"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="35">
         <f t="shared" si="0"/>
         <v>1.4324999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="49">
         <f>10+4+9+9.5+1.5+1+9+9+1+5</f>
         <v>59</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="39">
+      <c r="C22" s="44"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="35">
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="49">
         <f>10+10+9+4+2+8+8+5+0+3</f>
         <v>59</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="39">
+      <c r="C23" s="44"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="35">
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="49">
         <f>8+9.5+10+4+8.5+10+1+4+2+7</f>
         <v>64</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="39">
+      <c r="C24" s="44"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="35">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="49">
         <f>7+6+0+9.5+3.5+8+10+1+0+4</f>
         <v>49</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="39">
+      <c r="C25" s="44"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="35">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29">
+      <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="49">
         <f>6+4+0+10+2+3+10+10+2+10</f>
         <v>57</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="39">
+      <c r="C26" s="44"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="35">
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+      <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="49">
         <f>10+6+10+3+6.5+3+10+1+0+4</f>
         <v>53.5</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="39">
+      <c r="C27" s="44"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="35">
         <f t="shared" si="0"/>
         <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+      <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="49">
         <f>7+3+2.5+3+4.5+1+1+1+1+5</f>
         <v>29</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="39">
+      <c r="C28" s="44"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="35">
         <f t="shared" si="0"/>
         <v>0.43499999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29">
+      <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="49">
         <f>7+9.5+10+4+8.5+10+1+4+2+6</f>
         <v>62</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="39">
+      <c r="C29" s="44"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="35">
         <f t="shared" si="0"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29">
+      <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="49">
         <f>10+7.5+9+10+0+1+10+4+2+0</f>
         <v>53.5</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="39">
+      <c r="C30" s="44"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="35">
         <f t="shared" si="0"/>
         <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29">
+      <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="49">
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="39">
+      <c r="C31" s="44"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="35">
         <f t="shared" si="0"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="49">
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="39">
+      <c r="C32" s="44"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="35">
         <f t="shared" si="0"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="49">
         <f>10+9.5+10+9+10+10+10+10+10+10</f>
         <v>98.5</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="39">
+      <c r="C33" s="44"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="35">
         <f t="shared" si="0"/>
         <v>1.4775</v>
       </c>
@@ -4188,235 +4182,235 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="41">
         <v>100</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="41">
         <v>30</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="41">
         <v>100</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="41">
         <v>100</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="41">
         <v>100</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="41">
         <v>100</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="41">
         <v>100</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="41">
         <v>100</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="41">
         <v>100</v>
       </c>
-      <c r="K35" s="45">
+      <c r="K35" s="41">
         <v>100</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="29">
         <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="31">
         <f t="shared" ref="B36:L36" si="1">AVERAGE(B$2:B$33)</f>
         <v>50.140625</v>
       </c>
-      <c r="C36" s="35" t="e">
+      <c r="C36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="35" t="e">
+      <c r="D36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="35" t="e">
+      <c r="E36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="35" t="e">
+      <c r="F36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="35" t="e">
+      <c r="G36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="35" t="e">
+      <c r="H36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="35" t="e">
+      <c r="I36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="35" t="e">
+      <c r="J36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="35" t="e">
+      <c r="K36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="35">
+      <c r="L36" s="31">
         <f t="shared" si="1"/>
         <v>0.75210937499999975</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="31">
         <f t="shared" ref="B37:L37" si="2">STDEV(B$2:B$33)</f>
         <v>27.590973972624898</v>
       </c>
-      <c r="C37" s="35" t="e">
+      <c r="C37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="35" t="e">
+      <c r="D37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="35" t="e">
+      <c r="E37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="35" t="e">
+      <c r="F37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="35" t="e">
+      <c r="G37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="35" t="e">
+      <c r="H37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="35" t="e">
+      <c r="I37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="35" t="e">
+      <c r="J37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K37" s="35" t="e">
+      <c r="K37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="35">
+      <c r="L37" s="31">
         <f t="shared" si="2"/>
         <v>0.41386460958937377</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="31">
         <f t="shared" ref="B38:L38" si="3">MEDIAN(B$2:B$33)</f>
         <v>53.5</v>
       </c>
-      <c r="C38" s="35" t="e">
+      <c r="C38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="D38" s="35" t="e">
+      <c r="D38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="E38" s="35" t="e">
+      <c r="E38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="F38" s="35" t="e">
+      <c r="F38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G38" s="35" t="e">
+      <c r="G38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="H38" s="35" t="e">
+      <c r="H38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="I38" s="35" t="e">
+      <c r="I38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="J38" s="35" t="e">
+      <c r="J38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="K38" s="35" t="e">
+      <c r="K38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="31">
         <f t="shared" si="3"/>
         <v>0.80249999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="34">
         <f t="shared" ref="B39:K39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L39" s="45"/>
+      <c r="L39" s="41"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
@@ -4474,382 +4468,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>2441</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="M15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29">
+      <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+      <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+      <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29">
+      <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29">
+      <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29">
+      <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="22"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="42">
         <v>100</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="42">
         <v>180</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="47" t="e">
+      <c r="B36" s="43" t="e">
         <f>AVERAGE(B$2:B$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C36" s="47" t="e">
+      <c r="C36" s="43" t="e">
         <f>AVERAGE(C$2:C$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="47" t="e">
+      <c r="B37" s="43" t="e">
         <f>STDEV(B$2:B$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C37" s="47" t="e">
+      <c r="C37" s="43" t="e">
         <f>STDEV(C$2:C$33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="47" t="e">
+      <c r="B38" s="43" t="e">
         <f>MEDIAN(B$2:B$33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C38" s="47" t="e">
+      <c r="C38" s="43" t="e">
         <f>MEDIAN(C$2:C$33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D38" s="22"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="15"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="22"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="19"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -4861,187 +4855,187 @@
       <c r="Y39" s="17"/>
     </row>
     <row r="40" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
     </row>
     <row r="41" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
     </row>
     <row r="42" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
     </row>
     <row r="43" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
     </row>
     <row r="44" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
     </row>
     <row r="45" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
     </row>
     <row r="46" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
     </row>
     <row r="47" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
     </row>
     <row r="48" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
     </row>
     <row r="49" spans="6:16" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
     </row>
     <row r="50" spans="6:16" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
     </row>
     <row r="51" spans="6:16" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
     </row>
     <row r="52" spans="6:16" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
     </row>
     <row r="53" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
     </row>
     <row r="56" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" spans="6:16" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5075,1084 +5069,1084 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="35">
         <f>Quiz!V2</f>
         <v>0.42</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="55">
         <f>Homework!L2</f>
         <v>0.74249999999999994</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="44">
         <f>Exams!B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="45">
         <f>Exams!C2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
         <v>1.1624999999999999</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
         <v>1</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="56">
         <f>IF(G2&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="35">
         <f>Quiz!V3</f>
         <v>0.62666666666666671</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="55">
         <f>Homework!L3</f>
         <v>0.6825</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="44">
         <f>Exams!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="45">
         <f>Exams!C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="35">
         <f t="shared" si="0"/>
         <v>1.3091666666666666</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="56">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="35">
         <f>Quiz!V4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="55">
         <f>Homework!L4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="44">
         <f>Exams!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="45">
         <f>Exams!C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="F4" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="35">
         <f>Quiz!V5</f>
         <v>0.48</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="55">
         <f>Homework!L5</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="44">
         <f>Exams!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="45">
         <f>Exams!C5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="35">
         <f t="shared" si="0"/>
         <v>1.335</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="35">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="35">
         <f>Quiz!V6</f>
         <v>0.77333333333333332</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="55">
         <f>Homework!L6</f>
         <v>1.335</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="44">
         <f>Exams!B6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="45">
         <f>Exams!C6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="35">
         <f t="shared" si="0"/>
         <v>2.1083333333333334</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="35">
         <f>Quiz!V7</f>
         <v>0.68666666666666665</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="55">
         <f>Homework!L7</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="44">
         <f>Exams!B7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="45">
         <f>Exams!C7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="35">
         <f t="shared" si="0"/>
         <v>1.5266666666666668</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="35">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="35">
         <f>Quiz!V8</f>
         <v>0.36</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="55">
         <f>Homework!L8</f>
         <v>0.96750000000000003</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="44">
         <f>Exams!B8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="45">
         <f>Exams!C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="35">
         <f t="shared" si="0"/>
         <v>1.3275000000000001</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="35">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>2441</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="35">
         <f>Quiz!V9</f>
         <v>0.16</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="55">
         <f>Homework!L9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="44">
         <f>Exams!B9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="45">
         <f>Exams!C9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="35">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="35">
         <f>Quiz!V10</f>
         <v>0.76</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="55">
         <f>Homework!L10</f>
         <v>1.47</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="44">
         <f>Exams!B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="45">
         <f>Exams!C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="35">
         <f t="shared" si="0"/>
         <v>2.23</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="35">
         <f>Quiz!V11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="55">
         <f>Homework!L11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="44">
         <f>Exams!B11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="45">
         <f>Exams!C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="F11" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="35">
         <f>Quiz!V12</f>
         <v>0.04</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="55">
         <f>Homework!L12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="44">
         <f>Exams!B12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="45">
         <f>Exams!C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="35">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="35">
         <f>Quiz!V13</f>
         <v>0.26</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="55">
         <f>Homework!L13</f>
         <v>0.77249999999999996</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="44">
         <f>Exams!B13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="45">
         <f>Exams!C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="35">
         <f t="shared" si="0"/>
         <v>1.0325</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="35">
         <f>Quiz!V14</f>
         <v>0.4</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="55">
         <f>Homework!L14</f>
         <v>0.63</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="44">
         <f>Exams!B14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="45">
         <f>Exams!C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="35">
         <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="35">
         <f>Quiz!V15</f>
         <v>0.78</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="55">
         <f>Homework!L15</f>
         <v>0.80249999999999999</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="44">
         <f>Exams!B15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="45">
         <f>Exams!C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="35">
         <f t="shared" si="0"/>
         <v>1.5825</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="35">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="35">
         <f>Quiz!V16</f>
         <v>0.52</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="55">
         <f>Homework!L16</f>
         <v>0.60750000000000004</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="44">
         <f>Exams!B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="45">
         <f>Exams!C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="35">
         <f t="shared" si="0"/>
         <v>1.1274999999999999</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="35">
         <f>Quiz!V17</f>
         <v>0.65333333333333332</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="55">
         <f>Homework!L17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="44">
         <f>Exams!B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="45">
         <f>Exams!C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="35">
         <f t="shared" si="0"/>
         <v>0.65333333333333332</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="35">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="35">
         <f>Quiz!V18</f>
         <v>0.66</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="55">
         <f>Homework!L18</f>
         <v>1.1625000000000001</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="44">
         <f>Exams!B18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="45">
         <f>Exams!C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
         <v>1.8225000000000002</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="35">
         <f>Quiz!V19</f>
         <v>0.48</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="55">
         <f>Homework!L19</f>
         <v>0.61499999999999999</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="44">
         <f>Exams!B19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="45">
         <f>Exams!C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
         <v>1.095</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="35">
         <f>Quiz!V20</f>
         <v>0.4</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="55">
         <f>Homework!L20</f>
         <v>0.52499999999999991</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="44">
         <f>Exams!B20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="45">
         <f>Exams!C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="35">
         <f t="shared" si="3"/>
         <v>0.92499999999999993</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
         <v>1</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="56">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="35">
         <f>Quiz!V21</f>
         <v>0.64</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="55">
         <f>Homework!L21</f>
         <v>1.4324999999999999</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="44">
         <f>Exams!B21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="45">
         <f>Exams!C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="35">
         <f t="shared" si="3"/>
         <v>2.0724999999999998</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="35">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="35">
         <f>Quiz!V22</f>
         <v>0.61333333333333329</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="55">
         <f>Homework!L22</f>
         <v>0.88500000000000001</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="44">
         <f>Exams!B22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="45">
         <f>Exams!C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="35">
         <f t="shared" si="3"/>
         <v>1.4983333333333333</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="35">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="35">
         <f>Quiz!V23</f>
         <v>0.38</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="55">
         <f>Homework!L23</f>
         <v>0.88500000000000001</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="44">
         <f>Exams!B23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="45">
         <f>Exams!C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="35">
         <f t="shared" si="3"/>
         <v>1.2650000000000001</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="35">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="35">
         <f>Quiz!V24</f>
         <v>0.34</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="55">
         <f>Homework!L24</f>
         <v>0.96</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="44">
         <f>Exams!B24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="45">
         <f>Exams!C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="35">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="35">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="35">
         <f>Quiz!V25</f>
         <v>0.46</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="55">
         <f>Homework!L25</f>
         <v>0.73499999999999999</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="44">
         <f>Exams!B25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="45">
         <f>Exams!C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="35">
         <f t="shared" si="3"/>
         <v>1.1950000000000001</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29">
+      <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="35">
         <f>Quiz!V26</f>
         <v>0.64</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="55">
         <f>Homework!L26</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="44">
         <f>Exams!B26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="45">
         <f>Exams!C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="35">
         <f t="shared" si="3"/>
         <v>1.4950000000000001</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="56">
         <f t="shared" ref="H26:H33" si="7">IF(G26&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+      <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="35">
         <f>Quiz!V27</f>
         <v>0.55333333333333334</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="55">
         <f>Homework!L27</f>
         <v>0.80249999999999999</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="44">
         <f>Exams!B27</f>
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="45">
         <f>Exams!C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="35">
         <f t="shared" si="3"/>
         <v>1.3558333333333334</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="35">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+      <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="35">
         <f>Quiz!V28</f>
         <v>0.44</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="55">
         <f>Homework!L28</f>
         <v>0.43499999999999994</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="44">
         <f>Exams!B28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="45">
         <f>Exams!C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="35">
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="35">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29">
+      <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="35">
         <f>Quiz!V29</f>
         <v>0.5</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="55">
         <f>Homework!L29</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="44">
         <f>Exams!B29</f>
         <v>0</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="45">
         <f>Exams!C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="35">
         <f t="shared" si="3"/>
         <v>1.43</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="35">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29">
+      <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="35">
         <f>Quiz!V30</f>
         <v>0.36</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="55">
         <f>Homework!L30</f>
         <v>0.80249999999999999</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="44">
         <f>Exams!B30</f>
         <v>0</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="45">
         <f>Exams!C30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="35">
         <f t="shared" si="3"/>
         <v>1.1625000000000001</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="35">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29">
+      <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="35">
         <f>Quiz!V31</f>
         <v>0.44</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="55">
         <f>Homework!L31</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="44">
         <f>Exams!B31</f>
         <v>0</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="45">
         <f>Exams!C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="35">
         <f t="shared" si="3"/>
         <v>1.3699999999999999</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="35">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="35">
         <f>Quiz!V32</f>
         <v>0.44</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="55">
         <f>Homework!L32</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="44">
         <f>Exams!B32</f>
         <v>0</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="45">
         <f>Exams!C32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="35">
         <f t="shared" si="3"/>
         <v>1.3699999999999999</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="35">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="35">
         <f>Quiz!V33</f>
         <v>0.61333333333333329</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="55">
         <f>Homework!L33</f>
         <v>1.4775</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="44">
         <f>Exams!B33</f>
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="45">
         <f>Exams!C33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="35">
         <f t="shared" si="3"/>
         <v>2.0908333333333333</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="35">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6168,130 +6162,130 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="47">
         <f>Quiz!V35</f>
         <v>1</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="47">
         <f>Homework!L35</f>
         <v>1.5</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="28">
         <f>Exams!B35</f>
         <v>100</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="41">
         <v>100</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="41">
         <v>10</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="41">
         <v>10</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="41">
         <f>SUM(H2:H33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
         <v>0.46500000000000002</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="31">
         <f t="shared" si="8"/>
         <v>0.75210937499999975</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="31">
         <f t="shared" si="8"/>
         <v>1.2171093750000002</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="31">
         <f t="shared" si="8"/>
         <v>1.21875</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
         <v>0.20893311512295518</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="31">
         <f t="shared" si="9"/>
         <v>0.41386460958937377</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="31">
         <f t="shared" si="9"/>
         <v>0.57661332746259131</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="31">
         <f t="shared" si="9"/>
         <v>0.59483665418439902</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="31">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
         <v>0.47</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="31">
         <f t="shared" si="10"/>
         <v>0.80249999999999999</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="31">
         <f t="shared" si="10"/>
         <v>1.3045833333333334</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="31">
         <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6592,5 +6586,8 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="F18" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C8188F-8A48-6A4A-B4B5-DB56F2CF4F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38636B95-9589-6240-9004-1DA26F2167B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +572,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -3420,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -3477,7 +3480,9 @@
         <f>9+2+9+3+3.5+1+10+6+3+3</f>
         <v>49.5</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="57">
+        <v>26</v>
+      </c>
       <c r="D2" s="50"/>
       <c r="E2" s="51"/>
       <c r="F2" s="44"/>
@@ -3488,7 +3493,7 @@
       <c r="K2" s="44"/>
       <c r="L2" s="35">
         <f t="shared" ref="L2:L33" si="0">IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
-        <v>0.74249999999999994</v>
+        <v>1.0212500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3499,7 +3504,9 @@
         <f>9+1+7+9+4.5+6+3+4+0+2</f>
         <v>45.5</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="57">
+        <v>60</v>
+      </c>
       <c r="D3" s="50"/>
       <c r="E3" s="51"/>
       <c r="F3" s="44"/>
@@ -3510,7 +3517,7 @@
       <c r="K3" s="44"/>
       <c r="L3" s="35">
         <f t="shared" si="0"/>
-        <v>0.6825</v>
+        <v>1.8412500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3520,7 +3527,9 @@
       <c r="B4" s="49">
         <v>0</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="57">
+        <v>0</v>
+      </c>
       <c r="D4" s="50"/>
       <c r="E4" s="51"/>
       <c r="F4" s="44"/>
@@ -3542,7 +3551,9 @@
         <f>9+8+10+3+2+8+10+4+3</f>
         <v>57</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="57">
+        <v>27</v>
+      </c>
       <c r="D5" s="44"/>
       <c r="E5" s="51"/>
       <c r="F5" s="44"/>
@@ -3553,7 +3564,7 @@
       <c r="K5" s="44"/>
       <c r="L5" s="35">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
+        <v>1.1025</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3564,7 +3575,9 @@
         <f>10+10+7+10+9+10+10+10+3+10</f>
         <v>89</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="57">
+        <v>95</v>
+      </c>
       <c r="D6" s="45"/>
       <c r="E6" s="51"/>
       <c r="F6" s="44"/>
@@ -3575,7 +3588,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="35">
         <f t="shared" si="0"/>
-        <v>1.335</v>
+        <v>3.0425</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3586,7 +3599,9 @@
         <f>4+4+9+3+7+1+10+4+5+9</f>
         <v>56</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="57">
+        <v>47.5</v>
+      </c>
       <c r="D7" s="45"/>
       <c r="E7" s="51"/>
       <c r="F7" s="44"/>
@@ -3597,7 +3612,7 @@
       <c r="K7" s="44"/>
       <c r="L7" s="35">
         <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
+        <v>1.6075000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3608,7 +3623,9 @@
         <f>7+2.5+10+3+1+8+7+6+10+10</f>
         <v>64.5</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="57">
+        <v>74</v>
+      </c>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
       <c r="F8" s="44"/>
@@ -3619,7 +3636,7 @@
       <c r="K8" s="44"/>
       <c r="L8" s="35">
         <f t="shared" si="0"/>
-        <v>0.96750000000000003</v>
+        <v>2.3337500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3629,7 +3646,9 @@
       <c r="B9" s="49">
         <v>0</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="57">
+        <v>0</v>
+      </c>
       <c r="D9" s="50"/>
       <c r="E9" s="51"/>
       <c r="F9" s="44"/>
@@ -3651,7 +3670,9 @@
         <f>10+10+10+10+10+10+10+10+8+10</f>
         <v>98</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="57">
+        <v>83</v>
+      </c>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="44"/>
@@ -3662,7 +3683,7 @@
       <c r="K10" s="44"/>
       <c r="L10" s="35">
         <f t="shared" si="0"/>
-        <v>1.47</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3672,7 +3693,9 @@
       <c r="B11" s="49">
         <v>0</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="57">
+        <v>0</v>
+      </c>
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
       <c r="F11" s="44"/>
@@ -3693,7 +3716,9 @@
       <c r="B12" s="49">
         <v>0</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="57">
+        <v>0</v>
+      </c>
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="44"/>
@@ -3715,7 +3740,9 @@
         <f>3+5.5+2.5+10+0+9.5+9+10+0+2</f>
         <v>51.5</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="57">
+        <v>46</v>
+      </c>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
       <c r="F13" s="44"/>
@@ -3726,7 +3753,7 @@
       <c r="K13" s="44"/>
       <c r="L13" s="35">
         <f t="shared" si="0"/>
-        <v>0.77249999999999996</v>
+        <v>1.5362499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3737,7 +3764,9 @@
         <f>7+9+9+6+2+1+1+1+0+6</f>
         <v>42</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="57">
+        <v>37.5</v>
+      </c>
       <c r="D14" s="50"/>
       <c r="E14" s="51"/>
       <c r="F14" s="44"/>
@@ -3748,7 +3777,7 @@
       <c r="K14" s="44"/>
       <c r="L14" s="35">
         <f t="shared" si="0"/>
-        <v>0.63</v>
+        <v>1.2524999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3759,7 +3788,9 @@
         <f>4+2+9+3+8.5+1+10+2+5+9</f>
         <v>53.5</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="57">
+        <v>48</v>
+      </c>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
       <c r="F15" s="44"/>
@@ -3770,7 +3801,7 @@
       <c r="K15" s="44"/>
       <c r="L15" s="35">
         <f t="shared" si="0"/>
-        <v>0.80249999999999999</v>
+        <v>1.6012500000000003</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3781,7 +3812,9 @@
         <f>4+4+9+4+1.5+1+5+1+2+9</f>
         <v>40.5</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="57">
+        <v>48.5</v>
+      </c>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="44"/>
@@ -3792,7 +3825,7 @@
       <c r="K16" s="44"/>
       <c r="L16" s="35">
         <f t="shared" si="0"/>
-        <v>0.60750000000000004</v>
+        <v>1.5162499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3802,7 +3835,9 @@
       <c r="B17" s="49">
         <v>0</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="57">
+        <v>0</v>
+      </c>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
       <c r="F17" s="44"/>
@@ -3824,7 +3859,9 @@
         <f>7+2.5+10+10+10+2+9.5+10+7+9.5</f>
         <v>77.5</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="57">
+        <v>78</v>
+      </c>
       <c r="D18" s="50"/>
       <c r="E18" s="45"/>
       <c r="F18" s="44"/>
@@ -3835,7 +3872,7 @@
       <c r="K18" s="44"/>
       <c r="L18" s="35">
         <f t="shared" si="0"/>
-        <v>1.1625000000000001</v>
+        <v>2.53125</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3846,7 +3883,9 @@
         <f>10+6+4+10+5+1+1+2+0+2</f>
         <v>41</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="57">
+        <v>34.5</v>
+      </c>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
       <c r="F19" s="44"/>
@@ -3857,7 +3896,7 @@
       <c r="K19" s="44"/>
       <c r="L19" s="35">
         <f t="shared" si="0"/>
-        <v>0.61499999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3868,7 +3907,9 @@
         <f>7+3+10+6+0+1+1+1+0+6</f>
         <v>35</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="57">
+        <v>43</v>
+      </c>
       <c r="D20" s="52"/>
       <c r="E20" s="51"/>
       <c r="F20" s="44"/>
@@ -3879,7 +3920,7 @@
       <c r="K20" s="44"/>
       <c r="L20" s="35">
         <f t="shared" si="0"/>
-        <v>0.52499999999999991</v>
+        <v>1.3374999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3890,7 +3931,9 @@
         <f>7+9.5+10+10+10+9+10+10+10+10</f>
         <v>95.5</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="57">
+        <v>79.5</v>
+      </c>
       <c r="D21" s="52"/>
       <c r="E21" s="51"/>
       <c r="F21" s="44"/>
@@ -3901,7 +3944,7 @@
       <c r="K21" s="44"/>
       <c r="L21" s="35">
         <f t="shared" si="0"/>
-        <v>1.4324999999999999</v>
+        <v>2.7037499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3912,7 +3955,9 @@
         <f>10+4+9+9.5+1.5+1+9+9+1+5</f>
         <v>59</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="57">
+        <v>52</v>
+      </c>
       <c r="D22" s="52"/>
       <c r="E22" s="51"/>
       <c r="F22" s="44"/>
@@ -3923,7 +3968,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="35">
         <f t="shared" si="0"/>
-        <v>0.88500000000000001</v>
+        <v>1.7424999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3934,7 +3979,9 @@
         <f>10+10+9+4+2+8+8+5+0+3</f>
         <v>59</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="57">
+        <v>71.5</v>
+      </c>
       <c r="D23" s="52"/>
       <c r="E23" s="51"/>
       <c r="F23" s="44"/>
@@ -3945,7 +3992,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="35">
         <f t="shared" si="0"/>
-        <v>0.88500000000000001</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3956,7 +4003,9 @@
         <f>8+9.5+10+4+8.5+10+1+4+2+7</f>
         <v>64</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="57">
+        <v>67</v>
+      </c>
       <c r="D24" s="52"/>
       <c r="E24" s="51"/>
       <c r="F24" s="44"/>
@@ -3967,7 +4016,7 @@
       <c r="K24" s="44"/>
       <c r="L24" s="35">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>2.1550000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3978,7 +4027,9 @@
         <f>7+6+0+9.5+3.5+8+10+1+0+4</f>
         <v>49</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="57">
+        <v>45.5</v>
+      </c>
       <c r="D25" s="52"/>
       <c r="E25" s="51"/>
       <c r="F25" s="44"/>
@@ -3989,7 +4040,7 @@
       <c r="K25" s="44"/>
       <c r="L25" s="35">
         <f t="shared" si="0"/>
-        <v>0.73499999999999999</v>
+        <v>1.5050000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4000,7 +4051,9 @@
         <f>6+4+0+10+2+3+10+10+2+10</f>
         <v>57</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="57">
+        <v>64.5</v>
+      </c>
       <c r="D26" s="52"/>
       <c r="E26" s="51"/>
       <c r="F26" s="44"/>
@@ -4011,7 +4064,7 @@
       <c r="K26" s="44"/>
       <c r="L26" s="35">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4022,7 +4075,9 @@
         <f>10+6+10+3+6.5+3+10+1+0+4</f>
         <v>53.5</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="57">
+        <v>59</v>
+      </c>
       <c r="D27" s="52"/>
       <c r="E27" s="51"/>
       <c r="F27" s="44"/>
@@ -4033,7 +4088,7 @@
       <c r="K27" s="44"/>
       <c r="L27" s="35">
         <f t="shared" si="0"/>
-        <v>0.80249999999999999</v>
+        <v>1.8762499999999998</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4044,7 +4099,9 @@
         <f>7+3+2.5+3+4.5+1+1+1+1+5</f>
         <v>29</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="57">
+        <v>33</v>
+      </c>
       <c r="D28" s="52"/>
       <c r="E28" s="51"/>
       <c r="F28" s="44"/>
@@ -4055,7 +4112,7 @@
       <c r="K28" s="44"/>
       <c r="L28" s="35">
         <f t="shared" si="0"/>
-        <v>0.43499999999999994</v>
+        <v>1.0425</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4066,7 +4123,9 @@
         <f>7+9.5+10+4+8.5+10+1+4+2+6</f>
         <v>62</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="57">
+        <v>67.5</v>
+      </c>
       <c r="D29" s="52"/>
       <c r="E29" s="51"/>
       <c r="F29" s="44"/>
@@ -4077,7 +4136,7 @@
       <c r="K29" s="44"/>
       <c r="L29" s="35">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>2.1524999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4088,7 +4147,9 @@
         <f>10+7.5+9+10+0+1+10+4+2+0</f>
         <v>53.5</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="57">
+        <v>29</v>
+      </c>
       <c r="D30" s="52"/>
       <c r="E30" s="51"/>
       <c r="F30" s="44"/>
@@ -4099,7 +4160,7 @@
       <c r="K30" s="44"/>
       <c r="L30" s="35">
         <f t="shared" si="0"/>
-        <v>0.80249999999999999</v>
+        <v>1.12625</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4110,7 +4171,9 @@
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="57">
+        <v>53</v>
+      </c>
       <c r="D31" s="52"/>
       <c r="E31" s="51"/>
       <c r="F31" s="44"/>
@@ -4121,7 +4184,7 @@
       <c r="K31" s="44"/>
       <c r="L31" s="35">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4132,7 +4195,9 @@
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="57">
+        <v>55</v>
+      </c>
       <c r="D32" s="52"/>
       <c r="E32" s="51"/>
       <c r="F32" s="44"/>
@@ -4143,7 +4208,7 @@
       <c r="K32" s="44"/>
       <c r="L32" s="35">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>1.8399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4154,7 +4219,9 @@
         <f>10+9.5+10+9+10+10+10+10+10+10</f>
         <v>98.5</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="57">
+        <v>76.5</v>
+      </c>
       <c r="D33" s="52"/>
       <c r="E33" s="51"/>
       <c r="F33" s="44"/>
@@ -4165,7 +4232,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="35">
         <f t="shared" si="0"/>
-        <v>1.4775</v>
+        <v>2.6512499999999997</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4227,9 +4294,9 @@
         <f t="shared" ref="B36:L36" si="1">AVERAGE(B$2:B$33)</f>
         <v>50.140625</v>
       </c>
-      <c r="C36" s="31" t="e">
+      <c r="C36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>46.90625</v>
       </c>
       <c r="D36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -4265,7 +4332,7 @@
       </c>
       <c r="L36" s="31">
         <f t="shared" si="1"/>
-        <v>0.75210937499999975</v>
+        <v>1.5487109374999994</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4276,9 +4343,9 @@
         <f t="shared" ref="B37:L37" si="2">STDEV(B$2:B$33)</f>
         <v>27.590973972624898</v>
       </c>
-      <c r="C37" s="31" t="e">
+      <c r="C37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>26.67378727176467</v>
       </c>
       <c r="D37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -4314,7 +4381,7 @@
       </c>
       <c r="L37" s="31">
         <f t="shared" si="2"/>
-        <v>0.41386460958937377</v>
+        <v>0.86050367871740685</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4325,9 +4392,9 @@
         <f t="shared" ref="B38:L38" si="3">MEDIAN(B$2:B$33)</f>
         <v>53.5</v>
       </c>
-      <c r="C38" s="31" t="e">
+      <c r="C38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>48.25</v>
       </c>
       <c r="D38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -4363,7 +4430,7 @@
       </c>
       <c r="L38" s="31">
         <f t="shared" si="3"/>
-        <v>0.80249999999999999</v>
+        <v>1.6043750000000001</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4376,7 +4443,7 @@
       </c>
       <c r="C39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="34">
         <f t="shared" si="4"/>
@@ -5104,7 +5171,7 @@
       </c>
       <c r="C2" s="55">
         <f>Homework!L2</f>
-        <v>0.74249999999999994</v>
+        <v>1.0212500000000002</v>
       </c>
       <c r="D2" s="44">
         <f>Exams!B2</f>
@@ -5116,11 +5183,11 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.1624999999999999</v>
+        <v>1.4412500000000001</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="56">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -5138,7 +5205,7 @@
       </c>
       <c r="C3" s="55">
         <f>Homework!L3</f>
-        <v>0.6825</v>
+        <v>1.8412500000000001</v>
       </c>
       <c r="D3" s="44">
         <f>Exams!B3</f>
@@ -5150,11 +5217,11 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>1.3091666666666666</v>
+        <v>2.4679166666666665</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="56">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -5204,7 +5271,7 @@
       </c>
       <c r="C5" s="55">
         <f>Homework!L5</f>
-        <v>0.85499999999999998</v>
+        <v>1.1025</v>
       </c>
       <c r="D5" s="44">
         <f>Exams!B5</f>
@@ -5216,7 +5283,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.335</v>
+        <v>1.5825</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5237,7 +5304,7 @@
       </c>
       <c r="C6" s="55">
         <f>Homework!L6</f>
-        <v>1.335</v>
+        <v>3.0425</v>
       </c>
       <c r="D6" s="44">
         <f>Exams!B6</f>
@@ -5249,11 +5316,11 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>2.1083333333333334</v>
+        <v>3.8158333333333334</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="56">
         <f t="shared" si="2"/>
@@ -5270,7 +5337,7 @@
       </c>
       <c r="C7" s="55">
         <f>Homework!L7</f>
-        <v>0.84000000000000008</v>
+        <v>1.6075000000000002</v>
       </c>
       <c r="D7" s="44">
         <f>Exams!B7</f>
@@ -5282,11 +5349,11 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>1.5266666666666668</v>
+        <v>2.2941666666666669</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="56">
         <f t="shared" si="2"/>
@@ -5303,7 +5370,7 @@
       </c>
       <c r="C8" s="55">
         <f>Homework!L8</f>
-        <v>0.96750000000000003</v>
+        <v>2.3337500000000002</v>
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
@@ -5315,11 +5382,11 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>1.3275000000000001</v>
+        <v>2.6937500000000001</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="56">
         <f t="shared" si="2"/>
@@ -5369,7 +5436,7 @@
       </c>
       <c r="C10" s="55">
         <f>Homework!L10</f>
-        <v>1.47</v>
+        <v>2.81</v>
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
@@ -5381,11 +5448,11 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>2.23</v>
+        <v>3.5700000000000003</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H10" s="56">
         <f t="shared" si="2"/>
@@ -5468,7 +5535,7 @@
       </c>
       <c r="C13" s="55">
         <f>Homework!L13</f>
-        <v>0.77249999999999996</v>
+        <v>1.5362499999999999</v>
       </c>
       <c r="D13" s="44">
         <f>Exams!B13</f>
@@ -5480,11 +5547,11 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.0325</v>
+        <v>1.7962499999999999</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="56">
         <f t="shared" si="2"/>
@@ -5501,7 +5568,7 @@
       </c>
       <c r="C14" s="55">
         <f>Homework!L14</f>
-        <v>0.63</v>
+        <v>1.2524999999999999</v>
       </c>
       <c r="D14" s="44">
         <f>Exams!B14</f>
@@ -5513,11 +5580,11 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.03</v>
+        <v>1.6524999999999999</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H14" s="56">
         <f t="shared" si="2"/>
@@ -5534,7 +5601,7 @@
       </c>
       <c r="C15" s="55">
         <f>Homework!L15</f>
-        <v>0.80249999999999999</v>
+        <v>1.6012500000000003</v>
       </c>
       <c r="D15" s="44">
         <f>Exams!B15</f>
@@ -5546,11 +5613,11 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>1.5825</v>
+        <v>2.3812500000000005</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="56">
         <f t="shared" si="2"/>
@@ -5567,7 +5634,7 @@
       </c>
       <c r="C16" s="55">
         <f>Homework!L16</f>
-        <v>0.60750000000000004</v>
+        <v>1.5162499999999999</v>
       </c>
       <c r="D16" s="44">
         <f>Exams!B16</f>
@@ -5579,11 +5646,11 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>1.1274999999999999</v>
+        <v>2.0362499999999999</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="56">
         <f t="shared" si="2"/>
@@ -5633,7 +5700,7 @@
       </c>
       <c r="C18" s="55">
         <f>Homework!L18</f>
-        <v>1.1625000000000001</v>
+        <v>2.53125</v>
       </c>
       <c r="D18" s="44">
         <f>Exams!B18</f>
@@ -5645,11 +5712,11 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>1.8225000000000002</v>
+        <v>3.1912500000000001</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="56">
         <f t="shared" si="2"/>
@@ -5666,7 +5733,7 @@
       </c>
       <c r="C19" s="55">
         <f>Homework!L19</f>
-        <v>0.61499999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="D19" s="44">
         <f>Exams!B19</f>
@@ -5678,11 +5745,11 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>1.095</v>
+        <v>1.65</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="56">
         <f t="shared" si="2"/>
@@ -5699,7 +5766,7 @@
       </c>
       <c r="C20" s="55">
         <f>Homework!L20</f>
-        <v>0.52499999999999991</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="D20" s="44">
         <f>Exams!B20</f>
@@ -5711,11 +5778,11 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>0.92499999999999993</v>
+        <v>1.7374999999999998</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="56">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
@@ -5732,7 +5799,7 @@
       </c>
       <c r="C21" s="55">
         <f>Homework!L21</f>
-        <v>1.4324999999999999</v>
+        <v>2.7037499999999999</v>
       </c>
       <c r="D21" s="44">
         <f>Exams!B21</f>
@@ -5744,11 +5811,11 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>2.0724999999999998</v>
+        <v>3.34375</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="56">
         <f t="shared" si="5"/>
@@ -5765,7 +5832,7 @@
       </c>
       <c r="C22" s="55">
         <f>Homework!L22</f>
-        <v>0.88500000000000001</v>
+        <v>1.7424999999999999</v>
       </c>
       <c r="D22" s="44">
         <f>Exams!B22</f>
@@ -5777,11 +5844,11 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>1.4983333333333333</v>
+        <v>2.355833333333333</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H22" s="56">
         <f t="shared" si="5"/>
@@ -5798,7 +5865,7 @@
       </c>
       <c r="C23" s="55">
         <f>Homework!L23</f>
-        <v>0.88500000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="D23" s="44">
         <f>Exams!B23</f>
@@ -5810,11 +5877,11 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>1.2650000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H23" s="56">
         <f t="shared" si="5"/>
@@ -5831,7 +5898,7 @@
       </c>
       <c r="C24" s="55">
         <f>Homework!L24</f>
-        <v>0.96</v>
+        <v>2.1550000000000002</v>
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
@@ -5843,11 +5910,11 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>1.3</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H24" s="56">
         <f t="shared" si="5"/>
@@ -5864,7 +5931,7 @@
       </c>
       <c r="C25" s="55">
         <f>Homework!L25</f>
-        <v>0.73499999999999999</v>
+        <v>1.5050000000000001</v>
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
@@ -5876,11 +5943,11 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.1950000000000001</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="56">
         <f t="shared" si="5"/>
@@ -5897,7 +5964,7 @@
       </c>
       <c r="C26" s="55">
         <f>Homework!L26</f>
-        <v>0.85499999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="D26" s="44">
         <f>Exams!B26</f>
@@ -5909,11 +5976,11 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>1.4950000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H26" s="56">
         <f t="shared" ref="H26:H33" si="7">IF(G26&gt;4.75,1,0)</f>
@@ -5930,7 +5997,7 @@
       </c>
       <c r="C27" s="55">
         <f>Homework!L27</f>
-        <v>0.80249999999999999</v>
+        <v>1.8762499999999998</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
@@ -5942,11 +6009,11 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>1.3558333333333334</v>
+        <v>2.429583333333333</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H27" s="56">
         <f t="shared" si="7"/>
@@ -5963,7 +6030,7 @@
       </c>
       <c r="C28" s="55">
         <f>Homework!L28</f>
-        <v>0.43499999999999994</v>
+        <v>1.0425</v>
       </c>
       <c r="D28" s="44">
         <f>Exams!B28</f>
@@ -5975,11 +6042,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>0.875</v>
+        <v>1.4824999999999999</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="56">
         <f t="shared" si="7"/>
@@ -5996,7 +6063,7 @@
       </c>
       <c r="C29" s="55">
         <f>Homework!L29</f>
-        <v>0.92999999999999994</v>
+        <v>2.1524999999999999</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
@@ -6008,11 +6075,11 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>2.6524999999999999</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H29" s="56">
         <f t="shared" si="7"/>
@@ -6029,7 +6096,7 @@
       </c>
       <c r="C30" s="55">
         <f>Homework!L30</f>
-        <v>0.80249999999999999</v>
+        <v>1.12625</v>
       </c>
       <c r="D30" s="44">
         <f>Exams!B30</f>
@@ -6041,11 +6108,11 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>1.1625000000000001</v>
+        <v>1.4862500000000001</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H30" s="56">
         <f t="shared" si="7"/>
@@ -6062,7 +6129,7 @@
       </c>
       <c r="C31" s="55">
         <f>Homework!L31</f>
-        <v>0.92999999999999994</v>
+        <v>1.79</v>
       </c>
       <c r="D31" s="44">
         <f>Exams!B31</f>
@@ -6074,11 +6141,11 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>1.3699999999999999</v>
+        <v>2.23</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="56">
         <f t="shared" si="7"/>
@@ -6095,7 +6162,7 @@
       </c>
       <c r="C32" s="55">
         <f>Homework!L32</f>
-        <v>0.92999999999999994</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="D32" s="44">
         <f>Exams!B32</f>
@@ -6107,11 +6174,11 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>1.3699999999999999</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H32" s="56">
         <f t="shared" si="7"/>
@@ -6128,7 +6195,7 @@
       </c>
       <c r="C33" s="55">
         <f>Homework!L33</f>
-        <v>1.4775</v>
+        <v>2.6512499999999997</v>
       </c>
       <c r="D33" s="44">
         <f>Exams!B33</f>
@@ -6140,11 +6207,11 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>2.0908333333333333</v>
+        <v>3.2645833333333329</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H33" s="56">
         <f t="shared" si="7"/>
@@ -6201,7 +6268,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.75210937499999975</v>
+        <v>1.5487109374999994</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -6213,11 +6280,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>1.2171093750000002</v>
+        <v>2.0137109374999995</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>1.21875</v>
+        <v>2</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6234,7 +6301,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.41386460958937377</v>
+        <v>0.86050367871740685</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -6246,11 +6313,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>0.57661332746259131</v>
+        <v>1.0140160911235667</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>0.59483665418439902</v>
+        <v>1.0549422855334085</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6267,7 +6334,7 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>0.80249999999999999</v>
+        <v>1.6043750000000001</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
@@ -6279,11 +6346,11 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>1.3045833333333334</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="H38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38636B95-9589-6240-9004-1DA26F2167B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F439F7B-D7D8-BF42-9260-B13E666DBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,9 +541,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1075,16 +1072,16 @@
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="51">
-        <v>3</v>
-      </c>
-      <c r="C2" s="51">
-        <v>15</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="B2" s="50">
+        <v>3</v>
+      </c>
+      <c r="C2" s="50">
+        <v>15</v>
+      </c>
+      <c r="D2" s="50">
         <v>12</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="50">
         <v>3</v>
       </c>
       <c r="F2" s="45">
@@ -1125,16 +1122,16 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="51">
-        <v>15</v>
-      </c>
-      <c r="C3" s="51">
-        <v>15</v>
-      </c>
-      <c r="D3" s="51">
+      <c r="B3" s="50">
+        <v>15</v>
+      </c>
+      <c r="C3" s="50">
+        <v>15</v>
+      </c>
+      <c r="D3" s="50">
         <v>12</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="50">
         <v>8</v>
       </c>
       <c r="F3" s="45">
@@ -1175,16 +1172,16 @@
       <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="51">
-        <v>0</v>
-      </c>
-      <c r="C4" s="51">
-        <v>0</v>
-      </c>
-      <c r="D4" s="51">
-        <v>0</v>
-      </c>
-      <c r="E4" s="51">
+      <c r="B4" s="50">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
         <v>0</v>
       </c>
       <c r="F4" s="45">
@@ -1225,16 +1222,16 @@
       <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="51">
-        <v>3</v>
-      </c>
-      <c r="C5" s="51">
-        <v>15</v>
-      </c>
-      <c r="D5" s="51">
+      <c r="B5" s="50">
+        <v>3</v>
+      </c>
+      <c r="C5" s="50">
+        <v>15</v>
+      </c>
+      <c r="D5" s="50">
         <v>12</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <v>15</v>
       </c>
       <c r="F5" s="45">
@@ -1275,16 +1272,16 @@
       <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="51">
-        <v>15</v>
-      </c>
-      <c r="C6" s="51">
-        <v>15</v>
-      </c>
-      <c r="D6" s="51">
-        <v>15</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="B6" s="50">
+        <v>15</v>
+      </c>
+      <c r="C6" s="50">
+        <v>15</v>
+      </c>
+      <c r="D6" s="50">
+        <v>15</v>
+      </c>
+      <c r="E6" s="50">
         <v>15</v>
       </c>
       <c r="F6" s="45">
@@ -1325,16 +1322,16 @@
       <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="51">
-        <v>15</v>
-      </c>
-      <c r="C7" s="51">
-        <v>15</v>
-      </c>
-      <c r="D7" s="51">
+      <c r="B7" s="50">
+        <v>15</v>
+      </c>
+      <c r="C7" s="50">
+        <v>15</v>
+      </c>
+      <c r="D7" s="50">
         <v>9</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <v>13</v>
       </c>
       <c r="F7" s="45">
@@ -1375,16 +1372,16 @@
       <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="51">
-        <v>15</v>
-      </c>
-      <c r="C8" s="51">
-        <v>15</v>
-      </c>
-      <c r="D8" s="51">
-        <v>3</v>
-      </c>
-      <c r="E8" s="51">
+      <c r="B8" s="50">
+        <v>15</v>
+      </c>
+      <c r="C8" s="50">
+        <v>15</v>
+      </c>
+      <c r="D8" s="50">
+        <v>3</v>
+      </c>
+      <c r="E8" s="50">
         <v>3</v>
       </c>
       <c r="F8" s="45">
@@ -1425,16 +1422,16 @@
       <c r="A9" s="25">
         <v>2441</v>
       </c>
-      <c r="B9" s="51">
-        <v>15</v>
-      </c>
-      <c r="C9" s="51">
-        <v>0</v>
-      </c>
-      <c r="D9" s="51">
-        <v>3</v>
-      </c>
-      <c r="E9" s="51">
+      <c r="B9" s="50">
+        <v>15</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0</v>
+      </c>
+      <c r="D9" s="50">
+        <v>3</v>
+      </c>
+      <c r="E9" s="50">
         <v>0</v>
       </c>
       <c r="F9" s="45">
@@ -1475,16 +1472,16 @@
       <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="51">
-        <v>15</v>
-      </c>
-      <c r="C10" s="51">
-        <v>15</v>
-      </c>
-      <c r="D10" s="51">
-        <v>3</v>
-      </c>
-      <c r="E10" s="51">
+      <c r="B10" s="50">
+        <v>15</v>
+      </c>
+      <c r="C10" s="50">
+        <v>15</v>
+      </c>
+      <c r="D10" s="50">
+        <v>3</v>
+      </c>
+      <c r="E10" s="50">
         <v>15</v>
       </c>
       <c r="F10" s="45">
@@ -1525,16 +1522,16 @@
       <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="51">
-        <v>0</v>
-      </c>
-      <c r="C11" s="51">
-        <v>0</v>
-      </c>
-      <c r="D11" s="51">
-        <v>0</v>
-      </c>
-      <c r="E11" s="51">
+      <c r="B11" s="50">
+        <v>0</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+      <c r="D11" s="50">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50">
         <v>0</v>
       </c>
       <c r="F11" s="45">
@@ -1575,16 +1572,16 @@
       <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="51">
-        <v>0</v>
-      </c>
-      <c r="C12" s="51">
-        <v>0</v>
-      </c>
-      <c r="D12" s="51">
-        <v>3</v>
-      </c>
-      <c r="E12" s="51">
+      <c r="B12" s="50">
+        <v>0</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50">
+        <v>3</v>
+      </c>
+      <c r="E12" s="50">
         <v>0</v>
       </c>
       <c r="F12" s="45">
@@ -1625,16 +1622,16 @@
       <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="51">
-        <v>15</v>
-      </c>
-      <c r="C13" s="51">
-        <v>15</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0</v>
-      </c>
-      <c r="E13" s="51">
+      <c r="B13" s="50">
+        <v>15</v>
+      </c>
+      <c r="C13" s="50">
+        <v>15</v>
+      </c>
+      <c r="D13" s="50">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50">
         <v>3</v>
       </c>
       <c r="F13" s="45">
@@ -1675,16 +1672,16 @@
       <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="51">
-        <v>15</v>
-      </c>
-      <c r="C14" s="51">
-        <v>15</v>
-      </c>
-      <c r="D14" s="51">
-        <v>3</v>
-      </c>
-      <c r="E14" s="51">
+      <c r="B14" s="50">
+        <v>15</v>
+      </c>
+      <c r="C14" s="50">
+        <v>15</v>
+      </c>
+      <c r="D14" s="50">
+        <v>3</v>
+      </c>
+      <c r="E14" s="50">
         <v>3</v>
       </c>
       <c r="F14" s="45">
@@ -1724,16 +1721,16 @@
       <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="51">
-        <v>15</v>
-      </c>
-      <c r="C15" s="51">
-        <v>15</v>
-      </c>
-      <c r="D15" s="51">
-        <v>15</v>
-      </c>
-      <c r="E15" s="51">
+      <c r="B15" s="50">
+        <v>15</v>
+      </c>
+      <c r="C15" s="50">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50">
+        <v>15</v>
+      </c>
+      <c r="E15" s="50">
         <v>15</v>
       </c>
       <c r="F15" s="45">
@@ -1774,16 +1771,16 @@
       <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="51">
-        <v>15</v>
-      </c>
-      <c r="C16" s="51">
-        <v>15</v>
-      </c>
-      <c r="D16" s="51">
-        <v>3</v>
-      </c>
-      <c r="E16" s="51">
+      <c r="B16" s="50">
+        <v>15</v>
+      </c>
+      <c r="C16" s="50">
+        <v>15</v>
+      </c>
+      <c r="D16" s="50">
+        <v>3</v>
+      </c>
+      <c r="E16" s="50">
         <v>10</v>
       </c>
       <c r="F16" s="45">
@@ -1824,16 +1821,16 @@
       <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="51">
-        <v>15</v>
-      </c>
-      <c r="C17" s="51">
-        <v>15</v>
-      </c>
-      <c r="D17" s="51">
+      <c r="B17" s="50">
+        <v>15</v>
+      </c>
+      <c r="C17" s="50">
+        <v>15</v>
+      </c>
+      <c r="D17" s="50">
         <v>12</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <v>8</v>
       </c>
       <c r="F17" s="45">
@@ -1874,16 +1871,16 @@
       <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="51">
-        <v>15</v>
-      </c>
-      <c r="C18" s="51">
-        <v>15</v>
-      </c>
-      <c r="D18" s="51">
-        <v>3</v>
-      </c>
-      <c r="E18" s="51">
+      <c r="B18" s="50">
+        <v>15</v>
+      </c>
+      <c r="C18" s="50">
+        <v>15</v>
+      </c>
+      <c r="D18" s="50">
+        <v>3</v>
+      </c>
+      <c r="E18" s="50">
         <v>12</v>
       </c>
       <c r="F18" s="45">
@@ -1924,16 +1921,16 @@
       <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="51">
-        <v>15</v>
-      </c>
-      <c r="C19" s="51">
-        <v>15</v>
-      </c>
-      <c r="D19" s="51">
-        <v>0</v>
-      </c>
-      <c r="E19" s="51">
+      <c r="B19" s="50">
+        <v>15</v>
+      </c>
+      <c r="C19" s="50">
+        <v>15</v>
+      </c>
+      <c r="D19" s="50">
+        <v>0</v>
+      </c>
+      <c r="E19" s="50">
         <v>15</v>
       </c>
       <c r="F19" s="45">
@@ -1974,16 +1971,16 @@
       <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="51">
-        <v>15</v>
-      </c>
-      <c r="C20" s="51">
-        <v>15</v>
-      </c>
-      <c r="D20" s="51">
-        <v>3</v>
-      </c>
-      <c r="E20" s="51">
+      <c r="B20" s="50">
+        <v>15</v>
+      </c>
+      <c r="C20" s="50">
+        <v>15</v>
+      </c>
+      <c r="D20" s="50">
+        <v>3</v>
+      </c>
+      <c r="E20" s="50">
         <v>3</v>
       </c>
       <c r="F20" s="45">
@@ -2024,16 +2021,16 @@
       <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="51">
-        <v>15</v>
-      </c>
-      <c r="C21" s="51">
-        <v>15</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="B21" s="50">
+        <v>15</v>
+      </c>
+      <c r="C21" s="50">
+        <v>15</v>
+      </c>
+      <c r="D21" s="50">
         <v>12</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="50">
         <v>12</v>
       </c>
       <c r="F21" s="45">
@@ -2074,16 +2071,16 @@
       <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="51">
-        <v>15</v>
-      </c>
-      <c r="C22" s="51">
-        <v>15</v>
-      </c>
-      <c r="D22" s="51">
-        <v>3</v>
-      </c>
-      <c r="E22" s="51">
+      <c r="B22" s="50">
+        <v>15</v>
+      </c>
+      <c r="C22" s="50">
+        <v>15</v>
+      </c>
+      <c r="D22" s="50">
+        <v>3</v>
+      </c>
+      <c r="E22" s="50">
         <v>12</v>
       </c>
       <c r="F22" s="45">
@@ -2124,16 +2121,16 @@
       <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="51">
-        <v>15</v>
-      </c>
-      <c r="C23" s="51">
-        <v>15</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="B23" s="50">
+        <v>15</v>
+      </c>
+      <c r="C23" s="50">
+        <v>15</v>
+      </c>
+      <c r="D23" s="50">
         <v>12</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="50">
         <v>3</v>
       </c>
       <c r="F23" s="45">
@@ -2174,16 +2171,16 @@
       <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="51">
-        <v>15</v>
-      </c>
-      <c r="C24" s="51">
-        <v>15</v>
-      </c>
-      <c r="D24" s="51">
-        <v>3</v>
-      </c>
-      <c r="E24" s="51">
+      <c r="B24" s="50">
+        <v>15</v>
+      </c>
+      <c r="C24" s="50">
+        <v>15</v>
+      </c>
+      <c r="D24" s="50">
+        <v>3</v>
+      </c>
+      <c r="E24" s="50">
         <v>12</v>
       </c>
       <c r="F24" s="45">
@@ -2224,16 +2221,16 @@
       <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="51">
-        <v>3</v>
-      </c>
-      <c r="C25" s="51">
-        <v>15</v>
-      </c>
-      <c r="D25" s="51">
+      <c r="B25" s="50">
+        <v>3</v>
+      </c>
+      <c r="C25" s="50">
+        <v>15</v>
+      </c>
+      <c r="D25" s="50">
         <v>12</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="50">
         <v>0</v>
       </c>
       <c r="F25" s="45">
@@ -2274,16 +2271,16 @@
       <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="51">
-        <v>15</v>
-      </c>
-      <c r="C26" s="51">
-        <v>0</v>
-      </c>
-      <c r="D26" s="51">
-        <v>15</v>
-      </c>
-      <c r="E26" s="51">
+      <c r="B26" s="50">
+        <v>15</v>
+      </c>
+      <c r="C26" s="50">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
+        <v>15</v>
+      </c>
+      <c r="E26" s="50">
         <v>0</v>
       </c>
       <c r="F26" s="45">
@@ -2324,16 +2321,16 @@
       <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="51">
-        <v>15</v>
-      </c>
-      <c r="C27" s="51">
-        <v>15</v>
-      </c>
-      <c r="D27" s="51">
-        <v>3</v>
-      </c>
-      <c r="E27" s="51">
+      <c r="B27" s="50">
+        <v>15</v>
+      </c>
+      <c r="C27" s="50">
+        <v>15</v>
+      </c>
+      <c r="D27" s="50">
+        <v>3</v>
+      </c>
+      <c r="E27" s="50">
         <v>15</v>
       </c>
       <c r="F27" s="45">
@@ -2374,16 +2371,16 @@
       <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="51">
-        <v>15</v>
-      </c>
-      <c r="C28" s="51">
-        <v>15</v>
-      </c>
-      <c r="D28" s="51">
-        <v>3</v>
-      </c>
-      <c r="E28" s="51">
+      <c r="B28" s="50">
+        <v>15</v>
+      </c>
+      <c r="C28" s="50">
+        <v>15</v>
+      </c>
+      <c r="D28" s="50">
+        <v>3</v>
+      </c>
+      <c r="E28" s="50">
         <v>3</v>
       </c>
       <c r="F28" s="45">
@@ -2424,16 +2421,16 @@
       <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="51">
-        <v>15</v>
-      </c>
-      <c r="C29" s="51">
-        <v>15</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="B29" s="50">
+        <v>15</v>
+      </c>
+      <c r="C29" s="50">
+        <v>15</v>
+      </c>
+      <c r="D29" s="50">
         <v>12</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="50">
         <v>15</v>
       </c>
       <c r="F29" s="45">
@@ -2474,16 +2471,16 @@
       <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="51">
-        <v>15</v>
-      </c>
-      <c r="C30" s="51">
-        <v>15</v>
-      </c>
-      <c r="D30" s="51">
-        <v>3</v>
-      </c>
-      <c r="E30" s="51">
+      <c r="B30" s="50">
+        <v>15</v>
+      </c>
+      <c r="C30" s="50">
+        <v>15</v>
+      </c>
+      <c r="D30" s="50">
+        <v>3</v>
+      </c>
+      <c r="E30" s="50">
         <v>3</v>
       </c>
       <c r="F30" s="45">
@@ -2524,16 +2521,16 @@
       <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="51">
-        <v>15</v>
-      </c>
-      <c r="C31" s="51">
-        <v>15</v>
-      </c>
-      <c r="D31" s="51">
-        <v>3</v>
-      </c>
-      <c r="E31" s="51">
+      <c r="B31" s="50">
+        <v>15</v>
+      </c>
+      <c r="C31" s="50">
+        <v>15</v>
+      </c>
+      <c r="D31" s="50">
+        <v>3</v>
+      </c>
+      <c r="E31" s="50">
         <v>3</v>
       </c>
       <c r="F31" s="45">
@@ -2574,16 +2571,16 @@
       <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="51">
-        <v>15</v>
-      </c>
-      <c r="C32" s="51">
-        <v>15</v>
-      </c>
-      <c r="D32" s="51">
-        <v>3</v>
-      </c>
-      <c r="E32" s="51">
+      <c r="B32" s="50">
+        <v>15</v>
+      </c>
+      <c r="C32" s="50">
+        <v>15</v>
+      </c>
+      <c r="D32" s="50">
+        <v>3</v>
+      </c>
+      <c r="E32" s="50">
         <v>3</v>
       </c>
       <c r="F32" s="45">
@@ -2624,16 +2621,16 @@
       <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="51">
-        <v>15</v>
-      </c>
-      <c r="C33" s="51">
-        <v>15</v>
-      </c>
-      <c r="D33" s="51">
+      <c r="B33" s="50">
+        <v>15</v>
+      </c>
+      <c r="C33" s="50">
+        <v>15</v>
+      </c>
+      <c r="D33" s="50">
         <v>8</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="50">
         <v>12</v>
       </c>
       <c r="F33" s="45">
@@ -3423,7 +3420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -3476,15 +3473,15 @@
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="48">
         <f>9+2+9+3+3.5+1+10+6+3+3</f>
         <v>49.5</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <v>26</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -3493,22 +3490,22 @@
       <c r="K2" s="44"/>
       <c r="L2" s="35">
         <f t="shared" ref="L2:L33" si="0">IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
-        <v>1.0212500000000002</v>
+        <v>0.56625000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <f>9+1+7+9+4.5+6+3+4+0+2</f>
         <v>45.5</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <v>60</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -3517,21 +3514,21 @@
       <c r="K3" s="44"/>
       <c r="L3" s="35">
         <f t="shared" si="0"/>
-        <v>1.8412500000000001</v>
+        <v>0.79125000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="49">
-        <v>0</v>
-      </c>
-      <c r="C4" s="57">
-        <v>0</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="48">
+        <v>0</v>
+      </c>
+      <c r="C4" s="56">
+        <v>0</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -3547,15 +3544,15 @@
       <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <f>9+8+10+3+2+8+10+4+3</f>
         <v>57</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <v>27</v>
       </c>
       <c r="D5" s="44"/>
-      <c r="E5" s="51"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
@@ -3564,22 +3561,22 @@
       <c r="K5" s="44"/>
       <c r="L5" s="35">
         <f t="shared" si="0"/>
-        <v>1.1025</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <f>10+10+7+10+9+10+10+10+3+10</f>
         <v>89</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="56">
         <v>95</v>
       </c>
       <c r="D6" s="45"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -3588,22 +3585,22 @@
       <c r="K6" s="44"/>
       <c r="L6" s="35">
         <f t="shared" si="0"/>
-        <v>3.0425</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <f>4+4+9+3+7+1+10+4+5+9</f>
         <v>56</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="56">
         <v>47.5</v>
       </c>
       <c r="D7" s="45"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
@@ -3612,22 +3609,22 @@
       <c r="K7" s="44"/>
       <c r="L7" s="35">
         <f t="shared" si="0"/>
-        <v>1.6075000000000002</v>
+        <v>0.77625000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <f>7+2.5+10+3+1+8+7+6+10+10</f>
         <v>64.5</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="56">
         <v>74</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -3636,21 +3633,21 @@
       <c r="K8" s="44"/>
       <c r="L8" s="35">
         <f t="shared" si="0"/>
-        <v>2.3337500000000002</v>
+        <v>1.0387500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>2441</v>
       </c>
-      <c r="B9" s="49">
-        <v>0</v>
-      </c>
-      <c r="C9" s="57">
-        <v>0</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="48">
+        <v>0</v>
+      </c>
+      <c r="C9" s="56">
+        <v>0</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -3666,15 +3663,15 @@
       <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <f>10+10+10+10+10+10+10+10+8+10</f>
         <v>98</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="56">
         <v>83</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -3683,21 +3680,21 @@
       <c r="K10" s="44"/>
       <c r="L10" s="35">
         <f t="shared" si="0"/>
-        <v>2.81</v>
+        <v>1.3574999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="49">
-        <v>0</v>
-      </c>
-      <c r="C11" s="57">
-        <v>0</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="48">
+        <v>0</v>
+      </c>
+      <c r="C11" s="56">
+        <v>0</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="44"/>
       <c r="G11" s="45"/>
       <c r="H11" s="44"/>
@@ -3713,14 +3710,14 @@
       <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="49">
-        <v>0</v>
-      </c>
-      <c r="C12" s="57">
-        <v>0</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="48">
+        <v>0</v>
+      </c>
+      <c r="C12" s="56">
+        <v>0</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -3736,15 +3733,15 @@
       <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <f>3+5.5+2.5+10+0+9.5+9+10+0+2</f>
         <v>51.5</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="56">
         <v>46</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
@@ -3753,22 +3750,22 @@
       <c r="K13" s="44"/>
       <c r="L13" s="35">
         <f t="shared" si="0"/>
-        <v>1.5362499999999999</v>
+        <v>0.73125000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <f>7+9+9+6+2+1+1+1+0+6</f>
         <v>42</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <v>37.5</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
@@ -3777,22 +3774,22 @@
       <c r="K14" s="44"/>
       <c r="L14" s="35">
         <f t="shared" si="0"/>
-        <v>1.2524999999999999</v>
+        <v>0.59624999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="48">
         <f>4+2+9+3+8.5+1+10+2+5+9</f>
         <v>53.5</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="56">
         <v>48</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
@@ -3801,22 +3798,22 @@
       <c r="K15" s="44"/>
       <c r="L15" s="35">
         <f t="shared" si="0"/>
-        <v>1.6012500000000003</v>
+        <v>0.76125000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="48">
         <f>4+4+9+4+1.5+1+5+1+2+9</f>
         <v>40.5</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="56">
         <v>48.5</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -3825,21 +3822,21 @@
       <c r="K16" s="44"/>
       <c r="L16" s="35">
         <f t="shared" si="0"/>
-        <v>1.5162499999999999</v>
+        <v>0.66749999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="49">
-        <v>0</v>
-      </c>
-      <c r="C17" s="57">
-        <v>0</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="48">
+        <v>0</v>
+      </c>
+      <c r="C17" s="56">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
@@ -3855,14 +3852,14 @@
       <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <f>7+2.5+10+10+10+2+9.5+10+7+9.5</f>
         <v>77.5</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="56">
         <v>78</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="45"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
@@ -3872,22 +3869,22 @@
       <c r="K18" s="44"/>
       <c r="L18" s="35">
         <f t="shared" si="0"/>
-        <v>2.53125</v>
+        <v>1.1662500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="48">
         <f>10+6+4+10+5+1+1+2+0+2</f>
         <v>41</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="56">
         <v>34.5</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
@@ -3896,22 +3893,22 @@
       <c r="K19" s="44"/>
       <c r="L19" s="35">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>0.56624999999999992</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <f>7+3+10+6+0+1+1+1+0+6</f>
         <v>35</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="56">
         <v>43</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
@@ -3920,22 +3917,22 @@
       <c r="K20" s="44"/>
       <c r="L20" s="35">
         <f t="shared" si="0"/>
-        <v>1.3374999999999999</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="48">
         <f>7+9.5+10+10+10+9+10+10+10+10</f>
         <v>95.5</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="56">
         <v>79.5</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
@@ -3944,22 +3941,22 @@
       <c r="K21" s="44"/>
       <c r="L21" s="35">
         <f t="shared" si="0"/>
-        <v>2.7037499999999999</v>
+        <v>1.3125</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <f>10+4+9+9.5+1.5+1+9+9+1+5</f>
         <v>59</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="56">
         <v>52</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -3968,22 +3965,22 @@
       <c r="K22" s="44"/>
       <c r="L22" s="35">
         <f t="shared" si="0"/>
-        <v>1.7424999999999999</v>
+        <v>0.83249999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <f>10+10+9+4+2+8+8+5+0+3</f>
         <v>59</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="56">
         <v>71.5</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -3992,22 +3989,22 @@
       <c r="K23" s="44"/>
       <c r="L23" s="35">
         <f t="shared" si="0"/>
-        <v>2.23</v>
+        <v>0.97875000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <f>8+9.5+10+4+8.5+10+1+4+2+7</f>
         <v>64</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="56">
         <v>67</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
@@ -4016,22 +4013,22 @@
       <c r="K24" s="44"/>
       <c r="L24" s="35">
         <f t="shared" si="0"/>
-        <v>2.1550000000000002</v>
+        <v>0.98250000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <f>7+6+0+9.5+3.5+8+10+1+0+4</f>
         <v>49</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="56">
         <v>45.5</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -4040,22 +4037,22 @@
       <c r="K25" s="44"/>
       <c r="L25" s="35">
         <f t="shared" si="0"/>
-        <v>1.5050000000000001</v>
+        <v>0.70874999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="48">
         <f>6+4+0+10+2+3+10+10+2+10</f>
         <v>57</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="56">
         <v>64.5</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
@@ -4064,22 +4061,22 @@
       <c r="K26" s="44"/>
       <c r="L26" s="35">
         <f t="shared" si="0"/>
-        <v>2.04</v>
+        <v>0.91124999999999989</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="48">
         <f>10+6+10+3+6.5+3+10+1+0+4</f>
         <v>53.5</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="56">
         <v>59</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
@@ -4088,22 +4085,22 @@
       <c r="K27" s="44"/>
       <c r="L27" s="35">
         <f t="shared" si="0"/>
-        <v>1.8762499999999998</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="48">
         <f>7+3+2.5+3+4.5+1+1+1+1+5</f>
         <v>29</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="56">
         <v>33</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
@@ -4112,22 +4109,22 @@
       <c r="K28" s="44"/>
       <c r="L28" s="35">
         <f t="shared" si="0"/>
-        <v>1.0425</v>
+        <v>0.46499999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="48">
         <f>7+9.5+10+4+8.5+10+1+4+2+6</f>
         <v>62</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="56">
         <v>67.5</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="50"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
@@ -4136,22 +4133,22 @@
       <c r="K29" s="44"/>
       <c r="L29" s="35">
         <f t="shared" si="0"/>
-        <v>2.1524999999999999</v>
+        <v>0.97124999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="48">
         <f>10+7.5+9+10+0+1+10+4+2+0</f>
         <v>53.5</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="56">
         <v>29</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="50"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -4160,22 +4157,22 @@
       <c r="K30" s="44"/>
       <c r="L30" s="35">
         <f t="shared" si="0"/>
-        <v>1.12625</v>
+        <v>0.61874999999999991</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="48">
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="56">
         <v>53</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -4184,22 +4181,22 @@
       <c r="K31" s="44"/>
       <c r="L31" s="35">
         <f t="shared" si="0"/>
-        <v>1.79</v>
+        <v>0.86249999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="48">
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="56">
         <v>55</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
@@ -4208,22 +4205,22 @@
       <c r="K32" s="44"/>
       <c r="L32" s="35">
         <f t="shared" si="0"/>
-        <v>1.8399999999999999</v>
+        <v>0.87749999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="48">
         <f>10+9.5+10+9+10+10+10+10+10+10</f>
         <v>98.5</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="56">
         <v>76.5</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -4232,7 +4229,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="35">
         <f t="shared" si="0"/>
-        <v>2.6512499999999997</v>
+        <v>1.3125</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4256,7 +4253,7 @@
         <v>100</v>
       </c>
       <c r="C35" s="41">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D35" s="41">
         <v>100</v>
@@ -4332,7 +4329,7 @@
       </c>
       <c r="L36" s="31">
         <f t="shared" si="1"/>
-        <v>1.5487109374999994</v>
+        <v>0.72785156249999994</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4381,7 +4378,7 @@
       </c>
       <c r="L37" s="31">
         <f t="shared" si="2"/>
-        <v>0.86050367871740685</v>
+        <v>0.39841118864737657</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4430,7 +4427,7 @@
       </c>
       <c r="L38" s="31">
         <f t="shared" si="3"/>
-        <v>1.6043750000000001</v>
+        <v>0.76875000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4529,7 +4526,7 @@
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="6" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="15" width="5.6640625" customWidth="1"/>
   </cols>
@@ -4551,7 +4548,10 @@
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="44">
+        <f>10+8</f>
+        <v>18</v>
+      </c>
       <c r="C2" s="44"/>
       <c r="D2" s="19"/>
       <c r="F2" s="19"/>
@@ -4561,7 +4561,10 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="44">
+        <f>28+33</f>
+        <v>61</v>
+      </c>
       <c r="C3" s="44"/>
       <c r="D3" s="19"/>
       <c r="F3" s="19"/>
@@ -4581,7 +4584,10 @@
       <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="44">
+        <f>18+3</f>
+        <v>21</v>
+      </c>
       <c r="C5" s="44"/>
       <c r="D5" s="19"/>
       <c r="F5" s="19"/>
@@ -4591,7 +4597,10 @@
       <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="44">
+        <f>36+59</f>
+        <v>95</v>
+      </c>
       <c r="C6" s="44"/>
       <c r="D6" s="19"/>
       <c r="F6" s="19"/>
@@ -4601,7 +4610,10 @@
       <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="44">
+        <f>32+18</f>
+        <v>50</v>
+      </c>
       <c r="C7" s="44"/>
       <c r="D7" s="19"/>
       <c r="F7" s="19"/>
@@ -4611,7 +4623,10 @@
       <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="44">
+        <f>26+F8</f>
+        <v>26</v>
+      </c>
       <c r="C8" s="44"/>
       <c r="D8" s="19"/>
       <c r="F8" s="19"/>
@@ -4631,7 +4646,10 @@
       <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="44">
+        <f>32+F10</f>
+        <v>32</v>
+      </c>
       <c r="C10" s="44"/>
       <c r="D10" s="19"/>
       <c r="F10" s="19"/>
@@ -4641,7 +4659,10 @@
       <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="44">
+        <f>18+6</f>
+        <v>24</v>
+      </c>
       <c r="C11" s="44"/>
       <c r="D11" s="19"/>
       <c r="F11" s="19"/>
@@ -4651,7 +4672,10 @@
       <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="44">
+        <f>22+13</f>
+        <v>35</v>
+      </c>
       <c r="C12" s="44"/>
       <c r="D12" s="19"/>
       <c r="F12" s="19"/>
@@ -4661,7 +4685,10 @@
       <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="44">
+        <f>10+11</f>
+        <v>21</v>
+      </c>
       <c r="C13" s="45"/>
       <c r="D13" s="19"/>
       <c r="F13" s="19"/>
@@ -4671,7 +4698,10 @@
       <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="44">
+        <f>18+10</f>
+        <v>28</v>
+      </c>
       <c r="C14" s="44"/>
       <c r="D14" s="19"/>
       <c r="F14" s="19"/>
@@ -4681,7 +4711,10 @@
       <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="44">
+        <f>32+17</f>
+        <v>49</v>
+      </c>
       <c r="C15" s="44"/>
       <c r="D15" s="19"/>
       <c r="F15" s="19"/>
@@ -4694,7 +4727,10 @@
       <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="44">
+        <f>24+20</f>
+        <v>44</v>
+      </c>
       <c r="C16" s="44"/>
       <c r="D16" s="19"/>
       <c r="F16" s="19"/>
@@ -4704,7 +4740,10 @@
       <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="44">
+        <f>18+12</f>
+        <v>30</v>
+      </c>
       <c r="C17" s="44"/>
       <c r="D17" s="19"/>
       <c r="F17" s="19"/>
@@ -4714,7 +4753,10 @@
       <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="44">
+        <f>20+30</f>
+        <v>50</v>
+      </c>
       <c r="C18" s="44"/>
       <c r="D18" s="19"/>
     </row>
@@ -4722,7 +4764,10 @@
       <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="44">
+        <f>24+25</f>
+        <v>49</v>
+      </c>
       <c r="C19" s="44"/>
       <c r="D19" s="19"/>
     </row>
@@ -4730,7 +4775,10 @@
       <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="44">
+        <f>20+19</f>
+        <v>39</v>
+      </c>
       <c r="C20" s="44"/>
       <c r="D20" s="19"/>
     </row>
@@ -4738,7 +4786,10 @@
       <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="44">
+        <f>20+32</f>
+        <v>52</v>
+      </c>
       <c r="C21" s="44"/>
       <c r="D21" s="19"/>
     </row>
@@ -4746,7 +4797,10 @@
       <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="44">
+        <f>24+30</f>
+        <v>54</v>
+      </c>
       <c r="C22" s="44"/>
       <c r="D22" s="19"/>
     </row>
@@ -4754,7 +4808,10 @@
       <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="44">
+        <f>18+15</f>
+        <v>33</v>
+      </c>
       <c r="C23" s="44"/>
       <c r="D23" s="19"/>
     </row>
@@ -4762,7 +4819,10 @@
       <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="44">
+        <f>18+29</f>
+        <v>47</v>
+      </c>
       <c r="C24" s="44"/>
       <c r="D24" s="19"/>
     </row>
@@ -4770,7 +4830,10 @@
       <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="44">
+        <f>14+F25</f>
+        <v>14</v>
+      </c>
       <c r="C25" s="44"/>
       <c r="D25" s="19"/>
     </row>
@@ -4778,7 +4841,10 @@
       <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="44">
+        <f>26+18</f>
+        <v>44</v>
+      </c>
       <c r="C26" s="44"/>
       <c r="D26" s="19"/>
     </row>
@@ -4786,7 +4852,10 @@
       <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="44">
+        <f>19+37</f>
+        <v>56</v>
+      </c>
       <c r="C27" s="44"/>
       <c r="D27" s="19"/>
     </row>
@@ -4794,7 +4863,10 @@
       <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="44">
+        <f>22+19</f>
+        <v>41</v>
+      </c>
       <c r="C28" s="44"/>
       <c r="D28" s="19"/>
     </row>
@@ -4802,7 +4874,10 @@
       <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="44">
+        <f>16+32</f>
+        <v>48</v>
+      </c>
       <c r="C29" s="44"/>
       <c r="D29" s="19"/>
     </row>
@@ -4810,7 +4885,10 @@
       <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="44">
+        <f>24+34</f>
+        <v>58</v>
+      </c>
       <c r="C30" s="44"/>
       <c r="D30" s="19"/>
     </row>
@@ -4818,7 +4896,10 @@
       <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="44">
+        <f>22+37</f>
+        <v>59</v>
+      </c>
       <c r="C31" s="44"/>
       <c r="D31" s="19"/>
     </row>
@@ -4826,7 +4907,10 @@
       <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="44">
+        <f>16+40</f>
+        <v>56</v>
+      </c>
       <c r="C32" s="44"/>
       <c r="D32" s="19"/>
     </row>
@@ -4834,14 +4918,17 @@
       <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="44"/>
+      <c r="B33" s="44">
+        <f>24+26</f>
+        <v>50</v>
+      </c>
       <c r="C33" s="44"/>
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4860,9 +4947,9 @@
       <c r="A36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="43" t="e">
+      <c r="B36" s="43">
         <f>AVERAGE(B$2:B$33)</f>
-        <v>#DIV/0!</v>
+        <v>42.8</v>
       </c>
       <c r="C36" s="43" t="e">
         <f>AVERAGE(C$2:C$33)</f>
@@ -4874,9 +4961,9 @@
       <c r="A37" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="43" t="e">
+      <c r="B37" s="43">
         <f>STDEV(B$2:B$33)</f>
-        <v>#DIV/0!</v>
+        <v>16.705150971048344</v>
       </c>
       <c r="C37" s="43" t="e">
         <f>STDEV(C$2:C$33)</f>
@@ -4888,9 +4975,9 @@
       <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="43" t="e">
+      <c r="B38" s="43">
         <f>MEDIAN(B$2:B$33)</f>
-        <v>#NUM!</v>
+        <v>45.5</v>
       </c>
       <c r="C38" s="43" t="e">
         <f>MEDIAN(C$2:C$33)</f>
@@ -5136,7 +5223,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="36" t="s">
@@ -5169,13 +5256,13 @@
         <f>Quiz!V2</f>
         <v>0.42</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="54">
         <f>Homework!L2</f>
-        <v>1.0212500000000002</v>
+        <v>0.56625000000000003</v>
       </c>
       <c r="D2" s="44">
         <f>Exams!B2</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" s="45">
         <f>Exams!C2</f>
@@ -5183,13 +5270,13 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.4412500000000001</v>
+        <v>1.5262500000000001</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="55">
         <f>IF(G2&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5203,13 +5290,13 @@
         <f>Quiz!V3</f>
         <v>0.62666666666666671</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="54">
         <f>Homework!L3</f>
-        <v>1.8412500000000001</v>
+        <v>0.79125000000000001</v>
       </c>
       <c r="D3" s="44">
         <f>Exams!B3</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E3" s="45">
         <f>Exams!C3</f>
@@ -5217,13 +5304,13 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>2.4679166666666665</v>
+        <v>3.2479166666666668</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="56">
+        <v>3</v>
+      </c>
+      <c r="H3" s="55">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5236,7 +5323,7 @@
         <f>Quiz!V4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <f>Homework!L4</f>
         <v>0</v>
       </c>
@@ -5256,7 +5343,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5269,13 +5356,13 @@
         <f>Quiz!V5</f>
         <v>0.48</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <f>Homework!L5</f>
-        <v>1.1025</v>
+        <v>0.63</v>
       </c>
       <c r="D5" s="44">
         <f>Exams!B5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E5" s="45">
         <f>Exams!C5</f>
@@ -5283,13 +5370,13 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.5825</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5302,13 +5389,13 @@
         <f>Quiz!V6</f>
         <v>0.77333333333333332</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <f>Homework!L6</f>
-        <v>3.0425</v>
+        <v>1.38</v>
       </c>
       <c r="D6" s="44">
         <f>Exams!B6</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E6" s="45">
         <f>Exams!C6</f>
@@ -5316,15 +5403,15 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>3.8158333333333334</v>
+        <v>5.003333333333333</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H6" s="56">
+        <v>5</v>
+      </c>
+      <c r="H6" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5335,13 +5422,13 @@
         <f>Quiz!V7</f>
         <v>0.68666666666666665</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <f>Homework!L7</f>
-        <v>1.6075000000000002</v>
+        <v>0.77625000000000011</v>
       </c>
       <c r="D7" s="44">
         <f>Exams!B7</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" s="45">
         <f>Exams!C7</f>
@@ -5349,13 +5436,13 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>2.2941666666666669</v>
+        <v>2.9629166666666666</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="H7" s="56">
+        <v>3</v>
+      </c>
+      <c r="H7" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5368,13 +5455,13 @@
         <f>Quiz!V8</f>
         <v>0.36</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <f>Homework!L8</f>
-        <v>2.3337500000000002</v>
+        <v>1.0387500000000001</v>
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E8" s="45">
         <f>Exams!C8</f>
@@ -5382,13 +5469,13 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6937500000000001</v>
+        <v>2.17875</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="H8" s="56">
+        <v>2</v>
+      </c>
+      <c r="H8" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5401,7 +5488,7 @@
         <f>Quiz!V9</f>
         <v>0.16</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <f>Homework!L9</f>
         <v>0</v>
       </c>
@@ -5421,7 +5508,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5434,13 +5521,13 @@
         <f>Quiz!V10</f>
         <v>0.76</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <f>Homework!L10</f>
-        <v>2.81</v>
+        <v>1.3574999999999999</v>
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E10" s="45">
         <f>Exams!C10</f>
@@ -5448,13 +5535,13 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>3.5700000000000003</v>
+        <v>3.0774999999999997</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="H10" s="56">
+        <v>3</v>
+      </c>
+      <c r="H10" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5467,13 +5554,13 @@
         <f>Quiz!V11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="54">
         <f>Homework!L11</f>
         <v>0</v>
       </c>
       <c r="D11" s="44">
         <f>Exams!B11</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E11" s="45">
         <f>Exams!C11</f>
@@ -5481,13 +5568,13 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5500,13 +5587,13 @@
         <f>Quiz!V12</f>
         <v>0.04</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <f>Homework!L12</f>
         <v>0</v>
       </c>
       <c r="D12" s="44">
         <f>Exams!B12</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E12" s="45">
         <f>Exams!C12</f>
@@ -5514,13 +5601,13 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="56">
+        <v>1</v>
+      </c>
+      <c r="H12" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5533,13 +5620,13 @@
         <f>Quiz!V13</f>
         <v>0.26</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <f>Homework!L13</f>
-        <v>1.5362499999999999</v>
+        <v>0.73125000000000007</v>
       </c>
       <c r="D13" s="44">
         <f>Exams!B13</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E13" s="45">
         <f>Exams!C13</f>
@@ -5547,13 +5634,13 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.7962499999999999</v>
+        <v>1.6212500000000001</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H13" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5566,13 +5653,13 @@
         <f>Quiz!V14</f>
         <v>0.4</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <f>Homework!L14</f>
-        <v>1.2524999999999999</v>
+        <v>0.59624999999999995</v>
       </c>
       <c r="D14" s="44">
         <f>Exams!B14</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E14" s="45">
         <f>Exams!C14</f>
@@ -5580,13 +5667,13 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.6524999999999999</v>
+        <v>1.8362500000000002</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H14" s="56">
+        <v>2</v>
+      </c>
+      <c r="H14" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5599,13 +5686,13 @@
         <f>Quiz!V15</f>
         <v>0.78</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <f>Homework!L15</f>
-        <v>1.6012500000000003</v>
+        <v>0.76125000000000009</v>
       </c>
       <c r="D15" s="44">
         <f>Exams!B15</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E15" s="45">
         <f>Exams!C15</f>
@@ -5613,13 +5700,13 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>2.3812500000000005</v>
+        <v>3.0112500000000004</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="H15" s="56">
+        <v>3</v>
+      </c>
+      <c r="H15" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5632,13 +5719,13 @@
         <f>Quiz!V16</f>
         <v>0.52</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <f>Homework!L16</f>
-        <v>1.5162499999999999</v>
+        <v>0.66749999999999998</v>
       </c>
       <c r="D16" s="44">
         <f>Exams!B16</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E16" s="45">
         <f>Exams!C16</f>
@@ -5646,13 +5733,13 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.0362499999999999</v>
+        <v>2.5075000000000003</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H16" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5665,13 +5752,13 @@
         <f>Quiz!V17</f>
         <v>0.65333333333333332</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <f>Homework!L17</f>
         <v>0</v>
       </c>
       <c r="D17" s="44">
         <f>Exams!B17</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E17" s="45">
         <f>Exams!C17</f>
@@ -5679,13 +5766,13 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>0.65333333333333332</v>
+        <v>1.5533333333333332</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5698,13 +5785,13 @@
         <f>Quiz!V18</f>
         <v>0.66</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <f>Homework!L18</f>
-        <v>2.53125</v>
+        <v>1.1662500000000002</v>
       </c>
       <c r="D18" s="44">
         <f>Exams!B18</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E18" s="45">
         <f>Exams!C18</f>
@@ -5712,13 +5799,13 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.1912500000000001</v>
+        <v>3.3262500000000004</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H18" s="56">
+        <v>3.5</v>
+      </c>
+      <c r="H18" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5731,13 +5818,13 @@
         <f>Quiz!V19</f>
         <v>0.48</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <f>Homework!L19</f>
-        <v>1.17</v>
+        <v>0.56624999999999992</v>
       </c>
       <c r="D19" s="44">
         <f>Exams!B19</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E19" s="45">
         <f>Exams!C19</f>
@@ -5745,13 +5832,13 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>1.65</v>
+        <v>2.5162499999999999</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H19" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5764,13 +5851,13 @@
         <f>Quiz!V20</f>
         <v>0.4</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <f>Homework!L20</f>
-        <v>1.3374999999999999</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D20" s="44">
         <f>Exams!B20</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E20" s="45">
         <f>Exams!C20</f>
@@ -5778,13 +5865,13 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>1.7374999999999998</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="H20" s="56">
+        <v>2</v>
+      </c>
+      <c r="H20" s="55">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5797,13 +5884,13 @@
         <f>Quiz!V21</f>
         <v>0.64</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <f>Homework!L21</f>
-        <v>2.7037499999999999</v>
+        <v>1.3125</v>
       </c>
       <c r="D21" s="44">
         <f>Exams!B21</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E21" s="45">
         <f>Exams!C21</f>
@@ -5811,13 +5898,13 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.34375</v>
+        <v>3.5125000000000002</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5830,13 +5917,13 @@
         <f>Quiz!V22</f>
         <v>0.61333333333333329</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <f>Homework!L22</f>
-        <v>1.7424999999999999</v>
+        <v>0.83249999999999991</v>
       </c>
       <c r="D22" s="44">
         <f>Exams!B22</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E22" s="45">
         <f>Exams!C22</f>
@@ -5844,13 +5931,13 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>2.355833333333333</v>
+        <v>3.0658333333333334</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="H22" s="56">
+        <v>3</v>
+      </c>
+      <c r="H22" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5863,13 +5950,13 @@
         <f>Quiz!V23</f>
         <v>0.38</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <f>Homework!L23</f>
-        <v>2.23</v>
+        <v>0.97875000000000001</v>
       </c>
       <c r="D23" s="44">
         <f>Exams!B23</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E23" s="45">
         <f>Exams!C23</f>
@@ -5877,13 +5964,13 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>2.3487499999999999</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5896,13 +5983,13 @@
         <f>Quiz!V24</f>
         <v>0.34</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <f>Homework!L24</f>
-        <v>2.1550000000000002</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E24" s="45">
         <f>Exams!C24</f>
@@ -5910,13 +5997,13 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.4950000000000001</v>
+        <v>2.7324999999999999</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5929,13 +6016,13 @@
         <f>Quiz!V25</f>
         <v>0.46</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <f>Homework!L25</f>
-        <v>1.5050000000000001</v>
+        <v>0.70874999999999999</v>
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E25" s="45">
         <f>Exams!C25</f>
@@ -5943,13 +6030,13 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.9650000000000001</v>
+        <v>1.5887500000000001</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H25" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5962,13 +6049,13 @@
         <f>Quiz!V26</f>
         <v>0.64</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <f>Homework!L26</f>
-        <v>2.04</v>
+        <v>0.91124999999999989</v>
       </c>
       <c r="D26" s="44">
         <f>Exams!B26</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E26" s="45">
         <f>Exams!C26</f>
@@ -5976,13 +6063,13 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>2.68</v>
+        <v>2.8712499999999999</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="H26" s="56">
+        <v>3</v>
+      </c>
+      <c r="H26" s="55">
         <f t="shared" ref="H26:H33" si="7">IF(G26&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5995,13 +6082,13 @@
         <f>Quiz!V27</f>
         <v>0.55333333333333334</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="54">
         <f>Homework!L27</f>
-        <v>1.8762499999999998</v>
+        <v>0.84375</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E27" s="45">
         <f>Exams!C27</f>
@@ -6009,13 +6096,13 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.429583333333333</v>
+        <v>3.0770833333333334</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="H27" s="56">
+        <v>3</v>
+      </c>
+      <c r="H27" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6028,13 +6115,13 @@
         <f>Quiz!V28</f>
         <v>0.44</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <f>Homework!L28</f>
-        <v>1.0425</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="D28" s="44">
         <f>Exams!B28</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E28" s="45">
         <f>Exams!C28</f>
@@ -6042,13 +6129,13 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>1.4824999999999999</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="H28" s="56">
+        <v>2</v>
+      </c>
+      <c r="H28" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6061,13 +6148,13 @@
         <f>Quiz!V29</f>
         <v>0.5</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <f>Homework!L29</f>
-        <v>2.1524999999999999</v>
+        <v>0.97124999999999995</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E29" s="45">
         <f>Exams!C29</f>
@@ -6075,13 +6162,13 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.6524999999999999</v>
+        <v>2.9112499999999999</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="H29" s="56">
+        <v>3</v>
+      </c>
+      <c r="H29" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6094,13 +6181,13 @@
         <f>Quiz!V30</f>
         <v>0.36</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="54">
         <f>Homework!L30</f>
-        <v>1.12625</v>
+        <v>0.61874999999999991</v>
       </c>
       <c r="D30" s="44">
         <f>Exams!B30</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E30" s="45">
         <f>Exams!C30</f>
@@ -6108,13 +6195,13 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>1.4862500000000001</v>
+        <v>2.7187499999999996</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="H30" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6127,13 +6214,13 @@
         <f>Quiz!V31</f>
         <v>0.44</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <f>Homework!L31</f>
-        <v>1.79</v>
+        <v>0.86249999999999993</v>
       </c>
       <c r="D31" s="44">
         <f>Exams!B31</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E31" s="45">
         <f>Exams!C31</f>
@@ -6141,13 +6228,13 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>2.23</v>
+        <v>3.0724999999999998</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H31" s="56">
+        <v>3</v>
+      </c>
+      <c r="H31" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6160,13 +6247,13 @@
         <f>Quiz!V32</f>
         <v>0.44</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="54">
         <f>Homework!L32</f>
-        <v>1.8399999999999999</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="D32" s="44">
         <f>Exams!B32</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E32" s="45">
         <f>Exams!C32</f>
@@ -6174,13 +6261,13 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>2.2799999999999998</v>
+        <v>2.9975000000000001</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="H32" s="56">
+        <v>3</v>
+      </c>
+      <c r="H32" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6193,13 +6280,13 @@
         <f>Quiz!V33</f>
         <v>0.61333333333333329</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="54">
         <f>Homework!L33</f>
-        <v>2.6512499999999997</v>
+        <v>1.3125</v>
       </c>
       <c r="D33" s="44">
         <f>Exams!B33</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E33" s="45">
         <f>Exams!C33</f>
@@ -6207,13 +6294,13 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.2645833333333329</v>
+        <v>3.4258333333333333</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6232,11 +6319,11 @@
       <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="46">
         <f>Quiz!V35</f>
         <v>1</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="46">
         <f>Homework!L35</f>
         <v>1.5</v>
       </c>
@@ -6255,7 +6342,7 @@
       </c>
       <c r="H35" s="41">
         <f>SUM(H2:H33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6268,11 +6355,11 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>1.5487109374999994</v>
+        <v>0.72785156249999994</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40.125</v>
       </c>
       <c r="E36" s="31">
         <f t="shared" si="8"/>
@@ -6280,15 +6367,15 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.0137109374999995</v>
+        <v>2.3966015625000003</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2.34375</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6301,11 +6388,11 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.86050367871740685</v>
+        <v>0.39841118864737657</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>19.283538023653165</v>
       </c>
       <c r="E37" s="31">
         <f t="shared" si="9"/>
@@ -6313,15 +6400,15 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0140160911235667</v>
+        <v>1.0352076042664924</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0549422855334085</v>
+        <v>1.0734140589425329</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.17677669529663689</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6334,11 +6421,11 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>1.6043750000000001</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E38" s="31">
         <f t="shared" si="10"/>
@@ -6346,11 +6433,11 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.2549999999999999</v>
+        <v>2.6174999999999997</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F439F7B-D7D8-BF42-9260-B13E666DBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571AEF7-EBD7-2948-A353-AE89C6237625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="700" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -4518,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4624,8 +4624,8 @@
         <v>1506</v>
       </c>
       <c r="B8" s="44">
-        <f>26+F8</f>
-        <v>26</v>
+        <f>26+6</f>
+        <v>32</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="19"/>
@@ -4647,8 +4647,8 @@
         <v>2564</v>
       </c>
       <c r="B10" s="44">
-        <f>32+F10</f>
-        <v>32</v>
+        <f>32+50</f>
+        <v>82</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="19"/>
@@ -4831,8 +4831,8 @@
         <v>8490</v>
       </c>
       <c r="B25" s="44">
-        <f>14+F25</f>
-        <v>14</v>
+        <f>14+4</f>
+        <v>18</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="19"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="B36" s="43">
         <f>AVERAGE(B$2:B$33)</f>
-        <v>42.8</v>
+        <v>44.8</v>
       </c>
       <c r="C36" s="43" t="e">
         <f>AVERAGE(C$2:C$33)</f>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B37" s="43">
         <f>STDEV(B$2:B$33)</f>
-        <v>16.705150971048344</v>
+        <v>17.62912949911458</v>
       </c>
       <c r="C37" s="43" t="e">
         <f>STDEV(C$2:C$33)</f>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B38" s="43">
         <f>MEDIAN(B$2:B$33)</f>
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="C38" s="43" t="e">
         <f>MEDIAN(C$2:C$33)</f>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="45">
         <f>Exams!C8</f>
@@ -5469,11 +5469,11 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.17875</v>
+        <v>2.3587500000000001</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="55">
         <f t="shared" si="2"/>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E10" s="45">
         <f>Exams!C10</f>
@@ -5535,11 +5535,11 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>3.0774999999999997</v>
+        <v>4.5774999999999997</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H10" s="55">
         <f t="shared" si="2"/>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E25" s="45">
         <f>Exams!C25</f>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.5887500000000001</v>
+        <v>1.70875</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
-        <v>40.125</v>
+        <v>42</v>
       </c>
       <c r="E36" s="31">
         <f t="shared" si="8"/>
@@ -6367,11 +6367,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.3966015625000003</v>
+        <v>2.4528515625000002</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.34375</v>
+        <v>2.40625</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
-        <v>19.283538023653165</v>
+        <v>20.300961362902608</v>
       </c>
       <c r="E37" s="31">
         <f t="shared" si="9"/>
@@ -6400,11 +6400,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0352076042664924</v>
+        <v>1.0952571163277849</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0734140589425329</v>
+        <v>1.1319231422671772</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>45.5</v>
       </c>
       <c r="E38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571AEF7-EBD7-2948-A353-AE89C6237625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB5433-B1E4-5949-BF0D-3E29375494EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="700" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="700" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1102,7 +1102,9 @@
       <c r="K2" s="18">
         <v>15</v>
       </c>
-      <c r="L2" s="45"/>
+      <c r="L2" s="18">
+        <v>3</v>
+      </c>
       <c r="M2" s="45"/>
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
@@ -1114,7 +1116,7 @@
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1152,7 +1154,9 @@
       <c r="K3" s="18">
         <v>15</v>
       </c>
-      <c r="L3" s="45"/>
+      <c r="L3" s="18">
+        <v>15</v>
+      </c>
       <c r="M3" s="45"/>
       <c r="N3" s="45"/>
       <c r="O3" s="45"/>
@@ -1164,7 +1168,7 @@
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.62666666666666671</v>
+        <v>0.66060606060606064</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1202,7 +1206,9 @@
       <c r="K4" s="18">
         <v>0</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
       <c r="M4" s="45"/>
       <c r="N4" s="45"/>
       <c r="O4" s="45"/>
@@ -1252,7 +1258,9 @@
       <c r="K5" s="18">
         <v>15</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="18">
+        <v>3</v>
+      </c>
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
@@ -1264,7 +1272,7 @@
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1302,7 +1310,9 @@
       <c r="K6" s="18">
         <v>15</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="18">
+        <v>15</v>
+      </c>
       <c r="M6" s="45"/>
       <c r="N6" s="45"/>
       <c r="O6" s="45"/>
@@ -1314,7 +1324,7 @@
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.77333333333333332</v>
+        <v>0.79393939393939394</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1352,7 +1362,9 @@
       <c r="K7" s="18">
         <v>15</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="18">
+        <v>15</v>
+      </c>
       <c r="M7" s="45"/>
       <c r="N7" s="45"/>
       <c r="O7" s="45"/>
@@ -1364,7 +1376,7 @@
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.68666666666666665</v>
+        <v>0.7151515151515152</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1402,7 +1414,9 @@
       <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="L8" s="45"/>
+      <c r="L8" s="18">
+        <v>3</v>
+      </c>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
       <c r="O8" s="45"/>
@@ -1414,7 +1428,7 @@
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1452,7 +1466,9 @@
       <c r="K9" s="18">
         <v>0</v>
       </c>
-      <c r="L9" s="45"/>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
       <c r="M9" s="45"/>
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
@@ -1464,7 +1480,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1502,7 +1518,9 @@
       <c r="K10" s="18">
         <v>15</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="18">
+        <v>15</v>
+      </c>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
@@ -1514,7 +1532,7 @@
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1552,7 +1570,9 @@
       <c r="K11" s="18">
         <v>0</v>
       </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
       <c r="M11" s="45"/>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
@@ -1602,7 +1622,9 @@
       <c r="K12" s="18">
         <v>0</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
       <c r="M12" s="45"/>
       <c r="N12" s="45"/>
       <c r="O12" s="45"/>
@@ -1614,7 +1636,7 @@
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>3.6363636363636362E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1652,7 +1674,9 @@
       <c r="K13" s="18">
         <v>0</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
       <c r="M13" s="45"/>
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
@@ -1664,7 +1688,7 @@
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.23636363636363636</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1702,7 +1726,9 @@
       <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
       <c r="M14" s="45"/>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
@@ -1714,7 +1740,7 @@
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1751,7 +1777,9 @@
       <c r="K15" s="18">
         <v>15</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="18">
+        <v>15</v>
+      </c>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
@@ -1763,7 +1791,7 @@
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1801,7 +1829,9 @@
       <c r="K16" s="18">
         <v>3</v>
       </c>
-      <c r="L16" s="45"/>
+      <c r="L16" s="18">
+        <v>15</v>
+      </c>
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -1813,7 +1843,7 @@
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1851,7 +1881,9 @@
       <c r="K17" s="18">
         <v>15</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="18">
+        <v>15</v>
+      </c>
       <c r="M17" s="45"/>
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
@@ -1863,7 +1895,7 @@
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.65333333333333332</v>
+        <v>0.68484848484848482</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1901,7 +1933,9 @@
       <c r="K18" s="18">
         <v>15</v>
       </c>
-      <c r="L18" s="45"/>
+      <c r="L18" s="18">
+        <v>15</v>
+      </c>
       <c r="M18" s="45"/>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -1913,7 +1947,7 @@
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.66</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1951,7 +1985,9 @@
       <c r="K19" s="18">
         <v>3</v>
       </c>
-      <c r="L19" s="45"/>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
       <c r="M19" s="45"/>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
@@ -1963,7 +1999,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2001,7 +2037,9 @@
       <c r="K20" s="18">
         <v>15</v>
       </c>
-      <c r="L20" s="45"/>
+      <c r="L20" s="18">
+        <v>3</v>
+      </c>
       <c r="M20" s="45"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -2013,7 +2051,7 @@
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2051,7 +2089,9 @@
       <c r="K21" s="18">
         <v>15</v>
       </c>
-      <c r="L21" s="45"/>
+      <c r="L21" s="18">
+        <v>15</v>
+      </c>
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
@@ -2063,7 +2103,7 @@
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2101,7 +2141,9 @@
       <c r="K22" s="18">
         <v>15</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="18">
+        <v>15</v>
+      </c>
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
@@ -2113,7 +2155,7 @@
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.61333333333333329</v>
+        <v>0.64848484848484844</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2151,7 +2193,9 @@
       <c r="K23" s="18">
         <v>3</v>
       </c>
-      <c r="L23" s="45"/>
+      <c r="L23" s="18">
+        <v>3</v>
+      </c>
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
@@ -2163,7 +2207,7 @@
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2201,7 +2245,9 @@
       <c r="K24" s="18">
         <v>0</v>
       </c>
-      <c r="L24" s="45"/>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
@@ -2213,7 +2259,7 @@
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.30909090909090908</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2251,7 +2297,9 @@
       <c r="K25" s="18">
         <v>15</v>
       </c>
-      <c r="L25" s="45"/>
+      <c r="L25" s="18">
+        <v>3</v>
+      </c>
       <c r="M25" s="45"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
@@ -2263,7 +2311,7 @@
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.46</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2301,7 +2349,9 @@
       <c r="K26" s="18">
         <v>15</v>
       </c>
-      <c r="L26" s="45"/>
+      <c r="L26" s="18">
+        <v>15</v>
+      </c>
       <c r="M26" s="45"/>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
@@ -2313,7 +2363,7 @@
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2351,7 +2401,9 @@
       <c r="K27" s="18">
         <v>15</v>
       </c>
-      <c r="L27" s="45"/>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
@@ -2363,7 +2415,7 @@
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.55333333333333334</v>
+        <v>0.50303030303030305</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2401,7 +2453,9 @@
       <c r="K28" s="18">
         <v>15</v>
       </c>
-      <c r="L28" s="45"/>
+      <c r="L28" s="18">
+        <v>15</v>
+      </c>
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
@@ -2413,7 +2467,7 @@
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2451,7 +2505,9 @@
       <c r="K29" s="18">
         <v>3</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
@@ -2463,7 +2519,7 @@
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2501,7 +2557,9 @@
       <c r="K30" s="18">
         <v>3</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
@@ -2513,7 +2571,7 @@
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.32727272727272727</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2551,7 +2609,9 @@
       <c r="K31" s="18">
         <v>15</v>
       </c>
-      <c r="L31" s="45"/>
+      <c r="L31" s="18">
+        <v>3</v>
+      </c>
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
       <c r="O31" s="45"/>
@@ -2563,7 +2623,7 @@
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2601,7 +2661,9 @@
       <c r="K32" s="18">
         <v>15</v>
       </c>
-      <c r="L32" s="45"/>
+      <c r="L32" s="18">
+        <v>3</v>
+      </c>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
       <c r="O32" s="45"/>
@@ -2613,7 +2675,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2651,7 +2713,9 @@
       <c r="K33" s="18">
         <v>15</v>
       </c>
-      <c r="L33" s="45"/>
+      <c r="L33" s="18">
+        <v>15</v>
+      </c>
       <c r="M33" s="45"/>
       <c r="N33" s="45"/>
       <c r="O33" s="45"/>
@@ -2663,7 +2727,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.61333333333333329</v>
+        <v>0.64848484848484844</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2805,9 +2869,9 @@
         <f t="shared" si="1"/>
         <v>9.46875</v>
       </c>
-      <c r="L36" s="31" t="e">
+      <c r="L36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.84375</v>
       </c>
       <c r="M36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -2847,7 +2911,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.46500000000000002</v>
+        <v>0.46420454545454531</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2895,9 +2959,9 @@
         <f t="shared" si="2"/>
         <v>6.8626355089741038</v>
       </c>
-      <c r="L37" s="31" t="e">
+      <c r="L37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.9519520349880288</v>
       </c>
       <c r="M37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -2937,7 +3001,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.20893311512295518</v>
+        <v>0.22378945227383082</v>
       </c>
       <c r="W37"/>
     </row>
@@ -2985,9 +3049,9 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L38" s="31" t="e">
+      <c r="L38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="M38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3027,7 +3091,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.47</v>
+        <v>0.44545454545454544</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3077,7 +3141,7 @@
       </c>
       <c r="L39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="34">
         <f t="shared" si="4"/>
@@ -4518,7 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5254,7 +5318,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="C2" s="54">
         <f>Homework!L2</f>
@@ -5270,7 +5334,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.5262500000000001</v>
+        <v>1.5062500000000001</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5288,7 +5352,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.62666666666666671</v>
+        <v>0.66060606060606064</v>
       </c>
       <c r="C3" s="54">
         <f>Homework!L3</f>
@@ -5304,11 +5368,11 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.2479166666666668</v>
+        <v>3.2818560606060609</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H3" s="55">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -5354,7 +5418,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.48</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C5" s="54">
         <f>Homework!L5</f>
@@ -5370,7 +5434,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7399999999999998</v>
+        <v>1.7145454545454544</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5387,7 +5451,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.77333333333333332</v>
+        <v>0.79393939393939394</v>
       </c>
       <c r="C6" s="54">
         <f>Homework!L6</f>
@@ -5403,7 +5467,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.003333333333333</v>
+        <v>5.0239393939393935</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -5420,7 +5484,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.68666666666666665</v>
+        <v>0.7151515151515152</v>
       </c>
       <c r="C7" s="54">
         <f>Homework!L7</f>
@@ -5436,7 +5500,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>2.9629166666666666</v>
+        <v>2.9914015151515154</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -5453,7 +5517,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.36</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="C8" s="54">
         <f>Homework!L8</f>
@@ -5469,7 +5533,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.3587500000000001</v>
+        <v>2.3442045454545455</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -5486,7 +5550,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>0.16</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="C9" s="54">
         <f>Homework!L9</f>
@@ -5502,7 +5566,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -5519,7 +5583,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.76</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="C10" s="54">
         <f>Homework!L10</f>
@@ -5535,7 +5599,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.5774999999999997</v>
+        <v>4.5993181818181821</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -5585,7 +5649,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>0.04</v>
+        <v>3.6363636363636362E-2</v>
       </c>
       <c r="C12" s="54">
         <f>Homework!L12</f>
@@ -5601,7 +5665,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0899999999999999</v>
+        <v>1.0863636363636362</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -5618,7 +5682,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.26</v>
+        <v>0.23636363636363636</v>
       </c>
       <c r="C13" s="54">
         <f>Homework!L13</f>
@@ -5634,7 +5698,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.6212500000000001</v>
+        <v>1.5976136363636364</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -5651,7 +5715,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C14" s="54">
         <f>Homework!L14</f>
@@ -5667,7 +5731,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.8362500000000002</v>
+        <v>1.7998863636363636</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -5684,7 +5748,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="C15" s="54">
         <f>Homework!L15</f>
@@ -5700,7 +5764,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.0112500000000004</v>
+        <v>3.03125</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -5717,7 +5781,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.52</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C16" s="54">
         <f>Homework!L16</f>
@@ -5733,7 +5797,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.5075000000000003</v>
+        <v>2.5511363636363633</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -5750,7 +5814,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.65333333333333332</v>
+        <v>0.68484848484848482</v>
       </c>
       <c r="C17" s="54">
         <f>Homework!L17</f>
@@ -5766,7 +5830,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>1.5533333333333332</v>
+        <v>1.5848484848484847</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -5783,7 +5847,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.66</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="C18" s="54">
         <f>Homework!L18</f>
@@ -5799,7 +5863,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.3262500000000004</v>
+        <v>3.3571590909090911</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -5816,7 +5880,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.48</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="C19" s="54">
         <f>Homework!L19</f>
@@ -5832,7 +5896,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.5162499999999999</v>
+        <v>2.4726136363636364</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -5849,7 +5913,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.4</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="C20" s="54">
         <f>Homework!L20</f>
@@ -5865,7 +5929,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.1549999999999998</v>
+        <v>2.1368181818181817</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5882,7 +5946,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.64</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="C21" s="54">
         <f>Homework!L21</f>
@@ -5898,7 +5962,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.5125000000000002</v>
+        <v>3.5452272727272729</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -5915,7 +5979,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.61333333333333329</v>
+        <v>0.64848484848484844</v>
       </c>
       <c r="C22" s="54">
         <f>Homework!L22</f>
@@ -5931,7 +5995,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.0658333333333334</v>
+        <v>3.1009848484848486</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -5948,7 +6012,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.38</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C23" s="54">
         <f>Homework!L23</f>
@@ -5964,7 +6028,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.3487499999999999</v>
+        <v>2.3323863636363633</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -5981,7 +6045,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.34</v>
+        <v>0.30909090909090908</v>
       </c>
       <c r="C24" s="54">
         <f>Homework!L24</f>
@@ -5997,7 +6061,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.7324999999999999</v>
+        <v>2.7015909090909087</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6014,7 +6078,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.46</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="C25" s="54">
         <f>Homework!L25</f>
@@ -6030,7 +6094,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.70875</v>
+        <v>1.6851136363636363</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6047,7 +6111,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.64</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="C26" s="54">
         <f>Homework!L26</f>
@@ -6063,7 +6127,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>2.8712499999999999</v>
+        <v>2.903977272727273</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6080,7 +6144,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.55333333333333334</v>
+        <v>0.50303030303030305</v>
       </c>
       <c r="C27" s="54">
         <f>Homework!L27</f>
@@ -6096,7 +6160,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>3.0770833333333334</v>
+        <v>3.0267803030303031</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6113,7 +6177,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.44</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="C28" s="54">
         <f>Homework!L28</f>
@@ -6129,7 +6193,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.1349999999999998</v>
+        <v>2.1859090909090906</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
@@ -6146,7 +6210,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C29" s="54">
         <f>Homework!L29</f>
@@ -6162,7 +6226,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.9112499999999999</v>
+        <v>2.8657954545454545</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6179,7 +6243,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.36</v>
+        <v>0.32727272727272727</v>
       </c>
       <c r="C30" s="54">
         <f>Homework!L30</f>
@@ -6195,7 +6259,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.7187499999999996</v>
+        <v>2.6860227272727268</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6212,7 +6276,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.44</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="C31" s="54">
         <f>Homework!L31</f>
@@ -6228,7 +6292,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.0724999999999998</v>
+        <v>3.0506818181818183</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6245,7 +6309,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.44</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="C32" s="54">
         <f>Homework!L32</f>
@@ -6261,7 +6325,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>2.9975000000000001</v>
+        <v>2.9756818181818181</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6278,7 +6342,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.61333333333333329</v>
+        <v>0.64848484848484844</v>
       </c>
       <c r="C33" s="54">
         <f>Homework!L33</f>
@@ -6294,7 +6358,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.4258333333333333</v>
+        <v>3.4609848484848484</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6351,7 +6415,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.46500000000000002</v>
+        <v>0.46420454545454531</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6367,11 +6431,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4528515625000002</v>
+        <v>2.4520561079545455</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.40625</v>
+        <v>2.421875</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6384,7 +6448,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.20893311512295518</v>
+        <v>0.22378945227383082</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6400,11 +6464,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0952571163277849</v>
+        <v>1.104060465737128</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1319231422671772</v>
+        <v>1.1437725848290172</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6417,7 +6481,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.47</v>
+        <v>0.44545454545454544</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -6433,7 +6497,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.6174999999999997</v>
+        <v>2.6185795454545451</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB5433-B1E4-5949-BF0D-3E29375494EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9825E3E3-AC7D-E341-BDF8-8EE3FDC08CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="700" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,13 +552,7 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,6 +567,18 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1072,16 +1078,16 @@
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="50">
-        <v>3</v>
-      </c>
-      <c r="C2" s="50">
-        <v>15</v>
-      </c>
-      <c r="D2" s="50">
+      <c r="B2" s="49">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49">
+        <v>15</v>
+      </c>
+      <c r="D2" s="49">
         <v>12</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="49">
         <v>3</v>
       </c>
       <c r="F2" s="45">
@@ -1124,16 +1130,16 @@
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="50">
-        <v>15</v>
-      </c>
-      <c r="C3" s="50">
-        <v>15</v>
-      </c>
-      <c r="D3" s="50">
+      <c r="B3" s="49">
+        <v>15</v>
+      </c>
+      <c r="C3" s="49">
+        <v>15</v>
+      </c>
+      <c r="D3" s="49">
         <v>12</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>8</v>
       </c>
       <c r="F3" s="45">
@@ -1176,16 +1182,16 @@
       <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="50">
-        <v>0</v>
-      </c>
-      <c r="C4" s="50">
-        <v>0</v>
-      </c>
-      <c r="D4" s="50">
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
+      <c r="B4" s="49">
+        <v>0</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49">
         <v>0</v>
       </c>
       <c r="F4" s="45">
@@ -1228,16 +1234,16 @@
       <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="50">
-        <v>3</v>
-      </c>
-      <c r="C5" s="50">
-        <v>15</v>
-      </c>
-      <c r="D5" s="50">
+      <c r="B5" s="49">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49">
+        <v>15</v>
+      </c>
+      <c r="D5" s="49">
         <v>12</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>15</v>
       </c>
       <c r="F5" s="45">
@@ -1280,16 +1286,16 @@
       <c r="A6" s="25">
         <v>1019</v>
       </c>
-      <c r="B6" s="50">
-        <v>15</v>
-      </c>
-      <c r="C6" s="50">
-        <v>15</v>
-      </c>
-      <c r="D6" s="50">
-        <v>15</v>
-      </c>
-      <c r="E6" s="50">
+      <c r="B6" s="49">
+        <v>15</v>
+      </c>
+      <c r="C6" s="49">
+        <v>15</v>
+      </c>
+      <c r="D6" s="49">
+        <v>15</v>
+      </c>
+      <c r="E6" s="49">
         <v>15</v>
       </c>
       <c r="F6" s="45">
@@ -1332,16 +1338,16 @@
       <c r="A7" s="25">
         <v>1395</v>
       </c>
-      <c r="B7" s="50">
-        <v>15</v>
-      </c>
-      <c r="C7" s="50">
-        <v>15</v>
-      </c>
-      <c r="D7" s="50">
+      <c r="B7" s="49">
+        <v>15</v>
+      </c>
+      <c r="C7" s="49">
+        <v>15</v>
+      </c>
+      <c r="D7" s="49">
         <v>9</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
         <v>13</v>
       </c>
       <c r="F7" s="45">
@@ -1384,16 +1390,16 @@
       <c r="A8" s="25">
         <v>1506</v>
       </c>
-      <c r="B8" s="50">
-        <v>15</v>
-      </c>
-      <c r="C8" s="50">
-        <v>15</v>
-      </c>
-      <c r="D8" s="50">
-        <v>3</v>
-      </c>
-      <c r="E8" s="50">
+      <c r="B8" s="49">
+        <v>15</v>
+      </c>
+      <c r="C8" s="49">
+        <v>15</v>
+      </c>
+      <c r="D8" s="49">
+        <v>3</v>
+      </c>
+      <c r="E8" s="49">
         <v>3</v>
       </c>
       <c r="F8" s="45">
@@ -1436,16 +1442,16 @@
       <c r="A9" s="25">
         <v>2441</v>
       </c>
-      <c r="B9" s="50">
-        <v>15</v>
-      </c>
-      <c r="C9" s="50">
-        <v>0</v>
-      </c>
-      <c r="D9" s="50">
-        <v>3</v>
-      </c>
-      <c r="E9" s="50">
+      <c r="B9" s="49">
+        <v>15</v>
+      </c>
+      <c r="C9" s="49">
+        <v>0</v>
+      </c>
+      <c r="D9" s="49">
+        <v>3</v>
+      </c>
+      <c r="E9" s="49">
         <v>0</v>
       </c>
       <c r="F9" s="45">
@@ -1488,16 +1494,16 @@
       <c r="A10" s="25">
         <v>2564</v>
       </c>
-      <c r="B10" s="50">
-        <v>15</v>
-      </c>
-      <c r="C10" s="50">
-        <v>15</v>
-      </c>
-      <c r="D10" s="50">
-        <v>3</v>
-      </c>
-      <c r="E10" s="50">
+      <c r="B10" s="49">
+        <v>15</v>
+      </c>
+      <c r="C10" s="49">
+        <v>15</v>
+      </c>
+      <c r="D10" s="49">
+        <v>3</v>
+      </c>
+      <c r="E10" s="49">
         <v>15</v>
       </c>
       <c r="F10" s="45">
@@ -1540,16 +1546,16 @@
       <c r="A11" s="25">
         <v>2693</v>
       </c>
-      <c r="B11" s="50">
-        <v>0</v>
-      </c>
-      <c r="C11" s="50">
-        <v>0</v>
-      </c>
-      <c r="D11" s="50">
-        <v>0</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="B11" s="49">
+        <v>0</v>
+      </c>
+      <c r="C11" s="49">
+        <v>0</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
         <v>0</v>
       </c>
       <c r="F11" s="45">
@@ -1592,16 +1598,16 @@
       <c r="A12" s="25">
         <v>2771</v>
       </c>
-      <c r="B12" s="50">
-        <v>0</v>
-      </c>
-      <c r="C12" s="50">
-        <v>0</v>
-      </c>
-      <c r="D12" s="50">
-        <v>3</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="B12" s="49">
+        <v>0</v>
+      </c>
+      <c r="C12" s="49">
+        <v>0</v>
+      </c>
+      <c r="D12" s="49">
+        <v>3</v>
+      </c>
+      <c r="E12" s="49">
         <v>0</v>
       </c>
       <c r="F12" s="45">
@@ -1644,16 +1650,16 @@
       <c r="A13" s="25">
         <v>2899</v>
       </c>
-      <c r="B13" s="50">
-        <v>15</v>
-      </c>
-      <c r="C13" s="50">
-        <v>15</v>
-      </c>
-      <c r="D13" s="50">
-        <v>0</v>
-      </c>
-      <c r="E13" s="50">
+      <c r="B13" s="49">
+        <v>15</v>
+      </c>
+      <c r="C13" s="49">
+        <v>15</v>
+      </c>
+      <c r="D13" s="49">
+        <v>0</v>
+      </c>
+      <c r="E13" s="49">
         <v>3</v>
       </c>
       <c r="F13" s="45">
@@ -1696,16 +1702,16 @@
       <c r="A14" s="25">
         <v>3517</v>
       </c>
-      <c r="B14" s="50">
-        <v>15</v>
-      </c>
-      <c r="C14" s="50">
-        <v>15</v>
-      </c>
-      <c r="D14" s="50">
-        <v>3</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="B14" s="49">
+        <v>15</v>
+      </c>
+      <c r="C14" s="49">
+        <v>15</v>
+      </c>
+      <c r="D14" s="49">
+        <v>3</v>
+      </c>
+      <c r="E14" s="49">
         <v>3</v>
       </c>
       <c r="F14" s="45">
@@ -1747,16 +1753,16 @@
       <c r="A15" s="25">
         <v>4490</v>
       </c>
-      <c r="B15" s="50">
-        <v>15</v>
-      </c>
-      <c r="C15" s="50">
-        <v>15</v>
-      </c>
-      <c r="D15" s="50">
-        <v>15</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="B15" s="49">
+        <v>15</v>
+      </c>
+      <c r="C15" s="49">
+        <v>15</v>
+      </c>
+      <c r="D15" s="49">
+        <v>15</v>
+      </c>
+      <c r="E15" s="49">
         <v>15</v>
       </c>
       <c r="F15" s="45">
@@ -1799,16 +1805,16 @@
       <c r="A16" s="25">
         <v>4582</v>
       </c>
-      <c r="B16" s="50">
-        <v>15</v>
-      </c>
-      <c r="C16" s="50">
-        <v>15</v>
-      </c>
-      <c r="D16" s="50">
-        <v>3</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="B16" s="49">
+        <v>15</v>
+      </c>
+      <c r="C16" s="49">
+        <v>15</v>
+      </c>
+      <c r="D16" s="49">
+        <v>3</v>
+      </c>
+      <c r="E16" s="49">
         <v>10</v>
       </c>
       <c r="F16" s="45">
@@ -1851,16 +1857,16 @@
       <c r="A17" s="25">
         <v>4622</v>
       </c>
-      <c r="B17" s="50">
-        <v>15</v>
-      </c>
-      <c r="C17" s="50">
-        <v>15</v>
-      </c>
-      <c r="D17" s="50">
+      <c r="B17" s="49">
+        <v>15</v>
+      </c>
+      <c r="C17" s="49">
+        <v>15</v>
+      </c>
+      <c r="D17" s="49">
         <v>12</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <v>8</v>
       </c>
       <c r="F17" s="45">
@@ -1903,16 +1909,16 @@
       <c r="A18" s="25">
         <v>5500</v>
       </c>
-      <c r="B18" s="50">
-        <v>15</v>
-      </c>
-      <c r="C18" s="50">
-        <v>15</v>
-      </c>
-      <c r="D18" s="50">
-        <v>3</v>
-      </c>
-      <c r="E18" s="50">
+      <c r="B18" s="49">
+        <v>15</v>
+      </c>
+      <c r="C18" s="49">
+        <v>15</v>
+      </c>
+      <c r="D18" s="49">
+        <v>3</v>
+      </c>
+      <c r="E18" s="49">
         <v>12</v>
       </c>
       <c r="F18" s="45">
@@ -1955,16 +1961,16 @@
       <c r="A19" s="25">
         <v>5687</v>
       </c>
-      <c r="B19" s="50">
-        <v>15</v>
-      </c>
-      <c r="C19" s="50">
-        <v>15</v>
-      </c>
-      <c r="D19" s="50">
-        <v>0</v>
-      </c>
-      <c r="E19" s="50">
+      <c r="B19" s="49">
+        <v>15</v>
+      </c>
+      <c r="C19" s="49">
+        <v>15</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
         <v>15</v>
       </c>
       <c r="F19" s="45">
@@ -2007,16 +2013,16 @@
       <c r="A20" s="25">
         <v>5711</v>
       </c>
-      <c r="B20" s="50">
-        <v>15</v>
-      </c>
-      <c r="C20" s="50">
-        <v>15</v>
-      </c>
-      <c r="D20" s="50">
-        <v>3</v>
-      </c>
-      <c r="E20" s="50">
+      <c r="B20" s="49">
+        <v>15</v>
+      </c>
+      <c r="C20" s="49">
+        <v>15</v>
+      </c>
+      <c r="D20" s="49">
+        <v>3</v>
+      </c>
+      <c r="E20" s="49">
         <v>3</v>
       </c>
       <c r="F20" s="45">
@@ -2059,16 +2065,16 @@
       <c r="A21" s="25">
         <v>5810</v>
       </c>
-      <c r="B21" s="50">
-        <v>15</v>
-      </c>
-      <c r="C21" s="50">
-        <v>15</v>
-      </c>
-      <c r="D21" s="50">
+      <c r="B21" s="49">
+        <v>15</v>
+      </c>
+      <c r="C21" s="49">
+        <v>15</v>
+      </c>
+      <c r="D21" s="49">
         <v>12</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="49">
         <v>12</v>
       </c>
       <c r="F21" s="45">
@@ -2111,16 +2117,16 @@
       <c r="A22" s="25">
         <v>6347</v>
       </c>
-      <c r="B22" s="50">
-        <v>15</v>
-      </c>
-      <c r="C22" s="50">
-        <v>15</v>
-      </c>
-      <c r="D22" s="50">
-        <v>3</v>
-      </c>
-      <c r="E22" s="50">
+      <c r="B22" s="49">
+        <v>15</v>
+      </c>
+      <c r="C22" s="49">
+        <v>15</v>
+      </c>
+      <c r="D22" s="49">
+        <v>3</v>
+      </c>
+      <c r="E22" s="49">
         <v>12</v>
       </c>
       <c r="F22" s="45">
@@ -2163,16 +2169,16 @@
       <c r="A23" s="25">
         <v>7905</v>
       </c>
-      <c r="B23" s="50">
-        <v>15</v>
-      </c>
-      <c r="C23" s="50">
-        <v>15</v>
-      </c>
-      <c r="D23" s="50">
+      <c r="B23" s="49">
+        <v>15</v>
+      </c>
+      <c r="C23" s="49">
+        <v>15</v>
+      </c>
+      <c r="D23" s="49">
         <v>12</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="49">
         <v>3</v>
       </c>
       <c r="F23" s="45">
@@ -2215,16 +2221,16 @@
       <c r="A24" s="25">
         <v>8335</v>
       </c>
-      <c r="B24" s="50">
-        <v>15</v>
-      </c>
-      <c r="C24" s="50">
-        <v>15</v>
-      </c>
-      <c r="D24" s="50">
-        <v>3</v>
-      </c>
-      <c r="E24" s="50">
+      <c r="B24" s="49">
+        <v>15</v>
+      </c>
+      <c r="C24" s="49">
+        <v>15</v>
+      </c>
+      <c r="D24" s="49">
+        <v>3</v>
+      </c>
+      <c r="E24" s="49">
         <v>12</v>
       </c>
       <c r="F24" s="45">
@@ -2267,16 +2273,16 @@
       <c r="A25" s="25">
         <v>8490</v>
       </c>
-      <c r="B25" s="50">
-        <v>3</v>
-      </c>
-      <c r="C25" s="50">
-        <v>15</v>
-      </c>
-      <c r="D25" s="50">
+      <c r="B25" s="49">
+        <v>3</v>
+      </c>
+      <c r="C25" s="49">
+        <v>15</v>
+      </c>
+      <c r="D25" s="49">
         <v>12</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="49">
         <v>0</v>
       </c>
       <c r="F25" s="45">
@@ -2319,16 +2325,16 @@
       <c r="A26" s="25">
         <v>8688</v>
       </c>
-      <c r="B26" s="50">
-        <v>15</v>
-      </c>
-      <c r="C26" s="50">
-        <v>0</v>
-      </c>
-      <c r="D26" s="50">
-        <v>15</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="B26" s="49">
+        <v>15</v>
+      </c>
+      <c r="C26" s="49">
+        <v>0</v>
+      </c>
+      <c r="D26" s="49">
+        <v>15</v>
+      </c>
+      <c r="E26" s="49">
         <v>0</v>
       </c>
       <c r="F26" s="45">
@@ -2371,16 +2377,16 @@
       <c r="A27" s="25">
         <v>8695</v>
       </c>
-      <c r="B27" s="50">
-        <v>15</v>
-      </c>
-      <c r="C27" s="50">
-        <v>15</v>
-      </c>
-      <c r="D27" s="50">
-        <v>3</v>
-      </c>
-      <c r="E27" s="50">
+      <c r="B27" s="49">
+        <v>15</v>
+      </c>
+      <c r="C27" s="49">
+        <v>15</v>
+      </c>
+      <c r="D27" s="49">
+        <v>3</v>
+      </c>
+      <c r="E27" s="49">
         <v>15</v>
       </c>
       <c r="F27" s="45">
@@ -2423,16 +2429,16 @@
       <c r="A28" s="25">
         <v>8743</v>
       </c>
-      <c r="B28" s="50">
-        <v>15</v>
-      </c>
-      <c r="C28" s="50">
-        <v>15</v>
-      </c>
-      <c r="D28" s="50">
-        <v>3</v>
-      </c>
-      <c r="E28" s="50">
+      <c r="B28" s="49">
+        <v>15</v>
+      </c>
+      <c r="C28" s="49">
+        <v>15</v>
+      </c>
+      <c r="D28" s="49">
+        <v>3</v>
+      </c>
+      <c r="E28" s="49">
         <v>3</v>
       </c>
       <c r="F28" s="45">
@@ -2475,16 +2481,16 @@
       <c r="A29" s="25">
         <v>8745</v>
       </c>
-      <c r="B29" s="50">
-        <v>15</v>
-      </c>
-      <c r="C29" s="50">
-        <v>15</v>
-      </c>
-      <c r="D29" s="50">
+      <c r="B29" s="49">
+        <v>15</v>
+      </c>
+      <c r="C29" s="49">
+        <v>15</v>
+      </c>
+      <c r="D29" s="49">
         <v>12</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="49">
         <v>15</v>
       </c>
       <c r="F29" s="45">
@@ -2527,16 +2533,16 @@
       <c r="A30" s="25">
         <v>9550</v>
       </c>
-      <c r="B30" s="50">
-        <v>15</v>
-      </c>
-      <c r="C30" s="50">
-        <v>15</v>
-      </c>
-      <c r="D30" s="50">
-        <v>3</v>
-      </c>
-      <c r="E30" s="50">
+      <c r="B30" s="49">
+        <v>15</v>
+      </c>
+      <c r="C30" s="49">
+        <v>15</v>
+      </c>
+      <c r="D30" s="49">
+        <v>3</v>
+      </c>
+      <c r="E30" s="49">
         <v>3</v>
       </c>
       <c r="F30" s="45">
@@ -2579,16 +2585,16 @@
       <c r="A31" s="25">
         <v>9610</v>
       </c>
-      <c r="B31" s="50">
-        <v>15</v>
-      </c>
-      <c r="C31" s="50">
-        <v>15</v>
-      </c>
-      <c r="D31" s="50">
-        <v>3</v>
-      </c>
-      <c r="E31" s="50">
+      <c r="B31" s="49">
+        <v>15</v>
+      </c>
+      <c r="C31" s="49">
+        <v>15</v>
+      </c>
+      <c r="D31" s="49">
+        <v>3</v>
+      </c>
+      <c r="E31" s="49">
         <v>3</v>
       </c>
       <c r="F31" s="45">
@@ -2631,16 +2637,16 @@
       <c r="A32" s="25">
         <v>9611</v>
       </c>
-      <c r="B32" s="50">
-        <v>15</v>
-      </c>
-      <c r="C32" s="50">
-        <v>15</v>
-      </c>
-      <c r="D32" s="50">
-        <v>3</v>
-      </c>
-      <c r="E32" s="50">
+      <c r="B32" s="49">
+        <v>15</v>
+      </c>
+      <c r="C32" s="49">
+        <v>15</v>
+      </c>
+      <c r="D32" s="49">
+        <v>3</v>
+      </c>
+      <c r="E32" s="49">
         <v>3</v>
       </c>
       <c r="F32" s="45">
@@ -2683,16 +2689,16 @@
       <c r="A33" s="25">
         <v>9674</v>
       </c>
-      <c r="B33" s="50">
-        <v>15</v>
-      </c>
-      <c r="C33" s="50">
-        <v>15</v>
-      </c>
-      <c r="D33" s="50">
+      <c r="B33" s="49">
+        <v>15</v>
+      </c>
+      <c r="C33" s="49">
+        <v>15</v>
+      </c>
+      <c r="D33" s="49">
         <v>8</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="49">
         <v>12</v>
       </c>
       <c r="F33" s="45">
@@ -3541,11 +3547,13 @@
         <f>9+2+9+3+3.5+1+10+6+3+3</f>
         <v>49.5</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="54">
         <v>26</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="55">
+        <v>68.5</v>
+      </c>
+      <c r="E2" s="49"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -3554,7 +3562,7 @@
       <c r="K2" s="44"/>
       <c r="L2" s="35">
         <f t="shared" ref="L2:L33" si="0">IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
-        <v>0.56625000000000003</v>
+        <v>0.72000000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3565,11 +3573,13 @@
         <f>9+1+7+9+4.5+6+3+4+0+2</f>
         <v>45.5</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <v>60</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="56">
+        <v>0</v>
+      </c>
+      <c r="E3" s="49"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -3578,7 +3588,7 @@
       <c r="K3" s="44"/>
       <c r="L3" s="35">
         <f t="shared" si="0"/>
-        <v>0.79125000000000001</v>
+        <v>0.52749999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3588,11 +3598,13 @@
       <c r="B4" s="48">
         <v>0</v>
       </c>
-      <c r="C4" s="56">
-        <v>0</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="C4" s="54">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -3612,11 +3624,13 @@
         <f>9+8+10+3+2+8+10+4+3</f>
         <v>57</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="54">
         <v>27</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="57">
+        <v>57.5</v>
+      </c>
+      <c r="E5" s="49"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
@@ -3625,7 +3639,7 @@
       <c r="K5" s="44"/>
       <c r="L5" s="35">
         <f t="shared" si="0"/>
-        <v>0.63</v>
+        <v>0.70750000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3636,11 +3650,13 @@
         <f>10+10+7+10+9+10+10+10+3+10</f>
         <v>89</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="54">
         <v>95</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="50"/>
+      <c r="D6" s="56">
+        <v>89.5</v>
+      </c>
+      <c r="E6" s="49"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -3649,7 +3665,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="35">
         <f t="shared" si="0"/>
-        <v>1.38</v>
+        <v>1.3674999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3660,11 +3676,13 @@
         <f>4+4+9+3+7+1+10+4+5+9</f>
         <v>56</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="54">
         <v>47.5</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="18">
+        <v>64.5</v>
+      </c>
+      <c r="E7" s="49"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
@@ -3673,7 +3691,7 @@
       <c r="K7" s="44"/>
       <c r="L7" s="35">
         <f t="shared" si="0"/>
-        <v>0.77625000000000011</v>
+        <v>0.84000000000000019</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3684,11 +3702,13 @@
         <f>7+2.5+10+3+1+8+7+6+10+10</f>
         <v>64.5</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="54">
         <v>74</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="D8" s="55">
+        <v>76</v>
+      </c>
+      <c r="E8" s="49"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -3697,7 +3717,7 @@
       <c r="K8" s="44"/>
       <c r="L8" s="35">
         <f t="shared" si="0"/>
-        <v>1.0387500000000001</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3707,11 +3727,13 @@
       <c r="B9" s="48">
         <v>0</v>
       </c>
-      <c r="C9" s="56">
-        <v>0</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="54">
+        <v>0</v>
+      </c>
+      <c r="D9" s="56">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -3731,11 +3753,13 @@
         <f>10+10+10+10+10+10+10+10+8+10</f>
         <v>98</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="54">
         <v>83</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="56">
+        <v>99.5</v>
+      </c>
+      <c r="E10" s="49"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -3744,7 +3768,7 @@
       <c r="K10" s="44"/>
       <c r="L10" s="35">
         <f t="shared" si="0"/>
-        <v>1.3574999999999999</v>
+        <v>1.4025000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3754,11 +3778,13 @@
       <c r="B11" s="48">
         <v>0</v>
       </c>
-      <c r="C11" s="56">
-        <v>0</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="C11" s="54">
+        <v>0</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49"/>
       <c r="F11" s="44"/>
       <c r="G11" s="45"/>
       <c r="H11" s="44"/>
@@ -3777,11 +3803,13 @@
       <c r="B12" s="48">
         <v>0</v>
       </c>
-      <c r="C12" s="56">
-        <v>0</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0</v>
+      </c>
+      <c r="E12" s="49"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -3801,11 +3829,13 @@
         <f>3+5.5+2.5+10+0+9.5+9+10+0+2</f>
         <v>51.5</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="54">
         <v>46</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="D13" s="56">
+        <v>95</v>
+      </c>
+      <c r="E13" s="49"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
@@ -3814,7 +3844,7 @@
       <c r="K13" s="44"/>
       <c r="L13" s="35">
         <f t="shared" si="0"/>
-        <v>0.73125000000000007</v>
+        <v>0.96250000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3825,11 +3855,13 @@
         <f>7+9+9+6+2+1+1+1+0+6</f>
         <v>42</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="54">
         <v>37.5</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="D14" s="56">
+        <v>50.5</v>
+      </c>
+      <c r="E14" s="49"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
@@ -3838,7 +3870,7 @@
       <c r="K14" s="44"/>
       <c r="L14" s="35">
         <f t="shared" si="0"/>
-        <v>0.59624999999999995</v>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3849,11 +3881,13 @@
         <f>4+2+9+3+8.5+1+10+2+5+9</f>
         <v>53.5</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="54">
         <v>48</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="D15" s="56">
+        <v>78</v>
+      </c>
+      <c r="E15" s="49"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
@@ -3862,7 +3896,7 @@
       <c r="K15" s="44"/>
       <c r="L15" s="35">
         <f t="shared" si="0"/>
-        <v>0.76125000000000009</v>
+        <v>0.89750000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3873,11 +3907,13 @@
         <f>4+4+9+4+1.5+1+5+1+2+9</f>
         <v>40.5</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="54">
         <v>48.5</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
+      <c r="D16" s="55">
+        <v>35</v>
+      </c>
+      <c r="E16" s="49"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -3886,7 +3922,7 @@
       <c r="K16" s="44"/>
       <c r="L16" s="35">
         <f t="shared" si="0"/>
-        <v>0.66749999999999998</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3896,11 +3932,13 @@
       <c r="B17" s="48">
         <v>0</v>
       </c>
-      <c r="C17" s="56">
-        <v>0</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
+      <c r="C17" s="54">
+        <v>0</v>
+      </c>
+      <c r="D17" s="56">
+        <v>86</v>
+      </c>
+      <c r="E17" s="49"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
@@ -3909,7 +3947,7 @@
       <c r="K17" s="44"/>
       <c r="L17" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3920,10 +3958,12 @@
         <f>7+2.5+10+10+10+2+9.5+10+7+9.5</f>
         <v>77.5</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="54">
         <v>78</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="55">
+        <v>94.5</v>
+      </c>
       <c r="E18" s="45"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
@@ -3933,7 +3973,7 @@
       <c r="K18" s="44"/>
       <c r="L18" s="35">
         <f t="shared" si="0"/>
-        <v>1.1662500000000002</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3944,11 +3984,13 @@
         <f>10+6+4+10+5+1+1+2+0+2</f>
         <v>41</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="54">
         <v>34.5</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
@@ -3957,7 +3999,7 @@
       <c r="K19" s="44"/>
       <c r="L19" s="35">
         <f t="shared" si="0"/>
-        <v>0.56624999999999992</v>
+        <v>0.37749999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3968,11 +4010,13 @@
         <f>7+3+10+6+0+1+1+1+0+6</f>
         <v>35</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="54">
         <v>43</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="56">
+        <v>74.5</v>
+      </c>
+      <c r="E20" s="49"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
@@ -3981,7 +4025,7 @@
       <c r="K20" s="44"/>
       <c r="L20" s="35">
         <f t="shared" si="0"/>
-        <v>0.58499999999999996</v>
+        <v>0.76249999999999984</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3992,11 +4036,13 @@
         <f>7+9.5+10+10+10+9+10+10+10+10</f>
         <v>95.5</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="54">
         <v>79.5</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="56">
+        <v>94.5</v>
+      </c>
+      <c r="E21" s="49"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
@@ -4005,7 +4051,7 @@
       <c r="K21" s="44"/>
       <c r="L21" s="35">
         <f t="shared" si="0"/>
-        <v>1.3125</v>
+        <v>1.3474999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4016,11 +4062,13 @@
         <f>10+4+9+9.5+1.5+1+9+9+1+5</f>
         <v>59</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="54">
         <v>52</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="56">
+        <v>60.5</v>
+      </c>
+      <c r="E22" s="49"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -4029,7 +4077,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="35">
         <f t="shared" si="0"/>
-        <v>0.83249999999999991</v>
+        <v>0.85749999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4040,11 +4088,13 @@
         <f>10+10+9+4+2+8+8+5+0+3</f>
         <v>59</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="54">
         <v>71.5</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="55">
+        <v>0</v>
+      </c>
+      <c r="E23" s="49"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -4053,7 +4103,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="35">
         <f t="shared" si="0"/>
-        <v>0.97875000000000001</v>
+        <v>0.65249999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4064,11 +4114,13 @@
         <f>8+9.5+10+4+8.5+10+1+4+2+7</f>
         <v>64</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="54">
         <v>67</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="56">
+        <v>0</v>
+      </c>
+      <c r="E24" s="49"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
@@ -4077,7 +4129,7 @@
       <c r="K24" s="44"/>
       <c r="L24" s="35">
         <f t="shared" si="0"/>
-        <v>0.98250000000000004</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4088,11 +4140,13 @@
         <f>7+6+0+9.5+3.5+8+10+1+0+4</f>
         <v>49</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="54">
         <v>45.5</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="55">
+        <v>27</v>
+      </c>
+      <c r="E25" s="49"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -4101,7 +4155,7 @@
       <c r="K25" s="44"/>
       <c r="L25" s="35">
         <f t="shared" si="0"/>
-        <v>0.70874999999999999</v>
+        <v>0.60750000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4112,11 +4166,13 @@
         <f>6+4+0+10+2+3+10+10+2+10</f>
         <v>57</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="54">
         <v>64.5</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="56">
+        <v>87.5</v>
+      </c>
+      <c r="E26" s="49"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
@@ -4125,7 +4181,7 @@
       <c r="K26" s="44"/>
       <c r="L26" s="35">
         <f t="shared" si="0"/>
-        <v>0.91124999999999989</v>
+        <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4136,11 +4192,13 @@
         <f>10+6+10+3+6.5+3+10+1+0+4</f>
         <v>53.5</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="54">
         <v>59</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="56">
+        <v>0</v>
+      </c>
+      <c r="E27" s="49"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
@@ -4149,7 +4207,7 @@
       <c r="K27" s="44"/>
       <c r="L27" s="35">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4160,11 +4218,13 @@
         <f>7+3+2.5+3+4.5+1+1+1+1+5</f>
         <v>29</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="54">
         <v>33</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="55">
+        <v>39</v>
+      </c>
+      <c r="E28" s="49"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
@@ -4173,7 +4233,7 @@
       <c r="K28" s="44"/>
       <c r="L28" s="35">
         <f t="shared" si="0"/>
-        <v>0.46499999999999997</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4184,11 +4244,13 @@
         <f>7+9.5+10+4+8.5+10+1+4+2+6</f>
         <v>62</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="54">
         <v>67.5</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="18">
+        <v>22</v>
+      </c>
+      <c r="E29" s="49"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
@@ -4197,7 +4259,7 @@
       <c r="K29" s="44"/>
       <c r="L29" s="35">
         <f t="shared" si="0"/>
-        <v>0.97124999999999995</v>
+        <v>0.75749999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4208,11 +4270,13 @@
         <f>10+7.5+9+10+0+1+10+4+2+0</f>
         <v>53.5</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="54">
         <v>29</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="50"/>
+      <c r="D30" s="56">
+        <v>0</v>
+      </c>
+      <c r="E30" s="49"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -4221,7 +4285,7 @@
       <c r="K30" s="44"/>
       <c r="L30" s="35">
         <f t="shared" si="0"/>
-        <v>0.61874999999999991</v>
+        <v>0.41249999999999992</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4232,11 +4296,13 @@
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="54">
         <v>53</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="55">
+        <v>65.5</v>
+      </c>
+      <c r="E31" s="49"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -4245,7 +4311,7 @@
       <c r="K31" s="44"/>
       <c r="L31" s="35">
         <f t="shared" si="0"/>
-        <v>0.86249999999999993</v>
+        <v>0.90249999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4256,11 +4322,13 @@
         <f>7+9+9+7+8+3+10+5+1+3</f>
         <v>62</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="54">
         <v>55</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="55">
+        <v>64.5</v>
+      </c>
+      <c r="E32" s="49"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
@@ -4269,7 +4337,7 @@
       <c r="K32" s="44"/>
       <c r="L32" s="35">
         <f t="shared" si="0"/>
-        <v>0.87749999999999995</v>
+        <v>0.90750000000000008</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,11 +4348,13 @@
         <f>10+9.5+10+9+10+10+10+10+10+10</f>
         <v>98.5</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="54">
         <v>76.5</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="50"/>
+      <c r="D33" s="18">
+        <v>99.5</v>
+      </c>
+      <c r="E33" s="49"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -4293,7 +4363,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="35">
         <f t="shared" si="0"/>
-        <v>1.3125</v>
+        <v>1.3724999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4359,9 +4429,9 @@
         <f t="shared" si="1"/>
         <v>46.90625</v>
       </c>
-      <c r="D36" s="31" t="e">
+      <c r="D36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>47.78125</v>
       </c>
       <c r="E36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -4393,7 +4463,7 @@
       </c>
       <c r="L36" s="31">
         <f t="shared" si="1"/>
-        <v>0.72785156249999994</v>
+        <v>0.72414062499999987</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4408,9 +4478,9 @@
         <f t="shared" si="2"/>
         <v>26.67378727176467</v>
       </c>
-      <c r="D37" s="31" t="e">
+      <c r="D37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>38.049190890469077</v>
       </c>
       <c r="E37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -4442,7 +4512,7 @@
       </c>
       <c r="L37" s="31">
         <f t="shared" si="2"/>
-        <v>0.39841118864737657</v>
+        <v>0.39855566321841179</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4457,9 +4527,9 @@
         <f t="shared" si="3"/>
         <v>48.25</v>
       </c>
-      <c r="D38" s="31" t="e">
+      <c r="D38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>59</v>
       </c>
       <c r="E38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -4491,7 +4561,7 @@
       </c>
       <c r="L38" s="31">
         <f t="shared" si="3"/>
-        <v>0.76875000000000004</v>
+        <v>0.71375000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4508,7 +4578,7 @@
       </c>
       <c r="D39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="34">
         <f t="shared" si="4"/>
@@ -4990,9 +5060,9 @@
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5271,7 +5341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -5311,6 +5381,7 @@
       <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
@@ -5320,9 +5391,9 @@
         <f>Quiz!V2</f>
         <v>0.4</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="52">
         <f>Homework!L2</f>
-        <v>0.56625000000000003</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="D2" s="44">
         <f>Exams!B2</f>
@@ -5334,13 +5405,13 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.5062500000000001</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="53">
         <f>IF(G2&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5354,9 +5425,9 @@
         <f>Quiz!V3</f>
         <v>0.66060606060606064</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="52">
         <f>Homework!L3</f>
-        <v>0.79125000000000001</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="D3" s="44">
         <f>Exams!B3</f>
@@ -5368,13 +5439,13 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.2818560606060609</v>
+        <v>3.0181060606060606</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="55">
+        <v>3</v>
+      </c>
+      <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5387,7 +5458,7 @@
         <f>Quiz!V4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="52">
         <f>Homework!L4</f>
         <v>0</v>
       </c>
@@ -5407,7 +5478,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5420,9 +5491,9 @@
         <f>Quiz!V5</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="52">
         <f>Homework!L5</f>
-        <v>0.63</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="D5" s="44">
         <f>Exams!B5</f>
@@ -5434,13 +5505,13 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7145454545454544</v>
+        <v>1.7920454545454545</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="55">
+        <v>2</v>
+      </c>
+      <c r="H5" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5453,9 +5524,9 @@
         <f>Quiz!V6</f>
         <v>0.79393939393939394</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <f>Homework!L6</f>
-        <v>1.38</v>
+        <v>1.3674999999999999</v>
       </c>
       <c r="D6" s="44">
         <f>Exams!B6</f>
@@ -5467,13 +5538,13 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0239393939393935</v>
+        <v>5.0114393939393933</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5486,9 +5557,9 @@
         <f>Quiz!V7</f>
         <v>0.7151515151515152</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="52">
         <f>Homework!L7</f>
-        <v>0.77625000000000011</v>
+        <v>0.84000000000000019</v>
       </c>
       <c r="D7" s="44">
         <f>Exams!B7</f>
@@ -5500,13 +5571,13 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>2.9914015151515154</v>
+        <v>3.0551515151515156</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5519,9 +5590,9 @@
         <f>Quiz!V8</f>
         <v>0.34545454545454546</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="52">
         <f>Homework!L8</f>
-        <v>1.0387500000000001</v>
+        <v>1.0725</v>
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
@@ -5533,13 +5604,13 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.3442045454545455</v>
+        <v>2.3779545454545454</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5552,7 +5623,7 @@
         <f>Quiz!V9</f>
         <v>0.14545454545454545</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="52">
         <f>Homework!L9</f>
         <v>0</v>
       </c>
@@ -5572,7 +5643,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5585,9 +5656,9 @@
         <f>Quiz!V10</f>
         <v>0.78181818181818186</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="52">
         <f>Homework!L10</f>
-        <v>1.3574999999999999</v>
+        <v>1.4025000000000001</v>
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
@@ -5599,13 +5670,13 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.5993181818181821</v>
+        <v>4.644318181818182</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5618,7 +5689,7 @@
         <f>Quiz!V11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="52">
         <f>Homework!L11</f>
         <v>0</v>
       </c>
@@ -5638,7 +5709,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5651,7 +5722,7 @@
         <f>Quiz!V12</f>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="52">
         <f>Homework!L12</f>
         <v>0</v>
       </c>
@@ -5671,7 +5742,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5684,9 +5755,9 @@
         <f>Quiz!V13</f>
         <v>0.23636363636363636</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="52">
         <f>Homework!L13</f>
-        <v>0.73125000000000007</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="D13" s="44">
         <f>Exams!B13</f>
@@ -5698,13 +5769,13 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.5976136363636364</v>
+        <v>1.8288636363636366</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="55">
+        <v>2</v>
+      </c>
+      <c r="H13" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5717,9 +5788,9 @@
         <f>Quiz!V14</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="52">
         <f>Homework!L14</f>
-        <v>0.59624999999999995</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="D14" s="44">
         <f>Exams!B14</f>
@@ -5731,13 +5802,13 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.7998863636363636</v>
+        <v>1.8536363636363637</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5750,9 +5821,9 @@
         <f>Quiz!V15</f>
         <v>0.8</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="52">
         <f>Homework!L15</f>
-        <v>0.76125000000000009</v>
+        <v>0.89750000000000008</v>
       </c>
       <c r="D15" s="44">
         <f>Exams!B15</f>
@@ -5764,13 +5835,13 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.03125</v>
+        <v>3.1675000000000004</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5783,9 +5854,9 @@
         <f>Quiz!V16</f>
         <v>0.5636363636363636</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="52">
         <f>Homework!L16</f>
-        <v>0.66749999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="D16" s="44">
         <f>Exams!B16</f>
@@ -5797,13 +5868,13 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.5511363636363633</v>
+        <v>2.5036363636363639</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5816,9 +5887,9 @@
         <f>Quiz!V17</f>
         <v>0.68484848484848482</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="52">
         <f>Homework!L17</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D17" s="44">
         <f>Exams!B17</f>
@@ -5830,13 +5901,13 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>1.5848484848484847</v>
+        <v>2.0148484848484847</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H17" s="55">
+        <v>2</v>
+      </c>
+      <c r="H17" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5849,9 +5920,9 @@
         <f>Quiz!V18</f>
         <v>0.69090909090909092</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="52">
         <f>Homework!L18</f>
-        <v>1.1662500000000002</v>
+        <v>1.25</v>
       </c>
       <c r="D18" s="44">
         <f>Exams!B18</f>
@@ -5863,13 +5934,13 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.3571590909090911</v>
+        <v>3.4409090909090909</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5882,9 +5953,9 @@
         <f>Quiz!V19</f>
         <v>0.43636363636363634</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="52">
         <f>Homework!L19</f>
-        <v>0.56624999999999992</v>
+        <v>0.37749999999999995</v>
       </c>
       <c r="D19" s="44">
         <f>Exams!B19</f>
@@ -5896,13 +5967,13 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.4726136363636364</v>
+        <v>2.2838636363636362</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5915,9 +5986,9 @@
         <f>Quiz!V20</f>
         <v>0.38181818181818183</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="52">
         <f>Homework!L20</f>
-        <v>0.58499999999999996</v>
+        <v>0.76249999999999984</v>
       </c>
       <c r="D20" s="44">
         <f>Exams!B20</f>
@@ -5929,13 +6000,13 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.1368181818181817</v>
+        <v>2.3143181818181815</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
-      </c>
-      <c r="H20" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="53">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5948,9 +6019,9 @@
         <f>Quiz!V21</f>
         <v>0.67272727272727273</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="52">
         <f>Homework!L21</f>
-        <v>1.3125</v>
+        <v>1.3474999999999999</v>
       </c>
       <c r="D21" s="44">
         <f>Exams!B21</f>
@@ -5962,13 +6033,13 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.5452272727272729</v>
+        <v>3.5802272727272726</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5981,9 +6052,9 @@
         <f>Quiz!V22</f>
         <v>0.64848484848484844</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="52">
         <f>Homework!L22</f>
-        <v>0.83249999999999991</v>
+        <v>0.85749999999999993</v>
       </c>
       <c r="D22" s="44">
         <f>Exams!B22</f>
@@ -5995,13 +6066,13 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1009848484848486</v>
+        <v>3.1259848484848485</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6014,9 +6085,9 @@
         <f>Quiz!V23</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="52">
         <f>Homework!L23</f>
-        <v>0.97875000000000001</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="D23" s="44">
         <f>Exams!B23</f>
@@ -6028,13 +6099,13 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.3323863636363633</v>
+        <v>2.0061363636363634</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="H23" s="55">
+        <v>2</v>
+      </c>
+      <c r="H23" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6047,9 +6118,9 @@
         <f>Quiz!V24</f>
         <v>0.30909090909090908</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="52">
         <f>Homework!L24</f>
-        <v>0.98250000000000004</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
@@ -6061,13 +6132,13 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.7015909090909087</v>
+        <v>2.374090909090909</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6080,9 +6151,9 @@
         <f>Quiz!V25</f>
         <v>0.43636363636363634</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="52">
         <f>Homework!L25</f>
-        <v>0.70874999999999999</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
@@ -6094,13 +6165,13 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6851136363636363</v>
+        <v>1.5838636363636365</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6113,9 +6184,9 @@
         <f>Quiz!V26</f>
         <v>0.67272727272727273</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="52">
         <f>Homework!L26</f>
-        <v>0.91124999999999989</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="D26" s="44">
         <f>Exams!B26</f>
@@ -6127,13 +6198,13 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>2.903977272727273</v>
+        <v>3.0377272727272731</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
         <v>3</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="53">
         <f t="shared" ref="H26:H33" si="7">IF(G26&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -6146,9 +6217,9 @@
         <f>Quiz!V27</f>
         <v>0.50303030303030305</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="52">
         <f>Homework!L27</f>
-        <v>0.84375</v>
+        <v>0.5625</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
@@ -6160,13 +6231,13 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>3.0267803030303031</v>
+        <v>2.7455303030303031</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H27" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="H27" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6179,9 +6250,9 @@
         <f>Quiz!V28</f>
         <v>0.49090909090909091</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="52">
         <f>Homework!L28</f>
-        <v>0.46499999999999997</v>
+        <v>0.505</v>
       </c>
       <c r="D28" s="44">
         <f>Exams!B28</f>
@@ -6193,13 +6264,13 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.1859090909090906</v>
+        <v>2.2259090909090906</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6212,9 +6283,9 @@
         <f>Quiz!V29</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="52">
         <f>Homework!L29</f>
-        <v>0.97124999999999995</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
@@ -6226,13 +6297,13 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.8657954545454545</v>
+        <v>2.6520454545454544</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H29" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6245,9 +6316,9 @@
         <f>Quiz!V30</f>
         <v>0.32727272727272727</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="52">
         <f>Homework!L30</f>
-        <v>0.61874999999999991</v>
+        <v>0.41249999999999992</v>
       </c>
       <c r="D30" s="44">
         <f>Exams!B30</f>
@@ -6259,13 +6330,13 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6860227272727268</v>
+        <v>2.479772727272727</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6278,9 +6349,9 @@
         <f>Quiz!V31</f>
         <v>0.41818181818181815</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="52">
         <f>Homework!L31</f>
-        <v>0.86249999999999993</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="D31" s="44">
         <f>Exams!B31</f>
@@ -6292,13 +6363,13 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.0506818181818183</v>
+        <v>3.0906818181818183</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6311,9 +6382,9 @@
         <f>Quiz!V32</f>
         <v>0.41818181818181815</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="52">
         <f>Homework!L32</f>
-        <v>0.87749999999999995</v>
+        <v>0.90750000000000008</v>
       </c>
       <c r="D32" s="44">
         <f>Exams!B32</f>
@@ -6325,13 +6396,13 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>2.9756818181818181</v>
+        <v>3.0056818181818183</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6344,9 +6415,9 @@
         <f>Quiz!V33</f>
         <v>0.64848484848484844</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="52">
         <f>Homework!L33</f>
-        <v>1.3125</v>
+        <v>1.3724999999999998</v>
       </c>
       <c r="D33" s="44">
         <f>Exams!B33</f>
@@ -6358,13 +6429,13 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.4609848484848484</v>
+        <v>3.5209848484848481</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6419,7 +6490,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.72785156249999994</v>
+        <v>0.72414062499999987</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -6431,7 +6502,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4520561079545455</v>
+        <v>2.4483451704545449</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -6452,7 +6523,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.39841118864737657</v>
+        <v>0.39855566321841179</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -6464,11 +6535,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.104060465737128</v>
+        <v>1.090244113661005</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1437725848290172</v>
+        <v>1.0933034802834938</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6485,7 +6556,7 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>0.76875000000000004</v>
+        <v>0.71375000000000011</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
@@ -6497,7 +6568,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.6185795454545451</v>
+        <v>2.4288636363636362</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9825E3E3-AC7D-E341-BDF8-8EE3FDC08CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676E461-2467-4D46-A81F-3346B9E3CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="700" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1111,7 +1111,9 @@
       <c r="L2" s="18">
         <v>3</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="18">
+        <v>3</v>
+      </c>
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
@@ -1122,7 +1124,7 @@
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.4</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1163,7 +1165,9 @@
       <c r="L3" s="18">
         <v>15</v>
       </c>
-      <c r="M3" s="45"/>
+      <c r="M3" s="18">
+        <v>15</v>
+      </c>
       <c r="N3" s="45"/>
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
@@ -1174,7 +1178,7 @@
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.66060606060606064</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1215,7 +1219,9 @@
       <c r="L4" s="18">
         <v>0</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
       <c r="N4" s="45"/>
       <c r="O4" s="45"/>
       <c r="P4" s="45"/>
@@ -1267,7 +1273,9 @@
       <c r="L5" s="18">
         <v>3</v>
       </c>
-      <c r="M5" s="45"/>
+      <c r="M5" s="18">
+        <v>3</v>
+      </c>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
       <c r="P5" s="45"/>
@@ -1278,7 +1286,7 @@
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1319,7 +1327,9 @@
       <c r="L6" s="18">
         <v>15</v>
       </c>
-      <c r="M6" s="45"/>
+      <c r="M6" s="18">
+        <v>15</v>
+      </c>
       <c r="N6" s="45"/>
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
@@ -1330,7 +1340,7 @@
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.79393939393939394</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1371,7 +1381,9 @@
       <c r="L7" s="18">
         <v>15</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="18">
+        <v>15</v>
+      </c>
       <c r="N7" s="45"/>
       <c r="O7" s="45"/>
       <c r="P7" s="45"/>
@@ -1382,7 +1394,7 @@
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.7151515151515152</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1423,7 +1435,9 @@
       <c r="L8" s="18">
         <v>3</v>
       </c>
-      <c r="M8" s="45"/>
+      <c r="M8" s="18">
+        <v>15</v>
+      </c>
       <c r="N8" s="45"/>
       <c r="O8" s="45"/>
       <c r="P8" s="45"/>
@@ -1434,7 +1448,7 @@
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.34545454545454546</v>
+        <v>0.4</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1475,7 +1489,9 @@
       <c r="L9" s="18">
         <v>0</v>
       </c>
-      <c r="M9" s="45"/>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
       <c r="P9" s="45"/>
@@ -1486,7 +1502,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>0.14545454545454545</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1527,7 +1543,9 @@
       <c r="L10" s="18">
         <v>15</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="18">
+        <v>15</v>
+      </c>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
@@ -1538,7 +1556,7 @@
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.78181818181818186</v>
+        <v>0.8</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1579,7 +1597,9 @@
       <c r="L11" s="18">
         <v>0</v>
       </c>
-      <c r="M11" s="45"/>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
       <c r="P11" s="45"/>
@@ -1631,7 +1651,9 @@
       <c r="L12" s="18">
         <v>0</v>
       </c>
-      <c r="M12" s="45"/>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
       <c r="N12" s="45"/>
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
@@ -1642,7 +1664,7 @@
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>3.6363636363636362E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1683,7 +1705,9 @@
       <c r="L13" s="18">
         <v>0</v>
       </c>
-      <c r="M13" s="45"/>
+      <c r="M13" s="18">
+        <v>3</v>
+      </c>
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
       <c r="P13" s="45"/>
@@ -1694,7 +1718,7 @@
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.23636363636363636</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1735,7 +1759,9 @@
       <c r="L14" s="18">
         <v>0</v>
       </c>
-      <c r="M14" s="45"/>
+      <c r="M14" s="18">
+        <v>15</v>
+      </c>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
@@ -1746,7 +1772,7 @@
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1786,7 +1812,9 @@
       <c r="L15" s="18">
         <v>15</v>
       </c>
-      <c r="M15" s="45"/>
+      <c r="M15" s="18">
+        <v>15</v>
+      </c>
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
       <c r="P15" s="45"/>
@@ -1797,7 +1825,7 @@
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1838,7 +1866,9 @@
       <c r="L16" s="18">
         <v>15</v>
       </c>
-      <c r="M16" s="45"/>
+      <c r="M16" s="18">
+        <v>15</v>
+      </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
       <c r="P16" s="45"/>
@@ -1849,7 +1879,7 @@
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.5636363636363636</v>
+        <v>0.6</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1890,7 +1920,9 @@
       <c r="L17" s="18">
         <v>15</v>
       </c>
-      <c r="M17" s="45"/>
+      <c r="M17" s="18">
+        <v>15</v>
+      </c>
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
       <c r="P17" s="45"/>
@@ -1901,7 +1933,7 @@
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.68484848484848482</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1942,7 +1974,9 @@
       <c r="L18" s="18">
         <v>15</v>
       </c>
-      <c r="M18" s="45"/>
+      <c r="M18" s="18">
+        <v>15</v>
+      </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
@@ -1953,7 +1987,7 @@
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.69090909090909092</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="W18"/>
     </row>
@@ -1994,7 +2028,9 @@
       <c r="L19" s="18">
         <v>0</v>
       </c>
-      <c r="M19" s="45"/>
+      <c r="M19" s="18">
+        <v>15</v>
+      </c>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
@@ -2005,7 +2041,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.43636363636363634</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2046,7 +2082,9 @@
       <c r="L20" s="18">
         <v>3</v>
       </c>
-      <c r="M20" s="45"/>
+      <c r="M20" s="18">
+        <v>15</v>
+      </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
@@ -2057,7 +2095,7 @@
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.38181818181818183</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2098,7 +2136,9 @@
       <c r="L21" s="18">
         <v>15</v>
       </c>
-      <c r="M21" s="45"/>
+      <c r="M21" s="18">
+        <v>15</v>
+      </c>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
       <c r="P21" s="45"/>
@@ -2109,7 +2149,7 @@
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.67272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2150,7 +2190,9 @@
       <c r="L22" s="18">
         <v>15</v>
       </c>
-      <c r="M22" s="45"/>
+      <c r="M22" s="18">
+        <v>15</v>
+      </c>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
@@ -2161,7 +2203,7 @@
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.64848484848484844</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2202,7 +2244,9 @@
       <c r="L23" s="18">
         <v>3</v>
       </c>
-      <c r="M23" s="45"/>
+      <c r="M23" s="18">
+        <v>3</v>
+      </c>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
       <c r="P23" s="45"/>
@@ -2213,7 +2257,7 @@
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.35</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2254,7 +2298,9 @@
       <c r="L24" s="18">
         <v>0</v>
       </c>
-      <c r="M24" s="45"/>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
@@ -2265,7 +2311,7 @@
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.30909090909090908</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2306,7 +2352,9 @@
       <c r="L25" s="18">
         <v>3</v>
       </c>
-      <c r="M25" s="45"/>
+      <c r="M25" s="18">
+        <v>3</v>
+      </c>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
@@ -2317,7 +2365,7 @@
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.43636363636363634</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2358,7 +2406,9 @@
       <c r="L26" s="18">
         <v>15</v>
       </c>
-      <c r="M26" s="45"/>
+      <c r="M26" s="18">
+        <v>3</v>
+      </c>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
@@ -2369,7 +2419,7 @@
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.67272727272727273</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2410,7 +2460,9 @@
       <c r="L27" s="18">
         <v>0</v>
       </c>
-      <c r="M27" s="45"/>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
@@ -2421,7 +2473,7 @@
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.50303030303030305</v>
+        <v>0.46111111111111114</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2462,7 +2514,9 @@
       <c r="L28" s="18">
         <v>15</v>
       </c>
-      <c r="M28" s="45"/>
+      <c r="M28" s="18">
+        <v>15</v>
+      </c>
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
       <c r="P28" s="45"/>
@@ -2473,7 +2527,7 @@
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.49090909090909091</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2514,7 +2568,9 @@
       <c r="L29" s="18">
         <v>0</v>
       </c>
-      <c r="M29" s="45"/>
+      <c r="M29" s="18">
+        <v>3</v>
+      </c>
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
@@ -2525,7 +2581,7 @@
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2566,7 +2622,9 @@
       <c r="L30" s="18">
         <v>0</v>
       </c>
-      <c r="M30" s="45"/>
+      <c r="M30" s="18">
+        <v>15</v>
+      </c>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
       <c r="P30" s="45"/>
@@ -2577,7 +2635,7 @@
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.32727272727272727</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2618,7 +2676,9 @@
       <c r="L31" s="18">
         <v>3</v>
       </c>
-      <c r="M31" s="45"/>
+      <c r="M31" s="18">
+        <v>3</v>
+      </c>
       <c r="N31" s="45"/>
       <c r="O31" s="45"/>
       <c r="P31" s="45"/>
@@ -2629,7 +2689,7 @@
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.41818181818181815</v>
+        <v>0.4</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2670,7 +2730,9 @@
       <c r="L32" s="18">
         <v>3</v>
       </c>
-      <c r="M32" s="45"/>
+      <c r="M32" s="18">
+        <v>3</v>
+      </c>
       <c r="N32" s="45"/>
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
@@ -2681,7 +2743,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.41818181818181815</v>
+        <v>0.4</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2722,7 +2784,9 @@
       <c r="L33" s="18">
         <v>15</v>
       </c>
-      <c r="M33" s="45"/>
+      <c r="M33" s="18">
+        <v>15</v>
+      </c>
       <c r="N33" s="45"/>
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
@@ -2733,7 +2797,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.64848484848484844</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2879,9 +2943,9 @@
         <f t="shared" si="1"/>
         <v>6.84375</v>
       </c>
-      <c r="M36" s="31" t="e">
+      <c r="M36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.8125</v>
       </c>
       <c r="N36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -2917,7 +2981,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.46420454545454531</v>
+        <v>0.47447916666666651</v>
       </c>
       <c r="W36"/>
     </row>
@@ -2969,9 +3033,9 @@
         <f t="shared" si="2"/>
         <v>6.9519520349880288</v>
       </c>
-      <c r="M37" s="31" t="e">
+      <c r="M37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.7701312704669796</v>
       </c>
       <c r="N37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -3007,7 +3071,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.22378945227383082</v>
+        <v>0.23151647734267883</v>
       </c>
       <c r="W37"/>
     </row>
@@ -3059,9 +3123,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M38" s="31" t="e">
+      <c r="M38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>15</v>
       </c>
       <c r="N38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3097,7 +3161,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.44545454545454544</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3151,7 +3215,7 @@
       </c>
       <c r="M39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="34">
         <f t="shared" si="4"/>
@@ -5389,7 +5453,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.4</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5405,7 +5469,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6600000000000001</v>
+        <v>1.6433333333333335</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5423,7 +5487,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.66060606060606064</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5439,7 +5503,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.0181060606060606</v>
+        <v>3.046388888888889</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5489,7 +5553,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.45454545454545453</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -5505,7 +5569,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7920454545454545</v>
+        <v>1.7708333333333335</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5522,7 +5586,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.79393939393939394</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -5538,7 +5602,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0114393939393933</v>
+        <v>5.0286111111111111</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -5555,7 +5619,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.7151515151515152</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -5571,7 +5635,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.0551515151515156</v>
+        <v>3.0788888888888892</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -5588,7 +5652,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.34545454545454546</v>
+        <v>0.4</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -5604,7 +5668,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.3779545454545454</v>
+        <v>2.4325000000000001</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -5621,7 +5685,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>0.14545454545454545</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -5637,7 +5701,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.14545454545454545</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -5654,7 +5718,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.78181818181818186</v>
+        <v>0.8</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -5670,7 +5734,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.644318181818182</v>
+        <v>4.6624999999999996</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -5720,7 +5784,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>3.6363636363636362E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -5736,7 +5800,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0863636363636362</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -5753,7 +5817,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.23636363636363636</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -5769,7 +5833,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.8288636363636366</v>
+        <v>1.8258333333333332</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -5786,7 +5850,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.36363636363636365</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -5802,7 +5866,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.8536363636363637</v>
+        <v>1.9066666666666667</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -5819,7 +5883,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.8</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -5835,7 +5899,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.1675000000000004</v>
+        <v>3.184166666666667</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -5852,7 +5916,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.5636363636363636</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -5868,7 +5932,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.5036363636363639</v>
+        <v>2.54</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -5885,7 +5949,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.68484848484848482</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -5901,7 +5965,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0148484848484847</v>
+        <v>2.0411111111111113</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -5918,7 +5982,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.69090909090909092</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -5934,7 +5998,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.4409090909090909</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -5951,7 +6015,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.43636363636363634</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -5967,7 +6031,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.2838636363636362</v>
+        <v>2.3308333333333335</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -5984,7 +6048,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.38181818181818183</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6000,7 +6064,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.3143181818181815</v>
+        <v>2.3658333333333332</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6017,7 +6081,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.67272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6033,7 +6097,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.5802272727272726</v>
+        <v>3.6074999999999999</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6050,7 +6114,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.64848484848484844</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6066,7 +6130,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1259848484848485</v>
+        <v>3.1552777777777781</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6083,7 +6147,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.36363636363636365</v>
+        <v>0.35</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6099,7 +6163,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0061363636363634</v>
+        <v>1.9924999999999999</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6116,7 +6180,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.30909090909090908</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6132,7 +6196,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.374090909090909</v>
+        <v>2.3483333333333332</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6149,7 +6213,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.43636363636363634</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6165,7 +6229,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.5838636363636365</v>
+        <v>1.5641666666666667</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6182,7 +6246,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.67272727272727273</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6198,7 +6262,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.0377272727272731</v>
+        <v>2.9983333333333331</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6215,7 +6279,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.50303030303030305</v>
+        <v>0.46111111111111114</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6231,7 +6295,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.7455303030303031</v>
+        <v>2.7036111111111114</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6248,7 +6312,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.49090909090909091</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6264,11 +6328,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2259090909090906</v>
+        <v>2.2683333333333335</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -6281,7 +6345,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.45454545454545453</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6297,7 +6361,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.6520454545454544</v>
+        <v>2.6308333333333334</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6314,7 +6378,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.32727272727272727</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6330,7 +6394,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.479772727272727</v>
+        <v>2.5358333333333332</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6347,7 +6411,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.41818181818181815</v>
+        <v>0.4</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6363,7 +6427,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.0906818181818183</v>
+        <v>3.0724999999999998</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6380,7 +6444,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.41818181818181815</v>
+        <v>0.4</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6396,7 +6460,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.0056818181818183</v>
+        <v>2.9875000000000003</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6413,7 +6477,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.64848484848484844</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6429,7 +6493,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5209848484848481</v>
+        <v>3.5502777777777776</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6486,7 +6550,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.46420454545454531</v>
+        <v>0.47447916666666651</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6502,11 +6566,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4483451704545449</v>
+        <v>2.4586197916666666</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.421875</v>
+        <v>2.4375</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6519,7 +6583,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.22378945227383082</v>
+        <v>0.23151647734267883</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6535,11 +6599,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.090244113661005</v>
+        <v>1.0962727494018634</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0933034802834938</v>
+        <v>1.0906494070196242</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6552,7 +6616,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.44545454545454544</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -6568,7 +6632,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.4288636363636362</v>
+        <v>2.4841666666666669</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676E461-2467-4D46-A81F-3346B9E3CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A4818-94A8-CC42-91A2-8B02B61EE6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1114,7 +1114,9 @@
       <c r="M2" s="18">
         <v>3</v>
       </c>
-      <c r="N2" s="45"/>
+      <c r="N2" s="18">
+        <v>3</v>
+      </c>
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
       <c r="Q2" s="45"/>
@@ -1124,7 +1126,7 @@
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.38333333333333336</v>
+        <v>0.36923076923076925</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1168,7 +1170,9 @@
       <c r="M3" s="18">
         <v>15</v>
       </c>
-      <c r="N3" s="45"/>
+      <c r="N3" s="18">
+        <v>15</v>
+      </c>
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
@@ -1178,7 +1182,7 @@
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.68888888888888888</v>
+        <v>0.71282051282051284</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1222,7 +1226,9 @@
       <c r="M4" s="18">
         <v>0</v>
       </c>
-      <c r="N4" s="45"/>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
       <c r="O4" s="45"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
@@ -1276,7 +1282,9 @@
       <c r="M5" s="18">
         <v>3</v>
       </c>
-      <c r="N5" s="45"/>
+      <c r="N5" s="18">
+        <v>3</v>
+      </c>
       <c r="O5" s="45"/>
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
@@ -1286,7 +1294,7 @@
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.41538461538461541</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1330,7 +1338,9 @@
       <c r="M6" s="18">
         <v>15</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="18">
+        <v>15</v>
+      </c>
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="45"/>
@@ -1340,7 +1350,7 @@
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.81111111111111112</v>
+        <v>0.82564102564102559</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1384,7 +1394,9 @@
       <c r="M7" s="18">
         <v>15</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="18">
+        <v>3</v>
+      </c>
       <c r="O7" s="45"/>
       <c r="P7" s="45"/>
       <c r="Q7" s="45"/>
@@ -1394,7 +1406,7 @@
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.73888888888888893</v>
+        <v>0.6974358974358974</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1438,7 +1450,9 @@
       <c r="M8" s="18">
         <v>15</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="18">
+        <v>3</v>
+      </c>
       <c r="O8" s="45"/>
       <c r="P8" s="45"/>
       <c r="Q8" s="45"/>
@@ -1448,7 +1462,7 @@
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1492,7 +1506,9 @@
       <c r="M9" s="18">
         <v>0</v>
       </c>
-      <c r="N9" s="45"/>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
       <c r="O9" s="45"/>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
@@ -1502,7 +1518,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.12307692307692308</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1546,7 +1562,9 @@
       <c r="M10" s="18">
         <v>15</v>
       </c>
-      <c r="N10" s="45"/>
+      <c r="N10" s="18">
+        <v>15</v>
+      </c>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="45"/>
@@ -1556,7 +1574,7 @@
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.81538461538461537</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1600,7 +1618,9 @@
       <c r="M11" s="18">
         <v>0</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
       <c r="O11" s="45"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="45"/>
@@ -1654,7 +1674,9 @@
       <c r="M12" s="18">
         <v>0</v>
       </c>
-      <c r="N12" s="45"/>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
@@ -1664,7 +1686,7 @@
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1708,7 +1730,9 @@
       <c r="M13" s="18">
         <v>3</v>
       </c>
-      <c r="N13" s="45"/>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
       <c r="O13" s="45"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="45"/>
@@ -1718,7 +1742,7 @@
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.23333333333333334</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1762,7 +1786,9 @@
       <c r="M14" s="18">
         <v>15</v>
       </c>
-      <c r="N14" s="45"/>
+      <c r="N14" s="18">
+        <v>3</v>
+      </c>
       <c r="O14" s="45"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
@@ -1772,7 +1798,7 @@
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1815,7 +1841,9 @@
       <c r="M15" s="18">
         <v>15</v>
       </c>
-      <c r="N15" s="45"/>
+      <c r="N15" s="18">
+        <v>3</v>
+      </c>
       <c r="O15" s="45"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
@@ -1825,7 +1853,7 @@
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.81666666666666665</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1869,7 +1897,9 @@
       <c r="M16" s="18">
         <v>15</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="18">
+        <v>15</v>
+      </c>
       <c r="O16" s="45"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
@@ -1879,7 +1909,7 @@
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.63076923076923075</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1923,7 +1953,9 @@
       <c r="M17" s="18">
         <v>15</v>
       </c>
-      <c r="N17" s="45"/>
+      <c r="N17" s="18">
+        <v>15</v>
+      </c>
       <c r="O17" s="45"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -1933,7 +1965,7 @@
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W17"/>
     </row>
@@ -1977,7 +2009,9 @@
       <c r="M18" s="18">
         <v>15</v>
       </c>
-      <c r="N18" s="45"/>
+      <c r="N18" s="18">
+        <v>15</v>
+      </c>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
@@ -1987,7 +2021,7 @@
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.71666666666666667</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="W18"/>
     </row>
@@ -2031,7 +2065,9 @@
       <c r="M19" s="18">
         <v>15</v>
       </c>
-      <c r="N19" s="45"/>
+      <c r="N19" s="18">
+        <v>3</v>
+      </c>
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
@@ -2041,7 +2077,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2085,7 +2121,9 @@
       <c r="M20" s="18">
         <v>15</v>
       </c>
-      <c r="N20" s="45"/>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
@@ -2095,7 +2133,7 @@
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.4</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2139,7 +2177,9 @@
       <c r="M21" s="18">
         <v>15</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="18">
+        <v>15</v>
+      </c>
       <c r="O21" s="45"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
@@ -2149,7 +2189,7 @@
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.72307692307692306</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2193,7 +2233,9 @@
       <c r="M22" s="18">
         <v>15</v>
       </c>
-      <c r="N22" s="45"/>
+      <c r="N22" s="18">
+        <v>15</v>
+      </c>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -2203,7 +2245,7 @@
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.67777777777777781</v>
+        <v>0.70256410256410251</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2247,7 +2289,9 @@
       <c r="M23" s="18">
         <v>3</v>
       </c>
-      <c r="N23" s="45"/>
+      <c r="N23" s="18">
+        <v>3</v>
+      </c>
       <c r="O23" s="45"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
@@ -2257,7 +2301,7 @@
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.33846153846153848</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2301,7 +2345,9 @@
       <c r="M24" s="18">
         <v>0</v>
       </c>
-      <c r="N24" s="45"/>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
@@ -2311,7 +2357,7 @@
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
+        <v>0.26153846153846155</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2355,7 +2401,9 @@
       <c r="M25" s="18">
         <v>3</v>
       </c>
-      <c r="N25" s="45"/>
+      <c r="N25" s="18">
+        <v>15</v>
+      </c>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
@@ -2365,7 +2413,7 @@
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2409,7 +2457,9 @@
       <c r="M26" s="18">
         <v>3</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="18">
+        <v>15</v>
+      </c>
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
@@ -2419,7 +2469,7 @@
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.66153846153846152</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2463,7 +2513,9 @@
       <c r="M27" s="18">
         <v>0</v>
       </c>
-      <c r="N27" s="45"/>
+      <c r="N27" s="18">
+        <v>3</v>
+      </c>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
@@ -2473,7 +2525,7 @@
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.46111111111111114</v>
+        <v>0.44102564102564101</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2517,7 +2569,9 @@
       <c r="M28" s="18">
         <v>15</v>
       </c>
-      <c r="N28" s="45"/>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
       <c r="O28" s="45"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
@@ -2527,7 +2581,7 @@
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2571,7 +2625,9 @@
       <c r="M29" s="18">
         <v>3</v>
       </c>
-      <c r="N29" s="45"/>
+      <c r="N29" s="18">
+        <v>0</v>
+      </c>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
@@ -2581,7 +2637,7 @@
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.4</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2625,7 +2681,9 @@
       <c r="M30" s="18">
         <v>15</v>
       </c>
-      <c r="N30" s="45"/>
+      <c r="N30" s="18">
+        <v>15</v>
+      </c>
       <c r="O30" s="45"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
@@ -2635,7 +2693,7 @@
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.38333333333333336</v>
+        <v>0.43076923076923079</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2679,7 +2737,9 @@
       <c r="M31" s="18">
         <v>3</v>
       </c>
-      <c r="N31" s="45"/>
+      <c r="N31" s="18">
+        <v>3</v>
+      </c>
       <c r="O31" s="45"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
@@ -2689,7 +2749,7 @@
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2733,7 +2793,9 @@
       <c r="M32" s="18">
         <v>3</v>
       </c>
-      <c r="N32" s="45"/>
+      <c r="N32" s="18">
+        <v>3</v>
+      </c>
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
@@ -2743,7 +2805,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2787,7 +2849,9 @@
       <c r="M33" s="18">
         <v>15</v>
       </c>
-      <c r="N33" s="45"/>
+      <c r="N33" s="18">
+        <v>15</v>
+      </c>
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
@@ -2797,7 +2861,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.67777777777777781</v>
+        <v>0.70256410256410251</v>
       </c>
       <c r="W33"/>
     </row>
@@ -2947,9 +3011,9 @@
         <f t="shared" si="1"/>
         <v>8.8125</v>
       </c>
-      <c r="N36" s="31" t="e">
+      <c r="N36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.65625</v>
       </c>
       <c r="O36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -2981,7 +3045,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.47447916666666651</v>
+        <v>0.47211538461538466</v>
       </c>
       <c r="W36"/>
     </row>
@@ -3037,9 +3101,9 @@
         <f t="shared" si="2"/>
         <v>6.7701312704669796</v>
       </c>
-      <c r="N37" s="31" t="e">
+      <c r="N37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.6749864081050454</v>
       </c>
       <c r="O37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -3071,7 +3135,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.23151647734267883</v>
+        <v>0.23796318336852754</v>
       </c>
       <c r="W37"/>
     </row>
@@ -3127,9 +3191,9 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N38" s="31" t="e">
+      <c r="N38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="O38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3161,7 +3225,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.43333333333333335</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3219,7 +3283,7 @@
       </c>
       <c r="N39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="34">
         <f t="shared" si="4"/>
@@ -5453,7 +5517,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.38333333333333336</v>
+        <v>0.36923076923076925</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5469,7 +5533,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6433333333333335</v>
+        <v>1.6292307692307695</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5487,7 +5551,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.68888888888888888</v>
+        <v>0.71282051282051284</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5503,7 +5567,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.046388888888889</v>
+        <v>3.0703205128205129</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5553,7 +5617,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.43333333333333335</v>
+        <v>0.41538461538461541</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -5569,7 +5633,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7708333333333335</v>
+        <v>1.7528846153846156</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5586,7 +5650,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.81111111111111112</v>
+        <v>0.82564102564102559</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -5602,7 +5666,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0286111111111111</v>
+        <v>5.0431410256410256</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -5619,7 +5683,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.73888888888888893</v>
+        <v>0.6974358974358974</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -5635,7 +5699,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.0788888888888892</v>
+        <v>3.0374358974358975</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -5652,7 +5716,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -5668,7 +5732,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.4325000000000001</v>
+        <v>2.4171153846153848</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -5685,7 +5749,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>0.13333333333333333</v>
+        <v>0.12307692307692308</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -5701,7 +5765,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.12307692307692308</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -5718,7 +5782,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.8</v>
+        <v>0.81538461538461537</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -5734,7 +5798,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.6624999999999996</v>
+        <v>4.677884615384615</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -5784,7 +5848,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>3.3333333333333333E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -5800,7 +5864,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0833333333333333</v>
+        <v>1.0807692307692305</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -5817,7 +5881,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.23333333333333334</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -5833,7 +5897,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.8258333333333332</v>
+        <v>1.8078846153846153</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -5850,7 +5914,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.41666666666666669</v>
+        <v>0.4</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -5866,7 +5930,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.9066666666666667</v>
+        <v>1.89</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -5883,7 +5947,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.81666666666666665</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -5899,7 +5963,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.184166666666667</v>
+        <v>3.1367307692307693</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -5916,7 +5980,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.6</v>
+        <v>0.63076923076923075</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -5932,7 +5996,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.54</v>
+        <v>2.5707692307692307</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -5949,7 +6013,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.71111111111111114</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -5965,7 +6029,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0411111111111113</v>
+        <v>2.0633333333333335</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -5982,7 +6046,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.71666666666666667</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -5998,7 +6062,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.4666666666666668</v>
+        <v>3.4884615384615385</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6015,7 +6079,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.48333333333333334</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -6031,7 +6095,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.3308333333333335</v>
+        <v>2.3090384615384614</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6048,7 +6112,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.43333333333333335</v>
+        <v>0.4</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6064,7 +6128,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.3658333333333332</v>
+        <v>2.3324999999999996</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6081,7 +6145,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.7</v>
+        <v>0.72307692307692306</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6097,7 +6161,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6074999999999999</v>
+        <v>3.6305769230769229</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6114,7 +6178,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.67777777777777781</v>
+        <v>0.70256410256410251</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6130,7 +6194,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1552777777777781</v>
+        <v>3.1800641025641028</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6147,7 +6211,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.35</v>
+        <v>0.33846153846153848</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6163,7 +6227,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>1.9924999999999999</v>
+        <v>1.9809615384615384</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6180,7 +6244,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.28333333333333333</v>
+        <v>0.26153846153846155</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6196,7 +6260,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.3483333333333332</v>
+        <v>2.3265384615384614</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6213,7 +6277,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.41666666666666669</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6229,7 +6293,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.5641666666666667</v>
+        <v>1.6090384615384616</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6246,7 +6310,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.6333333333333333</v>
+        <v>0.66153846153846152</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6262,7 +6326,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>2.9983333333333331</v>
+        <v>3.0265384615384612</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6279,7 +6343,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.46111111111111114</v>
+        <v>0.44102564102564101</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6295,7 +6359,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.7036111111111114</v>
+        <v>2.683525641025641</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6312,7 +6376,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.53333333333333333</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6328,11 +6392,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2683333333333335</v>
+        <v>2.2273076923076922</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -6345,7 +6409,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.43333333333333335</v>
+        <v>0.4</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6361,7 +6425,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.6308333333333334</v>
+        <v>2.5975000000000001</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6378,7 +6442,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.38333333333333336</v>
+        <v>0.43076923076923079</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6394,7 +6458,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.5358333333333332</v>
+        <v>2.5832692307692304</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6411,7 +6475,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6427,7 +6491,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.0724999999999998</v>
+        <v>3.0571153846153845</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6444,7 +6508,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6460,7 +6524,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>2.9875000000000003</v>
+        <v>2.9721153846153849</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6477,7 +6541,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.67777777777777781</v>
+        <v>0.70256410256410251</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6493,7 +6557,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5502777777777776</v>
+        <v>3.5750641025641023</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6550,7 +6614,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.47447916666666651</v>
+        <v>0.47211538461538466</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6566,11 +6630,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4586197916666666</v>
+        <v>2.4562560096153843</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4375</v>
+        <v>2.421875</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6583,7 +6647,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.23151647734267883</v>
+        <v>0.23796318336852754</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6599,11 +6663,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0962727494018634</v>
+        <v>1.1011409630252671</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0906494070196242</v>
+        <v>1.0933034802834938</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6616,7 +6680,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.43333333333333335</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -6632,7 +6696,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.4841666666666669</v>
+        <v>2.4939423076923077</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A4818-94A8-CC42-91A2-8B02B61EE6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD65521-0266-0F4F-A136-C7384CE50E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1117,7 +1117,9 @@
       <c r="N2" s="18">
         <v>3</v>
       </c>
-      <c r="O2" s="45"/>
+      <c r="O2" s="18">
+        <v>15</v>
+      </c>
       <c r="P2" s="45"/>
       <c r="Q2" s="45"/>
       <c r="R2" s="45"/>
@@ -1126,7 +1128,7 @@
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.36923076923076925</v>
+        <v>0.41428571428571431</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1173,7 +1175,9 @@
       <c r="N3" s="18">
         <v>15</v>
       </c>
-      <c r="O3" s="45"/>
+      <c r="O3" s="18">
+        <v>15</v>
+      </c>
       <c r="P3" s="45"/>
       <c r="Q3" s="45"/>
       <c r="R3" s="45"/>
@@ -1182,7 +1186,7 @@
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.71282051282051284</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1229,7 +1233,9 @@
       <c r="N4" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="45"/>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
       <c r="P4" s="45"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
@@ -1285,7 +1291,9 @@
       <c r="N5" s="18">
         <v>3</v>
       </c>
-      <c r="O5" s="45"/>
+      <c r="O5" s="18">
+        <v>15</v>
+      </c>
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45"/>
@@ -1294,7 +1302,7 @@
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.41538461538461541</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1341,7 +1349,9 @@
       <c r="N6" s="18">
         <v>15</v>
       </c>
-      <c r="O6" s="45"/>
+      <c r="O6" s="18">
+        <v>15</v>
+      </c>
       <c r="P6" s="45"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="45"/>
@@ -1350,7 +1360,7 @@
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.82564102564102559</v>
+        <v>0.83809523809523812</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1397,7 +1407,9 @@
       <c r="N7" s="18">
         <v>3</v>
       </c>
-      <c r="O7" s="45"/>
+      <c r="O7" s="18">
+        <v>3</v>
+      </c>
       <c r="P7" s="45"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="45"/>
@@ -1406,7 +1418,7 @@
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.6974358974358974</v>
+        <v>0.66190476190476188</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1453,7 +1465,9 @@
       <c r="N8" s="18">
         <v>3</v>
       </c>
-      <c r="O8" s="45"/>
+      <c r="O8" s="18">
+        <v>15</v>
+      </c>
       <c r="P8" s="45"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="45"/>
@@ -1462,7 +1476,7 @@
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1509,7 +1523,9 @@
       <c r="N9" s="18">
         <v>0</v>
       </c>
-      <c r="O9" s="45"/>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="45"/>
@@ -1518,7 +1534,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>0.12307692307692308</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1565,7 +1581,9 @@
       <c r="N10" s="18">
         <v>15</v>
       </c>
-      <c r="O10" s="45"/>
+      <c r="O10" s="18">
+        <v>3</v>
+      </c>
       <c r="P10" s="45"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="45"/>
@@ -1574,7 +1592,7 @@
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.81538461538461537</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1621,7 +1639,9 @@
       <c r="N11" s="18">
         <v>0</v>
       </c>
-      <c r="O11" s="45"/>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
       <c r="P11" s="45"/>
       <c r="Q11" s="45"/>
       <c r="R11" s="45"/>
@@ -1677,7 +1697,9 @@
       <c r="N12" s="18">
         <v>0</v>
       </c>
-      <c r="O12" s="45"/>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
       <c r="R12" s="45"/>
@@ -1686,7 +1708,7 @@
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>3.0769230769230771E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1733,7 +1755,9 @@
       <c r="N13" s="18">
         <v>0</v>
       </c>
-      <c r="O13" s="45"/>
+      <c r="O13" s="18">
+        <v>15</v>
+      </c>
       <c r="P13" s="45"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="45"/>
@@ -1742,7 +1766,7 @@
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.2153846153846154</v>
+        <v>0.27142857142857141</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1789,7 +1813,9 @@
       <c r="N14" s="18">
         <v>3</v>
       </c>
-      <c r="O14" s="45"/>
+      <c r="O14" s="18">
+        <v>15</v>
+      </c>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
@@ -1798,7 +1824,7 @@
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.44285714285714284</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1844,7 +1870,9 @@
       <c r="N15" s="18">
         <v>3</v>
       </c>
-      <c r="O15" s="45"/>
+      <c r="O15" s="18">
+        <v>3</v>
+      </c>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="45"/>
@@ -1853,7 +1881,7 @@
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.76923076923076927</v>
+        <v>0.72857142857142854</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1900,7 +1928,9 @@
       <c r="N16" s="18">
         <v>15</v>
       </c>
-      <c r="O16" s="45"/>
+      <c r="O16" s="18">
+        <v>3</v>
+      </c>
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
@@ -1909,7 +1939,7 @@
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.63076923076923075</v>
+        <v>0.6</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1956,7 +1986,9 @@
       <c r="N17" s="18">
         <v>15</v>
       </c>
-      <c r="O17" s="45"/>
+      <c r="O17" s="18">
+        <v>15</v>
+      </c>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
@@ -1965,7 +1997,7 @@
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.75238095238095237</v>
       </c>
       <c r="W17"/>
     </row>
@@ -2012,7 +2044,9 @@
       <c r="N18" s="18">
         <v>15</v>
       </c>
-      <c r="O18" s="45"/>
+      <c r="O18" s="18">
+        <v>3</v>
+      </c>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
       <c r="R18" s="45"/>
@@ -2021,7 +2055,7 @@
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.7384615384615385</v>
+        <v>0.7</v>
       </c>
       <c r="W18"/>
     </row>
@@ -2068,7 +2102,9 @@
       <c r="N19" s="18">
         <v>3</v>
       </c>
-      <c r="O19" s="45"/>
+      <c r="O19" s="18">
+        <v>15</v>
+      </c>
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
@@ -2077,7 +2113,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2124,7 +2160,9 @@
       <c r="N20" s="18">
         <v>0</v>
       </c>
-      <c r="O20" s="45"/>
+      <c r="O20" s="18">
+        <v>3</v>
+      </c>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="45"/>
@@ -2133,7 +2171,7 @@
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2180,7 +2218,9 @@
       <c r="N21" s="18">
         <v>15</v>
       </c>
-      <c r="O21" s="45"/>
+      <c r="O21" s="18">
+        <v>3</v>
+      </c>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
@@ -2189,7 +2229,7 @@
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.72307692307692306</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2236,7 +2276,9 @@
       <c r="N22" s="18">
         <v>15</v>
       </c>
-      <c r="O22" s="45"/>
+      <c r="O22" s="18">
+        <v>3</v>
+      </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
@@ -2245,7 +2287,7 @@
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.70256410256410251</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2292,7 +2334,9 @@
       <c r="N23" s="18">
         <v>3</v>
       </c>
-      <c r="O23" s="45"/>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
@@ -2301,7 +2345,7 @@
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.33846153846153848</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2348,7 +2392,9 @@
       <c r="N24" s="18">
         <v>0</v>
       </c>
-      <c r="O24" s="45"/>
+      <c r="O24" s="18">
+        <v>0</v>
+      </c>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="45"/>
@@ -2357,7 +2403,7 @@
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.26153846153846155</v>
+        <v>0.24285714285714285</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2404,7 +2450,9 @@
       <c r="N25" s="18">
         <v>15</v>
       </c>
-      <c r="O25" s="45"/>
+      <c r="O25" s="18">
+        <v>15</v>
+      </c>
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="45"/>
@@ -2413,7 +2461,7 @@
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2460,7 +2508,9 @@
       <c r="N26" s="18">
         <v>15</v>
       </c>
-      <c r="O26" s="45"/>
+      <c r="O26" s="18">
+        <v>15</v>
+      </c>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="45"/>
@@ -2469,7 +2519,7 @@
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.66153846153846152</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2516,7 +2566,9 @@
       <c r="N27" s="18">
         <v>3</v>
       </c>
-      <c r="O27" s="45"/>
+      <c r="O27" s="18">
+        <v>15</v>
+      </c>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
       <c r="R27" s="45"/>
@@ -2525,7 +2577,7 @@
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.44102564102564101</v>
+        <v>0.48095238095238096</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2572,7 +2624,9 @@
       <c r="N28" s="18">
         <v>0</v>
       </c>
-      <c r="O28" s="45"/>
+      <c r="O28" s="18">
+        <v>15</v>
+      </c>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
       <c r="R28" s="45"/>
@@ -2581,7 +2635,7 @@
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.49230769230769234</v>
+        <v>0.52857142857142858</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2628,7 +2682,9 @@
       <c r="N29" s="18">
         <v>0</v>
       </c>
-      <c r="O29" s="45"/>
+      <c r="O29" s="18">
+        <v>3</v>
+      </c>
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
       <c r="R29" s="45"/>
@@ -2637,7 +2693,7 @@
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2684,7 +2740,9 @@
       <c r="N30" s="18">
         <v>15</v>
       </c>
-      <c r="O30" s="45"/>
+      <c r="O30" s="18">
+        <v>15</v>
+      </c>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
@@ -2693,7 +2751,7 @@
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.43076923076923079</v>
+        <v>0.47142857142857142</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2740,7 +2798,9 @@
       <c r="N31" s="18">
         <v>3</v>
       </c>
-      <c r="O31" s="45"/>
+      <c r="O31" s="18">
+        <v>15</v>
+      </c>
       <c r="P31" s="45"/>
       <c r="Q31" s="45"/>
       <c r="R31" s="45"/>
@@ -2749,7 +2809,7 @@
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2796,7 +2856,9 @@
       <c r="N32" s="18">
         <v>3</v>
       </c>
-      <c r="O32" s="45"/>
+      <c r="O32" s="18">
+        <v>15</v>
+      </c>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
@@ -2805,7 +2867,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2852,7 +2914,9 @@
       <c r="N33" s="18">
         <v>15</v>
       </c>
-      <c r="O33" s="45"/>
+      <c r="O33" s="45">
+        <v>3</v>
+      </c>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
@@ -2861,7 +2925,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.70256410256410251</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W33"/>
     </row>
@@ -3015,9 +3079,9 @@
         <f t="shared" si="1"/>
         <v>6.65625</v>
       </c>
-      <c r="O36" s="31" t="e">
+      <c r="O36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.4375</v>
       </c>
       <c r="P36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -3045,7 +3109,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.47211538461538466</v>
+        <v>0.47857142857142854</v>
       </c>
       <c r="W36"/>
     </row>
@@ -3105,9 +3169,9 @@
         <f t="shared" si="2"/>
         <v>6.6749864081050454</v>
       </c>
-      <c r="O37" s="31" t="e">
+      <c r="O37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.7486557801320464</v>
       </c>
       <c r="P37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -3135,7 +3199,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.23796318336852754</v>
+        <v>0.22889442104849589</v>
       </c>
       <c r="W37"/>
     </row>
@@ -3195,9 +3259,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O38" s="31" t="e">
+      <c r="O38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="P38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3225,7 +3289,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.4358974358974359</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3287,7 +3351,7 @@
       </c>
       <c r="O39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="34">
         <f t="shared" si="4"/>
@@ -4886,8 +4950,8 @@
         <v>1506</v>
       </c>
       <c r="B8" s="44">
-        <f>26+6</f>
-        <v>32</v>
+        <f>26+11</f>
+        <v>37</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="19"/>
@@ -5211,7 +5275,7 @@
       </c>
       <c r="B36" s="43">
         <f>AVERAGE(B$2:B$33)</f>
-        <v>44.8</v>
+        <v>44.966666666666669</v>
       </c>
       <c r="C36" s="43" t="e">
         <f>AVERAGE(C$2:C$33)</f>
@@ -5225,7 +5289,7 @@
       </c>
       <c r="B37" s="43">
         <f>STDEV(B$2:B$33)</f>
-        <v>17.62912949911458</v>
+        <v>17.527285788918853</v>
       </c>
       <c r="C37" s="43" t="e">
         <f>STDEV(C$2:C$33)</f>
@@ -5469,7 +5533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -5517,7 +5581,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.36923076923076925</v>
+        <v>0.41428571428571431</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5533,7 +5597,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6292307692307695</v>
+        <v>1.6742857142857144</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5551,7 +5615,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.71282051282051284</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5567,7 +5631,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.0703205128205129</v>
+        <v>3.0908333333333333</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5617,7 +5681,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.41538461538461541</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -5633,7 +5697,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7528846153846156</v>
+        <v>1.7946428571428572</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5650,7 +5714,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.82564102564102559</v>
+        <v>0.83809523809523812</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -5666,7 +5730,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0431410256410256</v>
+        <v>5.055595238095238</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -5683,7 +5747,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.6974358974358974</v>
+        <v>0.66190476190476188</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -5699,7 +5763,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.0374358974358975</v>
+        <v>3.0019047619047621</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -5716,7 +5780,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.38461538461538464</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -5724,7 +5788,7 @@
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" s="45">
         <f>Exams!C8</f>
@@ -5732,7 +5796,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.4171153846153848</v>
+        <v>2.6110714285714285</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -5749,7 +5813,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>0.12307692307692308</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -5765,7 +5829,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.12307692307692308</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -5782,7 +5846,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.81538461538461537</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -5798,7 +5862,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.677884615384615</v>
+        <v>4.6339285714285712</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -5848,7 +5912,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>3.0769230769230771E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -5864,7 +5928,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0807692307692305</v>
+        <v>1.0785714285714283</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -5881,7 +5945,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.2153846153846154</v>
+        <v>0.27142857142857141</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -5897,7 +5961,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.8078846153846153</v>
+        <v>1.8639285714285716</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -5914,7 +5978,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.4</v>
+        <v>0.44285714285714284</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -5930,7 +5994,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.89</v>
+        <v>1.9328571428571428</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -5947,7 +6011,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.76923076923076927</v>
+        <v>0.72857142857142854</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -5963,7 +6027,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.1367307692307693</v>
+        <v>3.0960714285714284</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -5980,7 +6044,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.63076923076923075</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -5996,7 +6060,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.5707692307692307</v>
+        <v>2.54</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6013,7 +6077,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.73333333333333328</v>
+        <v>0.75238095238095237</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -6029,7 +6093,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0633333333333335</v>
+        <v>2.0823809523809524</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6046,7 +6110,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.7384615384615385</v>
+        <v>0.7</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -6062,7 +6126,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.4884615384615385</v>
+        <v>3.45</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6079,7 +6143,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -6095,7 +6159,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.3090384615384614</v>
+        <v>2.3475000000000001</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6112,7 +6176,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.4</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6128,7 +6192,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.3324999999999996</v>
+        <v>2.3182142857142853</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6145,7 +6209,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.72307692307692306</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6161,7 +6225,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6305769230769229</v>
+        <v>3.5932142857142857</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6178,7 +6242,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.70256410256410251</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6194,7 +6258,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1800641025641028</v>
+        <v>3.1441666666666666</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6211,7 +6275,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.33846153846153848</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6227,7 +6291,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>1.9809615384615384</v>
+        <v>1.9567857142857141</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6244,7 +6308,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.26153846153846155</v>
+        <v>0.24285714285714285</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6260,7 +6324,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.3265384615384614</v>
+        <v>2.3078571428571428</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6277,7 +6341,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6293,7 +6357,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6090384615384616</v>
+        <v>1.6475</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6310,7 +6374,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.66153846153846152</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6326,7 +6390,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.0265384615384612</v>
+        <v>3.0507142857142857</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6343,7 +6407,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.44102564102564101</v>
+        <v>0.48095238095238096</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6359,7 +6423,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.683525641025641</v>
+        <v>2.7234523809523812</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6376,7 +6440,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.49230769230769234</v>
+        <v>0.52857142857142858</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6392,11 +6456,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2273076923076922</v>
+        <v>2.2635714285714288</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -6409,7 +6473,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.4</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6425,7 +6489,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.5975000000000001</v>
+        <v>2.5832142857142859</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6442,7 +6506,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.43076923076923079</v>
+        <v>0.47142857142857142</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6458,7 +6522,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.5832692307692304</v>
+        <v>2.6239285714285714</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6475,7 +6539,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.38461538461538464</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6491,7 +6555,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.0571153846153845</v>
+        <v>3.1010714285714283</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6508,7 +6572,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.38461538461538464</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6524,7 +6588,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>2.9721153846153849</v>
+        <v>3.0160714285714287</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6541,7 +6605,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.70256410256410251</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6557,7 +6621,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5750641025641023</v>
+        <v>3.5391666666666666</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6614,7 +6678,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.47211538461538466</v>
+        <v>0.47857142857142854</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6622,7 +6686,7 @@
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>42.15625</v>
       </c>
       <c r="E36" s="31">
         <f t="shared" si="8"/>
@@ -6630,11 +6694,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4562560096153843</v>
+        <v>2.4673995535714282</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.421875</v>
+        <v>2.4375</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6647,7 +6711,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.23796318336852754</v>
+        <v>0.22889442104849589</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6655,7 +6719,7 @@
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
-        <v>20.300961362902608</v>
+        <v>20.240663917136008</v>
       </c>
       <c r="E37" s="31">
         <f t="shared" si="9"/>
@@ -6663,11 +6727,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1011409630252671</v>
+        <v>1.0924656542675903</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0933034802834938</v>
+        <v>1.0906494070196242</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6680,7 +6744,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.4358974358974359</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -6696,7 +6760,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.4939423076923077</v>
+        <v>2.561607142857143</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD65521-0266-0F4F-A136-C7384CE50E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F273283-8B60-DA41-A610-89F2B7C09471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1120,7 +1120,9 @@
       <c r="O2" s="18">
         <v>15</v>
       </c>
-      <c r="P2" s="45"/>
+      <c r="P2" s="18">
+        <v>3</v>
+      </c>
       <c r="Q2" s="45"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
@@ -1128,7 +1130,7 @@
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.41428571428571431</v>
+        <v>0.4</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1178,7 +1180,9 @@
       <c r="O3" s="18">
         <v>15</v>
       </c>
-      <c r="P3" s="45"/>
+      <c r="P3" s="18">
+        <v>15</v>
+      </c>
       <c r="Q3" s="45"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
@@ -1186,7 +1190,7 @@
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.73333333333333328</v>
+        <v>0.75111111111111106</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1236,7 +1240,9 @@
       <c r="O4" s="18">
         <v>0</v>
       </c>
-      <c r="P4" s="45"/>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
@@ -1294,7 +1300,9 @@
       <c r="O5" s="18">
         <v>15</v>
       </c>
-      <c r="P5" s="45"/>
+      <c r="P5" s="18">
+        <v>0</v>
+      </c>
       <c r="Q5" s="45"/>
       <c r="R5" s="45"/>
       <c r="S5" s="45"/>
@@ -1302,7 +1310,7 @@
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.45714285714285713</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1352,7 +1360,9 @@
       <c r="O6" s="18">
         <v>15</v>
       </c>
-      <c r="P6" s="45"/>
+      <c r="P6" s="18">
+        <v>15</v>
+      </c>
       <c r="Q6" s="45"/>
       <c r="R6" s="45"/>
       <c r="S6" s="45"/>
@@ -1360,7 +1370,7 @@
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.83809523809523812</v>
+        <v>0.84888888888888892</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1410,7 +1420,9 @@
       <c r="O7" s="18">
         <v>3</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="18">
+        <v>15</v>
+      </c>
       <c r="Q7" s="45"/>
       <c r="R7" s="45"/>
       <c r="S7" s="45"/>
@@ -1418,7 +1430,7 @@
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.66190476190476188</v>
+        <v>0.68444444444444441</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1468,7 +1480,9 @@
       <c r="O8" s="18">
         <v>15</v>
       </c>
-      <c r="P8" s="45"/>
+      <c r="P8" s="18">
+        <v>15</v>
+      </c>
       <c r="Q8" s="45"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
@@ -1476,7 +1490,7 @@
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1526,7 +1540,9 @@
       <c r="O9" s="18">
         <v>0</v>
       </c>
-      <c r="P9" s="45"/>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
       <c r="Q9" s="45"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
@@ -1534,7 +1550,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>0.11428571428571428</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1584,7 +1600,9 @@
       <c r="O10" s="18">
         <v>3</v>
       </c>
-      <c r="P10" s="45"/>
+      <c r="P10" s="18">
+        <v>15</v>
+      </c>
       <c r="Q10" s="45"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
@@ -1592,7 +1610,7 @@
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.77142857142857146</v>
+        <v>0.78666666666666663</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1642,7 +1660,9 @@
       <c r="O11" s="18">
         <v>0</v>
       </c>
-      <c r="P11" s="45"/>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
       <c r="Q11" s="45"/>
       <c r="R11" s="45"/>
       <c r="S11" s="45"/>
@@ -1700,7 +1720,9 @@
       <c r="O12" s="18">
         <v>0</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
       <c r="Q12" s="45"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
@@ -1708,7 +1730,7 @@
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1758,7 +1780,9 @@
       <c r="O13" s="18">
         <v>15</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="18">
+        <v>3</v>
+      </c>
       <c r="Q13" s="45"/>
       <c r="R13" s="45"/>
       <c r="S13" s="45"/>
@@ -1766,7 +1790,7 @@
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.27142857142857141</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1816,7 +1840,9 @@
       <c r="O14" s="18">
         <v>15</v>
       </c>
-      <c r="P14" s="45"/>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
@@ -1824,7 +1850,7 @@
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.44285714285714284</v>
+        <v>0.41333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1873,7 +1899,9 @@
       <c r="O15" s="18">
         <v>3</v>
       </c>
-      <c r="P15" s="45"/>
+      <c r="P15" s="18">
+        <v>15</v>
+      </c>
       <c r="Q15" s="45"/>
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
@@ -1881,7 +1909,7 @@
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.72857142857142854</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1931,7 +1959,9 @@
       <c r="O16" s="18">
         <v>3</v>
       </c>
-      <c r="P16" s="45"/>
+      <c r="P16" s="18">
+        <v>15</v>
+      </c>
       <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
@@ -1939,7 +1969,7 @@
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="W16"/>
     </row>
@@ -1989,7 +2019,9 @@
       <c r="O17" s="18">
         <v>15</v>
       </c>
-      <c r="P17" s="45"/>
+      <c r="P17" s="18">
+        <v>15</v>
+      </c>
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
       <c r="S17" s="45"/>
@@ -1997,7 +2029,7 @@
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.75238095238095237</v>
+        <v>0.76888888888888884</v>
       </c>
       <c r="W17"/>
     </row>
@@ -2047,7 +2079,9 @@
       <c r="O18" s="18">
         <v>3</v>
       </c>
-      <c r="P18" s="45"/>
+      <c r="P18" s="18">
+        <v>15</v>
+      </c>
       <c r="Q18" s="45"/>
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
@@ -2055,7 +2089,7 @@
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="W18"/>
     </row>
@@ -2105,7 +2139,9 @@
       <c r="O19" s="18">
         <v>15</v>
       </c>
-      <c r="P19" s="45"/>
+      <c r="P19" s="18">
+        <v>3</v>
+      </c>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
@@ -2113,7 +2149,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2163,7 +2199,9 @@
       <c r="O20" s="18">
         <v>3</v>
       </c>
-      <c r="P20" s="45"/>
+      <c r="P20" s="18">
+        <v>15</v>
+      </c>
       <c r="Q20" s="45"/>
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
@@ -2171,7 +2209,7 @@
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.38571428571428573</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2221,7 +2259,9 @@
       <c r="O21" s="18">
         <v>3</v>
       </c>
-      <c r="P21" s="45"/>
+      <c r="P21" s="18">
+        <v>15</v>
+      </c>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
@@ -2229,7 +2269,7 @@
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.68571428571428572</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2279,7 +2319,9 @@
       <c r="O22" s="18">
         <v>3</v>
       </c>
-      <c r="P22" s="45"/>
+      <c r="P22" s="18">
+        <v>15</v>
+      </c>
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
@@ -2287,7 +2329,7 @@
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2337,7 +2379,9 @@
       <c r="O23" s="18">
         <v>0</v>
       </c>
-      <c r="P23" s="45"/>
+      <c r="P23" s="18">
+        <v>15</v>
+      </c>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
       <c r="S23" s="45"/>
@@ -2345,7 +2389,7 @@
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.31428571428571428</v>
+        <v>0.36</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2395,7 +2439,9 @@
       <c r="O24" s="18">
         <v>0</v>
       </c>
-      <c r="P24" s="45"/>
+      <c r="P24" s="18">
+        <v>0</v>
+      </c>
       <c r="Q24" s="45"/>
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
@@ -2403,7 +2449,7 @@
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.24285714285714285</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2453,7 +2499,9 @@
       <c r="O25" s="18">
         <v>15</v>
       </c>
-      <c r="P25" s="45"/>
+      <c r="P25" s="18">
+        <v>15</v>
+      </c>
       <c r="Q25" s="45"/>
       <c r="R25" s="45"/>
       <c r="S25" s="45"/>
@@ -2461,7 +2509,7 @@
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2511,7 +2559,9 @@
       <c r="O26" s="18">
         <v>15</v>
       </c>
-      <c r="P26" s="45"/>
+      <c r="P26" s="18">
+        <v>3</v>
+      </c>
       <c r="Q26" s="45"/>
       <c r="R26" s="45"/>
       <c r="S26" s="45"/>
@@ -2519,7 +2569,7 @@
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.68571428571428572</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2569,7 +2619,9 @@
       <c r="O27" s="18">
         <v>15</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="18">
+        <v>0</v>
+      </c>
       <c r="Q27" s="45"/>
       <c r="R27" s="45"/>
       <c r="S27" s="45"/>
@@ -2577,7 +2629,7 @@
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.48095238095238096</v>
+        <v>0.44888888888888889</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2627,7 +2679,9 @@
       <c r="O28" s="18">
         <v>15</v>
       </c>
-      <c r="P28" s="45"/>
+      <c r="P28" s="18">
+        <v>0</v>
+      </c>
       <c r="Q28" s="45"/>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
@@ -2635,7 +2689,7 @@
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.52857142857142858</v>
+        <v>0.49333333333333335</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2685,7 +2739,9 @@
       <c r="O29" s="18">
         <v>3</v>
       </c>
-      <c r="P29" s="45"/>
+      <c r="P29" s="18">
+        <v>3</v>
+      </c>
       <c r="Q29" s="45"/>
       <c r="R29" s="45"/>
       <c r="S29" s="45"/>
@@ -2693,7 +2749,7 @@
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.38571428571428573</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2743,7 +2799,9 @@
       <c r="O30" s="18">
         <v>15</v>
       </c>
-      <c r="P30" s="45"/>
+      <c r="P30" s="18">
+        <v>3</v>
+      </c>
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
@@ -2751,7 +2809,7 @@
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.47142857142857142</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2801,7 +2859,9 @@
       <c r="O31" s="18">
         <v>15</v>
       </c>
-      <c r="P31" s="45"/>
+      <c r="P31" s="18">
+        <v>15</v>
+      </c>
       <c r="Q31" s="45"/>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
@@ -2809,7 +2869,7 @@
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2859,7 +2919,9 @@
       <c r="O32" s="18">
         <v>15</v>
       </c>
-      <c r="P32" s="45"/>
+      <c r="P32" s="18">
+        <v>15</v>
+      </c>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
@@ -2867,7 +2929,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2917,7 +2979,9 @@
       <c r="O33" s="45">
         <v>3</v>
       </c>
-      <c r="P33" s="45"/>
+      <c r="P33" s="18">
+        <v>15</v>
+      </c>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
       <c r="S33" s="45"/>
@@ -2925,7 +2989,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="W33"/>
     </row>
@@ -3083,9 +3147,9 @@
         <f t="shared" si="1"/>
         <v>8.4375</v>
       </c>
-      <c r="P36" s="31" t="e">
+      <c r="P36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.53125</v>
       </c>
       <c r="Q36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -3109,7 +3173,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.47857142857142854</v>
+        <v>0.48458333333333331</v>
       </c>
       <c r="W36"/>
     </row>
@@ -3173,9 +3237,9 @@
         <f t="shared" si="2"/>
         <v>6.7486557801320464</v>
       </c>
-      <c r="P37" s="31" t="e">
+      <c r="P37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>7.0709965305806701</v>
       </c>
       <c r="Q37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -3199,7 +3263,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.22889442104849589</v>
+        <v>0.23486741813617215</v>
       </c>
       <c r="W37"/>
     </row>
@@ -3263,9 +3327,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P38" s="31" t="e">
+      <c r="P38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3289,7 +3353,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.47619047619047616</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3355,7 +3419,7 @@
       </c>
       <c r="P39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="34">
         <f t="shared" si="4"/>
@@ -5581,7 +5645,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.41428571428571431</v>
+        <v>0.4</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5597,7 +5661,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6742857142857144</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5615,7 +5679,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.73333333333333328</v>
+        <v>0.75111111111111106</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5631,7 +5695,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.0908333333333333</v>
+        <v>3.1086111111111112</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5681,7 +5745,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.45714285714285713</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -5697,7 +5761,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7946428571428572</v>
+        <v>1.7641666666666667</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5714,7 +5778,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.83809523809523812</v>
+        <v>0.84888888888888892</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -5730,7 +5794,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.055595238095238</v>
+        <v>5.0663888888888886</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -5747,7 +5811,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.66190476190476188</v>
+        <v>0.68444444444444441</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -5763,7 +5827,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.0019047619047621</v>
+        <v>3.0244444444444447</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -5780,7 +5844,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.42857142857142855</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -5796,7 +5860,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6110714285714285</v>
+        <v>2.6491666666666664</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -5813,7 +5877,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>0.11428571428571428</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -5829,7 +5893,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.11428571428571428</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -5846,7 +5910,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.77142857142857146</v>
+        <v>0.78666666666666663</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -5862,7 +5926,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.6339285714285712</v>
+        <v>4.6491666666666669</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -5912,7 +5976,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>2.8571428571428571E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -5928,7 +5992,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0785714285714283</v>
+        <v>1.0766666666666664</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -5945,7 +6009,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.27142857142857141</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -5961,7 +6025,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.8639285714285716</v>
+        <v>1.8591666666666669</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -5978,7 +6042,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.44285714285714284</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -5994,7 +6058,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.9328571428571428</v>
+        <v>1.9033333333333333</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6011,7 +6075,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.72857142857142854</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -6027,7 +6091,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.0960714285714284</v>
+        <v>3.1141666666666667</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6044,7 +6108,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.6</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -6060,7 +6124,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.54</v>
+        <v>2.5666666666666664</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6077,7 +6141,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.75238095238095237</v>
+        <v>0.76888888888888884</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -6093,7 +6157,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0823809523809524</v>
+        <v>2.0988888888888888</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6110,7 +6174,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -6126,7 +6190,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.45</v>
+        <v>3.4699999999999998</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6143,7 +6207,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -6159,7 +6223,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.3475000000000001</v>
+        <v>2.3274999999999997</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6176,7 +6240,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.38571428571428573</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6192,7 +6256,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.3182142857142853</v>
+        <v>2.3591666666666664</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6209,7 +6273,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.68571428571428572</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6225,7 +6289,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.5932142857142857</v>
+        <v>3.6141666666666667</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6242,7 +6306,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.66666666666666663</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6258,7 +6322,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1441666666666666</v>
+        <v>3.1663888888888891</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6275,7 +6339,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.31428571428571428</v>
+        <v>0.36</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6291,7 +6355,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>1.9567857142857141</v>
+        <v>2.0024999999999999</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6308,7 +6372,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.24285714285714285</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6324,7 +6388,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.3078571428571428</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6341,7 +6405,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6357,7 +6421,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6475</v>
+        <v>1.6808333333333334</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6374,7 +6438,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.68571428571428572</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6390,7 +6454,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.0507142857142857</v>
+        <v>3.0183333333333335</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6407,7 +6471,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.48095238095238096</v>
+        <v>0.44888888888888889</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6423,7 +6487,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.7234523809523812</v>
+        <v>2.6913888888888891</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6440,7 +6504,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.52857142857142858</v>
+        <v>0.49333333333333335</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6456,11 +6520,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2635714285714288</v>
+        <v>2.2283333333333335</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -6473,7 +6537,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.38571428571428573</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6489,7 +6553,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.5832142857142859</v>
+        <v>2.5708333333333333</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6506,7 +6570,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.47142857142857142</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6522,7 +6586,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6239285714285714</v>
+        <v>2.605833333333333</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6539,7 +6603,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.42857142857142855</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6555,7 +6619,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.1010714285714283</v>
+        <v>3.1391666666666667</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6572,7 +6636,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.42857142857142855</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6588,7 +6652,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.0160714285714287</v>
+        <v>3.0541666666666671</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6605,7 +6669,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.66666666666666663</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6621,7 +6685,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5391666666666666</v>
+        <v>3.5613888888888887</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6678,7 +6742,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.47857142857142854</v>
+        <v>0.48458333333333331</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6694,11 +6758,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4673995535714282</v>
+        <v>2.4734114583333331</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4375</v>
+        <v>2.421875</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6711,7 +6775,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.22889442104849589</v>
+        <v>0.23486741813617215</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6727,11 +6791,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0924656542675903</v>
+        <v>1.0991831219661126</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0906494070196242</v>
+        <v>1.0933034802834938</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6744,7 +6808,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.47619047619047616</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -6760,7 +6824,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.561607142857143</v>
+        <v>2.5687499999999996</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F273283-8B60-DA41-A610-89F2B7C09471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F62DA5-F953-374C-B6DE-0E8CE3C2F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1123,14 +1123,16 @@
       <c r="P2" s="18">
         <v>3</v>
       </c>
-      <c r="Q2" s="45"/>
+      <c r="Q2" s="18">
+        <v>15</v>
+      </c>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1183,14 +1185,16 @@
       <c r="P3" s="18">
         <v>15</v>
       </c>
-      <c r="Q3" s="45"/>
+      <c r="Q3" s="18">
+        <v>3</v>
+      </c>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.75111111111111106</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1243,7 +1247,9 @@
       <c r="P4" s="18">
         <v>0</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
       <c r="T4" s="45"/>
@@ -1303,14 +1309,16 @@
       <c r="P5" s="18">
         <v>0</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
       <c r="R5" s="45"/>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.42666666666666669</v>
+        <v>0.4</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1363,14 +1371,16 @@
       <c r="P6" s="18">
         <v>15</v>
       </c>
-      <c r="Q6" s="45"/>
+      <c r="Q6" s="18">
+        <v>15</v>
+      </c>
       <c r="R6" s="45"/>
       <c r="S6" s="45"/>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.84888888888888892</v>
+        <v>0.85833333333333328</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1423,14 +1433,16 @@
       <c r="P7" s="18">
         <v>15</v>
       </c>
-      <c r="Q7" s="45"/>
+      <c r="Q7" s="18">
+        <v>3</v>
+      </c>
       <c r="R7" s="45"/>
       <c r="S7" s="45"/>
       <c r="T7" s="45"/>
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.68444444444444441</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1483,14 +1495,16 @@
       <c r="P8" s="18">
         <v>15</v>
       </c>
-      <c r="Q8" s="45"/>
+      <c r="Q8" s="18">
+        <v>3</v>
+      </c>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
       <c r="T8" s="45"/>
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1543,14 +1557,16 @@
       <c r="P9" s="18">
         <v>0</v>
       </c>
-      <c r="Q9" s="45"/>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>0.10666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1603,14 +1619,16 @@
       <c r="P10" s="18">
         <v>15</v>
       </c>
-      <c r="Q10" s="45"/>
+      <c r="Q10" s="18">
+        <v>3</v>
+      </c>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.78666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1663,7 +1681,9 @@
       <c r="P11" s="18">
         <v>0</v>
       </c>
-      <c r="Q11" s="45"/>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
       <c r="R11" s="45"/>
       <c r="S11" s="45"/>
       <c r="T11" s="45"/>
@@ -1723,14 +1743,16 @@
       <c r="P12" s="18">
         <v>0</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>2.6666666666666668E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1783,14 +1805,16 @@
       <c r="P13" s="18">
         <v>3</v>
       </c>
-      <c r="Q13" s="45"/>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
       <c r="R13" s="45"/>
       <c r="S13" s="45"/>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1843,14 +1867,16 @@
       <c r="P14" s="18">
         <v>0</v>
       </c>
-      <c r="Q14" s="45"/>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1902,14 +1928,16 @@
       <c r="P15" s="18">
         <v>15</v>
       </c>
-      <c r="Q15" s="45"/>
+      <c r="Q15" s="18">
+        <v>3</v>
+      </c>
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.7466666666666667</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1962,14 +1990,16 @@
       <c r="P16" s="18">
         <v>15</v>
       </c>
-      <c r="Q16" s="45"/>
+      <c r="Q16" s="18">
+        <v>15</v>
+      </c>
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.62666666666666671</v>
+        <v>0.65</v>
       </c>
       <c r="W16"/>
     </row>
@@ -2022,14 +2052,16 @@
       <c r="P17" s="18">
         <v>15</v>
       </c>
-      <c r="Q17" s="45"/>
+      <c r="Q17" s="18">
+        <v>3</v>
+      </c>
       <c r="R17" s="45"/>
       <c r="S17" s="45"/>
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.76888888888888884</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W17"/>
     </row>
@@ -2082,14 +2114,16 @@
       <c r="P18" s="18">
         <v>15</v>
       </c>
-      <c r="Q18" s="45"/>
+      <c r="Q18" s="18">
+        <v>15</v>
+      </c>
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
       <c r="T18" s="45"/>
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="W18"/>
     </row>
@@ -2142,14 +2176,16 @@
       <c r="P19" s="18">
         <v>3</v>
       </c>
-      <c r="Q19" s="45"/>
+      <c r="Q19" s="18">
+        <v>3</v>
+      </c>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2202,14 +2238,16 @@
       <c r="P20" s="18">
         <v>15</v>
       </c>
-      <c r="Q20" s="45"/>
+      <c r="Q20" s="18">
+        <v>3</v>
+      </c>
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.42666666666666669</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2262,14 +2300,16 @@
       <c r="P21" s="18">
         <v>15</v>
       </c>
-      <c r="Q21" s="45"/>
+      <c r="Q21" s="18">
+        <v>15</v>
+      </c>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.70666666666666667</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2322,14 +2362,16 @@
       <c r="P22" s="18">
         <v>15</v>
       </c>
-      <c r="Q22" s="45"/>
+      <c r="Q22" s="18">
+        <v>3</v>
+      </c>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.68888888888888888</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2382,14 +2424,16 @@
       <c r="P23" s="18">
         <v>15</v>
       </c>
-      <c r="Q23" s="45"/>
+      <c r="Q23" s="18">
+        <v>15</v>
+      </c>
       <c r="R23" s="45"/>
       <c r="S23" s="45"/>
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2442,14 +2486,16 @@
       <c r="P24" s="18">
         <v>0</v>
       </c>
-      <c r="Q24" s="45"/>
+      <c r="Q24" s="18">
+        <v>15</v>
+      </c>
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
       <c r="T24" s="45"/>
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.22666666666666666</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2502,14 +2548,16 @@
       <c r="P25" s="18">
         <v>15</v>
       </c>
-      <c r="Q25" s="45"/>
+      <c r="Q25" s="18">
+        <v>3</v>
+      </c>
       <c r="R25" s="45"/>
       <c r="S25" s="45"/>
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2562,14 +2610,16 @@
       <c r="P26" s="18">
         <v>3</v>
       </c>
-      <c r="Q26" s="45"/>
+      <c r="Q26" s="18">
+        <v>15</v>
+      </c>
       <c r="R26" s="45"/>
       <c r="S26" s="45"/>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.65333333333333332</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2622,14 +2672,16 @@
       <c r="P27" s="18">
         <v>0</v>
       </c>
-      <c r="Q27" s="45"/>
+      <c r="Q27" s="18">
+        <v>3</v>
+      </c>
       <c r="R27" s="45"/>
       <c r="S27" s="45"/>
       <c r="T27" s="45"/>
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.44888888888888889</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2682,14 +2734,16 @@
       <c r="P28" s="18">
         <v>0</v>
       </c>
-      <c r="Q28" s="45"/>
+      <c r="Q28" s="18">
+        <v>15</v>
+      </c>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.49333333333333335</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2742,14 +2796,16 @@
       <c r="P29" s="18">
         <v>3</v>
       </c>
-      <c r="Q29" s="45"/>
+      <c r="Q29" s="18">
+        <v>3</v>
+      </c>
       <c r="R29" s="45"/>
       <c r="S29" s="45"/>
       <c r="T29" s="45"/>
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.37333333333333335</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2802,14 +2858,16 @@
       <c r="P30" s="18">
         <v>3</v>
       </c>
-      <c r="Q30" s="45"/>
+      <c r="Q30" s="18">
+        <v>15</v>
+      </c>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.45333333333333331</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2862,14 +2920,16 @@
       <c r="P31" s="18">
         <v>15</v>
       </c>
-      <c r="Q31" s="45"/>
+      <c r="Q31" s="18">
+        <v>15</v>
+      </c>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2922,14 +2982,16 @@
       <c r="P32" s="18">
         <v>15</v>
       </c>
-      <c r="Q32" s="45"/>
+      <c r="Q32" s="18">
+        <v>15</v>
+      </c>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="W32"/>
     </row>
@@ -2982,14 +3044,16 @@
       <c r="P33" s="18">
         <v>15</v>
       </c>
-      <c r="Q33" s="45"/>
+      <c r="Q33" s="18">
+        <v>15</v>
+      </c>
       <c r="R33" s="45"/>
       <c r="S33" s="45"/>
       <c r="T33" s="45"/>
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.68888888888888888</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="W33"/>
     </row>
@@ -3151,9 +3215,9 @@
         <f t="shared" si="1"/>
         <v>8.53125</v>
       </c>
-      <c r="Q36" s="31" t="e">
+      <c r="Q36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.21875</v>
       </c>
       <c r="R36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -3173,7 +3237,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.48458333333333331</v>
+        <v>0.48437500000000011</v>
       </c>
       <c r="W36"/>
     </row>
@@ -3241,9 +3305,9 @@
         <f t="shared" si="2"/>
         <v>7.0709965305806701</v>
       </c>
-      <c r="Q37" s="31" t="e">
+      <c r="Q37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.6368199487599533</v>
       </c>
       <c r="R37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -3263,7 +3327,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.23486741813617215</v>
+        <v>0.23093040736679701</v>
       </c>
       <c r="W37"/>
     </row>
@@ -3331,9 +3395,9 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Q38" s="31" t="e">
+      <c r="Q38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="R38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3353,7 +3417,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.46666666666666667</v>
+        <v>0.49375000000000002</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3423,7 +3487,7 @@
       </c>
       <c r="Q39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="34">
         <f t="shared" si="4"/>
@@ -5645,7 +5709,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5661,7 +5725,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6600000000000001</v>
+        <v>1.6975000000000002</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5679,7 +5743,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.75111111111111106</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5695,7 +5759,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.1086111111111112</v>
+        <v>3.0741666666666667</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5745,7 +5809,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.42666666666666669</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -5761,11 +5825,11 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7641666666666667</v>
+        <v>1.7374999999999998</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="2"/>
@@ -5778,7 +5842,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.84888888888888892</v>
+        <v>0.85833333333333328</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -5794,7 +5858,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0663888888888886</v>
+        <v>5.0758333333333328</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -5811,7 +5875,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.68444444444444441</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -5827,7 +5891,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.0244444444444447</v>
+        <v>2.9941666666666666</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -5844,7 +5908,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.46666666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -5860,7 +5924,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6491666666666664</v>
+        <v>2.6324999999999998</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -5877,7 +5941,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>0.10666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -5893,7 +5957,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.10666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -5910,7 +5974,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.78666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -5926,7 +5990,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.6491666666666669</v>
+        <v>4.6124999999999998</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -5976,7 +6040,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>2.6666666666666668E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -5992,7 +6056,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0766666666666664</v>
+        <v>1.0749999999999997</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -6009,7 +6073,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.26666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -6025,7 +6089,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.8591666666666669</v>
+        <v>1.8424999999999998</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6042,7 +6106,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.41333333333333333</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -6058,7 +6122,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.9033333333333333</v>
+        <v>1.8774999999999999</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6075,7 +6139,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.7466666666666667</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -6091,7 +6155,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.1141666666666667</v>
+        <v>3.08</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6108,7 +6172,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.62666666666666671</v>
+        <v>0.65</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -6124,7 +6188,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.5666666666666664</v>
+        <v>2.59</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6141,7 +6205,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.76888888888888884</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -6157,7 +6221,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0988888888888888</v>
+        <v>2.0633333333333335</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6174,7 +6238,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.72</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -6190,7 +6254,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.4699999999999998</v>
+        <v>3.4874999999999998</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6207,7 +6271,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.48</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -6223,7 +6287,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.3274999999999997</v>
+        <v>2.31</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6240,7 +6304,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.42666666666666669</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6256,7 +6320,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.3591666666666664</v>
+        <v>2.3449999999999998</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6273,7 +6337,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.70666666666666667</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6289,7 +6353,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6141666666666667</v>
+        <v>3.6324999999999998</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6306,7 +6370,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.68888888888888888</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6322,7 +6386,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1663888888888891</v>
+        <v>3.1358333333333333</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6339,7 +6403,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6355,7 +6419,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0024999999999999</v>
+        <v>2.0425</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6372,7 +6436,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.22666666666666666</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6388,7 +6452,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.2916666666666665</v>
+        <v>2.34</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6405,7 +6469,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.53333333333333333</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6421,7 +6485,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6808333333333334</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6438,7 +6502,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.65333333333333332</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6454,7 +6518,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.0183333333333335</v>
+        <v>3.04</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6471,7 +6535,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.44888888888888889</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6487,7 +6551,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.6913888888888891</v>
+        <v>2.6758333333333333</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6504,7 +6568,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.49333333333333335</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6520,11 +6584,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2283333333333335</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -6537,7 +6601,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.37333333333333335</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6553,7 +6617,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.5708333333333333</v>
+        <v>2.5599999999999996</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6570,7 +6634,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.45333333333333331</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6586,7 +6650,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.605833333333333</v>
+        <v>2.6399999999999997</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6603,7 +6667,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6619,7 +6683,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.1391666666666667</v>
+        <v>3.1724999999999999</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6636,7 +6700,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6652,7 +6716,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.0541666666666671</v>
+        <v>3.0875000000000004</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6669,7 +6733,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.68888888888888888</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6685,7 +6749,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5613888888888887</v>
+        <v>3.5808333333333331</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6742,7 +6806,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.48458333333333331</v>
+        <v>0.48437500000000011</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6758,7 +6822,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4734114583333331</v>
+        <v>2.4732031249999999</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -6775,7 +6839,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.23486741813617215</v>
+        <v>0.23093040736679701</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6791,11 +6855,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0991831219661126</v>
+        <v>1.0996627885983545</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0933034802834938</v>
+        <v>1.1006550468961946</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6808,7 +6872,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.46666666666666667</v>
+        <v>0.49375000000000002</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -6824,7 +6888,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.5687499999999996</v>
+        <v>2.5749999999999997</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F62DA5-F953-374C-B6DE-0E8CE3C2F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086C2A6-1684-654A-912A-EF556A50230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5274,8 +5274,8 @@
         <v>8335</v>
       </c>
       <c r="B24" s="44">
-        <f>18+29</f>
-        <v>47</v>
+        <f>22+29</f>
+        <v>51</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="19"/>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B36" s="43">
         <f>AVERAGE(B$2:B$33)</f>
-        <v>44.966666666666669</v>
+        <v>45.1</v>
       </c>
       <c r="C36" s="43" t="e">
         <f>AVERAGE(C$2:C$33)</f>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B37" s="43">
         <f>STDEV(B$2:B$33)</f>
-        <v>17.527285788918853</v>
+        <v>17.55847373777117</v>
       </c>
       <c r="C37" s="43" t="e">
         <f>STDEV(C$2:C$33)</f>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B38" s="43">
         <f>MEDIAN(B$2:B$33)</f>
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="C38" s="43" t="e">
         <f>MEDIAN(C$2:C$33)</f>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E24" s="45">
         <f>Exams!C24</f>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
-        <v>42.15625</v>
+        <v>42.28125</v>
       </c>
       <c r="E36" s="31">
         <f t="shared" si="8"/>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4732031249999999</v>
+        <v>2.4769531250000001</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
-        <v>20.240663917136008</v>
+        <v>20.283847657839761</v>
       </c>
       <c r="E37" s="31">
         <f t="shared" si="9"/>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0996627885983545</v>
+        <v>1.0993984712686793</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="E38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086C2A6-1684-654A-912A-EF556A50230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B404E4-80A7-824F-868A-352AC4DCB2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1126,13 +1126,17 @@
       <c r="Q2" s="18">
         <v>15</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="R2" s="18">
+        <v>3</v>
+      </c>
+      <c r="S2" s="18">
+        <v>3</v>
+      </c>
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.4375</v>
+        <v>0.41111111111111109</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1188,13 +1192,17 @@
       <c r="Q3" s="18">
         <v>3</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="R3" s="18">
+        <v>3</v>
+      </c>
+      <c r="S3" s="18">
+        <v>15</v>
+      </c>
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.71666666666666667</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1250,8 +1258,12 @@
       <c r="Q4" s="18">
         <v>0</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
       <c r="T4" s="45"/>
       <c r="U4" s="45"/>
       <c r="V4" s="35">
@@ -1312,13 +1324,17 @@
       <c r="Q5" s="18">
         <v>0</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
+      <c r="R5" s="18">
+        <v>3</v>
+      </c>
+      <c r="S5" s="18">
+        <v>3</v>
+      </c>
       <c r="T5" s="45"/>
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1374,13 +1390,17 @@
       <c r="Q6" s="18">
         <v>15</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
+      <c r="R6" s="18">
+        <v>15</v>
+      </c>
+      <c r="S6" s="18">
+        <v>3</v>
+      </c>
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.85833333333333328</v>
+        <v>0.82962962962962961</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1436,13 +1456,17 @@
       <c r="Q7" s="18">
         <v>3</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
+      <c r="R7" s="18">
+        <v>3</v>
+      </c>
+      <c r="S7" s="18">
+        <v>3</v>
+      </c>
       <c r="T7" s="45"/>
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.65416666666666667</v>
+        <v>0.60370370370370374</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1498,13 +1522,17 @@
       <c r="Q8" s="18">
         <v>3</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
+      <c r="R8" s="18">
+        <v>3</v>
+      </c>
+      <c r="S8" s="18">
+        <v>3</v>
+      </c>
       <c r="T8" s="45"/>
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1560,13 +1588,17 @@
       <c r="Q9" s="18">
         <v>0</v>
       </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1622,13 +1654,17 @@
       <c r="Q10" s="18">
         <v>3</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
+      <c r="R10" s="18">
+        <v>3</v>
+      </c>
+      <c r="S10" s="18">
+        <v>15</v>
+      </c>
       <c r="T10" s="45"/>
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1684,8 +1720,12 @@
       <c r="Q11" s="18">
         <v>0</v>
       </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
       <c r="V11" s="35">
@@ -1746,13 +1786,17 @@
       <c r="Q12" s="18">
         <v>0</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
+      <c r="R12" s="18">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>3</v>
+      </c>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1808,13 +1852,17 @@
       <c r="Q13" s="18">
         <v>0</v>
       </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
+      <c r="R13" s="18">
+        <v>15</v>
+      </c>
+      <c r="S13" s="18">
+        <v>3</v>
+      </c>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1870,13 +1918,17 @@
       <c r="Q14" s="18">
         <v>0</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.38750000000000001</v>
+        <v>0.34444444444444444</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1931,13 +1983,17 @@
       <c r="Q15" s="18">
         <v>3</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="R15" s="18">
+        <v>3</v>
+      </c>
+      <c r="S15" s="18">
+        <v>3</v>
+      </c>
       <c r="T15" s="45"/>
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.71250000000000002</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="W15"/>
     </row>
@@ -1993,13 +2049,17 @@
       <c r="Q16" s="18">
         <v>15</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
+      <c r="R16" s="18">
+        <v>3</v>
+      </c>
+      <c r="S16" s="18">
+        <v>3</v>
+      </c>
       <c r="T16" s="45"/>
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="W16"/>
     </row>
@@ -2055,13 +2115,17 @@
       <c r="Q17" s="18">
         <v>3</v>
       </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
+      <c r="R17" s="18">
+        <v>3</v>
+      </c>
+      <c r="S17" s="18">
+        <v>15</v>
+      </c>
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.71851851851851856</v>
       </c>
       <c r="W17"/>
     </row>
@@ -2117,13 +2181,17 @@
       <c r="Q18" s="18">
         <v>15</v>
       </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
+      <c r="R18" s="18">
+        <v>3</v>
+      </c>
+      <c r="S18" s="18">
+        <v>3</v>
+      </c>
       <c r="T18" s="45"/>
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.73750000000000004</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="W18"/>
     </row>
@@ -2179,13 +2247,17 @@
       <c r="Q19" s="18">
         <v>3</v>
       </c>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
+      <c r="R19" s="18">
+        <v>15</v>
+      </c>
+      <c r="S19" s="18">
+        <v>3</v>
+      </c>
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.46250000000000002</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2241,13 +2313,17 @@
       <c r="Q20" s="18">
         <v>3</v>
       </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
+      <c r="R20" s="18">
+        <v>0</v>
+      </c>
+      <c r="S20" s="18">
+        <v>0</v>
+      </c>
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2303,13 +2379,17 @@
       <c r="Q21" s="18">
         <v>15</v>
       </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
+      <c r="R21" s="18">
+        <v>3</v>
+      </c>
+      <c r="S21" s="18">
+        <v>3</v>
+      </c>
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2365,13 +2445,17 @@
       <c r="Q22" s="18">
         <v>3</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
+      <c r="R22" s="18">
+        <v>3</v>
+      </c>
+      <c r="S22" s="18">
+        <v>3</v>
+      </c>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.65833333333333333</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2427,13 +2511,17 @@
       <c r="Q23" s="18">
         <v>15</v>
       </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
+      <c r="R23" s="18">
+        <v>15</v>
+      </c>
+      <c r="S23" s="18">
+        <v>3</v>
+      </c>
       <c r="T23" s="45"/>
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2489,13 +2577,17 @@
       <c r="Q24" s="18">
         <v>15</v>
       </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
+      <c r="R24" s="18">
+        <v>3</v>
+      </c>
+      <c r="S24" s="18">
+        <v>3</v>
+      </c>
       <c r="T24" s="45"/>
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2551,13 +2643,17 @@
       <c r="Q25" s="18">
         <v>3</v>
       </c>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
+      <c r="R25" s="18">
+        <v>3</v>
+      </c>
+      <c r="S25" s="18">
+        <v>3</v>
+      </c>
       <c r="T25" s="45"/>
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.51249999999999996</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2613,13 +2709,17 @@
       <c r="Q26" s="18">
         <v>15</v>
       </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
+      <c r="R26" s="18">
+        <v>0</v>
+      </c>
+      <c r="S26" s="18">
+        <v>0</v>
+      </c>
       <c r="T26" s="45"/>
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.67500000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2675,13 +2775,17 @@
       <c r="Q27" s="18">
         <v>3</v>
       </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
+      <c r="R27" s="18">
+        <v>15</v>
+      </c>
+      <c r="S27" s="18">
+        <v>3</v>
+      </c>
       <c r="T27" s="45"/>
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.45185185185185184</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2737,13 +2841,17 @@
       <c r="Q28" s="18">
         <v>15</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
+      <c r="R28" s="18">
+        <v>3</v>
+      </c>
+      <c r="S28" s="18">
+        <v>0</v>
+      </c>
       <c r="T28" s="45"/>
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2799,13 +2907,17 @@
       <c r="Q29" s="18">
         <v>3</v>
       </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
+      <c r="R29" s="18">
+        <v>3</v>
+      </c>
+      <c r="S29" s="18">
+        <v>3</v>
+      </c>
       <c r="T29" s="45"/>
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.36249999999999999</v>
+        <v>0.34444444444444444</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2861,13 +2973,17 @@
       <c r="Q30" s="18">
         <v>15</v>
       </c>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
+      <c r="R30" s="18">
+        <v>15</v>
+      </c>
+      <c r="S30" s="18">
+        <v>3</v>
+      </c>
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.48749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="W30"/>
     </row>
@@ -2923,13 +3039,17 @@
       <c r="Q31" s="18">
         <v>15</v>
       </c>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
+      <c r="R31" s="18">
+        <v>3</v>
+      </c>
+      <c r="S31" s="18">
+        <v>3</v>
+      </c>
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W31"/>
     </row>
@@ -2985,13 +3105,17 @@
       <c r="Q32" s="18">
         <v>15</v>
       </c>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
+      <c r="R32" s="18">
+        <v>3</v>
+      </c>
+      <c r="S32" s="18">
+        <v>3</v>
+      </c>
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="W32"/>
     </row>
@@ -3047,13 +3171,17 @@
       <c r="Q33" s="18">
         <v>15</v>
       </c>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
+      <c r="R33" s="18">
+        <v>3</v>
+      </c>
+      <c r="S33" s="18">
+        <v>3</v>
+      </c>
       <c r="T33" s="45"/>
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="W33"/>
     </row>
@@ -3219,13 +3347,13 @@
         <f t="shared" si="1"/>
         <v>7.21875</v>
       </c>
-      <c r="R36" s="31" t="e">
+      <c r="R36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="31" t="e">
+        <v>4.59375</v>
+      </c>
+      <c r="S36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.46875</v>
       </c>
       <c r="T36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -3237,7 +3365,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.48437500000000011</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="W36"/>
     </row>
@@ -3309,13 +3437,13 @@
         <f t="shared" si="2"/>
         <v>6.6368199487599533</v>
       </c>
-      <c r="R37" s="31" t="e">
+      <c r="R37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="31" t="e">
+        <v>5.2231456039440447</v>
+      </c>
+      <c r="S37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.9674837642206979</v>
       </c>
       <c r="T37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -3327,7 +3455,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.23093040736679701</v>
+        <v>0.21583090449555359</v>
       </c>
       <c r="W37"/>
     </row>
@@ -3399,13 +3527,13 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R38" s="31" t="e">
+      <c r="R38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="S38" s="31" t="e">
+        <v>3</v>
+      </c>
+      <c r="S38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="T38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3417,7 +3545,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.49375000000000002</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3491,11 +3619,11 @@
       </c>
       <c r="R39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="34">
         <f t="shared" si="4"/>
@@ -5709,7 +5837,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.4375</v>
+        <v>0.41111111111111109</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5725,7 +5853,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6975000000000002</v>
+        <v>1.6711111111111112</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5743,7 +5871,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.71666666666666667</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5759,7 +5887,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.0741666666666667</v>
+        <v>3.0612037037037036</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5809,7 +5937,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.4</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -5825,7 +5953,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7374999999999998</v>
+        <v>1.7152777777777777</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5842,7 +5970,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.85833333333333328</v>
+        <v>0.82962962962962961</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -5858,7 +5986,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0758333333333328</v>
+        <v>5.0471296296296293</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -5875,7 +6003,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.65416666666666667</v>
+        <v>0.60370370370370374</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -5891,7 +6019,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>2.9941666666666666</v>
+        <v>2.9437037037037039</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -5908,7 +6036,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.45</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -5924,7 +6052,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6324999999999998</v>
+        <v>2.6047222222222222</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -5941,7 +6069,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>0.1</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -5957,7 +6085,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -5974,7 +6102,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.75</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -5990,7 +6118,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.6124999999999998</v>
+        <v>4.5958333333333332</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -6040,7 +6168,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -6056,7 +6184,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0749999999999997</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -6073,7 +6201,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.25</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -6089,7 +6217,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.8424999999999998</v>
+        <v>1.881388888888889</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6106,7 +6234,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.38750000000000001</v>
+        <v>0.34444444444444444</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -6122,7 +6250,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.8774999999999999</v>
+        <v>1.8344444444444443</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6139,7 +6267,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.71250000000000002</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -6155,7 +6283,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.08</v>
+        <v>3.0230555555555556</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6172,7 +6300,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -6188,7 +6316,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6205,7 +6333,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.73333333333333328</v>
+        <v>0.71851851851851856</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -6221,7 +6349,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0633333333333335</v>
+        <v>2.0485185185185184</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6238,7 +6366,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.73750000000000004</v>
+        <v>0.67777777777777781</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -6254,7 +6382,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.4874999999999998</v>
+        <v>3.427777777777778</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6271,7 +6399,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.46250000000000002</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -6287,7 +6415,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.31</v>
+        <v>2.325277777777778</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6304,7 +6432,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.41249999999999998</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6320,7 +6448,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.3449999999999998</v>
+        <v>2.2991666666666664</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6337,7 +6465,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.72499999999999998</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6353,7 +6481,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6324999999999998</v>
+        <v>3.5741666666666667</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6370,7 +6498,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.65833333333333333</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6386,7 +6514,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1358333333333333</v>
+        <v>3.0849074074074077</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6403,7 +6531,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6419,7 +6547,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0425</v>
+        <v>2.0647222222222221</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6436,7 +6564,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.27500000000000002</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6452,7 +6580,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.46</v>
+        <v>2.4516666666666667</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6469,7 +6597,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.51249999999999996</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6485,7 +6613,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6600000000000001</v>
+        <v>1.6252777777777778</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6502,7 +6630,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.67500000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6518,7 +6646,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.04</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6535,7 +6663,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.43333333333333335</v>
+        <v>0.45185185185185184</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6551,7 +6679,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.6758333333333333</v>
+        <v>2.6943518518518519</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6568,7 +6696,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.52500000000000002</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6584,11 +6712,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2599999999999998</v>
+        <v>2.2127777777777777</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -6601,7 +6729,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.36249999999999999</v>
+        <v>0.34444444444444444</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6617,7 +6745,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.5599999999999996</v>
+        <v>2.5419444444444443</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6634,7 +6762,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.48749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6650,7 +6778,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6399999999999997</v>
+        <v>2.6524999999999999</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6667,7 +6795,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6683,7 +6811,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.1724999999999999</v>
+        <v>3.1391666666666667</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6700,7 +6828,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6716,7 +6844,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.0875000000000004</v>
+        <v>3.0541666666666671</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6733,7 +6861,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.70833333333333337</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6749,7 +6877,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5808333333333331</v>
+        <v>3.5243518518518515</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6806,7 +6934,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.48437500000000011</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6822,11 +6950,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4769531250000001</v>
+        <v>2.4529947916666663</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.421875</v>
+        <v>2.40625</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -6839,7 +6967,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.23093040736679701</v>
+        <v>0.21583090449555359</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6855,11 +6983,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0993984712686793</v>
+        <v>1.087906441402587</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1006550468961946</v>
+        <v>1.1030566037007086</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -6872,7 +7000,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.49375000000000002</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -6888,7 +7016,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.5749999999999997</v>
+        <v>2.540972222222222</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B404E4-80A7-824F-868A-352AC4DCB2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C45757-6DC6-9D41-A4A7-D411FC147238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -1132,11 +1132,13 @@
       <c r="S2" s="18">
         <v>3</v>
       </c>
-      <c r="T2" s="45"/>
+      <c r="T2" s="18">
+        <v>3</v>
+      </c>
       <c r="U2" s="45"/>
       <c r="V2" s="35">
         <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.41111111111111109</v>
+        <v>0.4</v>
       </c>
       <c r="W2"/>
     </row>
@@ -1198,11 +1200,13 @@
       <c r="S3" s="18">
         <v>15</v>
       </c>
-      <c r="T3" s="45"/>
+      <c r="T3" s="18">
+        <v>3</v>
+      </c>
       <c r="U3" s="45"/>
       <c r="V3" s="35">
         <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.70370370370370372</v>
+        <v>0.67719298245614035</v>
       </c>
       <c r="W3"/>
     </row>
@@ -1264,7 +1268,9 @@
       <c r="S4" s="18">
         <v>0</v>
       </c>
-      <c r="T4" s="45"/>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
       <c r="U4" s="45"/>
       <c r="V4" s="35">
         <f t="shared" si="0"/>
@@ -1330,11 +1336,13 @@
       <c r="S5" s="18">
         <v>3</v>
       </c>
-      <c r="T5" s="45"/>
+      <c r="T5" s="18">
+        <v>3</v>
+      </c>
       <c r="U5" s="45"/>
       <c r="V5" s="35">
         <f t="shared" si="0"/>
-        <v>0.37777777777777777</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="W5"/>
     </row>
@@ -1396,11 +1404,13 @@
       <c r="S6" s="18">
         <v>3</v>
       </c>
-      <c r="T6" s="45"/>
+      <c r="T6" s="18">
+        <v>3</v>
+      </c>
       <c r="U6" s="45"/>
       <c r="V6" s="35">
         <f t="shared" si="0"/>
-        <v>0.82962962962962961</v>
+        <v>0.79649122807017547</v>
       </c>
       <c r="W6"/>
     </row>
@@ -1462,11 +1472,13 @@
       <c r="S7" s="18">
         <v>3</v>
       </c>
-      <c r="T7" s="45"/>
+      <c r="T7" s="18">
+        <v>15</v>
+      </c>
       <c r="U7" s="45"/>
       <c r="V7" s="35">
         <f t="shared" si="0"/>
-        <v>0.60370370370370374</v>
+        <v>0.62456140350877198</v>
       </c>
       <c r="W7"/>
     </row>
@@ -1528,11 +1540,13 @@
       <c r="S8" s="18">
         <v>3</v>
       </c>
-      <c r="T8" s="45"/>
+      <c r="T8" s="18">
+        <v>3</v>
+      </c>
       <c r="U8" s="45"/>
       <c r="V8" s="35">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.41052631578947368</v>
       </c>
       <c r="W8"/>
     </row>
@@ -1594,11 +1608,13 @@
       <c r="S9" s="18">
         <v>0</v>
       </c>
-      <c r="T9" s="45"/>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
       <c r="U9" s="45"/>
       <c r="V9" s="35">
         <f t="shared" si="0"/>
-        <v>8.8888888888888892E-2</v>
+        <v>8.4210526315789472E-2</v>
       </c>
       <c r="W9"/>
     </row>
@@ -1660,11 +1676,13 @@
       <c r="S10" s="18">
         <v>15</v>
       </c>
-      <c r="T10" s="45"/>
+      <c r="T10" s="18">
+        <v>3</v>
+      </c>
       <c r="U10" s="45"/>
       <c r="V10" s="35">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.70526315789473681</v>
       </c>
       <c r="W10"/>
     </row>
@@ -1726,7 +1744,9 @@
       <c r="S11" s="18">
         <v>0</v>
       </c>
-      <c r="T11" s="45"/>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
       <c r="U11" s="45"/>
       <c r="V11" s="35">
         <f t="shared" si="0"/>
@@ -1792,11 +1812,13 @@
       <c r="S12" s="18">
         <v>3</v>
       </c>
-      <c r="T12" s="45"/>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
       <c r="U12" s="45"/>
       <c r="V12" s="35">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.1578947368421054E-2</v>
       </c>
       <c r="W12"/>
     </row>
@@ -1858,11 +1880,13 @@
       <c r="S13" s="18">
         <v>3</v>
       </c>
-      <c r="T13" s="45"/>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
       <c r="U13" s="45"/>
       <c r="V13" s="35">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
+        <v>0.27368421052631581</v>
       </c>
       <c r="W13"/>
     </row>
@@ -1924,11 +1948,13 @@
       <c r="S14" s="18">
         <v>0</v>
       </c>
-      <c r="T14" s="45"/>
+      <c r="T14" s="18">
+        <v>0</v>
+      </c>
       <c r="U14" s="45"/>
       <c r="V14" s="35">
         <f t="shared" si="0"/>
-        <v>0.34444444444444444</v>
+        <v>0.32631578947368423</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1989,11 +2015,13 @@
       <c r="S15" s="18">
         <v>3</v>
       </c>
-      <c r="T15" s="45"/>
+      <c r="T15" s="18">
+        <v>15</v>
+      </c>
       <c r="U15" s="45"/>
       <c r="V15" s="35">
         <f t="shared" si="0"/>
-        <v>0.65555555555555556</v>
+        <v>0.67368421052631577</v>
       </c>
       <c r="W15"/>
     </row>
@@ -2055,11 +2083,13 @@
       <c r="S16" s="18">
         <v>3</v>
       </c>
-      <c r="T16" s="45"/>
+      <c r="T16" s="18">
+        <v>3</v>
+      </c>
       <c r="U16" s="45"/>
       <c r="V16" s="35">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="W16"/>
     </row>
@@ -2121,11 +2151,13 @@
       <c r="S17" s="18">
         <v>15</v>
       </c>
-      <c r="T17" s="45"/>
+      <c r="T17" s="18">
+        <v>3</v>
+      </c>
       <c r="U17" s="45"/>
       <c r="V17" s="35">
         <f t="shared" si="0"/>
-        <v>0.71851851851851856</v>
+        <v>0.69122807017543864</v>
       </c>
       <c r="W17"/>
     </row>
@@ -2187,11 +2219,13 @@
       <c r="S18" s="18">
         <v>3</v>
       </c>
-      <c r="T18" s="45"/>
+      <c r="T18" s="18">
+        <v>3</v>
+      </c>
       <c r="U18" s="45"/>
       <c r="V18" s="35">
         <f t="shared" si="0"/>
-        <v>0.67777777777777781</v>
+        <v>0.65263157894736845</v>
       </c>
       <c r="W18"/>
     </row>
@@ -2253,11 +2287,13 @@
       <c r="S19" s="18">
         <v>3</v>
       </c>
-      <c r="T19" s="45"/>
+      <c r="T19" s="18">
+        <v>15</v>
+      </c>
       <c r="U19" s="45"/>
       <c r="V19" s="35">
         <f t="shared" si="0"/>
-        <v>0.4777777777777778</v>
+        <v>0.50526315789473686</v>
       </c>
       <c r="W19"/>
     </row>
@@ -2319,11 +2355,13 @@
       <c r="S20" s="18">
         <v>0</v>
       </c>
-      <c r="T20" s="45"/>
+      <c r="T20" s="18">
+        <v>3</v>
+      </c>
       <c r="U20" s="45"/>
       <c r="V20" s="35">
         <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
+        <v>0.35789473684210527</v>
       </c>
       <c r="W20"/>
     </row>
@@ -2385,11 +2423,13 @@
       <c r="S21" s="18">
         <v>3</v>
       </c>
-      <c r="T21" s="45"/>
+      <c r="T21" s="18">
+        <v>3</v>
+      </c>
       <c r="U21" s="45"/>
       <c r="V21" s="35">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.64210526315789473</v>
       </c>
       <c r="W21"/>
     </row>
@@ -2451,11 +2491,13 @@
       <c r="S22" s="18">
         <v>3</v>
       </c>
-      <c r="T22" s="45"/>
+      <c r="T22" s="18">
+        <v>15</v>
+      </c>
       <c r="U22" s="45"/>
       <c r="V22" s="35">
         <f t="shared" si="0"/>
-        <v>0.6074074074074074</v>
+        <v>0.62807017543859645</v>
       </c>
       <c r="W22"/>
     </row>
@@ -2517,11 +2559,13 @@
       <c r="S23" s="18">
         <v>3</v>
       </c>
-      <c r="T23" s="45"/>
+      <c r="T23" s="18">
+        <v>15</v>
+      </c>
       <c r="U23" s="45"/>
       <c r="V23" s="35">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="W23"/>
     </row>
@@ -2583,11 +2627,13 @@
       <c r="S24" s="18">
         <v>3</v>
       </c>
-      <c r="T24" s="45"/>
+      <c r="T24" s="18">
+        <v>0</v>
+      </c>
       <c r="U24" s="45"/>
       <c r="V24" s="35">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.25263157894736843</v>
       </c>
       <c r="W24"/>
     </row>
@@ -2649,11 +2695,13 @@
       <c r="S25" s="18">
         <v>3</v>
       </c>
-      <c r="T25" s="45"/>
+      <c r="T25" s="18">
+        <v>3</v>
+      </c>
       <c r="U25" s="45"/>
       <c r="V25" s="35">
         <f t="shared" si="0"/>
-        <v>0.4777777777777778</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="W25"/>
     </row>
@@ -2715,11 +2763,13 @@
       <c r="S26" s="18">
         <v>0</v>
       </c>
-      <c r="T26" s="45"/>
+      <c r="T26" s="18">
+        <v>15</v>
+      </c>
       <c r="U26" s="45"/>
       <c r="V26" s="35">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.62105263157894741</v>
       </c>
       <c r="W26"/>
     </row>
@@ -2781,11 +2831,13 @@
       <c r="S27" s="18">
         <v>3</v>
       </c>
-      <c r="T27" s="45"/>
+      <c r="T27" s="18">
+        <v>15</v>
+      </c>
       <c r="U27" s="45"/>
       <c r="V27" s="35">
         <f t="shared" si="0"/>
-        <v>0.45185185185185184</v>
+        <v>0.48070175438596491</v>
       </c>
       <c r="W27"/>
     </row>
@@ -2847,11 +2899,13 @@
       <c r="S28" s="18">
         <v>0</v>
       </c>
-      <c r="T28" s="45"/>
+      <c r="T28" s="18">
+        <v>0</v>
+      </c>
       <c r="U28" s="45"/>
       <c r="V28" s="35">
         <f t="shared" si="0"/>
-        <v>0.4777777777777778</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="W28"/>
     </row>
@@ -2913,11 +2967,13 @@
       <c r="S29" s="18">
         <v>3</v>
       </c>
-      <c r="T29" s="45"/>
+      <c r="T29" s="18">
+        <v>0</v>
+      </c>
       <c r="U29" s="45"/>
       <c r="V29" s="35">
         <f t="shared" si="0"/>
-        <v>0.34444444444444444</v>
+        <v>0.32631578947368423</v>
       </c>
       <c r="W29"/>
     </row>
@@ -2979,11 +3035,13 @@
       <c r="S30" s="18">
         <v>3</v>
       </c>
-      <c r="T30" s="45"/>
+      <c r="T30" s="18">
+        <v>3</v>
+      </c>
       <c r="U30" s="45"/>
       <c r="V30" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.48421052631578948</v>
       </c>
       <c r="W30"/>
     </row>
@@ -3045,11 +3103,13 @@
       <c r="S31" s="18">
         <v>3</v>
       </c>
-      <c r="T31" s="45"/>
+      <c r="T31" s="18">
+        <v>3</v>
+      </c>
       <c r="U31" s="45"/>
       <c r="V31" s="35">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="W31"/>
     </row>
@@ -3111,11 +3171,13 @@
       <c r="S32" s="18">
         <v>3</v>
       </c>
-      <c r="T32" s="45"/>
+      <c r="T32" s="18">
+        <v>3</v>
+      </c>
       <c r="U32" s="45"/>
       <c r="V32" s="35">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="W32"/>
     </row>
@@ -3177,11 +3239,13 @@
       <c r="S33" s="18">
         <v>3</v>
       </c>
-      <c r="T33" s="45"/>
+      <c r="T33" s="18">
+        <v>3</v>
+      </c>
       <c r="U33" s="45"/>
       <c r="V33" s="35">
         <f t="shared" si="0"/>
-        <v>0.6518518518518519</v>
+        <v>0.62807017543859645</v>
       </c>
       <c r="W33"/>
     </row>
@@ -3355,9 +3419,9 @@
         <f t="shared" si="1"/>
         <v>3.46875</v>
       </c>
-      <c r="T36" s="31" t="e">
+      <c r="T36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.78125</v>
       </c>
       <c r="U36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -3365,7 +3429,7 @@
       </c>
       <c r="V36" s="31">
         <f t="shared" si="1"/>
-        <v>0.4604166666666667</v>
+        <v>0.45296052631578948</v>
       </c>
       <c r="W36"/>
     </row>
@@ -3445,9 +3509,9 @@
         <f t="shared" si="2"/>
         <v>3.9674837642206979</v>
       </c>
-      <c r="T37" s="31" t="e">
+      <c r="T37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.6439197943593502</v>
       </c>
       <c r="U37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -3455,7 +3519,7 @@
       </c>
       <c r="V37" s="31">
         <f t="shared" si="2"/>
-        <v>0.21583090449555359</v>
+        <v>0.21263303462700334</v>
       </c>
       <c r="W37"/>
     </row>
@@ -3535,9 +3599,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="T38" s="31" t="e">
+      <c r="T38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="U38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -3545,7 +3609,7 @@
       </c>
       <c r="V38" s="31">
         <f t="shared" si="3"/>
-        <v>0.47222222222222221</v>
+        <v>0.45789473684210524</v>
       </c>
       <c r="W38"/>
     </row>
@@ -3627,7 +3691,7 @@
       </c>
       <c r="T39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="34">
         <f t="shared" si="4"/>
@@ -5837,7 +5901,7 @@
       </c>
       <c r="B2" s="35">
         <f>Quiz!V2</f>
-        <v>0.41111111111111109</v>
+        <v>0.4</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5853,7 +5917,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6711111111111112</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5871,7 +5935,7 @@
       </c>
       <c r="B3" s="35">
         <f>Quiz!V3</f>
-        <v>0.70370370370370372</v>
+        <v>0.67719298245614035</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5887,7 +5951,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.0612037037037036</v>
+        <v>3.0346929824561402</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5937,7 +6001,7 @@
       </c>
       <c r="B5" s="35">
         <f>Quiz!V5</f>
-        <v>0.37777777777777777</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -5953,7 +6017,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7152777777777777</v>
+        <v>1.7059210526315791</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -5970,7 +6034,7 @@
       </c>
       <c r="B6" s="35">
         <f>Quiz!V6</f>
-        <v>0.82962962962962961</v>
+        <v>0.79649122807017547</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -5986,7 +6050,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0471296296296293</v>
+        <v>5.0139912280701751</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -6003,7 +6067,7 @@
       </c>
       <c r="B7" s="35">
         <f>Quiz!V7</f>
-        <v>0.60370370370370374</v>
+        <v>0.62456140350877198</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -6019,7 +6083,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>2.9437037037037039</v>
+        <v>2.964561403508772</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -6036,7 +6100,7 @@
       </c>
       <c r="B8" s="35">
         <f>Quiz!V8</f>
-        <v>0.42222222222222222</v>
+        <v>0.41052631578947368</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -6052,7 +6116,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6047222222222222</v>
+        <v>2.5930263157894737</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -6069,7 +6133,7 @@
       </c>
       <c r="B9" s="35">
         <f>Quiz!V9</f>
-        <v>8.8888888888888892E-2</v>
+        <v>8.4210526315789472E-2</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -6085,7 +6149,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>8.8888888888888892E-2</v>
+        <v>8.4210526315789472E-2</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -6102,7 +6166,7 @@
       </c>
       <c r="B10" s="35">
         <f>Quiz!V10</f>
-        <v>0.73333333333333328</v>
+        <v>0.70526315789473681</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -6118,7 +6182,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.5958333333333332</v>
+        <v>4.5677631578947366</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -6168,7 +6232,7 @@
       </c>
       <c r="B12" s="35">
         <f>Quiz!V12</f>
-        <v>3.3333333333333333E-2</v>
+        <v>3.1578947368421054E-2</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -6184,7 +6248,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0833333333333333</v>
+        <v>1.081578947368421</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -6201,7 +6265,7 @@
       </c>
       <c r="B13" s="35">
         <f>Quiz!V13</f>
-        <v>0.28888888888888886</v>
+        <v>0.27368421052631581</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -6217,7 +6281,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.881388888888889</v>
+        <v>1.866184210526316</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6234,7 +6298,7 @@
       </c>
       <c r="B14" s="35">
         <f>Quiz!V14</f>
-        <v>0.34444444444444444</v>
+        <v>0.32631578947368423</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -6250,7 +6314,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.8344444444444443</v>
+        <v>1.8163157894736841</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6267,7 +6331,7 @@
       </c>
       <c r="B15" s="35">
         <f>Quiz!V15</f>
-        <v>0.65555555555555556</v>
+        <v>0.67368421052631577</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -6283,7 +6347,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.0230555555555556</v>
+        <v>3.0411842105263158</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6300,7 +6364,7 @@
       </c>
       <c r="B16" s="35">
         <f>Quiz!V16</f>
-        <v>0.6</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -6316,7 +6380,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.54</v>
+        <v>2.5189473684210526</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6333,7 +6397,7 @@
       </c>
       <c r="B17" s="35">
         <f>Quiz!V17</f>
-        <v>0.71851851851851856</v>
+        <v>0.69122807017543864</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -6349,7 +6413,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0485185185185184</v>
+        <v>2.0212280701754386</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6366,7 +6430,7 @@
       </c>
       <c r="B18" s="35">
         <f>Quiz!V18</f>
-        <v>0.67777777777777781</v>
+        <v>0.65263157894736845</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -6382,7 +6446,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.427777777777778</v>
+        <v>3.4026315789473687</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6399,7 +6463,7 @@
       </c>
       <c r="B19" s="35">
         <f>Quiz!V19</f>
-        <v>0.4777777777777778</v>
+        <v>0.50526315789473686</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -6415,7 +6479,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.325277777777778</v>
+        <v>2.3527631578947368</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6432,7 +6496,7 @@
       </c>
       <c r="B20" s="35">
         <f>Quiz!V20</f>
-        <v>0.36666666666666664</v>
+        <v>0.35789473684210527</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6448,7 +6512,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.2991666666666664</v>
+        <v>2.2903947368421052</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6465,7 +6529,7 @@
       </c>
       <c r="B21" s="35">
         <f>Quiz!V21</f>
-        <v>0.66666666666666663</v>
+        <v>0.64210526315789473</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6481,7 +6545,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.5741666666666667</v>
+        <v>3.5496052631578947</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6498,7 +6562,7 @@
       </c>
       <c r="B22" s="35">
         <f>Quiz!V22</f>
-        <v>0.6074074074074074</v>
+        <v>0.62807017543859645</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6514,7 +6578,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.0849074074074077</v>
+        <v>3.1055701754385963</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6531,7 +6595,7 @@
       </c>
       <c r="B23" s="35">
         <f>Quiz!V23</f>
-        <v>0.42222222222222222</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6547,7 +6611,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0647222222222221</v>
+        <v>2.0951315789473686</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6564,7 +6628,7 @@
       </c>
       <c r="B24" s="35">
         <f>Quiz!V24</f>
-        <v>0.26666666666666666</v>
+        <v>0.25263157894736843</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6580,7 +6644,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.4516666666666667</v>
+        <v>2.4376315789473684</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6597,7 +6661,7 @@
       </c>
       <c r="B25" s="35">
         <f>Quiz!V25</f>
-        <v>0.4777777777777778</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6613,7 +6677,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6252777777777778</v>
+        <v>1.6106578947368422</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6630,7 +6694,7 @@
       </c>
       <c r="B26" s="35">
         <f>Quiz!V26</f>
-        <v>0.6</v>
+        <v>0.62105263157894741</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6646,7 +6710,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>2.9649999999999999</v>
+        <v>2.9860526315789473</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6663,7 +6727,7 @@
       </c>
       <c r="B27" s="35">
         <f>Quiz!V27</f>
-        <v>0.45185185185185184</v>
+        <v>0.48070175438596491</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6679,7 +6743,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.6943518518518519</v>
+        <v>2.7232017543859648</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6696,7 +6760,7 @@
       </c>
       <c r="B28" s="35">
         <f>Quiz!V28</f>
-        <v>0.4777777777777778</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6712,7 +6776,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2127777777777777</v>
+        <v>2.1876315789473684</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
@@ -6729,7 +6793,7 @@
       </c>
       <c r="B29" s="35">
         <f>Quiz!V29</f>
-        <v>0.34444444444444444</v>
+        <v>0.32631578947368423</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6745,7 +6809,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.5419444444444443</v>
+        <v>2.5238157894736841</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6762,7 +6826,7 @@
       </c>
       <c r="B30" s="35">
         <f>Quiz!V30</f>
-        <v>0.5</v>
+        <v>0.48421052631578948</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6778,7 +6842,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6524999999999999</v>
+        <v>2.6367105263157891</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6795,7 +6859,7 @@
       </c>
       <c r="B31" s="35">
         <f>Quiz!V31</f>
-        <v>0.46666666666666667</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6811,7 +6875,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.1391666666666667</v>
+        <v>3.1251315789473684</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6828,7 +6892,7 @@
       </c>
       <c r="B32" s="35">
         <f>Quiz!V32</f>
-        <v>0.46666666666666667</v>
+        <v>0.45263157894736844</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6844,7 +6908,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.0541666666666671</v>
+        <v>3.0401315789473689</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6861,7 +6925,7 @@
       </c>
       <c r="B33" s="35">
         <f>Quiz!V33</f>
-        <v>0.6518518518518519</v>
+        <v>0.62807017543859645</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6877,7 +6941,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5243518518518515</v>
+        <v>3.5005701754385963</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6934,7 +6998,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.4604166666666667</v>
+        <v>0.45296052631578948</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -6950,7 +7014,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4529947916666663</v>
+        <v>2.4455386513157893</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -6967,7 +7031,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.21583090449555359</v>
+        <v>0.21263303462700334</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -6983,7 +7047,7 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.087906441402587</v>
+        <v>1.0835936060343159</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
@@ -7000,7 +7064,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.47222222222222221</v>
+        <v>0.45789473684210524</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -7016,7 +7080,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.540972222222222</v>
+        <v>2.5213815789473681</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C45757-6DC6-9D41-A4A7-D411FC147238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5664B-8322-2840-AA1F-61164D4BE759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Quiz Total</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>0058</t>
+  </si>
+  <si>
+    <t>Quiz 21</t>
   </si>
 </sst>
 </file>
@@ -990,22 +993,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W134"/>
+  <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="5" customWidth="1"/>
-    <col min="3" max="21" width="11.83203125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" style="7" customWidth="1"/>
+    <col min="3" max="22" width="11.83203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -1069,12 +1072,15 @@
       <c r="U1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
@@ -1135,14 +1141,17 @@
       <c r="T2" s="18">
         <v>3</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="35">
-        <f>$V$35 * ( (SUM(B2:U2))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.4</v>
-      </c>
-      <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U2" s="18">
+        <v>9</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="35">
+        <f>$W$35 * ( (SUM(B2:V2))/((SUM($B$39:$V$39))*$B$35) )</f>
+        <v>0.41</v>
+      </c>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
@@ -1203,14 +1212,17 @@
       <c r="T3" s="18">
         <v>3</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="35">
-        <f t="shared" ref="V3:V33" si="0">$V$35 * ( (SUM(B3:U3))/((SUM($B$39:$U$39))*$B$35) )</f>
-        <v>0.67719298245614035</v>
-      </c>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U3" s="18">
+        <v>9</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="35">
+        <f t="shared" ref="W3:W33" si="0">$W$35 * ( (SUM(B3:V3))/((SUM($B$39:$V$39))*$B$35) )</f>
+        <v>0.67333333333333334</v>
+      </c>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
@@ -1271,14 +1283,17 @@
       <c r="T4" s="18">
         <v>0</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="35">
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
@@ -1339,14 +1354,17 @@
       <c r="T5" s="18">
         <v>3</v>
       </c>
-      <c r="U5" s="45"/>
-      <c r="V5" s="35">
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="35">
         <f t="shared" si="0"/>
-        <v>0.36842105263157893</v>
-      </c>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.35</v>
+      </c>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>1019</v>
       </c>
@@ -1407,14 +1425,17 @@
       <c r="T6" s="18">
         <v>3</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="35">
-        <f t="shared" si="0"/>
-        <v>0.79649122807017547</v>
-      </c>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="18">
+        <v>9</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="35">
+        <f>$W$35 * ( (SUM(B6:V6))/((SUM($B$39:$V$39))*$B$35) )</f>
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>1395</v>
       </c>
@@ -1475,14 +1496,17 @@
       <c r="T7" s="18">
         <v>15</v>
       </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="35">
+      <c r="U7" s="18">
+        <v>15</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="35">
         <f t="shared" si="0"/>
-        <v>0.62456140350877198</v>
-      </c>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.64333333333333331</v>
+      </c>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>1506</v>
       </c>
@@ -1543,14 +1567,17 @@
       <c r="T8" s="18">
         <v>3</v>
       </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="35">
+      <c r="U8" s="18">
+        <v>9</v>
+      </c>
+      <c r="V8" s="18"/>
+      <c r="W8" s="35">
         <f t="shared" si="0"/>
-        <v>0.41052631578947368</v>
-      </c>
-      <c r="W8"/>
-    </row>
-    <row r="9" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.42</v>
+      </c>
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>2441</v>
       </c>
@@ -1611,14 +1638,17 @@
       <c r="T9" s="18">
         <v>0</v>
       </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="35">
+      <c r="U9" s="18">
+        <v>0</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="W9" s="35">
         <f t="shared" si="0"/>
-        <v>8.4210526315789472E-2</v>
-      </c>
-      <c r="W9"/>
-    </row>
-    <row r="10" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>2564</v>
       </c>
@@ -1679,14 +1709,17 @@
       <c r="T10" s="18">
         <v>3</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="35">
+      <c r="U10" s="18">
+        <v>15</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="W10" s="35">
         <f t="shared" si="0"/>
-        <v>0.70526315789473681</v>
-      </c>
-      <c r="W10"/>
-    </row>
-    <row r="11" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.72</v>
+      </c>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>2693</v>
       </c>
@@ -1747,14 +1780,17 @@
       <c r="T11" s="18">
         <v>0</v>
       </c>
-      <c r="U11" s="45"/>
-      <c r="V11" s="35">
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18"/>
+      <c r="W11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11"/>
-    </row>
-    <row r="12" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>2771</v>
       </c>
@@ -1810,19 +1846,22 @@
         <v>0</v>
       </c>
       <c r="S12" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" s="18">
         <v>0</v>
       </c>
-      <c r="U12" s="45"/>
-      <c r="V12" s="35">
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="35">
         <f t="shared" si="0"/>
-        <v>3.1578947368421054E-2</v>
-      </c>
-      <c r="W12"/>
-    </row>
-    <row r="13" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.02</v>
+      </c>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>2899</v>
       </c>
@@ -1883,14 +1922,17 @@
       <c r="T13" s="18">
         <v>0</v>
       </c>
-      <c r="U13" s="45"/>
-      <c r="V13" s="35">
+      <c r="U13" s="18">
+        <v>3</v>
+      </c>
+      <c r="V13" s="18"/>
+      <c r="W13" s="35">
         <f t="shared" si="0"/>
-        <v>0.27368421052631581</v>
-      </c>
-      <c r="W13"/>
-    </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.27</v>
+      </c>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>3517</v>
       </c>
@@ -1951,13 +1993,16 @@
       <c r="T14" s="18">
         <v>0</v>
       </c>
-      <c r="U14" s="45"/>
-      <c r="V14" s="35">
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="35">
         <f t="shared" si="0"/>
-        <v>0.32631578947368423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>4490</v>
       </c>
@@ -2018,14 +2063,17 @@
       <c r="T15" s="18">
         <v>15</v>
       </c>
-      <c r="U15" s="45"/>
-      <c r="V15" s="35">
+      <c r="U15" s="18">
+        <v>15</v>
+      </c>
+      <c r="V15" s="18"/>
+      <c r="W15" s="35">
         <f t="shared" si="0"/>
-        <v>0.67368421052631577</v>
-      </c>
-      <c r="W15"/>
-    </row>
-    <row r="16" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.69</v>
+      </c>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>4582</v>
       </c>
@@ -2086,14 +2134,17 @@
       <c r="T16" s="18">
         <v>3</v>
       </c>
-      <c r="U16" s="45"/>
-      <c r="V16" s="35">
+      <c r="U16" s="18">
+        <v>15</v>
+      </c>
+      <c r="V16" s="18"/>
+      <c r="W16" s="35">
         <f t="shared" si="0"/>
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.6</v>
+      </c>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>4622</v>
       </c>
@@ -2154,14 +2205,17 @@
       <c r="T17" s="18">
         <v>3</v>
       </c>
-      <c r="U17" s="45"/>
-      <c r="V17" s="35">
+      <c r="U17" s="18">
+        <v>9</v>
+      </c>
+      <c r="V17" s="18"/>
+      <c r="W17" s="35">
         <f t="shared" si="0"/>
-        <v>0.69122807017543864</v>
-      </c>
-      <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>5500</v>
       </c>
@@ -2222,14 +2276,17 @@
       <c r="T18" s="18">
         <v>3</v>
       </c>
-      <c r="U18" s="45"/>
-      <c r="V18" s="35">
+      <c r="U18" s="18">
+        <v>15</v>
+      </c>
+      <c r="V18" s="18"/>
+      <c r="W18" s="35">
         <f t="shared" si="0"/>
-        <v>0.65263157894736845</v>
-      </c>
-      <c r="W18"/>
-    </row>
-    <row r="19" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.67</v>
+      </c>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>5687</v>
       </c>
@@ -2290,14 +2347,17 @@
       <c r="T19" s="18">
         <v>15</v>
       </c>
-      <c r="U19" s="45"/>
-      <c r="V19" s="35">
+      <c r="U19" s="18">
+        <v>3</v>
+      </c>
+      <c r="V19" s="18"/>
+      <c r="W19" s="35">
         <f t="shared" si="0"/>
-        <v>0.50526315789473686</v>
-      </c>
-      <c r="W19"/>
-    </row>
-    <row r="20" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.49</v>
+      </c>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>5711</v>
       </c>
@@ -2358,14 +2418,17 @@
       <c r="T20" s="18">
         <v>3</v>
       </c>
-      <c r="U20" s="45"/>
-      <c r="V20" s="35">
+      <c r="U20" s="18">
+        <v>0</v>
+      </c>
+      <c r="V20" s="18"/>
+      <c r="W20" s="35">
         <f t="shared" si="0"/>
-        <v>0.35789473684210527</v>
-      </c>
-      <c r="W20"/>
-    </row>
-    <row r="21" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.34</v>
+      </c>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>5810</v>
       </c>
@@ -2426,14 +2489,17 @@
       <c r="T21" s="18">
         <v>3</v>
       </c>
-      <c r="U21" s="45"/>
-      <c r="V21" s="35">
+      <c r="U21" s="18">
+        <v>15</v>
+      </c>
+      <c r="V21" s="18"/>
+      <c r="W21" s="35">
         <f t="shared" si="0"/>
-        <v>0.64210526315789473</v>
-      </c>
-      <c r="W21"/>
-    </row>
-    <row r="22" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.66</v>
+      </c>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>6347</v>
       </c>
@@ -2494,14 +2560,17 @@
       <c r="T22" s="18">
         <v>15</v>
       </c>
-      <c r="U22" s="45"/>
-      <c r="V22" s="35">
+      <c r="U22" s="18">
+        <v>15</v>
+      </c>
+      <c r="V22" s="18"/>
+      <c r="W22" s="35">
         <f t="shared" si="0"/>
-        <v>0.62807017543859645</v>
-      </c>
-      <c r="W22"/>
-    </row>
-    <row r="23" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.64666666666666661</v>
+      </c>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>7905</v>
       </c>
@@ -2562,14 +2631,17 @@
       <c r="T23" s="18">
         <v>15</v>
       </c>
-      <c r="U23" s="45"/>
-      <c r="V23" s="35">
+      <c r="U23" s="18">
+        <v>0</v>
+      </c>
+      <c r="V23" s="18"/>
+      <c r="W23" s="35">
         <f t="shared" si="0"/>
-        <v>0.45263157894736844</v>
-      </c>
-      <c r="W23"/>
-    </row>
-    <row r="24" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.43</v>
+      </c>
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>8335</v>
       </c>
@@ -2630,14 +2702,17 @@
       <c r="T24" s="18">
         <v>0</v>
       </c>
-      <c r="U24" s="45"/>
-      <c r="V24" s="35">
+      <c r="U24" s="18">
+        <v>15</v>
+      </c>
+      <c r="V24" s="18"/>
+      <c r="W24" s="35">
         <f t="shared" si="0"/>
-        <v>0.25263157894736843</v>
-      </c>
-      <c r="W24"/>
-    </row>
-    <row r="25" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>8490</v>
       </c>
@@ -2698,14 +2773,17 @@
       <c r="T25" s="18">
         <v>3</v>
       </c>
-      <c r="U25" s="45"/>
-      <c r="V25" s="35">
+      <c r="U25" s="18">
+        <v>15</v>
+      </c>
+      <c r="V25" s="18"/>
+      <c r="W25" s="35">
         <f t="shared" si="0"/>
-        <v>0.4631578947368421</v>
-      </c>
-      <c r="W25"/>
-    </row>
-    <row r="26" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.49</v>
+      </c>
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>8688</v>
       </c>
@@ -2766,14 +2844,17 @@
       <c r="T26" s="18">
         <v>15</v>
       </c>
-      <c r="U26" s="45"/>
-      <c r="V26" s="35">
+      <c r="U26" s="18">
+        <v>3</v>
+      </c>
+      <c r="V26" s="18"/>
+      <c r="W26" s="35">
         <f t="shared" si="0"/>
-        <v>0.62105263157894741</v>
-      </c>
-      <c r="W26"/>
-    </row>
-    <row r="27" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.6</v>
+      </c>
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>8695</v>
       </c>
@@ -2834,14 +2915,17 @@
       <c r="T27" s="18">
         <v>15</v>
       </c>
-      <c r="U27" s="45"/>
-      <c r="V27" s="35">
+      <c r="U27" s="18">
+        <v>0</v>
+      </c>
+      <c r="V27" s="18"/>
+      <c r="W27" s="35">
         <f t="shared" si="0"/>
-        <v>0.48070175438596491</v>
-      </c>
-      <c r="W27"/>
-    </row>
-    <row r="28" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.45666666666666667</v>
+      </c>
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>8743</v>
       </c>
@@ -2902,14 +2986,17 @@
       <c r="T28" s="18">
         <v>0</v>
       </c>
-      <c r="U28" s="45"/>
-      <c r="V28" s="35">
+      <c r="U28" s="18">
+        <v>3</v>
+      </c>
+      <c r="V28" s="18"/>
+      <c r="W28" s="35">
         <f t="shared" si="0"/>
-        <v>0.45263157894736844</v>
-      </c>
-      <c r="W28"/>
-    </row>
-    <row r="29" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.44</v>
+      </c>
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>8745</v>
       </c>
@@ -2970,14 +3057,17 @@
       <c r="T29" s="18">
         <v>0</v>
       </c>
-      <c r="U29" s="45"/>
-      <c r="V29" s="35">
+      <c r="U29" s="18">
+        <v>15</v>
+      </c>
+      <c r="V29" s="18"/>
+      <c r="W29" s="35">
         <f t="shared" si="0"/>
-        <v>0.32631578947368423</v>
-      </c>
-      <c r="W29"/>
-    </row>
-    <row r="30" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.36</v>
+      </c>
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>9550</v>
       </c>
@@ -3038,14 +3128,17 @@
       <c r="T30" s="18">
         <v>3</v>
       </c>
-      <c r="U30" s="45"/>
-      <c r="V30" s="35">
+      <c r="U30" s="18">
+        <v>9</v>
+      </c>
+      <c r="V30" s="18"/>
+      <c r="W30" s="35">
         <f t="shared" si="0"/>
-        <v>0.48421052631578948</v>
-      </c>
-      <c r="W30"/>
-    </row>
-    <row r="31" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.49</v>
+      </c>
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>9610</v>
       </c>
@@ -3106,14 +3199,17 @@
       <c r="T31" s="18">
         <v>3</v>
       </c>
-      <c r="U31" s="45"/>
-      <c r="V31" s="35">
+      <c r="U31" s="18">
+        <v>15</v>
+      </c>
+      <c r="V31" s="18"/>
+      <c r="W31" s="35">
         <f t="shared" si="0"/>
-        <v>0.45263157894736844</v>
-      </c>
-      <c r="W31"/>
-    </row>
-    <row r="32" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.48</v>
+      </c>
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>9611</v>
       </c>
@@ -3174,14 +3270,17 @@
       <c r="T32" s="18">
         <v>3</v>
       </c>
-      <c r="U32" s="45"/>
-      <c r="V32" s="35">
+      <c r="U32" s="18">
+        <v>15</v>
+      </c>
+      <c r="V32" s="18"/>
+      <c r="W32" s="35">
         <f t="shared" si="0"/>
-        <v>0.45263157894736844</v>
-      </c>
-      <c r="W32"/>
-    </row>
-    <row r="33" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.48</v>
+      </c>
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25">
         <v>9674</v>
       </c>
@@ -3242,14 +3341,17 @@
       <c r="T33" s="18">
         <v>3</v>
       </c>
-      <c r="U33" s="45"/>
-      <c r="V33" s="35">
+      <c r="U33" s="18">
+        <v>15</v>
+      </c>
+      <c r="V33" s="18"/>
+      <c r="W33" s="35">
         <f t="shared" si="0"/>
-        <v>0.62807017543859645</v>
-      </c>
-      <c r="W33"/>
-    </row>
-    <row r="34" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.64666666666666661</v>
+      </c>
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -3272,9 +3374,10 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34"/>
-    </row>
-    <row r="35" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W34" s="1"/>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
@@ -3338,17 +3441,20 @@
       <c r="U35" s="28">
         <v>15</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="28">
+        <v>15</v>
+      </c>
+      <c r="W35" s="29">
         <v>1</v>
       </c>
-      <c r="W35"/>
-    </row>
-    <row r="36" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="31">
-        <f t="shared" ref="B36:V36" si="1">AVERAGE(B$2:B$33)</f>
+        <f t="shared" ref="B36:W36" si="1">AVERAGE(B$2:B$33)</f>
         <v>12.46875</v>
       </c>
       <c r="C36" s="31">
@@ -3417,28 +3523,32 @@
       </c>
       <c r="S36" s="31">
         <f t="shared" si="1"/>
-        <v>3.46875</v>
+        <v>3.375</v>
       </c>
       <c r="T36" s="31">
         <f t="shared" si="1"/>
         <v>4.78125</v>
       </c>
-      <c r="U36" s="31" t="e">
+      <c r="U36" s="31">
+        <f t="shared" si="1"/>
+        <v>8.15625</v>
+      </c>
+      <c r="V36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V36" s="31">
+      <c r="W36" s="31">
         <f t="shared" si="1"/>
-        <v>0.45296052631578948</v>
-      </c>
-      <c r="W36"/>
-    </row>
-    <row r="37" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.45718749999999997</v>
+      </c>
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="31">
-        <f t="shared" ref="B37:V37" si="2">STDEV(B$2:B$33)</f>
+        <f t="shared" ref="B37:W37" si="2">STDEV(B$2:B$33)</f>
         <v>5.3940491403983577</v>
       </c>
       <c r="C37" s="31">
@@ -3507,28 +3617,32 @@
       </c>
       <c r="S37" s="31">
         <f t="shared" si="2"/>
-        <v>3.9674837642206979</v>
+        <v>4.0140880939269943</v>
       </c>
       <c r="T37" s="31">
         <f t="shared" si="2"/>
         <v>5.6439197943593502</v>
       </c>
-      <c r="U37" s="31" t="e">
+      <c r="U37" s="31">
+        <f t="shared" si="2"/>
+        <v>6.5209804081802734</v>
+      </c>
+      <c r="V37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V37" s="31">
+      <c r="W37" s="31">
         <f t="shared" si="2"/>
-        <v>0.21263303462700334</v>
-      </c>
-      <c r="W37"/>
-    </row>
-    <row r="38" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.21586719230411475</v>
+      </c>
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="31">
-        <f t="shared" ref="B38:V38" si="3">MEDIAN(B$2:B$33)</f>
+        <f t="shared" ref="B38:W38" si="3">MEDIAN(B$2:B$33)</f>
         <v>15</v>
       </c>
       <c r="C38" s="31">
@@ -3603,22 +3717,26 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U38" s="31" t="e">
+      <c r="U38" s="31">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="V38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V38" s="31">
+      <c r="W38" s="31">
         <f t="shared" si="3"/>
-        <v>0.45789473684210524</v>
-      </c>
-      <c r="W38"/>
-    </row>
-    <row r="39" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.48</v>
+      </c>
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" ref="B39:V39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
+        <f t="shared" ref="B39:W39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="C39" s="34">
@@ -3695,35 +3813,39 @@
       </c>
       <c r="U39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="34">
+        <f t="shared" ref="V39" si="5">IF(SUM(V2:V33)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W39"/>
-    </row>
-    <row r="40" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48"/>
     </row>
     <row r="49" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3992,9 +4114,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <ignoredErrors>
-    <ignoredError sqref="V6 V7:V33" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5853,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5900,8 +6019,8 @@
         <v>49</v>
       </c>
       <c r="B2" s="35">
-        <f>Quiz!V2</f>
-        <v>0.4</v>
+        <f>Quiz!W2</f>
+        <v>0.41</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!L2</f>
@@ -5917,7 +6036,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6600000000000001</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5934,8 +6053,8 @@
         <v>47</v>
       </c>
       <c r="B3" s="35">
-        <f>Quiz!V3</f>
-        <v>0.67719298245614035</v>
+        <f>Quiz!W3</f>
+        <v>0.67333333333333334</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!L3</f>
@@ -5951,7 +6070,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.0346929824561402</v>
+        <v>3.0308333333333333</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5967,7 +6086,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="35">
-        <f>Quiz!V4</f>
+        <f>Quiz!W4</f>
         <v>0</v>
       </c>
       <c r="C4" s="52">
@@ -6000,8 +6119,8 @@
         <v>48</v>
       </c>
       <c r="B5" s="35">
-        <f>Quiz!V5</f>
-        <v>0.36842105263157893</v>
+        <f>Quiz!W5</f>
+        <v>0.35</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!L5</f>
@@ -6017,7 +6136,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.7059210526315791</v>
+        <v>1.6875</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -6033,8 +6152,8 @@
         <v>1019</v>
       </c>
       <c r="B6" s="35">
-        <f>Quiz!V6</f>
-        <v>0.79649122807017547</v>
+        <f>Quiz!W6</f>
+        <v>0.78666666666666663</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!L6</f>
@@ -6050,7 +6169,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0139912280701751</v>
+        <v>5.0041666666666664</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -6066,8 +6185,8 @@
         <v>1395</v>
       </c>
       <c r="B7" s="35">
-        <f>Quiz!V7</f>
-        <v>0.62456140350877198</v>
+        <f>Quiz!W7</f>
+        <v>0.64333333333333331</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!L7</f>
@@ -6083,7 +6202,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>2.964561403508772</v>
+        <v>2.9833333333333334</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -6099,8 +6218,8 @@
         <v>1506</v>
       </c>
       <c r="B8" s="35">
-        <f>Quiz!V8</f>
-        <v>0.41052631578947368</v>
+        <f>Quiz!W8</f>
+        <v>0.42</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!L8</f>
@@ -6116,7 +6235,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.5930263157894737</v>
+        <v>2.6025</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -6132,8 +6251,8 @@
         <v>2441</v>
       </c>
       <c r="B9" s="35">
-        <f>Quiz!V9</f>
-        <v>8.4210526315789472E-2</v>
+        <f>Quiz!W9</f>
+        <v>0.08</v>
       </c>
       <c r="C9" s="52">
         <f>Homework!L9</f>
@@ -6149,7 +6268,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>8.4210526315789472E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -6165,8 +6284,8 @@
         <v>2564</v>
       </c>
       <c r="B10" s="35">
-        <f>Quiz!V10</f>
-        <v>0.70526315789473681</v>
+        <f>Quiz!W10</f>
+        <v>0.72</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!L10</f>
@@ -6182,7 +6301,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.5677631578947366</v>
+        <v>4.5824999999999996</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -6198,7 +6317,7 @@
         <v>2693</v>
       </c>
       <c r="B11" s="35">
-        <f>Quiz!V11</f>
+        <f>Quiz!W11</f>
         <v>0</v>
       </c>
       <c r="C11" s="52">
@@ -6231,8 +6350,8 @@
         <v>2771</v>
       </c>
       <c r="B12" s="35">
-        <f>Quiz!V12</f>
-        <v>3.1578947368421054E-2</v>
+        <f>Quiz!W12</f>
+        <v>0.02</v>
       </c>
       <c r="C12" s="52">
         <f>Homework!L12</f>
@@ -6248,7 +6367,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.081578947368421</v>
+        <v>1.0699999999999998</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -6264,8 +6383,8 @@
         <v>2899</v>
       </c>
       <c r="B13" s="35">
-        <f>Quiz!V13</f>
-        <v>0.27368421052631581</v>
+        <f>Quiz!W13</f>
+        <v>0.27</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!L13</f>
@@ -6281,7 +6400,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.866184210526316</v>
+        <v>1.8624999999999998</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6297,8 +6416,8 @@
         <v>3517</v>
       </c>
       <c r="B14" s="35">
-        <f>Quiz!V14</f>
-        <v>0.32631578947368423</v>
+        <f>Quiz!W14</f>
+        <v>0.31</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!L14</f>
@@ -6314,7 +6433,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.8163157894736841</v>
+        <v>1.8</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6330,8 +6449,8 @@
         <v>4490</v>
       </c>
       <c r="B15" s="35">
-        <f>Quiz!V15</f>
-        <v>0.67368421052631577</v>
+        <f>Quiz!W15</f>
+        <v>0.69</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!L15</f>
@@ -6347,7 +6466,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.0411842105263158</v>
+        <v>3.0575000000000001</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6363,8 +6482,8 @@
         <v>4582</v>
       </c>
       <c r="B16" s="35">
-        <f>Quiz!V16</f>
-        <v>0.57894736842105265</v>
+        <f>Quiz!W16</f>
+        <v>0.6</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!L16</f>
@@ -6380,7 +6499,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.5189473684210526</v>
+        <v>2.54</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6396,8 +6515,8 @@
         <v>4622</v>
       </c>
       <c r="B17" s="35">
-        <f>Quiz!V17</f>
-        <v>0.69122807017543864</v>
+        <f>Quiz!W17</f>
+        <v>0.68666666666666665</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!L17</f>
@@ -6413,7 +6532,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0212280701754386</v>
+        <v>2.0166666666666666</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6429,8 +6548,8 @@
         <v>5500</v>
       </c>
       <c r="B18" s="35">
-        <f>Quiz!V18</f>
-        <v>0.65263157894736845</v>
+        <f>Quiz!W18</f>
+        <v>0.67</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!L18</f>
@@ -6446,7 +6565,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.4026315789473687</v>
+        <v>3.42</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6462,8 +6581,8 @@
         <v>5687</v>
       </c>
       <c r="B19" s="35">
-        <f>Quiz!V19</f>
-        <v>0.50526315789473686</v>
+        <f>Quiz!W19</f>
+        <v>0.49</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!L19</f>
@@ -6479,7 +6598,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.3527631578947368</v>
+        <v>2.3374999999999999</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6495,8 +6614,8 @@
         <v>5711</v>
       </c>
       <c r="B20" s="35">
-        <f>Quiz!V20</f>
-        <v>0.35789473684210527</v>
+        <f>Quiz!W20</f>
+        <v>0.34</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!L20</f>
@@ -6512,7 +6631,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.2903947368421052</v>
+        <v>2.2725</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6528,8 +6647,8 @@
         <v>5810</v>
       </c>
       <c r="B21" s="35">
-        <f>Quiz!V21</f>
-        <v>0.64210526315789473</v>
+        <f>Quiz!W21</f>
+        <v>0.66</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!L21</f>
@@ -6545,7 +6664,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.5496052631578947</v>
+        <v>3.5674999999999999</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6561,8 +6680,8 @@
         <v>6347</v>
       </c>
       <c r="B22" s="35">
-        <f>Quiz!V22</f>
-        <v>0.62807017543859645</v>
+        <f>Quiz!W22</f>
+        <v>0.64666666666666661</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!L22</f>
@@ -6578,7 +6697,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1055701754385963</v>
+        <v>3.1241666666666665</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6594,8 +6713,8 @@
         <v>7905</v>
       </c>
       <c r="B23" s="35">
-        <f>Quiz!V23</f>
-        <v>0.45263157894736844</v>
+        <f>Quiz!W23</f>
+        <v>0.43</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!L23</f>
@@ -6611,7 +6730,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0951315789473686</v>
+        <v>2.0724999999999998</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6627,8 +6746,8 @@
         <v>8335</v>
       </c>
       <c r="B24" s="35">
-        <f>Quiz!V24</f>
-        <v>0.25263157894736843</v>
+        <f>Quiz!W24</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!L24</f>
@@ -6644,7 +6763,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.4376315789473684</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6660,8 +6779,8 @@
         <v>8490</v>
       </c>
       <c r="B25" s="35">
-        <f>Quiz!V25</f>
-        <v>0.4631578947368421</v>
+        <f>Quiz!W25</f>
+        <v>0.49</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!L25</f>
@@ -6677,7 +6796,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6106578947368422</v>
+        <v>1.6375000000000002</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6693,8 +6812,8 @@
         <v>8688</v>
       </c>
       <c r="B26" s="35">
-        <f>Quiz!V26</f>
-        <v>0.62105263157894741</v>
+        <f>Quiz!W26</f>
+        <v>0.6</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!L26</f>
@@ -6710,7 +6829,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>2.9860526315789473</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6726,8 +6845,8 @@
         <v>8695</v>
       </c>
       <c r="B27" s="35">
-        <f>Quiz!V27</f>
-        <v>0.48070175438596491</v>
+        <f>Quiz!W27</f>
+        <v>0.45666666666666667</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!L27</f>
@@ -6743,7 +6862,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.7232017543859648</v>
+        <v>2.6991666666666667</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -6759,8 +6878,8 @@
         <v>8743</v>
       </c>
       <c r="B28" s="35">
-        <f>Quiz!V28</f>
-        <v>0.45263157894736844</v>
+        <f>Quiz!W28</f>
+        <v>0.44</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!L28</f>
@@ -6776,7 +6895,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.1876315789473684</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
@@ -6792,8 +6911,8 @@
         <v>8745</v>
       </c>
       <c r="B29" s="35">
-        <f>Quiz!V29</f>
-        <v>0.32631578947368423</v>
+        <f>Quiz!W29</f>
+        <v>0.36</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!L29</f>
@@ -6809,7 +6928,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.5238157894736841</v>
+        <v>2.5575000000000001</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6825,8 +6944,8 @@
         <v>9550</v>
       </c>
       <c r="B30" s="35">
-        <f>Quiz!V30</f>
-        <v>0.48421052631578948</v>
+        <f>Quiz!W30</f>
+        <v>0.49</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!L30</f>
@@ -6842,7 +6961,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6367105263157891</v>
+        <v>2.6424999999999996</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -6858,8 +6977,8 @@
         <v>9610</v>
       </c>
       <c r="B31" s="35">
-        <f>Quiz!V31</f>
-        <v>0.45263157894736844</v>
+        <f>Quiz!W31</f>
+        <v>0.48</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!L31</f>
@@ -6875,7 +6994,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.1251315789473684</v>
+        <v>3.1524999999999999</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -6891,8 +7010,8 @@
         <v>9611</v>
       </c>
       <c r="B32" s="35">
-        <f>Quiz!V32</f>
-        <v>0.45263157894736844</v>
+        <f>Quiz!W32</f>
+        <v>0.48</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!L32</f>
@@ -6908,7 +7027,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.0401315789473689</v>
+        <v>3.0675000000000003</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -6924,8 +7043,8 @@
         <v>9674</v>
       </c>
       <c r="B33" s="35">
-        <f>Quiz!V33</f>
-        <v>0.62807017543859645</v>
+        <f>Quiz!W33</f>
+        <v>0.64666666666666661</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!L33</f>
@@ -6941,7 +7060,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5005701754385963</v>
+        <v>3.5191666666666666</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -6967,7 +7086,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="46">
-        <f>Quiz!V35</f>
+        <f>Quiz!W35</f>
         <v>1</v>
       </c>
       <c r="C35" s="46">
@@ -6998,7 +7117,7 @@
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.45296052631578948</v>
+        <v>0.45718749999999997</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
@@ -7014,7 +7133,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4455386513157893</v>
+        <v>2.4497656249999999</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -7031,7 +7150,7 @@
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.21263303462700334</v>
+        <v>0.21586719230411475</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
@@ -7047,7 +7166,7 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0835936060343159</v>
+        <v>1.0883046859008367</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
@@ -7064,7 +7183,7 @@
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.45789473684210524</v>
+        <v>0.48</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
@@ -7080,7 +7199,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.5213815789473681</v>
+        <v>2.5487500000000001</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5664B-8322-2840-AA1F-61164D4BE759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09163A-53FE-894A-B967-1555F2F533E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Quiz Total</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Hm 8</t>
   </si>
   <si>
-    <t>Hm 9</t>
-  </si>
-  <si>
-    <t>Hm 10</t>
-  </si>
-  <si>
     <t>Hm Total</t>
   </si>
   <si>
@@ -194,6 +188,9 @@
   </si>
   <si>
     <t>Quiz 21</t>
+  </si>
+  <si>
+    <t>Quiz 22</t>
   </si>
 </sst>
 </file>
@@ -415,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +579,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,22 +993,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X134"/>
+  <dimension ref="A1:Y134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="5" customWidth="1"/>
-    <col min="3" max="22" width="11.83203125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="7" customWidth="1"/>
+    <col min="3" max="23" width="11.83203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="15.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -1058,31 +1058,34 @@
         <v>14</v>
       </c>
       <c r="Q1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="U1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>46</v>
-      </c>
       <c r="V1" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="X1"/>
-    </row>
-    <row r="2" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y1"/>
+    </row>
+    <row r="2" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="49">
         <v>3</v>
@@ -1144,16 +1147,19 @@
       <c r="U2" s="18">
         <v>9</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="35">
-        <f>$W$35 * ( (SUM(B2:V2))/((SUM($B$39:$V$39))*$B$35) )</f>
-        <v>0.41</v>
-      </c>
-      <c r="X2"/>
-    </row>
-    <row r="3" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="18">
+        <v>3</v>
+      </c>
+      <c r="W2" s="18"/>
+      <c r="X2" s="35">
+        <f>$X$35 * ( (SUM(B2:W2))/((SUM($B$39:$W$39))*$B$35) )</f>
+        <v>0.4</v>
+      </c>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="49">
         <v>15</v>
@@ -1215,16 +1221,19 @@
       <c r="U3" s="18">
         <v>9</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="35">
-        <f t="shared" ref="W3:W33" si="0">$W$35 * ( (SUM(B3:V3))/((SUM($B$39:$V$39))*$B$35) )</f>
-        <v>0.67333333333333334</v>
-      </c>
-      <c r="X3"/>
-    </row>
-    <row r="4" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18"/>
+      <c r="X3" s="35">
+        <f t="shared" ref="X3:X33" si="0">$X$35 * ( (SUM(B3:W3))/((SUM($B$39:$W$39))*$B$35) )</f>
+        <v>0.64126984126984132</v>
+      </c>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="49">
         <v>0</v>
@@ -1286,16 +1295,19 @@
       <c r="U4" s="18">
         <v>0</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="35">
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18"/>
+      <c r="X4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4"/>
-    </row>
-    <row r="5" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="49">
         <v>3</v>
@@ -1357,14 +1369,17 @@
       <c r="U5" s="18">
         <v>0</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="35">
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18"/>
+      <c r="X5" s="35">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="X5"/>
-    </row>
-    <row r="6" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>1019</v>
       </c>
@@ -1428,14 +1443,17 @@
       <c r="U6" s="18">
         <v>9</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="35">
-        <f>$W$35 * ( (SUM(B6:V6))/((SUM($B$39:$V$39))*$B$35) )</f>
-        <v>0.78666666666666663</v>
-      </c>
-      <c r="X6"/>
-    </row>
-    <row r="7" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6" s="18">
+        <v>15</v>
+      </c>
+      <c r="W6" s="18"/>
+      <c r="X6" s="35">
+        <f t="shared" si="0"/>
+        <v>0.79682539682539677</v>
+      </c>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>1395</v>
       </c>
@@ -1499,14 +1517,17 @@
       <c r="U7" s="18">
         <v>15</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="35">
+      <c r="V7" s="18">
+        <v>15</v>
+      </c>
+      <c r="W7" s="18"/>
+      <c r="X7" s="35">
         <f t="shared" si="0"/>
-        <v>0.64333333333333331</v>
-      </c>
-      <c r="X7"/>
-    </row>
-    <row r="8" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.6603174603174603</v>
+      </c>
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>1506</v>
       </c>
@@ -1570,14 +1591,17 @@
       <c r="U8" s="18">
         <v>9</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="35">
+      <c r="V8" s="18">
+        <v>3</v>
+      </c>
+      <c r="W8" s="18"/>
+      <c r="X8" s="35">
         <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-      <c r="X8"/>
-    </row>
-    <row r="9" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.40952380952380951</v>
+      </c>
+      <c r="Y8"/>
+    </row>
+    <row r="9" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>2441</v>
       </c>
@@ -1641,14 +1665,17 @@
       <c r="U9" s="18">
         <v>0</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="35">
+      <c r="V9" s="18">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="35">
         <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="X9"/>
-    </row>
-    <row r="10" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.6190476190476197E-2</v>
+      </c>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>2564</v>
       </c>
@@ -1712,14 +1739,17 @@
       <c r="U10" s="18">
         <v>15</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="35">
+      <c r="V10" s="18">
+        <v>3</v>
+      </c>
+      <c r="W10" s="18"/>
+      <c r="X10" s="35">
         <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="X10"/>
-    </row>
-    <row r="11" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.69523809523809521</v>
+      </c>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>2693</v>
       </c>
@@ -1783,14 +1813,17 @@
       <c r="U11" s="18">
         <v>0</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="35">
+      <c r="V11" s="18">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18"/>
+      <c r="X11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X11"/>
-    </row>
-    <row r="12" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>2771</v>
       </c>
@@ -1854,14 +1887,17 @@
       <c r="U12" s="18">
         <v>0</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="35">
+      <c r="V12" s="18">
+        <v>0</v>
+      </c>
+      <c r="W12" s="18"/>
+      <c r="X12" s="35">
         <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="X12"/>
-    </row>
-    <row r="13" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>2899</v>
       </c>
@@ -1925,14 +1961,17 @@
       <c r="U13" s="18">
         <v>3</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="35">
+      <c r="V13" s="18">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18"/>
+      <c r="X13" s="35">
         <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-      <c r="X13"/>
-    </row>
-    <row r="14" spans="1:24" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="Y13"/>
+    </row>
+    <row r="14" spans="1:25" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>3517</v>
       </c>
@@ -1996,13 +2035,16 @@
       <c r="U14" s="18">
         <v>0</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="35">
+      <c r="V14" s="18">
+        <v>0</v>
+      </c>
+      <c r="W14" s="18"/>
+      <c r="X14" s="35">
         <f t="shared" si="0"/>
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.29523809523809524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>4490</v>
       </c>
@@ -2066,14 +2108,17 @@
       <c r="U15" s="18">
         <v>15</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="35">
+      <c r="V15" s="18">
+        <v>15</v>
+      </c>
+      <c r="W15" s="18"/>
+      <c r="X15" s="35">
         <f t="shared" si="0"/>
-        <v>0.69</v>
-      </c>
-      <c r="X15"/>
-    </row>
-    <row r="16" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.70476190476190481</v>
+      </c>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>4582</v>
       </c>
@@ -2137,14 +2182,17 @@
       <c r="U16" s="18">
         <v>15</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="35">
+      <c r="V16" s="18">
+        <v>3</v>
+      </c>
+      <c r="W16" s="18"/>
+      <c r="X16" s="35">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="X16"/>
-    </row>
-    <row r="17" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.580952380952381</v>
+      </c>
+      <c r="Y16"/>
+    </row>
+    <row r="17" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>4622</v>
       </c>
@@ -2208,14 +2256,17 @@
       <c r="U17" s="18">
         <v>9</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="35">
+      <c r="V17" s="18">
+        <v>3</v>
+      </c>
+      <c r="W17" s="18"/>
+      <c r="X17" s="35">
         <f t="shared" si="0"/>
-        <v>0.68666666666666665</v>
-      </c>
-      <c r="X17"/>
-    </row>
-    <row r="18" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.66349206349206347</v>
+      </c>
+      <c r="Y17"/>
+    </row>
+    <row r="18" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>5500</v>
       </c>
@@ -2279,14 +2330,17 @@
       <c r="U18" s="18">
         <v>15</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="35">
+      <c r="V18" s="18">
+        <v>15</v>
+      </c>
+      <c r="W18" s="18"/>
+      <c r="X18" s="35">
         <f t="shared" si="0"/>
-        <v>0.67</v>
-      </c>
-      <c r="X18"/>
-    </row>
-    <row r="19" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="Y18"/>
+    </row>
+    <row r="19" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>5687</v>
       </c>
@@ -2350,14 +2404,17 @@
       <c r="U19" s="18">
         <v>3</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="35">
+      <c r="V19" s="18">
+        <v>15</v>
+      </c>
+      <c r="W19" s="18"/>
+      <c r="X19" s="35">
         <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="X19"/>
-    </row>
-    <row r="20" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="Y19"/>
+    </row>
+    <row r="20" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>5711</v>
       </c>
@@ -2421,14 +2478,17 @@
       <c r="U20" s="18">
         <v>0</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="35">
+      <c r="V20" s="18">
+        <v>3</v>
+      </c>
+      <c r="W20" s="18"/>
+      <c r="X20" s="35">
         <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="X20"/>
-    </row>
-    <row r="21" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y20"/>
+    </row>
+    <row r="21" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>5810</v>
       </c>
@@ -2492,14 +2552,17 @@
       <c r="U21" s="18">
         <v>15</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="35">
+      <c r="V21" s="18">
+        <v>15</v>
+      </c>
+      <c r="W21" s="18"/>
+      <c r="X21" s="35">
         <f t="shared" si="0"/>
-        <v>0.66</v>
-      </c>
-      <c r="X21"/>
-    </row>
-    <row r="22" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.67619047619047623</v>
+      </c>
+      <c r="Y21"/>
+    </row>
+    <row r="22" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>6347</v>
       </c>
@@ -2563,14 +2626,17 @@
       <c r="U22" s="18">
         <v>15</v>
       </c>
-      <c r="V22" s="18"/>
-      <c r="W22" s="35">
+      <c r="V22" s="18">
+        <v>15</v>
+      </c>
+      <c r="W22" s="18"/>
+      <c r="X22" s="35">
         <f t="shared" si="0"/>
-        <v>0.64666666666666661</v>
-      </c>
-      <c r="X22"/>
-    </row>
-    <row r="23" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.66349206349206347</v>
+      </c>
+      <c r="Y22"/>
+    </row>
+    <row r="23" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>7905</v>
       </c>
@@ -2634,14 +2700,17 @@
       <c r="U23" s="18">
         <v>0</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="35">
+      <c r="V23" s="18">
+        <v>15</v>
+      </c>
+      <c r="W23" s="18"/>
+      <c r="X23" s="35">
         <f t="shared" si="0"/>
-        <v>0.43</v>
-      </c>
-      <c r="X23"/>
-    </row>
-    <row r="24" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>8335</v>
       </c>
@@ -2705,14 +2774,17 @@
       <c r="U24" s="18">
         <v>15</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="35">
+      <c r="V24" s="18">
+        <v>0</v>
+      </c>
+      <c r="W24" s="18"/>
+      <c r="X24" s="35">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="X24"/>
-    </row>
-    <row r="25" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.27619047619047621</v>
+      </c>
+      <c r="Y24"/>
+    </row>
+    <row r="25" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>8490</v>
       </c>
@@ -2776,14 +2848,17 @@
       <c r="U25" s="18">
         <v>15</v>
       </c>
-      <c r="V25" s="18"/>
-      <c r="W25" s="35">
+      <c r="V25" s="18">
+        <v>3</v>
+      </c>
+      <c r="W25" s="18"/>
+      <c r="X25" s="35">
         <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="X25"/>
-    </row>
-    <row r="26" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>8688</v>
       </c>
@@ -2847,14 +2922,17 @@
       <c r="U26" s="18">
         <v>3</v>
       </c>
-      <c r="V26" s="18"/>
-      <c r="W26" s="35">
+      <c r="V26" s="18">
+        <v>15</v>
+      </c>
+      <c r="W26" s="18"/>
+      <c r="X26" s="35">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="X26"/>
-    </row>
-    <row r="27" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="Y26"/>
+    </row>
+    <row r="27" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>8695</v>
       </c>
@@ -2918,14 +2996,17 @@
       <c r="U27" s="18">
         <v>0</v>
       </c>
-      <c r="V27" s="18"/>
-      <c r="W27" s="35">
+      <c r="V27" s="18">
+        <v>15</v>
+      </c>
+      <c r="W27" s="18"/>
+      <c r="X27" s="35">
         <f t="shared" si="0"/>
-        <v>0.45666666666666667</v>
-      </c>
-      <c r="X27"/>
-    </row>
-    <row r="28" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.48253968253968255</v>
+      </c>
+      <c r="Y27"/>
+    </row>
+    <row r="28" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>8743</v>
       </c>
@@ -2989,14 +3070,17 @@
       <c r="U28" s="18">
         <v>3</v>
       </c>
-      <c r="V28" s="18"/>
-      <c r="W28" s="35">
+      <c r="V28" s="18">
+        <v>0</v>
+      </c>
+      <c r="W28" s="18"/>
+      <c r="X28" s="35">
         <f t="shared" si="0"/>
-        <v>0.44</v>
-      </c>
-      <c r="X28"/>
-    </row>
-    <row r="29" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.41904761904761906</v>
+      </c>
+      <c r="Y28"/>
+    </row>
+    <row r="29" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>8745</v>
       </c>
@@ -3060,14 +3144,17 @@
       <c r="U29" s="18">
         <v>15</v>
       </c>
-      <c r="V29" s="18"/>
-      <c r="W29" s="35">
+      <c r="V29" s="18">
+        <v>0</v>
+      </c>
+      <c r="W29" s="18"/>
+      <c r="X29" s="35">
         <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="X29"/>
-    </row>
-    <row r="30" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="Y29"/>
+    </row>
+    <row r="30" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>9550</v>
       </c>
@@ -3131,14 +3218,17 @@
       <c r="U30" s="18">
         <v>9</v>
       </c>
-      <c r="V30" s="18"/>
-      <c r="W30" s="35">
+      <c r="V30" s="18">
+        <v>15</v>
+      </c>
+      <c r="W30" s="18"/>
+      <c r="X30" s="35">
         <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="X30"/>
-    </row>
-    <row r="31" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="Y30"/>
+    </row>
+    <row r="31" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>9610</v>
       </c>
@@ -3202,14 +3292,17 @@
       <c r="U31" s="18">
         <v>15</v>
       </c>
-      <c r="V31" s="18"/>
-      <c r="W31" s="35">
+      <c r="V31" s="18">
+        <v>15</v>
+      </c>
+      <c r="W31" s="18"/>
+      <c r="X31" s="35">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="X31"/>
-    </row>
-    <row r="32" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.50476190476190474</v>
+      </c>
+      <c r="Y31"/>
+    </row>
+    <row r="32" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>9611</v>
       </c>
@@ -3273,14 +3366,17 @@
       <c r="U32" s="18">
         <v>15</v>
       </c>
-      <c r="V32" s="18"/>
-      <c r="W32" s="35">
+      <c r="V32" s="18">
+        <v>15</v>
+      </c>
+      <c r="W32" s="18"/>
+      <c r="X32" s="35">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="X32"/>
-    </row>
-    <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.50476190476190474</v>
+      </c>
+      <c r="Y32"/>
+    </row>
+    <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25">
         <v>9674</v>
       </c>
@@ -3344,14 +3440,17 @@
       <c r="U33" s="18">
         <v>15</v>
       </c>
-      <c r="V33" s="18"/>
-      <c r="W33" s="35">
+      <c r="V33" s="18">
+        <v>15</v>
+      </c>
+      <c r="W33" s="18"/>
+      <c r="X33" s="35">
         <f t="shared" si="0"/>
-        <v>0.64666666666666661</v>
-      </c>
-      <c r="X33"/>
-    </row>
-    <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.66349206349206347</v>
+      </c>
+      <c r="Y33"/>
+    </row>
+    <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -3375,11 +3474,12 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34"/>
-    </row>
-    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X34" s="1"/>
+      <c r="Y34"/>
+    </row>
+    <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="28">
         <v>15</v>
@@ -3444,17 +3544,20 @@
       <c r="V35" s="28">
         <v>15</v>
       </c>
-      <c r="W35" s="29">
+      <c r="W35" s="28">
+        <v>15</v>
+      </c>
+      <c r="X35" s="29">
         <v>1</v>
       </c>
-      <c r="X35"/>
-    </row>
-    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y35"/>
+    </row>
+    <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="31">
-        <f t="shared" ref="B36:W36" si="1">AVERAGE(B$2:B$33)</f>
+        <f t="shared" ref="B36:X36" si="1">AVERAGE(B$2:B$33)</f>
         <v>12.46875</v>
       </c>
       <c r="C36" s="31">
@@ -3533,22 +3636,26 @@
         <f t="shared" si="1"/>
         <v>8.15625</v>
       </c>
-      <c r="V36" s="31" t="e">
+      <c r="V36" s="31">
+        <f t="shared" si="1"/>
+        <v>7.21875</v>
+      </c>
+      <c r="W36" s="31" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W36" s="31">
+      <c r="X36" s="31">
         <f t="shared" si="1"/>
-        <v>0.45718749999999997</v>
-      </c>
-      <c r="X36"/>
-    </row>
-    <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Y36"/>
+    </row>
+    <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="31">
-        <f t="shared" ref="B37:W37" si="2">STDEV(B$2:B$33)</f>
+        <f t="shared" ref="B37:X37" si="2">STDEV(B$2:B$33)</f>
         <v>5.3940491403983577</v>
       </c>
       <c r="C37" s="31">
@@ -3627,22 +3734,26 @@
         <f t="shared" si="2"/>
         <v>6.5209804081802734</v>
       </c>
-      <c r="V37" s="31" t="e">
+      <c r="V37" s="31">
+        <f t="shared" si="2"/>
+        <v>7.0607245127650522</v>
+      </c>
+      <c r="W37" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W37" s="31">
+      <c r="X37" s="31">
         <f t="shared" si="2"/>
-        <v>0.21586719230411475</v>
-      </c>
-      <c r="X37"/>
-    </row>
-    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.21958755630809673</v>
+      </c>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="31">
-        <f t="shared" ref="B38:W38" si="3">MEDIAN(B$2:B$33)</f>
+        <f t="shared" ref="B38:X38" si="3">MEDIAN(B$2:B$33)</f>
         <v>15</v>
       </c>
       <c r="C38" s="31">
@@ -3721,22 +3832,26 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="V38" s="31" t="e">
+      <c r="V38" s="31">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="W38" s="31" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="W38" s="31">
+      <c r="X38" s="31">
         <f t="shared" si="3"/>
-        <v>0.48</v>
-      </c>
-      <c r="X38"/>
-    </row>
-    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.49365079365079367</v>
+      </c>
+      <c r="Y38"/>
+    </row>
+    <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" ref="B39:W39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
+        <f t="shared" ref="B39:X39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="C39" s="34">
@@ -3816,36 +3931,40 @@
         <v>1</v>
       </c>
       <c r="V39" s="34">
-        <f t="shared" ref="V39" si="5">IF(SUM(V2:V33)&gt;0,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="V39:W39" si="5">IF(SUM(V2:V33)&gt;0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="W39" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X39"/>
-    </row>
-    <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y39"/>
+    </row>
+    <row r="40" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48"/>
     </row>
     <row r="49" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4119,20 +4238,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="2" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
@@ -4160,19 +4279,13 @@
       <c r="I1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="48">
         <f>9+2+9+3+3.5+1+10+6+3+3</f>
@@ -4184,21 +4297,21 @@
       <c r="D2" s="55">
         <v>68.5</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="59">
+        <v>95</v>
+      </c>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="35">
-        <f t="shared" ref="L2:L33" si="0">IF(SUM($B$39:$K$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35+J2/$J$35+K2/$K$35)/SUM($B$39:$K$39),0)</f>
-        <v>0.72000000000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="35">
+        <f>IF(SUM($B$39:$I$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35)/SUM($B$39:$I$39),0)</f>
+        <v>0.89624999999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="48">
         <f>9+1+7+9+4.5+6+3+4+0+2</f>
@@ -4210,21 +4323,21 @@
       <c r="D3" s="56">
         <v>0</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="59">
+        <v>91</v>
+      </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="35">
-        <f t="shared" si="0"/>
-        <v>0.52749999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="35">
+        <f t="shared" ref="J3:J33" si="0">IF(SUM($B$39:$I$39)&gt;0,1.5*(B3/$B$35+C3/$C$35+D3/$D$35+E3/$E$35+F3/$F$35+G3/$G$35+H3/$H$35+I3/$I$35)/SUM($B$39:$I$39),0)</f>
+        <v>0.73687499999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="48">
         <v>0</v>
@@ -4235,21 +4348,21 @@
       <c r="D4" s="55">
         <v>0</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="59">
+        <v>0</v>
+      </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="35">
+      <c r="J4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="48">
         <f>9+8+10+3+2+8+10+4+3</f>
@@ -4261,19 +4374,19 @@
       <c r="D5" s="57">
         <v>57.5</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="59">
+        <v>99</v>
+      </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35">
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>0.70750000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.90187500000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>1019</v>
       </c>
@@ -4287,19 +4400,19 @@
       <c r="D6" s="56">
         <v>89.5</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="59">
+        <v>92</v>
+      </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="35">
+      <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>1.3674999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.370625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>1395</v>
       </c>
@@ -4313,19 +4426,19 @@
       <c r="D7" s="18">
         <v>64.5</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="59">
+        <v>98</v>
+      </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="35">
+      <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>0.84000000000000019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.99750000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>1506</v>
       </c>
@@ -4339,19 +4452,19 @@
       <c r="D8" s="55">
         <v>76</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="59">
+        <v>80</v>
+      </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="35">
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>1.0725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.1043750000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>2441</v>
       </c>
@@ -4364,19 +4477,19 @@
       <c r="D9" s="56">
         <v>0</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="59">
+        <v>0</v>
+      </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="35">
+      <c r="J9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>2564</v>
       </c>
@@ -4390,19 +4503,19 @@
       <c r="D10" s="56">
         <v>99.5</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="18">
+        <v>100</v>
+      </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="35">
+      <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>1.4025000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.4268750000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>2693</v>
       </c>
@@ -4415,19 +4528,19 @@
       <c r="D11" s="55">
         <v>0</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="59">
+        <v>17</v>
+      </c>
       <c r="F11" s="44"/>
       <c r="G11" s="45"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="35">
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.3750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>2771</v>
       </c>
@@ -4440,19 +4553,19 @@
       <c r="D12" s="55">
         <v>0</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="35">
+      <c r="J12" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>2899</v>
       </c>
@@ -4466,19 +4579,19 @@
       <c r="D13" s="56">
         <v>95</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="59">
+        <v>53</v>
+      </c>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="35">
+      <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.92062500000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>3517</v>
       </c>
@@ -4492,19 +4605,19 @@
       <c r="D14" s="56">
         <v>50.5</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="59">
+        <v>79.5</v>
+      </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="35">
+      <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>0.64999999999999991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.78562499999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>4490</v>
       </c>
@@ -4518,19 +4631,19 @@
       <c r="D15" s="56">
         <v>78</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="59">
+        <v>97</v>
+      </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="35">
+      <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>0.89750000000000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.036875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>4582</v>
       </c>
@@ -4544,19 +4657,19 @@
       <c r="D16" s="55">
         <v>35</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="59">
+        <v>95.5</v>
+      </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="35">
+      <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.82312499999999988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>4622</v>
       </c>
@@ -4569,19 +4682,19 @@
       <c r="D17" s="56">
         <v>86</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="59">
+        <v>90</v>
+      </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="35">
+      <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>5500</v>
       </c>
@@ -4595,19 +4708,19 @@
       <c r="D18" s="55">
         <v>94.5</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="59">
+        <v>100</v>
+      </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="35">
+      <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>5687</v>
       </c>
@@ -4621,19 +4734,19 @@
       <c r="D19" s="56">
         <v>0</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="59">
+        <v>63.5</v>
+      </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="35">
+      <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>0.37749999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.52124999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>5711</v>
       </c>
@@ -4647,19 +4760,19 @@
       <c r="D20" s="56">
         <v>74.5</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="59">
+        <v>0</v>
+      </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="35">
+      <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>0.76249999999999984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.57187499999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>5810</v>
       </c>
@@ -4673,19 +4786,19 @@
       <c r="D21" s="56">
         <v>94.5</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="59">
+        <v>98</v>
+      </c>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="35">
+      <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>1.3474999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.3781249999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>6347</v>
       </c>
@@ -4699,19 +4812,19 @@
       <c r="D22" s="56">
         <v>60.5</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="59">
+        <v>95</v>
+      </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="35">
+      <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>0.85749999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.99937500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>7905</v>
       </c>
@@ -4725,19 +4838,19 @@
       <c r="D23" s="55">
         <v>0</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="59">
+        <v>62</v>
+      </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="35">
+      <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>0.65249999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.72187499999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>8335</v>
       </c>
@@ -4751,19 +4864,19 @@
       <c r="D24" s="56">
         <v>0</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="59">
+        <v>90.5</v>
+      </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="35">
+      <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.83062499999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>8490</v>
       </c>
@@ -4777,19 +4890,19 @@
       <c r="D25" s="55">
         <v>27</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="59">
+        <v>94</v>
+      </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="35">
+      <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>0.60750000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.80812500000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>8688</v>
       </c>
@@ -4803,19 +4916,19 @@
       <c r="D26" s="56">
         <v>87.5</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="18">
+        <v>98</v>
+      </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="35">
+      <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>1.0449999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.1512499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>8695</v>
       </c>
@@ -4829,19 +4942,19 @@
       <c r="D27" s="56">
         <v>0</v>
       </c>
-      <c r="E27" s="49"/>
+      <c r="E27" s="59">
+        <v>66</v>
+      </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="35">
+      <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.66937500000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>8743</v>
       </c>
@@ -4855,19 +4968,19 @@
       <c r="D28" s="55">
         <v>39</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="59">
+        <v>55.5</v>
+      </c>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="35">
+      <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.58687500000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>8745</v>
       </c>
@@ -4881,19 +4994,19 @@
       <c r="D29" s="18">
         <v>22</v>
       </c>
-      <c r="E29" s="49"/>
+      <c r="E29" s="59">
+        <v>0</v>
+      </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="35">
+      <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>0.75749999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.56812499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>9550</v>
       </c>
@@ -4907,19 +5020,19 @@
       <c r="D30" s="56">
         <v>0</v>
       </c>
-      <c r="E30" s="49"/>
+      <c r="E30" s="59">
+        <v>57</v>
+      </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="35">
+      <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>0.41249999999999992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.52312500000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>9610</v>
       </c>
@@ -4933,19 +5046,19 @@
       <c r="D31" s="55">
         <v>65.5</v>
       </c>
-      <c r="E31" s="49"/>
+      <c r="E31" s="59">
+        <v>75.5</v>
+      </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="35">
+      <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>0.90249999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>9611</v>
       </c>
@@ -4959,19 +5072,19 @@
       <c r="D32" s="55">
         <v>64.5</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="59">
+        <v>75.5</v>
+      </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="35">
+      <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>0.90750000000000008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.96374999999999988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25">
         <v>9674</v>
       </c>
@@ -4985,19 +5098,19 @@
       <c r="D33" s="18">
         <v>99.5</v>
       </c>
-      <c r="E33" s="49"/>
+      <c r="E33" s="59">
+        <v>96</v>
+      </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="35">
+      <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>1.3724999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.389375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5007,12 +5120,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="41">
         <v>100</v>
@@ -5038,22 +5149,16 @@
       <c r="I35" s="41">
         <v>100</v>
       </c>
-      <c r="J35" s="41">
-        <v>100</v>
-      </c>
-      <c r="K35" s="41">
-        <v>100</v>
-      </c>
-      <c r="L35" s="29">
+      <c r="J35" s="29">
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="31">
-        <f t="shared" ref="B36:L36" si="1">AVERAGE(B$2:B$33)</f>
+        <f t="shared" ref="B36:J36" si="1">AVERAGE(B$2:B$33)</f>
         <v>50.140625</v>
       </c>
       <c r="C36" s="31">
@@ -5064,9 +5169,9 @@
         <f t="shared" si="1"/>
         <v>47.78125</v>
       </c>
-      <c r="E36" s="31" t="e">
+      <c r="E36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>69.171875</v>
       </c>
       <c r="F36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -5084,25 +5189,17 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="31" t="e">
+      <c r="J36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="31">
-        <f t="shared" si="1"/>
-        <v>0.72414062499999987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.8025000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="31">
-        <f t="shared" ref="B37:L37" si="2">STDEV(B$2:B$33)</f>
+        <f t="shared" ref="B37:J37" si="2">STDEV(B$2:B$33)</f>
         <v>27.590973972624898</v>
       </c>
       <c r="C37" s="31">
@@ -5113,9 +5210,9 @@
         <f t="shared" si="2"/>
         <v>38.049190890469077</v>
       </c>
-      <c r="E37" s="31" t="e">
+      <c r="E37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>35.445462281806506</v>
       </c>
       <c r="F37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -5133,25 +5230,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="31" t="e">
+      <c r="J37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="31">
-        <f t="shared" si="2"/>
-        <v>0.39855566321841179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.39823311883303203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="31">
-        <f t="shared" ref="B38:L38" si="3">MEDIAN(B$2:B$33)</f>
+        <f t="shared" ref="B38:J38" si="3">MEDIAN(B$2:B$33)</f>
         <v>53.5</v>
       </c>
       <c r="C38" s="31">
@@ -5162,9 +5251,9 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="E38" s="31" t="e">
+      <c r="E38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>85</v>
       </c>
       <c r="F38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -5182,25 +5271,17 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="J38" s="31" t="e">
+      <c r="J38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K38" s="31" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L38" s="31">
-        <f t="shared" si="3"/>
-        <v>0.71375000000000011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.82687499999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" ref="B39:K39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
+        <f t="shared" ref="B39:I39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="C39" s="34">
@@ -5213,7 +5294,7 @@
       </c>
       <c r="E39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="4"/>
@@ -5231,15 +5312,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J39" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
@@ -5249,19 +5324,17 @@
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="17"/>
-    </row>
-    <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="V39" s="17"/>
+    </row>
+    <row r="40" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5301,7 +5374,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>1</v>
@@ -5311,7 +5384,7 @@
     </row>
     <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="44">
         <f>10+8</f>
@@ -5324,7 +5397,7 @@
     </row>
     <row r="3" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="44">
         <f>28+33</f>
@@ -5337,7 +5410,7 @@
     </row>
     <row r="4" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -5347,7 +5420,7 @@
     </row>
     <row r="5" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="44">
         <f>18+3</f>
@@ -5485,7 +5558,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5698,7 +5771,7 @@
     </row>
     <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="42">
         <v>100</v>
@@ -5710,7 +5783,7 @@
     </row>
     <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="43">
         <f>AVERAGE(B$2:B$33)</f>
@@ -5724,7 +5797,7 @@
     </row>
     <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="43">
         <f>STDEV(B$2:B$33)</f>
@@ -5738,7 +5811,7 @@
     </row>
     <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="43">
         <f>MEDIAN(B$2:B$33)</f>
@@ -5972,8 +6045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5998,7 +6071,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>1</v>
@@ -6016,15 +6089,15 @@
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="35">
-        <f>Quiz!W2</f>
-        <v>0.41</v>
+        <f>Quiz!X2</f>
+        <v>0.4</v>
       </c>
       <c r="C2" s="52">
-        <f>Homework!L2</f>
-        <v>0.72000000000000008</v>
+        <f>Homework!J2</f>
+        <v>0.89624999999999988</v>
       </c>
       <c r="D2" s="44">
         <f>Exams!B2</f>
@@ -6036,11 +6109,11 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.6700000000000002</v>
+        <v>1.8362499999999999</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="53">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -6050,15 +6123,15 @@
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="35">
-        <f>Quiz!W3</f>
-        <v>0.67333333333333334</v>
+        <f>Quiz!X3</f>
+        <v>0.64126984126984132</v>
       </c>
       <c r="C3" s="52">
-        <f>Homework!L3</f>
-        <v>0.52749999999999997</v>
+        <f>Homework!J3</f>
+        <v>0.73687499999999995</v>
       </c>
       <c r="D3" s="44">
         <f>Exams!B3</f>
@@ -6070,7 +6143,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.0308333333333333</v>
+        <v>3.2081448412698412</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6083,14 +6156,14 @@
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="35">
-        <f>Quiz!W4</f>
+        <f>Quiz!X4</f>
         <v>0</v>
       </c>
       <c r="C4" s="52">
-        <f>Homework!L4</f>
+        <f>Homework!J4</f>
         <v>0</v>
       </c>
       <c r="D4" s="44">
@@ -6116,15 +6189,15 @@
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="35">
-        <f>Quiz!W5</f>
-        <v>0.35</v>
+        <f>Quiz!X5</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="52">
-        <f>Homework!L5</f>
-        <v>0.70750000000000002</v>
+        <f>Homework!J5</f>
+        <v>0.90187500000000009</v>
       </c>
       <c r="D5" s="44">
         <f>Exams!B5</f>
@@ -6136,11 +6209,11 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.6875</v>
+        <v>1.8652083333333334</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="2"/>
@@ -6152,12 +6225,12 @@
         <v>1019</v>
       </c>
       <c r="B6" s="35">
-        <f>Quiz!W6</f>
-        <v>0.78666666666666663</v>
+        <f>Quiz!X6</f>
+        <v>0.79682539682539677</v>
       </c>
       <c r="C6" s="52">
-        <f>Homework!L6</f>
-        <v>1.3674999999999999</v>
+        <f>Homework!J6</f>
+        <v>1.370625</v>
       </c>
       <c r="D6" s="44">
         <f>Exams!B6</f>
@@ -6169,7 +6242,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0041666666666664</v>
+        <v>5.0174503968253958</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -6185,12 +6258,12 @@
         <v>1395</v>
       </c>
       <c r="B7" s="35">
-        <f>Quiz!W7</f>
-        <v>0.64333333333333331</v>
+        <f>Quiz!X7</f>
+        <v>0.6603174603174603</v>
       </c>
       <c r="C7" s="52">
-        <f>Homework!L7</f>
-        <v>0.84000000000000019</v>
+        <f>Homework!J7</f>
+        <v>0.99750000000000005</v>
       </c>
       <c r="D7" s="44">
         <f>Exams!B7</f>
@@ -6202,7 +6275,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>2.9833333333333334</v>
+        <v>3.1578174603174602</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -6218,12 +6291,12 @@
         <v>1506</v>
       </c>
       <c r="B8" s="35">
-        <f>Quiz!W8</f>
-        <v>0.42</v>
+        <f>Quiz!X8</f>
+        <v>0.40952380952380951</v>
       </c>
       <c r="C8" s="52">
-        <f>Homework!L8</f>
-        <v>1.0725</v>
+        <f>Homework!J8</f>
+        <v>1.1043750000000001</v>
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
@@ -6235,7 +6308,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6025</v>
+        <v>2.6238988095238094</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -6251,11 +6324,11 @@
         <v>2441</v>
       </c>
       <c r="B9" s="35">
-        <f>Quiz!W9</f>
-        <v>0.08</v>
+        <f>Quiz!X9</f>
+        <v>7.6190476190476197E-2</v>
       </c>
       <c r="C9" s="52">
-        <f>Homework!L9</f>
+        <f>Homework!J9</f>
         <v>0</v>
       </c>
       <c r="D9" s="44">
@@ -6268,7 +6341,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>7.6190476190476197E-2</v>
       </c>
       <c r="G9" s="35">
         <f t="shared" si="1"/>
@@ -6284,12 +6357,12 @@
         <v>2564</v>
       </c>
       <c r="B10" s="35">
-        <f>Quiz!W10</f>
-        <v>0.72</v>
+        <f>Quiz!X10</f>
+        <v>0.69523809523809521</v>
       </c>
       <c r="C10" s="52">
-        <f>Homework!L10</f>
-        <v>1.4025000000000001</v>
+        <f>Homework!J10</f>
+        <v>1.4268750000000001</v>
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
@@ -6301,7 +6374,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.5824999999999996</v>
+        <v>4.5821130952380953</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -6317,12 +6390,12 @@
         <v>2693</v>
       </c>
       <c r="B11" s="35">
-        <f>Quiz!W11</f>
+        <f>Quiz!X11</f>
         <v>0</v>
       </c>
       <c r="C11" s="52">
-        <f>Homework!L11</f>
-        <v>0</v>
+        <f>Homework!J11</f>
+        <v>6.3750000000000001E-2</v>
       </c>
       <c r="D11" s="44">
         <f>Exams!B11</f>
@@ -6334,11 +6407,11 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.78374999999999995</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="53">
         <f t="shared" si="2"/>
@@ -6350,11 +6423,11 @@
         <v>2771</v>
       </c>
       <c r="B12" s="35">
-        <f>Quiz!W12</f>
-        <v>0.02</v>
+        <f>Quiz!X12</f>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="C12" s="52">
-        <f>Homework!L12</f>
+        <f>Homework!J12</f>
         <v>0</v>
       </c>
       <c r="D12" s="44">
@@ -6367,7 +6440,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0699999999999998</v>
+        <v>1.0690476190476188</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
@@ -6383,12 +6456,12 @@
         <v>2899</v>
       </c>
       <c r="B13" s="35">
-        <f>Quiz!W13</f>
-        <v>0.27</v>
+        <f>Quiz!X13</f>
+        <v>0.25714285714285712</v>
       </c>
       <c r="C13" s="52">
-        <f>Homework!L13</f>
-        <v>0.96250000000000002</v>
+        <f>Homework!J13</f>
+        <v>0.92062500000000003</v>
       </c>
       <c r="D13" s="44">
         <f>Exams!B13</f>
@@ -6400,7 +6473,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.8624999999999998</v>
+        <v>1.8077678571428573</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6416,12 +6489,12 @@
         <v>3517</v>
       </c>
       <c r="B14" s="35">
-        <f>Quiz!W14</f>
-        <v>0.31</v>
+        <f>Quiz!X14</f>
+        <v>0.29523809523809524</v>
       </c>
       <c r="C14" s="52">
-        <f>Homework!L14</f>
-        <v>0.64999999999999991</v>
+        <f>Homework!J14</f>
+        <v>0.78562499999999991</v>
       </c>
       <c r="D14" s="44">
         <f>Exams!B14</f>
@@ -6433,7 +6506,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>1.9208630952380952</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6449,12 +6522,12 @@
         <v>4490</v>
       </c>
       <c r="B15" s="35">
-        <f>Quiz!W15</f>
-        <v>0.69</v>
+        <f>Quiz!X15</f>
+        <v>0.70476190476190481</v>
       </c>
       <c r="C15" s="52">
-        <f>Homework!L15</f>
-        <v>0.89750000000000008</v>
+        <f>Homework!J15</f>
+        <v>1.036875</v>
       </c>
       <c r="D15" s="44">
         <f>Exams!B15</f>
@@ -6466,7 +6539,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.0575000000000001</v>
+        <v>3.2116369047619049</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6482,12 +6555,12 @@
         <v>4582</v>
       </c>
       <c r="B16" s="35">
-        <f>Quiz!W16</f>
-        <v>0.6</v>
+        <f>Quiz!X16</f>
+        <v>0.580952380952381</v>
       </c>
       <c r="C16" s="52">
-        <f>Homework!L16</f>
-        <v>0.62</v>
+        <f>Homework!J16</f>
+        <v>0.82312499999999988</v>
       </c>
       <c r="D16" s="44">
         <f>Exams!B16</f>
@@ -6499,7 +6572,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.54</v>
+        <v>2.7240773809523811</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6515,12 +6588,12 @@
         <v>4622</v>
       </c>
       <c r="B17" s="35">
-        <f>Quiz!W17</f>
-        <v>0.68666666666666665</v>
+        <f>Quiz!X17</f>
+        <v>0.66349206349206347</v>
       </c>
       <c r="C17" s="52">
-        <f>Homework!L17</f>
-        <v>0.43</v>
+        <f>Homework!J17</f>
+        <v>0.66</v>
       </c>
       <c r="D17" s="44">
         <f>Exams!B17</f>
@@ -6532,7 +6605,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.0166666666666666</v>
+        <v>2.2234920634920634</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6548,12 +6621,12 @@
         <v>5500</v>
       </c>
       <c r="B18" s="35">
-        <f>Quiz!W18</f>
-        <v>0.67</v>
+        <f>Quiz!X18</f>
+        <v>0.68571428571428572</v>
       </c>
       <c r="C18" s="52">
-        <f>Homework!L18</f>
-        <v>1.25</v>
+        <f>Homework!J18</f>
+        <v>1.3125</v>
       </c>
       <c r="D18" s="44">
         <f>Exams!B18</f>
@@ -6565,7 +6638,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.42</v>
+        <v>3.4982142857142859</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6581,12 +6654,12 @@
         <v>5687</v>
       </c>
       <c r="B19" s="35">
-        <f>Quiz!W19</f>
-        <v>0.49</v>
+        <f>Quiz!X19</f>
+        <v>0.51428571428571423</v>
       </c>
       <c r="C19" s="52">
-        <f>Homework!L19</f>
-        <v>0.37749999999999995</v>
+        <f>Homework!J19</f>
+        <v>0.52124999999999999</v>
       </c>
       <c r="D19" s="44">
         <f>Exams!B19</f>
@@ -6598,7 +6671,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.3374999999999999</v>
+        <v>2.5055357142857142</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6614,12 +6687,12 @@
         <v>5711</v>
       </c>
       <c r="B20" s="35">
-        <f>Quiz!W20</f>
-        <v>0.34</v>
+        <f>Quiz!X20</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C20" s="52">
-        <f>Homework!L20</f>
-        <v>0.76249999999999984</v>
+        <f>Homework!J20</f>
+        <v>0.57187499999999991</v>
       </c>
       <c r="D20" s="44">
         <f>Exams!B20</f>
@@ -6631,11 +6704,11 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>2.2725</v>
+        <v>2.0752083333333333</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="53">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
@@ -6647,12 +6720,12 @@
         <v>5810</v>
       </c>
       <c r="B21" s="35">
-        <f>Quiz!W21</f>
-        <v>0.66</v>
+        <f>Quiz!X21</f>
+        <v>0.67619047619047623</v>
       </c>
       <c r="C21" s="52">
-        <f>Homework!L21</f>
-        <v>1.3474999999999999</v>
+        <f>Homework!J21</f>
+        <v>1.3781249999999998</v>
       </c>
       <c r="D21" s="44">
         <f>Exams!B21</f>
@@ -6664,7 +6737,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.5674999999999999</v>
+        <v>3.6143154761904763</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6680,12 +6753,12 @@
         <v>6347</v>
       </c>
       <c r="B22" s="35">
-        <f>Quiz!W22</f>
-        <v>0.64666666666666661</v>
+        <f>Quiz!X22</f>
+        <v>0.66349206349206347</v>
       </c>
       <c r="C22" s="52">
-        <f>Homework!L22</f>
-        <v>0.85749999999999993</v>
+        <f>Homework!J22</f>
+        <v>0.99937500000000001</v>
       </c>
       <c r="D22" s="44">
         <f>Exams!B22</f>
@@ -6697,11 +6770,11 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.1241666666666665</v>
+        <v>3.2828670634920636</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="53">
         <f t="shared" si="5"/>
@@ -6713,12 +6786,12 @@
         <v>7905</v>
       </c>
       <c r="B23" s="35">
-        <f>Quiz!W23</f>
-        <v>0.43</v>
+        <f>Quiz!X23</f>
+        <v>0.45714285714285713</v>
       </c>
       <c r="C23" s="52">
-        <f>Homework!L23</f>
-        <v>0.65249999999999997</v>
+        <f>Homework!J23</f>
+        <v>0.72187499999999993</v>
       </c>
       <c r="D23" s="44">
         <f>Exams!B23</f>
@@ -6730,7 +6803,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0724999999999998</v>
+        <v>2.1690178571428573</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6746,12 +6819,12 @@
         <v>8335</v>
       </c>
       <c r="B24" s="35">
-        <f>Quiz!W24</f>
-        <v>0.28999999999999998</v>
+        <f>Quiz!X24</f>
+        <v>0.27619047619047621</v>
       </c>
       <c r="C24" s="52">
-        <f>Homework!L24</f>
-        <v>0.65500000000000003</v>
+        <f>Homework!J24</f>
+        <v>0.83062499999999995</v>
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
@@ -6763,7 +6836,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.4750000000000001</v>
+        <v>2.6368154761904758</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6779,12 +6852,12 @@
         <v>8490</v>
       </c>
       <c r="B25" s="35">
-        <f>Quiz!W25</f>
-        <v>0.49</v>
+        <f>Quiz!X25</f>
+        <v>0.47619047619047616</v>
       </c>
       <c r="C25" s="52">
-        <f>Homework!L25</f>
-        <v>0.60750000000000004</v>
+        <f>Homework!J25</f>
+        <v>0.80812500000000009</v>
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
@@ -6796,11 +6869,11 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.6375000000000002</v>
+        <v>1.8243154761904763</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="53">
         <f t="shared" si="5"/>
@@ -6812,12 +6885,12 @@
         <v>8688</v>
       </c>
       <c r="B26" s="35">
-        <f>Quiz!W26</f>
-        <v>0.6</v>
+        <f>Quiz!X26</f>
+        <v>0.61904761904761907</v>
       </c>
       <c r="C26" s="52">
-        <f>Homework!L26</f>
-        <v>1.0449999999999999</v>
+        <f>Homework!J26</f>
+        <v>1.1512499999999999</v>
       </c>
       <c r="D26" s="44">
         <f>Exams!B26</f>
@@ -6829,7 +6902,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>2.9649999999999999</v>
+        <v>3.090297619047619</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6845,12 +6918,12 @@
         <v>8695</v>
       </c>
       <c r="B27" s="35">
-        <f>Quiz!W27</f>
-        <v>0.45666666666666667</v>
+        <f>Quiz!X27</f>
+        <v>0.48253968253968255</v>
       </c>
       <c r="C27" s="52">
-        <f>Homework!L27</f>
-        <v>0.5625</v>
+        <f>Homework!J27</f>
+        <v>0.66937500000000005</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
@@ -6862,11 +6935,11 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.6991666666666667</v>
+        <v>2.8319146825396828</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H27" s="53">
         <f t="shared" si="7"/>
@@ -6878,12 +6951,12 @@
         <v>8743</v>
       </c>
       <c r="B28" s="35">
-        <f>Quiz!W28</f>
-        <v>0.44</v>
+        <f>Quiz!X28</f>
+        <v>0.41904761904761906</v>
       </c>
       <c r="C28" s="52">
-        <f>Homework!L28</f>
-        <v>0.505</v>
+        <f>Homework!J28</f>
+        <v>0.58687500000000004</v>
       </c>
       <c r="D28" s="44">
         <f>Exams!B28</f>
@@ -6895,7 +6968,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.1749999999999998</v>
+        <v>2.2359226190476189</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
@@ -6911,12 +6984,12 @@
         <v>8745</v>
       </c>
       <c r="B29" s="35">
-        <f>Quiz!W29</f>
-        <v>0.36</v>
+        <f>Quiz!X29</f>
+        <v>0.34285714285714286</v>
       </c>
       <c r="C29" s="52">
-        <f>Homework!L29</f>
-        <v>0.75749999999999995</v>
+        <f>Homework!J29</f>
+        <v>0.56812499999999999</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
@@ -6928,7 +7001,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.5575000000000001</v>
+        <v>2.3509821428571427</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -6944,12 +7017,12 @@
         <v>9550</v>
       </c>
       <c r="B30" s="35">
-        <f>Quiz!W30</f>
-        <v>0.49</v>
+        <f>Quiz!X30</f>
+        <v>0.51428571428571423</v>
       </c>
       <c r="C30" s="52">
-        <f>Homework!L30</f>
-        <v>0.41249999999999992</v>
+        <f>Homework!J30</f>
+        <v>0.52312500000000006</v>
       </c>
       <c r="D30" s="44">
         <f>Exams!B30</f>
@@ -6961,11 +7034,11 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6424999999999996</v>
+        <v>2.7774107142857138</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H30" s="53">
         <f t="shared" si="7"/>
@@ -6977,12 +7050,12 @@
         <v>9610</v>
       </c>
       <c r="B31" s="35">
-        <f>Quiz!W31</f>
-        <v>0.48</v>
+        <f>Quiz!X31</f>
+        <v>0.50476190476190474</v>
       </c>
       <c r="C31" s="52">
-        <f>Homework!L31</f>
-        <v>0.90249999999999997</v>
+        <f>Homework!J31</f>
+        <v>0.96</v>
       </c>
       <c r="D31" s="44">
         <f>Exams!B31</f>
@@ -6994,7 +7067,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.1524999999999999</v>
+        <v>3.2347619047619047</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -7010,12 +7083,12 @@
         <v>9611</v>
       </c>
       <c r="B32" s="35">
-        <f>Quiz!W32</f>
-        <v>0.48</v>
+        <f>Quiz!X32</f>
+        <v>0.50476190476190474</v>
       </c>
       <c r="C32" s="52">
-        <f>Homework!L32</f>
-        <v>0.90750000000000008</v>
+        <f>Homework!J32</f>
+        <v>0.96374999999999988</v>
       </c>
       <c r="D32" s="44">
         <f>Exams!B32</f>
@@ -7027,7 +7100,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.0675000000000003</v>
+        <v>3.1485119047619046</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -7043,12 +7116,12 @@
         <v>9674</v>
       </c>
       <c r="B33" s="35">
-        <f>Quiz!W33</f>
-        <v>0.64666666666666661</v>
+        <f>Quiz!X33</f>
+        <v>0.66349206349206347</v>
       </c>
       <c r="C33" s="52">
-        <f>Homework!L33</f>
-        <v>1.3724999999999998</v>
+        <f>Homework!J33</f>
+        <v>1.389375</v>
       </c>
       <c r="D33" s="44">
         <f>Exams!B33</f>
@@ -7060,7 +7133,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5191666666666666</v>
+        <v>3.5528670634920636</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -7083,14 +7156,14 @@
     </row>
     <row r="35" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="46">
-        <f>Quiz!W35</f>
+        <f>Quiz!X35</f>
         <v>1</v>
       </c>
       <c r="C35" s="46">
-        <f>Homework!L35</f>
+        <f>Homework!J35</f>
         <v>1.5</v>
       </c>
       <c r="D35" s="28">
@@ -7113,15 +7186,15 @@
     </row>
     <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="31">
         <f t="shared" ref="B36:H36" si="8">AVERAGE(B$2:B$33)</f>
-        <v>0.45718749999999997</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.72414062499999987</v>
+        <v>0.8025000000000001</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -7133,11 +7206,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.4497656249999999</v>
+        <v>2.5292708333333334</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.40625</v>
+        <v>2.5</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -7146,15 +7219,15 @@
     </row>
     <row r="37" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="31">
         <f t="shared" ref="B37:H37" si="9">STDEV(B$2:B$33)</f>
-        <v>0.21586719230411475</v>
+        <v>0.21958755630809673</v>
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.39855566321841179</v>
+        <v>0.39823311883303203</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -7166,11 +7239,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0883046859008367</v>
+        <v>1.0971645450757976</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1030566037007086</v>
+        <v>1.0701220913160239</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -7179,15 +7252,15 @@
     </row>
     <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="31">
         <f t="shared" ref="B38:H38" si="10">MEDIAN(B$2:B$33)</f>
-        <v>0.48</v>
+        <v>0.49365079365079367</v>
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>0.71375000000000011</v>
+        <v>0.82687499999999992</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
@@ -7199,7 +7272,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.5487500000000001</v>
+        <v>2.6303571428571426</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09163A-53FE-894A-B967-1555F2F533E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC09474-87D3-B24A-8567-121C5916A15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -4240,7 +4240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -4995,7 +4995,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="59">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -5003,7 +5003,7 @@
       <c r="I29" s="44"/>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>0.56812499999999999</v>
+        <v>0.92062500000000003</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="E36" s="31">
         <f t="shared" si="1"/>
-        <v>69.171875</v>
+        <v>72.109375</v>
       </c>
       <c r="F36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="J36" s="31">
         <f t="shared" si="1"/>
-        <v>0.8025000000000001</v>
+        <v>0.81351562500000019</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="E37" s="31">
         <f t="shared" si="2"/>
-        <v>35.445462281806506</v>
+        <v>33.361832155294842</v>
       </c>
       <c r="F37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="J37" s="31">
         <f t="shared" si="2"/>
-        <v>0.39823311883303203</v>
+        <v>0.39641201245541391</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="E38" s="31">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>90.25</v>
       </c>
       <c r="F38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="J38" s="31">
         <f t="shared" si="3"/>
-        <v>0.82687499999999992</v>
+        <v>0.86343749999999986</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6045,7 +6045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C29" s="52">
         <f>Homework!J29</f>
-        <v>0.56812499999999999</v>
+        <v>0.92062500000000003</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.3509821428571427</v>
+        <v>2.7034821428571427</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.8025000000000001</v>
+        <v>0.81351562500000019</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.5292708333333334</v>
+        <v>2.5402864583333331</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.39823311883303203</v>
+        <v>0.39641201245541391</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0971645450757976</v>
+        <v>1.0970863306447536</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>0.82687499999999992</v>
+        <v>0.86343749999999986</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.6303571428571426</v>
+        <v>2.6701488095238091</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B64A22E-09E5-FA41-A59C-39A3C97CB7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B8B02C-E44A-8A44-A9F1-8C696B447E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>Quiz Total</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Quiz 21</t>
-  </si>
-  <si>
-    <t>Quiz 22</t>
   </si>
 </sst>
 </file>
@@ -993,22 +990,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y134"/>
+  <dimension ref="A1:X134"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="5" customWidth="1"/>
-    <col min="3" max="23" width="11.83203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="14.83203125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" style="7" customWidth="1"/>
+    <col min="3" max="22" width="11.83203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -1075,15 +1072,12 @@
       <c r="V1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="39" t="s">
+      <c r="W1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>47</v>
       </c>
@@ -1150,14 +1144,13 @@
       <c r="V2" s="18">
         <v>3</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="35">
-        <f>$X$35 * ( (SUM(B2:W2))/((SUM($B$39:$W$39))*$B$35) )</f>
+      <c r="W2" s="35">
+        <f t="shared" ref="W2:W33" si="0">$W$35 * ( (SUM(B2:V2))/((SUM($B$39:$V$39))*$B$35) )</f>
         <v>0.4</v>
       </c>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>45</v>
       </c>
@@ -1224,14 +1217,13 @@
       <c r="V3" s="18">
         <v>0</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="35">
-        <f t="shared" ref="X3:X33" si="0">$X$35 * ( (SUM(B3:W3))/((SUM($B$39:$W$39))*$B$35) )</f>
+      <c r="W3" s="35">
+        <f t="shared" si="0"/>
         <v>0.64126984126984132</v>
       </c>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
@@ -1298,14 +1290,13 @@
       <c r="V4" s="18">
         <v>0</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="35">
+      <c r="W4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
         <v>46</v>
       </c>
@@ -1372,14 +1363,13 @@
       <c r="V5" s="18">
         <v>0</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="35">
+      <c r="W5" s="35">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>1019</v>
       </c>
@@ -1446,14 +1436,13 @@
       <c r="V6" s="18">
         <v>15</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="35">
+      <c r="W6" s="35">
         <f t="shared" si="0"/>
         <v>0.79682539682539677</v>
       </c>
-      <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>1395</v>
       </c>
@@ -1520,14 +1509,13 @@
       <c r="V7" s="18">
         <v>15</v>
       </c>
-      <c r="W7" s="18"/>
-      <c r="X7" s="35">
+      <c r="W7" s="35">
         <f t="shared" si="0"/>
         <v>0.6603174603174603</v>
       </c>
-      <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>1506</v>
       </c>
@@ -1594,14 +1582,13 @@
       <c r="V8" s="18">
         <v>3</v>
       </c>
-      <c r="W8" s="18"/>
-      <c r="X8" s="35">
+      <c r="W8" s="35">
         <f t="shared" si="0"/>
         <v>0.40952380952380951</v>
       </c>
-      <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>2441</v>
       </c>
@@ -1668,14 +1655,13 @@
       <c r="V9" s="18">
         <v>0</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="35">
+      <c r="W9" s="35">
         <f t="shared" si="0"/>
         <v>7.6190476190476197E-2</v>
       </c>
-      <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>2564</v>
       </c>
@@ -1742,14 +1728,13 @@
       <c r="V10" s="18">
         <v>3</v>
       </c>
-      <c r="W10" s="18"/>
-      <c r="X10" s="35">
+      <c r="W10" s="35">
         <f t="shared" si="0"/>
         <v>0.69523809523809521</v>
       </c>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>2693</v>
       </c>
@@ -1816,14 +1801,13 @@
       <c r="V11" s="18">
         <v>0</v>
       </c>
-      <c r="W11" s="18"/>
-      <c r="X11" s="35">
+      <c r="W11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>2771</v>
       </c>
@@ -1890,14 +1874,13 @@
       <c r="V12" s="18">
         <v>0</v>
       </c>
-      <c r="W12" s="18"/>
-      <c r="X12" s="35">
+      <c r="W12" s="35">
         <f t="shared" si="0"/>
         <v>1.9047619047619049E-2</v>
       </c>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>2899</v>
       </c>
@@ -1964,14 +1947,13 @@
       <c r="V13" s="18">
         <v>0</v>
       </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="35">
+      <c r="W13" s="35">
         <f t="shared" si="0"/>
         <v>0.25714285714285712</v>
       </c>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>3517</v>
       </c>
@@ -2038,13 +2020,12 @@
       <c r="V14" s="18">
         <v>0</v>
       </c>
-      <c r="W14" s="18"/>
-      <c r="X14" s="35">
+      <c r="W14" s="35">
         <f t="shared" si="0"/>
         <v>0.29523809523809524</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>4490</v>
       </c>
@@ -2111,14 +2092,13 @@
       <c r="V15" s="18">
         <v>15</v>
       </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="35">
+      <c r="W15" s="35">
         <f t="shared" si="0"/>
         <v>0.70476190476190481</v>
       </c>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>4582</v>
       </c>
@@ -2185,14 +2165,13 @@
       <c r="V16" s="18">
         <v>3</v>
       </c>
-      <c r="W16" s="18"/>
-      <c r="X16" s="35">
+      <c r="W16" s="35">
         <f t="shared" si="0"/>
         <v>0.580952380952381</v>
       </c>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>4622</v>
       </c>
@@ -2259,14 +2238,13 @@
       <c r="V17" s="18">
         <v>3</v>
       </c>
-      <c r="W17" s="18"/>
-      <c r="X17" s="35">
+      <c r="W17" s="35">
         <f t="shared" si="0"/>
         <v>0.66349206349206347</v>
       </c>
-      <c r="Y17"/>
-    </row>
-    <row r="18" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>5500</v>
       </c>
@@ -2333,14 +2311,13 @@
       <c r="V18" s="18">
         <v>15</v>
       </c>
-      <c r="W18" s="18"/>
-      <c r="X18" s="35">
+      <c r="W18" s="35">
         <f t="shared" si="0"/>
         <v>0.68571428571428572</v>
       </c>
-      <c r="Y18"/>
-    </row>
-    <row r="19" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>5687</v>
       </c>
@@ -2407,14 +2384,13 @@
       <c r="V19" s="18">
         <v>15</v>
       </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="35">
+      <c r="W19" s="35">
         <f t="shared" si="0"/>
         <v>0.51428571428571423</v>
       </c>
-      <c r="Y19"/>
-    </row>
-    <row r="20" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>5711</v>
       </c>
@@ -2481,14 +2457,13 @@
       <c r="V20" s="18">
         <v>3</v>
       </c>
-      <c r="W20" s="18"/>
-      <c r="X20" s="35">
+      <c r="W20" s="35">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y20"/>
-    </row>
-    <row r="21" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>5810</v>
       </c>
@@ -2555,14 +2530,13 @@
       <c r="V21" s="18">
         <v>15</v>
       </c>
-      <c r="W21" s="18"/>
-      <c r="X21" s="35">
+      <c r="W21" s="35">
         <f t="shared" si="0"/>
         <v>0.67619047619047623</v>
       </c>
-      <c r="Y21"/>
-    </row>
-    <row r="22" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>6347</v>
       </c>
@@ -2629,14 +2603,13 @@
       <c r="V22" s="18">
         <v>15</v>
       </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="35">
+      <c r="W22" s="35">
         <f t="shared" si="0"/>
         <v>0.66349206349206347</v>
       </c>
-      <c r="Y22"/>
-    </row>
-    <row r="23" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>7905</v>
       </c>
@@ -2703,14 +2676,13 @@
       <c r="V23" s="18">
         <v>15</v>
       </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="35">
+      <c r="W23" s="35">
         <f t="shared" si="0"/>
         <v>0.45714285714285713</v>
       </c>
-      <c r="Y23"/>
-    </row>
-    <row r="24" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>8335</v>
       </c>
@@ -2777,14 +2749,13 @@
       <c r="V24" s="18">
         <v>0</v>
       </c>
-      <c r="W24" s="18"/>
-      <c r="X24" s="35">
+      <c r="W24" s="35">
         <f t="shared" si="0"/>
         <v>0.27619047619047621</v>
       </c>
-      <c r="Y24"/>
-    </row>
-    <row r="25" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>8490</v>
       </c>
@@ -2851,14 +2822,13 @@
       <c r="V25" s="18">
         <v>3</v>
       </c>
-      <c r="W25" s="18"/>
-      <c r="X25" s="35">
+      <c r="W25" s="35">
         <f t="shared" si="0"/>
         <v>0.47619047619047616</v>
       </c>
-      <c r="Y25"/>
-    </row>
-    <row r="26" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>8688</v>
       </c>
@@ -2925,14 +2895,13 @@
       <c r="V26" s="18">
         <v>15</v>
       </c>
-      <c r="W26" s="18"/>
-      <c r="X26" s="35">
+      <c r="W26" s="35">
         <f t="shared" si="0"/>
         <v>0.61904761904761907</v>
       </c>
-      <c r="Y26"/>
-    </row>
-    <row r="27" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>8695</v>
       </c>
@@ -2999,14 +2968,13 @@
       <c r="V27" s="18">
         <v>15</v>
       </c>
-      <c r="W27" s="18"/>
-      <c r="X27" s="35">
+      <c r="W27" s="35">
         <f t="shared" si="0"/>
         <v>0.48253968253968255</v>
       </c>
-      <c r="Y27"/>
-    </row>
-    <row r="28" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>8743</v>
       </c>
@@ -3073,14 +3041,13 @@
       <c r="V28" s="18">
         <v>0</v>
       </c>
-      <c r="W28" s="18"/>
-      <c r="X28" s="35">
+      <c r="W28" s="35">
         <f t="shared" si="0"/>
         <v>0.41904761904761906</v>
       </c>
-      <c r="Y28"/>
-    </row>
-    <row r="29" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>8745</v>
       </c>
@@ -3147,14 +3114,13 @@
       <c r="V29" s="18">
         <v>0</v>
       </c>
-      <c r="W29" s="18"/>
-      <c r="X29" s="35">
+      <c r="W29" s="35">
         <f t="shared" si="0"/>
         <v>0.34285714285714286</v>
       </c>
-      <c r="Y29"/>
-    </row>
-    <row r="30" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>9550</v>
       </c>
@@ -3221,14 +3187,13 @@
       <c r="V30" s="18">
         <v>15</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="35">
+      <c r="W30" s="35">
         <f t="shared" si="0"/>
         <v>0.51428571428571423</v>
       </c>
-      <c r="Y30"/>
-    </row>
-    <row r="31" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>9610</v>
       </c>
@@ -3295,14 +3260,13 @@
       <c r="V31" s="18">
         <v>15</v>
       </c>
-      <c r="W31" s="18"/>
-      <c r="X31" s="35">
+      <c r="W31" s="35">
         <f t="shared" si="0"/>
         <v>0.50476190476190474</v>
       </c>
-      <c r="Y31"/>
-    </row>
-    <row r="32" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>9611</v>
       </c>
@@ -3369,14 +3333,13 @@
       <c r="V32" s="18">
         <v>15</v>
       </c>
-      <c r="W32" s="18"/>
-      <c r="X32" s="35">
+      <c r="W32" s="35">
         <f t="shared" si="0"/>
         <v>0.50476190476190474</v>
       </c>
-      <c r="Y32"/>
-    </row>
-    <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25">
         <v>9674</v>
       </c>
@@ -3443,14 +3406,13 @@
       <c r="V33" s="18">
         <v>15</v>
       </c>
-      <c r="W33" s="18"/>
-      <c r="X33" s="35">
+      <c r="W33" s="35">
         <f t="shared" si="0"/>
         <v>0.66349206349206347</v>
       </c>
-      <c r="Y33"/>
-    </row>
-    <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -3474,10 +3436,9 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34"/>
-    </row>
-    <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
         <v>32</v>
       </c>
@@ -3544,20 +3505,17 @@
       <c r="V35" s="28">
         <v>15</v>
       </c>
-      <c r="W35" s="28">
-        <v>15</v>
-      </c>
-      <c r="X35" s="29">
+      <c r="W35" s="29">
         <v>1</v>
       </c>
-      <c r="Y35"/>
-    </row>
-    <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="31">
-        <f t="shared" ref="B36:X36" si="1">AVERAGE(B$2:B$33)</f>
+        <f t="shared" ref="B36:W36" si="1">AVERAGE(B$2:B$33)</f>
         <v>12.46875</v>
       </c>
       <c r="C36" s="31">
@@ -3640,22 +3598,18 @@
         <f t="shared" si="1"/>
         <v>7.21875</v>
       </c>
-      <c r="W36" s="31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" s="31">
+      <c r="W36" s="31">
         <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="Y36"/>
-    </row>
-    <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="31">
-        <f t="shared" ref="B37:X37" si="2">STDEV(B$2:B$33)</f>
+        <f t="shared" ref="B37:W37" si="2">STDEV(B$2:B$33)</f>
         <v>5.3940491403983577</v>
       </c>
       <c r="C37" s="31">
@@ -3738,22 +3692,18 @@
         <f t="shared" si="2"/>
         <v>7.0607245127650522</v>
       </c>
-      <c r="W37" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" s="31">
+      <c r="W37" s="31">
         <f t="shared" si="2"/>
         <v>0.21958755630809673</v>
       </c>
-      <c r="Y37"/>
-    </row>
-    <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="31">
-        <f t="shared" ref="B38:X38" si="3">MEDIAN(B$2:B$33)</f>
+        <f t="shared" ref="B38:W38" si="3">MEDIAN(B$2:B$33)</f>
         <v>15</v>
       </c>
       <c r="C38" s="31">
@@ -3836,22 +3786,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="W38" s="31" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="X38" s="31">
+      <c r="W38" s="31">
         <f t="shared" si="3"/>
         <v>0.49365079365079367</v>
       </c>
-      <c r="Y38"/>
-    </row>
-    <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="34">
-        <f t="shared" ref="B39:X39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
+        <f t="shared" ref="B39:W39" si="4">IF(SUM(B2:B33)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="C39" s="34">
@@ -3931,40 +3877,36 @@
         <v>1</v>
       </c>
       <c r="V39" s="34">
-        <f t="shared" ref="V39:W39" si="5">IF(SUM(V2:V33)&gt;0,1,0)</f>
+        <f t="shared" ref="V39" si="5">IF(SUM(V2:V33)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="W39" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y39"/>
-    </row>
-    <row r="40" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48"/>
     </row>
     <row r="49" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4303,12 +4245,14 @@
       <c r="F2" s="54">
         <v>50</v>
       </c>
-      <c r="G2" s="44"/>
+      <c r="G2" s="54">
+        <v>64.5</v>
+      </c>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="35">
         <f>IF(SUM($B$39:$I$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35)/SUM($B$39:$I$39),0)</f>
-        <v>0.86699999999999977</v>
+        <v>0.88374999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4331,12 +4275,14 @@
       <c r="F3" s="54">
         <v>63</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="54">
+        <v>40</v>
+      </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="35">
         <f t="shared" ref="J3:J33" si="0">IF(SUM($B$39:$I$39)&gt;0,1.5*(B3/$B$35+C3/$C$35+D3/$D$35+E3/$E$35+F3/$F$35+G3/$G$35+H3/$H$35+I3/$I$35)/SUM($B$39:$I$39),0)</f>
-        <v>0.77849999999999997</v>
+        <v>0.74874999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4358,7 +4304,9 @@
       <c r="F4" s="54">
         <v>0</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="54">
+        <v>0</v>
+      </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="35">
@@ -4386,12 +4334,14 @@
       <c r="F5" s="54">
         <v>59</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="54">
+        <v>74.5</v>
+      </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
       <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>0.89849999999999997</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4414,12 +4364,14 @@
       <c r="F6" s="54">
         <v>87</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="54">
+        <v>85.5</v>
+      </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>1.3574999999999999</v>
+        <v>1.3449999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4442,12 +4394,14 @@
       <c r="F7" s="54">
         <v>76</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="54">
+        <v>87.5</v>
+      </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>1.026</v>
+        <v>1.07375</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4470,12 +4424,14 @@
       <c r="F8" s="54">
         <v>80.5</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="54">
+        <v>84</v>
+      </c>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>1.1250000000000002</v>
+        <v>1.1475000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4497,7 +4453,9 @@
       <c r="F9" s="54">
         <v>0</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="54">
+        <v>0</v>
+      </c>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
       <c r="J9" s="35">
@@ -4525,12 +4483,14 @@
       <c r="F10" s="54">
         <v>99.5</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="54">
+        <v>94.5</v>
+      </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
       <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>1.44</v>
+        <v>1.43625</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4552,12 +4512,14 @@
       <c r="F11" s="54">
         <v>0</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>5.1000000000000004E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4579,7 +4541,9 @@
       <c r="F12" s="54">
         <v>0</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="54">
+        <v>0</v>
+      </c>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="J12" s="35">
@@ -4607,12 +4571,14 @@
       <c r="F13" s="54">
         <v>34</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="54">
+        <v>0</v>
+      </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>0.83850000000000002</v>
+        <v>0.69874999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4635,12 +4601,14 @@
       <c r="F14" s="54">
         <v>61.5</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="54">
+        <v>68.5</v>
+      </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>0.81299999999999994</v>
+        <v>0.84875</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4663,12 +4631,14 @@
       <c r="F15" s="54">
         <v>74</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="54">
+        <v>87.5</v>
+      </c>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>1.0515000000000001</v>
+        <v>1.095</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4691,12 +4661,14 @@
       <c r="F16" s="54">
         <v>73</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="54">
+        <v>66.5</v>
+      </c>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
       <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>0.87749999999999984</v>
+        <v>0.89749999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4718,12 +4690,14 @@
       <c r="F17" s="54">
         <v>65</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="54">
+        <v>72.5</v>
+      </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>0.72300000000000009</v>
+        <v>0.78375000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4746,12 +4720,14 @@
       <c r="F18" s="54">
         <v>84</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="54">
+        <v>100</v>
+      </c>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
       <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>1.302</v>
+        <v>1.335</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4774,12 +4750,14 @@
       <c r="F19" s="54">
         <v>78</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="54">
+        <v>36.5</v>
+      </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>0.65100000000000002</v>
+        <v>0.63375000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,12 +4780,14 @@
       <c r="F20" s="54">
         <v>0</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="54">
+        <v>0</v>
+      </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
       <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>0.45749999999999991</v>
+        <v>0.38124999999999992</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4830,12 +4810,14 @@
       <c r="F21" s="54">
         <v>99</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="54">
+        <v>99.5</v>
+      </c>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>1.3995000000000002</v>
+        <v>1.415</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4858,12 +4840,14 @@
       <c r="F22" s="54">
         <v>78</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="54">
+        <v>78.5</v>
+      </c>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>1.0335000000000001</v>
+        <v>1.0575000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4886,12 +4870,14 @@
       <c r="F23" s="54">
         <v>22.5</v>
       </c>
-      <c r="G23" s="44"/>
+      <c r="G23" s="54">
+        <v>0</v>
+      </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>0.64499999999999991</v>
+        <v>0.53749999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4914,12 +4900,14 @@
       <c r="F24" s="54">
         <v>74.5</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="54">
+        <v>58</v>
+      </c>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>0.8879999999999999</v>
+        <v>0.88500000000000012</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4942,12 +4930,14 @@
       <c r="F25" s="54">
         <v>75</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="54">
+        <v>20</v>
+      </c>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>0.87149999999999994</v>
+        <v>0.77625000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4970,12 +4960,14 @@
       <c r="F26" s="54">
         <v>79</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="54">
+        <v>81.5</v>
+      </c>
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>1.1579999999999999</v>
+        <v>1.16875</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4998,12 +4990,14 @@
       <c r="F27" s="54">
         <v>78.5</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="54">
+        <v>0</v>
+      </c>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>0.77100000000000013</v>
+        <v>0.64250000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5026,12 +5020,14 @@
       <c r="F28" s="54">
         <v>55</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="54">
+        <v>0</v>
+      </c>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>0.63450000000000006</v>
+        <v>0.52875000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5054,12 +5050,14 @@
       <c r="F29" s="54">
         <v>74</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="54">
+        <v>56.5</v>
+      </c>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>0.95850000000000013</v>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5082,12 +5080,14 @@
       <c r="F30" s="54">
         <v>0</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="54">
+        <v>14</v>
+      </c>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
       <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>0.41850000000000004</v>
+        <v>0.38375000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5110,12 +5110,14 @@
       <c r="F31" s="54">
         <v>74</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="54">
+        <v>61</v>
+      </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>0.98999999999999988</v>
+        <v>0.97749999999999992</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5138,12 +5140,14 @@
       <c r="F32" s="54">
         <v>74</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="54">
+        <v>61</v>
+      </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>0.99299999999999999</v>
+        <v>0.97999999999999987</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5166,12 +5170,14 @@
       <c r="F33" s="54">
         <v>99</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="54">
+        <v>100</v>
+      </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>1.4085000000000001</v>
+        <v>1.4237500000000001</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5241,9 +5247,9 @@
         <f t="shared" si="1"/>
         <v>58.34375</v>
       </c>
-      <c r="G36" s="31" t="e">
+      <c r="G36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>49.75</v>
       </c>
       <c r="H36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -5255,7 +5261,7 @@
       </c>
       <c r="J36" s="31">
         <f t="shared" si="1"/>
-        <v>0.8258437500000001</v>
+        <v>0.81257812500000015</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5282,9 +5288,9 @@
         <f t="shared" si="2"/>
         <v>32.666308356055531</v>
       </c>
-      <c r="G37" s="31" t="e">
+      <c r="G37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>37.554047073689716</v>
       </c>
       <c r="H37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -5296,7 +5302,7 @@
       </c>
       <c r="J37" s="31">
         <f t="shared" si="2"/>
-        <v>0.40326185036484335</v>
+        <v>0.41791351666256743</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5323,9 +5329,9 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="G38" s="31" t="e">
+      <c r="G38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>61</v>
       </c>
       <c r="H38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -5337,7 +5343,7 @@
       </c>
       <c r="J38" s="31">
         <f t="shared" si="3"/>
-        <v>0.87449999999999983</v>
+        <v>0.88437500000000002</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5366,7 +5372,7 @@
       </c>
       <c r="G39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="34">
         <f t="shared" si="4"/>
@@ -6156,12 +6162,12 @@
         <v>47</v>
       </c>
       <c r="B2" s="35">
-        <f>Quiz!X2</f>
+        <f>Quiz!W2</f>
         <v>0.4</v>
       </c>
       <c r="C2" s="52">
         <f>Homework!J2</f>
-        <v>0.86699999999999977</v>
+        <v>0.88374999999999992</v>
       </c>
       <c r="D2" s="44">
         <f>Exams!B2</f>
@@ -6173,7 +6179,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.8069999999999999</v>
+        <v>1.82375</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6190,12 +6196,12 @@
         <v>45</v>
       </c>
       <c r="B3" s="35">
-        <f>Quiz!X3</f>
+        <f>Quiz!W3</f>
         <v>0.64126984126984132</v>
       </c>
       <c r="C3" s="52">
         <f>Homework!J3</f>
-        <v>0.77849999999999997</v>
+        <v>0.74874999999999992</v>
       </c>
       <c r="D3" s="44">
         <f>Exams!B3</f>
@@ -6207,7 +6213,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.2497698412698415</v>
+        <v>3.2200198412698411</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6223,7 +6229,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="35">
-        <f>Quiz!X4</f>
+        <f>Quiz!W4</f>
         <v>0</v>
       </c>
       <c r="C4" s="52">
@@ -6256,12 +6262,12 @@
         <v>46</v>
       </c>
       <c r="B5" s="35">
-        <f>Quiz!X5</f>
+        <f>Quiz!W5</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="52">
         <f>Homework!J5</f>
-        <v>0.89849999999999997</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D5" s="44">
         <f>Exams!B5</f>
@@ -6273,7 +6279,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.8618333333333332</v>
+        <v>1.8983333333333334</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -6289,12 +6295,12 @@
         <v>1019</v>
       </c>
       <c r="B6" s="35">
-        <f>Quiz!X6</f>
+        <f>Quiz!W6</f>
         <v>0.79682539682539677</v>
       </c>
       <c r="C6" s="52">
         <f>Homework!J6</f>
-        <v>1.3574999999999999</v>
+        <v>1.3449999999999998</v>
       </c>
       <c r="D6" s="44">
         <f>Exams!B6</f>
@@ -6306,7 +6312,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0043253968253962</v>
+        <v>4.9918253968253961</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -6322,12 +6328,12 @@
         <v>1395</v>
       </c>
       <c r="B7" s="35">
-        <f>Quiz!X7</f>
+        <f>Quiz!W7</f>
         <v>0.6603174603174603</v>
       </c>
       <c r="C7" s="52">
         <f>Homework!J7</f>
-        <v>1.026</v>
+        <v>1.07375</v>
       </c>
       <c r="D7" s="44">
         <f>Exams!B7</f>
@@ -6339,7 +6345,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.1863174603174604</v>
+        <v>3.2340674603174602</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -6355,12 +6361,12 @@
         <v>1506</v>
       </c>
       <c r="B8" s="35">
-        <f>Quiz!X8</f>
+        <f>Quiz!W8</f>
         <v>0.40952380952380951</v>
       </c>
       <c r="C8" s="52">
         <f>Homework!J8</f>
-        <v>1.1250000000000002</v>
+        <v>1.1475000000000002</v>
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
@@ -6372,7 +6378,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6445238095238097</v>
+        <v>2.6670238095238097</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -6388,7 +6394,7 @@
         <v>2441</v>
       </c>
       <c r="B9" s="35">
-        <f>Quiz!X9</f>
+        <f>Quiz!W9</f>
         <v>7.6190476190476197E-2</v>
       </c>
       <c r="C9" s="52">
@@ -6421,12 +6427,12 @@
         <v>2564</v>
       </c>
       <c r="B10" s="35">
-        <f>Quiz!X10</f>
+        <f>Quiz!W10</f>
         <v>0.69523809523809521</v>
       </c>
       <c r="C10" s="52">
         <f>Homework!J10</f>
-        <v>1.44</v>
+        <v>1.43625</v>
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
@@ -6438,7 +6444,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.5952380952380949</v>
+        <v>4.5914880952380948</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -6454,12 +6460,12 @@
         <v>2693</v>
       </c>
       <c r="B11" s="35">
-        <f>Quiz!X11</f>
+        <f>Quiz!W11</f>
         <v>0</v>
       </c>
       <c r="C11" s="52">
         <f>Homework!J11</f>
-        <v>5.1000000000000004E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="D11" s="44">
         <f>Exams!B11</f>
@@ -6471,7 +6477,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="0"/>
-        <v>0.77100000000000002</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
@@ -6487,7 +6493,7 @@
         <v>2771</v>
       </c>
       <c r="B12" s="35">
-        <f>Quiz!X12</f>
+        <f>Quiz!W12</f>
         <v>1.9047619047619049E-2</v>
       </c>
       <c r="C12" s="52">
@@ -6520,12 +6526,12 @@
         <v>2899</v>
       </c>
       <c r="B13" s="35">
-        <f>Quiz!X13</f>
+        <f>Quiz!W13</f>
         <v>0.25714285714285712</v>
       </c>
       <c r="C13" s="52">
         <f>Homework!J13</f>
-        <v>0.83850000000000002</v>
+        <v>0.69874999999999998</v>
       </c>
       <c r="D13" s="44">
         <f>Exams!B13</f>
@@ -6537,7 +6543,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.7256428571428573</v>
+        <v>1.585892857142857</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6553,12 +6559,12 @@
         <v>3517</v>
       </c>
       <c r="B14" s="35">
-        <f>Quiz!X14</f>
+        <f>Quiz!W14</f>
         <v>0.29523809523809524</v>
       </c>
       <c r="C14" s="52">
         <f>Homework!J14</f>
-        <v>0.81299999999999994</v>
+        <v>0.84875</v>
       </c>
       <c r="D14" s="44">
         <f>Exams!B14</f>
@@ -6570,7 +6576,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.9482380952380953</v>
+        <v>1.9839880952380953</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6586,12 +6592,12 @@
         <v>4490</v>
       </c>
       <c r="B15" s="35">
-        <f>Quiz!X15</f>
+        <f>Quiz!W15</f>
         <v>0.70476190476190481</v>
       </c>
       <c r="C15" s="52">
         <f>Homework!J15</f>
-        <v>1.0515000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="D15" s="44">
         <f>Exams!B15</f>
@@ -6603,11 +6609,11 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.2262619047619046</v>
+        <v>3.2697619047619044</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="2"/>
@@ -6619,12 +6625,12 @@
         <v>4582</v>
       </c>
       <c r="B16" s="35">
-        <f>Quiz!X16</f>
+        <f>Quiz!W16</f>
         <v>0.580952380952381</v>
       </c>
       <c r="C16" s="52">
         <f>Homework!J16</f>
-        <v>0.87749999999999984</v>
+        <v>0.89749999999999996</v>
       </c>
       <c r="D16" s="44">
         <f>Exams!B16</f>
@@ -6636,7 +6642,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.7784523809523809</v>
+        <v>2.7984523809523809</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6652,12 +6658,12 @@
         <v>4622</v>
       </c>
       <c r="B17" s="35">
-        <f>Quiz!X17</f>
+        <f>Quiz!W17</f>
         <v>0.66349206349206347</v>
       </c>
       <c r="C17" s="52">
         <f>Homework!J17</f>
-        <v>0.72300000000000009</v>
+        <v>0.78375000000000006</v>
       </c>
       <c r="D17" s="44">
         <f>Exams!B17</f>
@@ -6669,7 +6675,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.2864920634920636</v>
+        <v>2.3472420634920637</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6685,12 +6691,12 @@
         <v>5500</v>
       </c>
       <c r="B18" s="35">
-        <f>Quiz!X18</f>
+        <f>Quiz!W18</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="C18" s="52">
         <f>Homework!J18</f>
-        <v>1.302</v>
+        <v>1.335</v>
       </c>
       <c r="D18" s="44">
         <f>Exams!B18</f>
@@ -6702,7 +6708,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.4877142857142855</v>
+        <v>3.5207142857142859</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6718,12 +6724,12 @@
         <v>5687</v>
       </c>
       <c r="B19" s="35">
-        <f>Quiz!X19</f>
+        <f>Quiz!W19</f>
         <v>0.51428571428571423</v>
       </c>
       <c r="C19" s="52">
         <f>Homework!J19</f>
-        <v>0.65100000000000002</v>
+        <v>0.63375000000000004</v>
       </c>
       <c r="D19" s="44">
         <f>Exams!B19</f>
@@ -6735,7 +6741,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.6352857142857142</v>
+        <v>2.618035714285714</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6751,12 +6757,12 @@
         <v>5711</v>
       </c>
       <c r="B20" s="35">
-        <f>Quiz!X20</f>
+        <f>Quiz!W20</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C20" s="52">
         <f>Homework!J20</f>
-        <v>0.45749999999999991</v>
+        <v>0.38124999999999992</v>
       </c>
       <c r="D20" s="44">
         <f>Exams!B20</f>
@@ -6768,7 +6774,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>1.9608333333333332</v>
+        <v>1.8845833333333331</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6784,12 +6790,12 @@
         <v>5810</v>
       </c>
       <c r="B21" s="35">
-        <f>Quiz!X21</f>
+        <f>Quiz!W21</f>
         <v>0.67619047619047623</v>
       </c>
       <c r="C21" s="52">
         <f>Homework!J21</f>
-        <v>1.3995000000000002</v>
+        <v>1.415</v>
       </c>
       <c r="D21" s="44">
         <f>Exams!B21</f>
@@ -6801,7 +6807,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6356904761904763</v>
+        <v>3.6511904761904765</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6817,12 +6823,12 @@
         <v>6347</v>
       </c>
       <c r="B22" s="35">
-        <f>Quiz!X22</f>
+        <f>Quiz!W22</f>
         <v>0.66349206349206347</v>
       </c>
       <c r="C22" s="52">
         <f>Homework!J22</f>
-        <v>1.0335000000000001</v>
+        <v>1.0575000000000001</v>
       </c>
       <c r="D22" s="44">
         <f>Exams!B22</f>
@@ -6834,7 +6840,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.3169920634920635</v>
+        <v>3.3409920634920636</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6850,12 +6856,12 @@
         <v>7905</v>
       </c>
       <c r="B23" s="35">
-        <f>Quiz!X23</f>
+        <f>Quiz!W23</f>
         <v>0.45714285714285713</v>
       </c>
       <c r="C23" s="52">
         <f>Homework!J23</f>
-        <v>0.64499999999999991</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D23" s="44">
         <f>Exams!B23</f>
@@ -6867,7 +6873,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0921428571428571</v>
+        <v>1.9846428571428572</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6883,12 +6889,12 @@
         <v>8335</v>
       </c>
       <c r="B24" s="35">
-        <f>Quiz!X24</f>
+        <f>Quiz!W24</f>
         <v>0.27619047619047621</v>
       </c>
       <c r="C24" s="52">
         <f>Homework!J24</f>
-        <v>0.8879999999999999</v>
+        <v>0.88500000000000012</v>
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
@@ -6900,7 +6906,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.6941904761904762</v>
+        <v>2.6911904761904761</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6916,12 +6922,12 @@
         <v>8490</v>
       </c>
       <c r="B25" s="35">
-        <f>Quiz!X25</f>
+        <f>Quiz!W25</f>
         <v>0.47619047619047616</v>
       </c>
       <c r="C25" s="52">
         <f>Homework!J25</f>
-        <v>0.87149999999999994</v>
+        <v>0.77625000000000011</v>
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
@@ -6933,7 +6939,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.887690476190476</v>
+        <v>1.7924404761904764</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6949,12 +6955,12 @@
         <v>8688</v>
       </c>
       <c r="B26" s="35">
-        <f>Quiz!X26</f>
+        <f>Quiz!W26</f>
         <v>0.61904761904761907</v>
       </c>
       <c r="C26" s="52">
         <f>Homework!J26</f>
-        <v>1.1579999999999999</v>
+        <v>1.16875</v>
       </c>
       <c r="D26" s="44">
         <f>Exams!B26</f>
@@ -6966,7 +6972,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.0970476190476193</v>
+        <v>3.1077976190476191</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6982,12 +6988,12 @@
         <v>8695</v>
       </c>
       <c r="B27" s="35">
-        <f>Quiz!X27</f>
+        <f>Quiz!W27</f>
         <v>0.48253968253968255</v>
       </c>
       <c r="C27" s="52">
         <f>Homework!J27</f>
-        <v>0.77100000000000013</v>
+        <v>0.64250000000000007</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
@@ -6999,7 +7005,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.9335396825396831</v>
+        <v>2.8050396825396828</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -7015,12 +7021,12 @@
         <v>8743</v>
       </c>
       <c r="B28" s="35">
-        <f>Quiz!X28</f>
+        <f>Quiz!W28</f>
         <v>0.41904761904761906</v>
       </c>
       <c r="C28" s="52">
         <f>Homework!J28</f>
-        <v>0.63450000000000006</v>
+        <v>0.52875000000000005</v>
       </c>
       <c r="D28" s="44">
         <f>Exams!B28</f>
@@ -7032,11 +7038,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2835476190476189</v>
+        <v>2.1777976190476194</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -7048,12 +7054,12 @@
         <v>8745</v>
       </c>
       <c r="B29" s="35">
-        <f>Quiz!X29</f>
+        <f>Quiz!W29</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="C29" s="52">
         <f>Homework!J29</f>
-        <v>0.95850000000000013</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
@@ -7065,7 +7071,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.7413571428571428</v>
+        <v>2.7228571428571429</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -7081,12 +7087,12 @@
         <v>9550</v>
       </c>
       <c r="B30" s="35">
-        <f>Quiz!X30</f>
+        <f>Quiz!W30</f>
         <v>0.51428571428571423</v>
       </c>
       <c r="C30" s="52">
         <f>Homework!J30</f>
-        <v>0.41850000000000004</v>
+        <v>0.38375000000000004</v>
       </c>
       <c r="D30" s="44">
         <f>Exams!B30</f>
@@ -7098,7 +7104,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6727857142857143</v>
+        <v>2.638035714285714</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -7114,12 +7120,12 @@
         <v>9610</v>
       </c>
       <c r="B31" s="35">
-        <f>Quiz!X31</f>
+        <f>Quiz!W31</f>
         <v>0.50476190476190474</v>
       </c>
       <c r="C31" s="52">
         <f>Homework!J31</f>
-        <v>0.98999999999999988</v>
+        <v>0.97749999999999992</v>
       </c>
       <c r="D31" s="44">
         <f>Exams!B31</f>
@@ -7131,7 +7137,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.2647619047619045</v>
+        <v>3.2522619047619048</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -7147,12 +7153,12 @@
         <v>9611</v>
       </c>
       <c r="B32" s="35">
-        <f>Quiz!X32</f>
+        <f>Quiz!W32</f>
         <v>0.50476190476190474</v>
       </c>
       <c r="C32" s="52">
         <f>Homework!J32</f>
-        <v>0.99299999999999999</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="D32" s="44">
         <f>Exams!B32</f>
@@ -7164,7 +7170,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.1777619047619048</v>
+        <v>3.1647619047619049</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -7180,12 +7186,12 @@
         <v>9674</v>
       </c>
       <c r="B33" s="35">
-        <f>Quiz!X33</f>
+        <f>Quiz!W33</f>
         <v>0.66349206349206347</v>
       </c>
       <c r="C33" s="52">
         <f>Homework!J33</f>
-        <v>1.4085000000000001</v>
+        <v>1.4237500000000001</v>
       </c>
       <c r="D33" s="44">
         <f>Exams!B33</f>
@@ -7197,7 +7203,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5719920634920634</v>
+        <v>3.5872420634920634</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -7223,7 +7229,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="46">
-        <f>Quiz!X35</f>
+        <f>Quiz!W35</f>
         <v>1</v>
       </c>
       <c r="C35" s="46">
@@ -7258,7 +7264,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.8258437500000001</v>
+        <v>0.81257812500000015</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -7270,7 +7276,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.5526145833333338</v>
+        <v>2.539348958333334</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -7291,7 +7297,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.40326185036484335</v>
+        <v>0.41791351666256743</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -7303,11 +7309,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1060658472925717</v>
+        <v>1.1148756221384821</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.084624953761705</v>
+        <v>1.0993949949125246</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -7324,7 +7330,7 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>0.87449999999999983</v>
+        <v>0.88437500000000002</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
@@ -7336,7 +7342,7 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.6834880952380953</v>
+        <v>2.6791071428571431</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B8B02C-E44A-8A44-A9F1-8C696B447E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895693AC-F0DF-E74B-9529-2B8149446E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4991,13 +4991,13 @@
         <v>78.5</v>
       </c>
       <c r="G27" s="54">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>0.64250000000000007</v>
+        <v>0.73625000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="G36" s="31">
         <f t="shared" si="1"/>
-        <v>49.75</v>
+        <v>50.921875</v>
       </c>
       <c r="H36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="J36" s="31">
         <f t="shared" si="1"/>
-        <v>0.81257812500000015</v>
+        <v>0.81550781250000015</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G37" s="31">
         <f t="shared" si="2"/>
-        <v>37.554047073689716</v>
+        <v>36.522443249146093</v>
       </c>
       <c r="H37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="J37" s="31">
         <f t="shared" si="2"/>
-        <v>0.41791351666256743</v>
+        <v>0.4170103922874171</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="C27" s="52">
         <f>Homework!J27</f>
-        <v>0.64250000000000007</v>
+        <v>0.73625000000000007</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.8050396825396828</v>
+        <v>2.8987896825396828</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.81257812500000015</v>
+        <v>0.81550781250000015</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.539348958333334</v>
+        <v>2.542278645833334</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.41791351666256743</v>
+        <v>0.4170103922874171</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1148756221384821</v>
+        <v>1.1157191902041546</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895693AC-F0DF-E74B-9529-2B8149446E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2953BD5-2FC6-E642-8486-FA4D7F442BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4248,11 +4248,13 @@
       <c r="G2" s="54">
         <v>64.5</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="54">
+        <v>82.5</v>
+      </c>
       <c r="I2" s="44"/>
       <c r="J2" s="35">
         <f>IF(SUM($B$39:$I$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35)/SUM($B$39:$I$39),0)</f>
-        <v>0.88374999999999992</v>
+        <v>0.93428571428571416</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,11 +4280,13 @@
       <c r="G3" s="54">
         <v>40</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="54">
+        <v>30</v>
+      </c>
       <c r="I3" s="44"/>
       <c r="J3" s="35">
         <f t="shared" ref="J3:J33" si="0">IF(SUM($B$39:$I$39)&gt;0,1.5*(B3/$B$35+C3/$C$35+D3/$D$35+E3/$E$35+F3/$F$35+G3/$G$35+H3/$H$35+I3/$I$35)/SUM($B$39:$I$39),0)</f>
-        <v>0.74874999999999992</v>
+        <v>0.70607142857142846</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4307,7 +4311,9 @@
       <c r="G4" s="54">
         <v>0</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="54">
+        <v>0</v>
+      </c>
       <c r="I4" s="44"/>
       <c r="J4" s="35">
         <f t="shared" si="0"/>
@@ -4337,11 +4343,13 @@
       <c r="G5" s="54">
         <v>74.5</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="54">
+        <v>65.5</v>
+      </c>
       <c r="I5" s="44"/>
       <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>0.93500000000000005</v>
+        <v>0.94178571428571445</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4367,11 +4375,13 @@
       <c r="G6" s="54">
         <v>85.5</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="54">
+        <v>97</v>
+      </c>
       <c r="I6" s="44"/>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>1.3449999999999998</v>
+        <v>1.3607142857142855</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4397,11 +4407,13 @@
       <c r="G7" s="54">
         <v>87.5</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="54">
+        <v>100</v>
+      </c>
       <c r="I7" s="44"/>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>1.07375</v>
+        <v>1.1346428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4427,11 +4439,13 @@
       <c r="G8" s="54">
         <v>84</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="54">
+        <v>70</v>
+      </c>
       <c r="I8" s="44"/>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>1.1475000000000002</v>
+        <v>1.1335714285714287</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4456,7 +4470,9 @@
       <c r="G9" s="54">
         <v>0</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
       <c r="I9" s="44"/>
       <c r="J9" s="35">
         <f t="shared" si="0"/>
@@ -4486,11 +4502,13 @@
       <c r="G10" s="54">
         <v>94.5</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="54">
+        <v>100</v>
+      </c>
       <c r="I10" s="44"/>
       <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>1.43625</v>
+        <v>1.4453571428571428</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4515,11 +4533,13 @@
       <c r="G11" s="18">
         <v>0</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
       <c r="I11" s="44"/>
       <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>4.2500000000000003E-2</v>
+        <v>3.6428571428571428E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4544,7 +4564,9 @@
       <c r="G12" s="54">
         <v>0</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="54">
+        <v>0</v>
+      </c>
       <c r="I12" s="44"/>
       <c r="J12" s="35">
         <f t="shared" si="0"/>
@@ -4574,11 +4596,13 @@
       <c r="G13" s="54">
         <v>0</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="54">
+        <v>0</v>
+      </c>
       <c r="I13" s="44"/>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>0.69874999999999998</v>
+        <v>0.59892857142857137</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4604,11 +4628,13 @@
       <c r="G14" s="54">
         <v>68.5</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="54">
+        <v>0</v>
+      </c>
       <c r="I14" s="44"/>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>0.84875</v>
+        <v>0.72750000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4634,11 +4660,13 @@
       <c r="G15" s="54">
         <v>87.5</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="54">
+        <v>100</v>
+      </c>
       <c r="I15" s="44"/>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>1.095</v>
+        <v>1.1528571428571428</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4664,11 +4692,13 @@
       <c r="G16" s="54">
         <v>66.5</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="54">
+        <v>99</v>
+      </c>
       <c r="I16" s="44"/>
       <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>0.89749999999999996</v>
+        <v>0.98142857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4693,11 +4723,13 @@
       <c r="G17" s="54">
         <v>72.5</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="54">
+        <v>93.5</v>
+      </c>
       <c r="I17" s="44"/>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>0.78375000000000006</v>
+        <v>0.87214285714285722</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4723,11 +4755,13 @@
       <c r="G18" s="54">
         <v>100</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="54">
+        <v>94</v>
+      </c>
       <c r="I18" s="44"/>
       <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>1.335</v>
+        <v>1.3457142857142854</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4753,11 +4787,13 @@
       <c r="G19" s="54">
         <v>36.5</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="54">
+        <v>78</v>
+      </c>
       <c r="I19" s="44"/>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>0.63375000000000004</v>
+        <v>0.71035714285714291</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4783,11 +4819,13 @@
       <c r="G20" s="54">
         <v>0</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="54">
+        <v>0</v>
+      </c>
       <c r="I20" s="44"/>
       <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>0.38124999999999992</v>
+        <v>0.32678571428571423</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4813,11 +4851,13 @@
       <c r="G21" s="54">
         <v>99.5</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="54">
+        <v>99</v>
+      </c>
       <c r="I21" s="44"/>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>1.415</v>
+        <v>1.4250000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4843,11 +4883,13 @@
       <c r="G22" s="54">
         <v>78.5</v>
       </c>
-      <c r="H22" s="44"/>
+      <c r="H22" s="54">
+        <v>100</v>
+      </c>
       <c r="I22" s="44"/>
       <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>1.0575000000000001</v>
+        <v>1.1207142857142858</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4873,11 +4915,13 @@
       <c r="G23" s="54">
         <v>0</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="54">
+        <v>70</v>
+      </c>
       <c r="I23" s="44"/>
       <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>0.53749999999999998</v>
+        <v>0.61071428571428565</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4903,11 +4947,13 @@
       <c r="G24" s="54">
         <v>58</v>
       </c>
-      <c r="H24" s="44"/>
+      <c r="H24" s="54">
+        <v>90</v>
+      </c>
       <c r="I24" s="44"/>
       <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>0.88500000000000012</v>
+        <v>0.9514285714285714</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4933,11 +4979,13 @@
       <c r="G25" s="54">
         <v>20</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="54">
+        <v>57.5</v>
+      </c>
       <c r="I25" s="44"/>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>0.77625000000000011</v>
+        <v>0.78857142857142881</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4963,11 +5011,13 @@
       <c r="G26" s="54">
         <v>81.5</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="54">
+        <v>96</v>
+      </c>
       <c r="I26" s="44"/>
       <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>1.16875</v>
+        <v>1.2075</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4993,11 +5043,13 @@
       <c r="G27" s="54">
         <v>37.5</v>
       </c>
-      <c r="H27" s="44"/>
+      <c r="H27" s="54">
+        <v>88.5</v>
+      </c>
       <c r="I27" s="44"/>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>0.73625000000000007</v>
+        <v>0.82071428571428573</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5023,11 +5075,13 @@
       <c r="G28" s="54">
         <v>0</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="54">
+        <v>80</v>
+      </c>
       <c r="I28" s="44"/>
       <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>0.52875000000000005</v>
+        <v>0.62464285714285717</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5053,11 +5107,13 @@
       <c r="G29" s="54">
         <v>56.5</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="54">
+        <v>93.5</v>
+      </c>
       <c r="I29" s="44"/>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>0.94000000000000006</v>
+        <v>1.0060714285714287</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5083,11 +5139,13 @@
       <c r="G30" s="54">
         <v>14</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="54">
+        <v>39.5</v>
+      </c>
       <c r="I30" s="44"/>
       <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>0.38375000000000004</v>
+        <v>0.41357142857142865</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5113,11 +5171,13 @@
       <c r="G31" s="54">
         <v>61</v>
       </c>
-      <c r="H31" s="44"/>
+      <c r="H31" s="54">
+        <v>99</v>
+      </c>
       <c r="I31" s="44"/>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>0.97749999999999992</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5143,11 +5203,13 @@
       <c r="G32" s="54">
         <v>61</v>
       </c>
-      <c r="H32" s="44"/>
+      <c r="H32" s="54">
+        <v>99</v>
+      </c>
       <c r="I32" s="44"/>
       <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>0.97999999999999987</v>
+        <v>1.0521428571428568</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5173,11 +5235,13 @@
       <c r="G33" s="54">
         <v>100</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="54">
+        <v>97</v>
+      </c>
       <c r="I33" s="44"/>
       <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>1.4237500000000001</v>
+        <v>1.4282142857142859</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5251,9 +5315,9 @@
         <f t="shared" si="1"/>
         <v>50.921875</v>
       </c>
-      <c r="H36" s="31" t="e">
+      <c r="H36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66.203125</v>
       </c>
       <c r="I36" s="31" t="e">
         <f t="shared" si="1"/>
@@ -5261,7 +5325,7 @@
       </c>
       <c r="J36" s="31">
         <f t="shared" si="1"/>
-        <v>0.81550781250000015</v>
+        <v>0.84087053571428572</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5292,9 +5356,9 @@
         <f t="shared" si="2"/>
         <v>36.522443249146093</v>
       </c>
-      <c r="H37" s="31" t="e">
+      <c r="H37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>39.507626739207154</v>
       </c>
       <c r="I37" s="31" t="e">
         <f t="shared" si="2"/>
@@ -5302,7 +5366,7 @@
       </c>
       <c r="J37" s="31">
         <f t="shared" si="2"/>
-        <v>0.4170103922874171</v>
+        <v>0.42695115122122701</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5333,9 +5397,9 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="H38" s="31" t="e">
+      <c r="H38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>85.5</v>
       </c>
       <c r="I38" s="31" t="e">
         <f t="shared" si="3"/>
@@ -5343,7 +5407,7 @@
       </c>
       <c r="J38" s="31">
         <f t="shared" si="3"/>
-        <v>0.88437500000000002</v>
+        <v>0.93803571428571431</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5376,7 +5440,7 @@
       </c>
       <c r="H39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" si="4"/>
@@ -6167,7 +6231,7 @@
       </c>
       <c r="C2" s="52">
         <f>Homework!J2</f>
-        <v>0.88374999999999992</v>
+        <v>0.93428571428571416</v>
       </c>
       <c r="D2" s="44">
         <f>Exams!B2</f>
@@ -6179,7 +6243,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.82375</v>
+        <v>1.8742857142857141</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6201,7 +6265,7 @@
       </c>
       <c r="C3" s="52">
         <f>Homework!J3</f>
-        <v>0.74874999999999992</v>
+        <v>0.70607142857142846</v>
       </c>
       <c r="D3" s="44">
         <f>Exams!B3</f>
@@ -6213,7 +6277,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.2200198412698411</v>
+        <v>3.17734126984127</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6267,7 +6331,7 @@
       </c>
       <c r="C5" s="52">
         <f>Homework!J5</f>
-        <v>0.93500000000000005</v>
+        <v>0.94178571428571445</v>
       </c>
       <c r="D5" s="44">
         <f>Exams!B5</f>
@@ -6279,7 +6343,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.8983333333333334</v>
+        <v>1.9051190476190478</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -6300,7 +6364,7 @@
       </c>
       <c r="C6" s="52">
         <f>Homework!J6</f>
-        <v>1.3449999999999998</v>
+        <v>1.3607142857142855</v>
       </c>
       <c r="D6" s="44">
         <f>Exams!B6</f>
@@ -6312,7 +6376,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>4.9918253968253961</v>
+        <v>5.0075396825396821</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -6333,7 +6397,7 @@
       </c>
       <c r="C7" s="52">
         <f>Homework!J7</f>
-        <v>1.07375</v>
+        <v>1.1346428571428571</v>
       </c>
       <c r="D7" s="44">
         <f>Exams!B7</f>
@@ -6345,11 +6409,11 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.2340674603174602</v>
+        <v>3.2949603174603173</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="2"/>
@@ -6366,7 +6430,7 @@
       </c>
       <c r="C8" s="52">
         <f>Homework!J8</f>
-        <v>1.1475000000000002</v>
+        <v>1.1335714285714287</v>
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
@@ -6378,7 +6442,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6670238095238097</v>
+        <v>2.6530952380952382</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -6432,7 +6496,7 @@
       </c>
       <c r="C10" s="52">
         <f>Homework!J10</f>
-        <v>1.43625</v>
+        <v>1.4453571428571428</v>
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
@@ -6444,7 +6508,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.5914880952380948</v>
+        <v>4.600595238095238</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -6465,7 +6529,7 @@
       </c>
       <c r="C11" s="52">
         <f>Homework!J11</f>
-        <v>4.2500000000000003E-2</v>
+        <v>3.6428571428571428E-2</v>
       </c>
       <c r="D11" s="44">
         <f>Exams!B11</f>
@@ -6477,7 +6541,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="0"/>
-        <v>0.76249999999999996</v>
+        <v>0.75642857142857145</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
@@ -6531,7 +6595,7 @@
       </c>
       <c r="C13" s="52">
         <f>Homework!J13</f>
-        <v>0.69874999999999998</v>
+        <v>0.59892857142857137</v>
       </c>
       <c r="D13" s="44">
         <f>Exams!B13</f>
@@ -6543,7 +6607,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.585892857142857</v>
+        <v>1.4860714285714285</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6564,7 +6628,7 @@
       </c>
       <c r="C14" s="52">
         <f>Homework!J14</f>
-        <v>0.84875</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="D14" s="44">
         <f>Exams!B14</f>
@@ -6576,7 +6640,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.9839880952380953</v>
+        <v>1.8627380952380954</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6597,7 +6661,7 @@
       </c>
       <c r="C15" s="52">
         <f>Homework!J15</f>
-        <v>1.095</v>
+        <v>1.1528571428571428</v>
       </c>
       <c r="D15" s="44">
         <f>Exams!B15</f>
@@ -6609,7 +6673,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.2697619047619044</v>
+        <v>3.3276190476190477</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6630,7 +6694,7 @@
       </c>
       <c r="C16" s="52">
         <f>Homework!J16</f>
-        <v>0.89749999999999996</v>
+        <v>0.98142857142857143</v>
       </c>
       <c r="D16" s="44">
         <f>Exams!B16</f>
@@ -6642,7 +6706,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.7984523809523809</v>
+        <v>2.8823809523809523</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6663,7 +6727,7 @@
       </c>
       <c r="C17" s="52">
         <f>Homework!J17</f>
-        <v>0.78375000000000006</v>
+        <v>0.87214285714285722</v>
       </c>
       <c r="D17" s="44">
         <f>Exams!B17</f>
@@ -6675,7 +6739,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.3472420634920637</v>
+        <v>2.4356349206349206</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6696,7 +6760,7 @@
       </c>
       <c r="C18" s="52">
         <f>Homework!J18</f>
-        <v>1.335</v>
+        <v>1.3457142857142854</v>
       </c>
       <c r="D18" s="44">
         <f>Exams!B18</f>
@@ -6708,7 +6772,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.5207142857142859</v>
+        <v>3.5314285714285711</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6729,7 +6793,7 @@
       </c>
       <c r="C19" s="52">
         <f>Homework!J19</f>
-        <v>0.63375000000000004</v>
+        <v>0.71035714285714291</v>
       </c>
       <c r="D19" s="44">
         <f>Exams!B19</f>
@@ -6741,7 +6805,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.618035714285714</v>
+        <v>2.6946428571428571</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
@@ -6762,7 +6826,7 @@
       </c>
       <c r="C20" s="52">
         <f>Homework!J20</f>
-        <v>0.38124999999999992</v>
+        <v>0.32678571428571423</v>
       </c>
       <c r="D20" s="44">
         <f>Exams!B20</f>
@@ -6774,7 +6838,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>1.8845833333333331</v>
+        <v>1.8301190476190474</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6795,7 +6859,7 @@
       </c>
       <c r="C21" s="52">
         <f>Homework!J21</f>
-        <v>1.415</v>
+        <v>1.4250000000000003</v>
       </c>
       <c r="D21" s="44">
         <f>Exams!B21</f>
@@ -6807,7 +6871,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6511904761904765</v>
+        <v>3.6611904761904763</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6828,7 +6892,7 @@
       </c>
       <c r="C22" s="52">
         <f>Homework!J22</f>
-        <v>1.0575000000000001</v>
+        <v>1.1207142857142858</v>
       </c>
       <c r="D22" s="44">
         <f>Exams!B22</f>
@@ -6840,7 +6904,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.3409920634920636</v>
+        <v>3.4042063492063495</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6861,7 +6925,7 @@
       </c>
       <c r="C23" s="52">
         <f>Homework!J23</f>
-        <v>0.53749999999999998</v>
+        <v>0.61071428571428565</v>
       </c>
       <c r="D23" s="44">
         <f>Exams!B23</f>
@@ -6873,7 +6937,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>1.9846428571428572</v>
+        <v>2.0578571428571428</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6894,7 +6958,7 @@
       </c>
       <c r="C24" s="52">
         <f>Homework!J24</f>
-        <v>0.88500000000000012</v>
+        <v>0.9514285714285714</v>
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
@@ -6906,11 +6970,11 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.6911904761904761</v>
+        <v>2.7576190476190474</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="53">
         <f t="shared" si="5"/>
@@ -6927,7 +6991,7 @@
       </c>
       <c r="C25" s="52">
         <f>Homework!J25</f>
-        <v>0.77625000000000011</v>
+        <v>0.78857142857142881</v>
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
@@ -6939,7 +7003,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.7924404761904764</v>
+        <v>1.804761904761905</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -6960,7 +7024,7 @@
       </c>
       <c r="C26" s="52">
         <f>Homework!J26</f>
-        <v>1.16875</v>
+        <v>1.2075</v>
       </c>
       <c r="D26" s="44">
         <f>Exams!B26</f>
@@ -6972,7 +7036,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.1077976190476191</v>
+        <v>3.1465476190476194</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6993,7 +7057,7 @@
       </c>
       <c r="C27" s="52">
         <f>Homework!J27</f>
-        <v>0.73625000000000007</v>
+        <v>0.82071428571428573</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
@@ -7005,7 +7069,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.8987896825396828</v>
+        <v>2.9832539682539685</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -7026,7 +7090,7 @@
       </c>
       <c r="C28" s="52">
         <f>Homework!J28</f>
-        <v>0.52875000000000005</v>
+        <v>0.62464285714285717</v>
       </c>
       <c r="D28" s="44">
         <f>Exams!B28</f>
@@ -7038,11 +7102,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.1777976190476194</v>
+        <v>2.2736904761904762</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -7059,7 +7123,7 @@
       </c>
       <c r="C29" s="52">
         <f>Homework!J29</f>
-        <v>0.94000000000000006</v>
+        <v>1.0060714285714287</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
@@ -7071,11 +7135,11 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.7228571428571429</v>
+        <v>2.7889285714285714</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H29" s="53">
         <f t="shared" si="7"/>
@@ -7092,7 +7156,7 @@
       </c>
       <c r="C30" s="52">
         <f>Homework!J30</f>
-        <v>0.38375000000000004</v>
+        <v>0.41357142857142865</v>
       </c>
       <c r="D30" s="44">
         <f>Exams!B30</f>
@@ -7104,7 +7168,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.638035714285714</v>
+        <v>2.6678571428571427</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -7125,7 +7189,7 @@
       </c>
       <c r="C31" s="52">
         <f>Homework!J31</f>
-        <v>0.97749999999999992</v>
+        <v>1.05</v>
       </c>
       <c r="D31" s="44">
         <f>Exams!B31</f>
@@ -7137,7 +7201,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.2522619047619048</v>
+        <v>3.324761904761905</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -7158,7 +7222,7 @@
       </c>
       <c r="C32" s="52">
         <f>Homework!J32</f>
-        <v>0.97999999999999987</v>
+        <v>1.0521428571428568</v>
       </c>
       <c r="D32" s="44">
         <f>Exams!B32</f>
@@ -7170,7 +7234,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.1647619047619049</v>
+        <v>3.2369047619047615</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -7191,7 +7255,7 @@
       </c>
       <c r="C33" s="52">
         <f>Homework!J33</f>
-        <v>1.4237500000000001</v>
+        <v>1.4282142857142859</v>
       </c>
       <c r="D33" s="44">
         <f>Exams!B33</f>
@@ -7203,7 +7267,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5872420634920634</v>
+        <v>3.5917063492063495</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -7264,7 +7328,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.81550781250000015</v>
+        <v>0.84087053571428572</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -7276,11 +7340,11 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.542278645833334</v>
+        <v>2.5676413690476192</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.53125</v>
+        <v>2.59375</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
@@ -7297,7 +7361,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.4170103922874171</v>
+        <v>0.42695115122122701</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -7309,11 +7373,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1157191902041546</v>
+        <v>1.1300381411287477</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.0993949949125246</v>
+        <v>1.1103435969220548</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -7330,7 +7394,7 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>0.88437500000000002</v>
+        <v>0.93803571428571431</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
@@ -7342,11 +7406,11 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.6791071428571431</v>
+        <v>2.7261309523809523</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2953BD5-2FC6-E642-8486-FA4D7F442BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9944DA-CF38-2E47-BAEB-5C77D5AEB6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4251,10 +4251,12 @@
       <c r="H2" s="54">
         <v>82.5</v>
       </c>
-      <c r="I2" s="44"/>
+      <c r="I2" s="54">
+        <v>94</v>
+      </c>
       <c r="J2" s="35">
         <f>IF(SUM($B$39:$I$39)&gt;0,1.5*(B2/$B$35+C2/$C$35+D2/$D$35+E2/$E$35+F2/$F$35+G2/$G$35+H2/$H$35+I2/$I$35)/SUM($B$39:$I$39),0)</f>
-        <v>0.93428571428571416</v>
+        <v>0.9937499999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4283,10 +4285,12 @@
       <c r="H3" s="54">
         <v>30</v>
       </c>
-      <c r="I3" s="44"/>
+      <c r="I3" s="54">
+        <v>66</v>
+      </c>
       <c r="J3" s="35">
         <f t="shared" ref="J3:J33" si="0">IF(SUM($B$39:$I$39)&gt;0,1.5*(B3/$B$35+C3/$C$35+D3/$D$35+E3/$E$35+F3/$F$35+G3/$G$35+H3/$H$35+I3/$I$35)/SUM($B$39:$I$39),0)</f>
-        <v>0.70607142857142846</v>
+        <v>0.7415624999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4314,7 +4318,9 @@
       <c r="H4" s="54">
         <v>0</v>
       </c>
-      <c r="I4" s="44"/>
+      <c r="I4" s="54">
+        <v>0</v>
+      </c>
       <c r="J4" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4346,10 +4352,12 @@
       <c r="H5" s="54">
         <v>65.5</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="54">
+        <v>94</v>
+      </c>
       <c r="J5" s="35">
         <f t="shared" si="0"/>
-        <v>0.94178571428571445</v>
+        <v>1.0003125000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4378,10 +4386,12 @@
       <c r="H6" s="54">
         <v>97</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="54">
+        <v>69</v>
+      </c>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>1.3607142857142855</v>
+        <v>1.3199999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,10 +4420,12 @@
       <c r="H7" s="54">
         <v>100</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="54">
+        <v>64.5</v>
+      </c>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>1.1346428571428571</v>
+        <v>1.11375</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4442,10 +4454,12 @@
       <c r="H8" s="54">
         <v>70</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="54">
+        <v>45.5</v>
+      </c>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>1.1335714285714287</v>
+        <v>1.0771875000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4473,7 +4487,9 @@
       <c r="H9" s="54">
         <v>0</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="54">
+        <v>0</v>
+      </c>
       <c r="J9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4505,10 +4521,12 @@
       <c r="H10" s="54">
         <v>100</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="54">
+        <v>98.5</v>
+      </c>
       <c r="J10" s="35">
         <f t="shared" si="0"/>
-        <v>1.4453571428571428</v>
+        <v>1.4493750000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4536,10 +4554,12 @@
       <c r="H11" s="54">
         <v>0</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="54">
+        <v>0</v>
+      </c>
       <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>3.6428571428571428E-2</v>
+        <v>3.1875000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4567,7 +4587,9 @@
       <c r="H12" s="54">
         <v>0</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="54">
+        <v>0</v>
+      </c>
       <c r="J12" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4599,10 +4621,12 @@
       <c r="H13" s="54">
         <v>0</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="54">
+        <v>43</v>
+      </c>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>0.59892857142857137</v>
+        <v>0.60468750000000004</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4631,10 +4655,12 @@
       <c r="H14" s="54">
         <v>0</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="54">
+        <v>0</v>
+      </c>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>0.72750000000000004</v>
+        <v>0.63656250000000003</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4663,10 +4689,12 @@
       <c r="H15" s="54">
         <v>100</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="54">
+        <v>64.5</v>
+      </c>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>1.1528571428571428</v>
+        <v>1.1296875000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4695,10 +4723,12 @@
       <c r="H16" s="54">
         <v>99</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="54">
+        <v>34</v>
+      </c>
       <c r="J16" s="35">
         <f t="shared" si="0"/>
-        <v>0.98142857142857143</v>
+        <v>0.92249999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4726,10 +4756,12 @@
       <c r="H17" s="54">
         <v>93.5</v>
       </c>
-      <c r="I17" s="44"/>
+      <c r="I17" s="54">
+        <v>92.5</v>
+      </c>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>0.87214285714285722</v>
+        <v>0.93656249999999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4758,10 +4790,12 @@
       <c r="H18" s="54">
         <v>94</v>
       </c>
-      <c r="I18" s="44"/>
+      <c r="I18" s="54">
+        <v>98</v>
+      </c>
       <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>1.3457142857142854</v>
+        <v>1.3612500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4790,10 +4824,12 @@
       <c r="H19" s="54">
         <v>78</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="54">
+        <v>89</v>
+      </c>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>0.71035714285714291</v>
+        <v>0.78843750000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4822,10 +4858,12 @@
       <c r="H20" s="54">
         <v>0</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="54">
+        <v>0</v>
+      </c>
       <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>0.32678571428571423</v>
+        <v>0.28593749999999996</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4854,10 +4892,12 @@
       <c r="H21" s="54">
         <v>99</v>
       </c>
-      <c r="I21" s="44"/>
+      <c r="I21" s="54">
+        <v>98.5</v>
+      </c>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>1.4250000000000003</v>
+        <v>1.4315625000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4886,10 +4926,12 @@
       <c r="H22" s="54">
         <v>100</v>
       </c>
-      <c r="I22" s="44"/>
+      <c r="I22" s="54">
+        <v>69</v>
+      </c>
       <c r="J22" s="35">
         <f t="shared" si="0"/>
-        <v>1.1207142857142858</v>
+        <v>1.1099999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4918,10 +4960,12 @@
       <c r="H23" s="54">
         <v>70</v>
       </c>
-      <c r="I23" s="44"/>
+      <c r="I23" s="54">
+        <v>61.5</v>
+      </c>
       <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>0.61071428571428565</v>
+        <v>0.64968749999999997</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4950,10 +4994,12 @@
       <c r="H24" s="54">
         <v>90</v>
       </c>
-      <c r="I24" s="44"/>
+      <c r="I24" s="54">
+        <v>65</v>
+      </c>
       <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>0.9514285714285714</v>
+        <v>0.9543750000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4982,10 +5028,12 @@
       <c r="H25" s="54">
         <v>57.5</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="54">
+        <v>58</v>
+      </c>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>0.78857142857142881</v>
+        <v>0.79875000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5014,10 +5062,12 @@
       <c r="H26" s="54">
         <v>96</v>
       </c>
-      <c r="I26" s="44"/>
+      <c r="I26" s="54">
+        <v>88</v>
+      </c>
       <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>1.2075</v>
+        <v>1.2215624999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5046,10 +5096,12 @@
       <c r="H27" s="54">
         <v>88.5</v>
       </c>
-      <c r="I27" s="44"/>
+      <c r="I27" s="54">
+        <v>87.5</v>
+      </c>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>0.82071428571428573</v>
+        <v>0.88218750000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5078,10 +5130,12 @@
       <c r="H28" s="54">
         <v>80</v>
       </c>
-      <c r="I28" s="44"/>
+      <c r="I28" s="54">
+        <v>24</v>
+      </c>
       <c r="J28" s="35">
         <f t="shared" si="0"/>
-        <v>0.62464285714285717</v>
+        <v>0.59156249999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5110,10 +5164,12 @@
       <c r="H29" s="54">
         <v>93.5</v>
       </c>
-      <c r="I29" s="44"/>
+      <c r="I29" s="54">
+        <v>61.5</v>
+      </c>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>1.0060714285714287</v>
+        <v>0.99562500000000009</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5142,10 +5198,12 @@
       <c r="H30" s="54">
         <v>39.5</v>
       </c>
-      <c r="I30" s="44"/>
+      <c r="I30" s="54">
+        <v>38.5</v>
+      </c>
       <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>0.41357142857142865</v>
+        <v>0.43406250000000007</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5174,10 +5232,12 @@
       <c r="H31" s="54">
         <v>99</v>
       </c>
-      <c r="I31" s="44"/>
+      <c r="I31" s="54">
+        <v>71.5</v>
+      </c>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>1.0528124999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5206,10 +5266,12 @@
       <c r="H32" s="54">
         <v>99</v>
       </c>
-      <c r="I32" s="44"/>
+      <c r="I32" s="54">
+        <v>71.5</v>
+      </c>
       <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>1.0521428571428568</v>
+        <v>1.0546874999999998</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5238,10 +5300,12 @@
       <c r="H33" s="54">
         <v>97</v>
       </c>
-      <c r="I33" s="44"/>
+      <c r="I33" s="54">
+        <v>96.5</v>
+      </c>
       <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>1.4282142857142859</v>
+        <v>1.430625</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5319,13 +5383,13 @@
         <f t="shared" si="1"/>
         <v>66.203125</v>
       </c>
-      <c r="I36" s="31" t="e">
+      <c r="I36" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>57.609375</v>
       </c>
       <c r="J36" s="31">
         <f t="shared" si="1"/>
-        <v>0.84087053571428572</v>
+        <v>0.84377929687499997</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5360,13 +5424,13 @@
         <f t="shared" si="2"/>
         <v>39.507626739207154</v>
       </c>
-      <c r="I37" s="31" t="e">
+      <c r="I37" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>34.255852896421807</v>
       </c>
       <c r="J37" s="31">
         <f t="shared" si="2"/>
-        <v>0.42695115122122701</v>
+        <v>0.42698069612690231</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5401,13 +5465,13 @@
         <f t="shared" si="3"/>
         <v>85.5</v>
       </c>
-      <c r="I38" s="31" t="e">
+      <c r="I38" s="31">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>64.75</v>
       </c>
       <c r="J38" s="31">
         <f t="shared" si="3"/>
-        <v>0.93803571428571431</v>
+        <v>0.94546875000000008</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5444,7 +5508,7 @@
       </c>
       <c r="I39" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="41"/>
       <c r="K39" s="16"/>
@@ -6179,7 +6243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -6231,7 +6295,7 @@
       </c>
       <c r="C2" s="52">
         <f>Homework!J2</f>
-        <v>0.93428571428571416</v>
+        <v>0.9937499999999998</v>
       </c>
       <c r="D2" s="44">
         <f>Exams!B2</f>
@@ -6243,7 +6307,7 @@
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.8742857142857141</v>
+        <v>1.9337499999999999</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6265,7 +6329,7 @@
       </c>
       <c r="C3" s="52">
         <f>Homework!J3</f>
-        <v>0.70607142857142846</v>
+        <v>0.7415624999999999</v>
       </c>
       <c r="D3" s="44">
         <f>Exams!B3</f>
@@ -6277,7 +6341,7 @@
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.17734126984127</v>
+        <v>3.2128323412698414</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6331,7 +6395,7 @@
       </c>
       <c r="C5" s="52">
         <f>Homework!J5</f>
-        <v>0.94178571428571445</v>
+        <v>1.0003125000000002</v>
       </c>
       <c r="D5" s="44">
         <f>Exams!B5</f>
@@ -6343,7 +6407,7 @@
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.9051190476190478</v>
+        <v>1.9636458333333335</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
@@ -6364,7 +6428,7 @@
       </c>
       <c r="C6" s="52">
         <f>Homework!J6</f>
-        <v>1.3607142857142855</v>
+        <v>1.3199999999999998</v>
       </c>
       <c r="D6" s="44">
         <f>Exams!B6</f>
@@ -6376,7 +6440,7 @@
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>5.0075396825396821</v>
+        <v>4.9668253968253957</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
@@ -6397,7 +6461,7 @@
       </c>
       <c r="C7" s="52">
         <f>Homework!J7</f>
-        <v>1.1346428571428571</v>
+        <v>1.11375</v>
       </c>
       <c r="D7" s="44">
         <f>Exams!B7</f>
@@ -6409,7 +6473,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.2949603174603173</v>
+        <v>3.2740674603174602</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
@@ -6430,7 +6494,7 @@
       </c>
       <c r="C8" s="52">
         <f>Homework!J8</f>
-        <v>1.1335714285714287</v>
+        <v>1.0771875000000002</v>
       </c>
       <c r="D8" s="44">
         <f>Exams!B8</f>
@@ -6442,7 +6506,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.6530952380952382</v>
+        <v>2.5967113095238097</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
@@ -6496,7 +6560,7 @@
       </c>
       <c r="C10" s="52">
         <f>Homework!J10</f>
-        <v>1.4453571428571428</v>
+        <v>1.4493750000000001</v>
       </c>
       <c r="D10" s="44">
         <f>Exams!B10</f>
@@ -6508,7 +6572,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.600595238095238</v>
+        <v>4.6046130952380953</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
@@ -6529,7 +6593,7 @@
       </c>
       <c r="C11" s="52">
         <f>Homework!J11</f>
-        <v>3.6428571428571428E-2</v>
+        <v>3.1875000000000001E-2</v>
       </c>
       <c r="D11" s="44">
         <f>Exams!B11</f>
@@ -6541,7 +6605,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="0"/>
-        <v>0.75642857142857145</v>
+        <v>0.75187499999999996</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
@@ -6595,7 +6659,7 @@
       </c>
       <c r="C13" s="52">
         <f>Homework!J13</f>
-        <v>0.59892857142857137</v>
+        <v>0.60468750000000004</v>
       </c>
       <c r="D13" s="44">
         <f>Exams!B13</f>
@@ -6607,7 +6671,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="0"/>
-        <v>1.4860714285714285</v>
+        <v>1.4918303571428573</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
@@ -6628,7 +6692,7 @@
       </c>
       <c r="C14" s="52">
         <f>Homework!J14</f>
-        <v>0.72750000000000004</v>
+        <v>0.63656250000000003</v>
       </c>
       <c r="D14" s="44">
         <f>Exams!B14</f>
@@ -6640,7 +6704,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="0"/>
-        <v>1.8627380952380954</v>
+        <v>1.7718005952380953</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
@@ -6661,7 +6725,7 @@
       </c>
       <c r="C15" s="52">
         <f>Homework!J15</f>
-        <v>1.1528571428571428</v>
+        <v>1.1296875000000002</v>
       </c>
       <c r="D15" s="44">
         <f>Exams!B15</f>
@@ -6673,7 +6737,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.3276190476190477</v>
+        <v>3.3044494047619049</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
@@ -6694,7 +6758,7 @@
       </c>
       <c r="C16" s="52">
         <f>Homework!J16</f>
-        <v>0.98142857142857143</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="D16" s="44">
         <f>Exams!B16</f>
@@ -6706,7 +6770,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.8823809523809523</v>
+        <v>2.8234523809523813</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
@@ -6727,7 +6791,7 @@
       </c>
       <c r="C17" s="52">
         <f>Homework!J17</f>
-        <v>0.87214285714285722</v>
+        <v>0.93656249999999996</v>
       </c>
       <c r="D17" s="44">
         <f>Exams!B17</f>
@@ -6739,7 +6803,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.4356349206349206</v>
+        <v>2.5000545634920632</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
@@ -6760,7 +6824,7 @@
       </c>
       <c r="C18" s="52">
         <f>Homework!J18</f>
-        <v>1.3457142857142854</v>
+        <v>1.3612500000000001</v>
       </c>
       <c r="D18" s="44">
         <f>Exams!B18</f>
@@ -6772,7 +6836,7 @@
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.5314285714285711</v>
+        <v>3.546964285714286</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
@@ -6793,7 +6857,7 @@
       </c>
       <c r="C19" s="52">
         <f>Homework!J19</f>
-        <v>0.71035714285714291</v>
+        <v>0.78843750000000001</v>
       </c>
       <c r="D19" s="44">
         <f>Exams!B19</f>
@@ -6805,11 +6869,11 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.6946428571428571</v>
+        <v>2.7727232142857146</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="2"/>
@@ -6826,7 +6890,7 @@
       </c>
       <c r="C20" s="52">
         <f>Homework!J20</f>
-        <v>0.32678571428571423</v>
+        <v>0.28593749999999996</v>
       </c>
       <c r="D20" s="44">
         <f>Exams!B20</f>
@@ -6838,7 +6902,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>1.8301190476190474</v>
+        <v>1.7892708333333331</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6859,7 +6923,7 @@
       </c>
       <c r="C21" s="52">
         <f>Homework!J21</f>
-        <v>1.4250000000000003</v>
+        <v>1.4315625000000001</v>
       </c>
       <c r="D21" s="44">
         <f>Exams!B21</f>
@@ -6871,7 +6935,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6611904761904763</v>
+        <v>3.6677529761904766</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
@@ -6892,7 +6956,7 @@
       </c>
       <c r="C22" s="52">
         <f>Homework!J22</f>
-        <v>1.1207142857142858</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="D22" s="44">
         <f>Exams!B22</f>
@@ -6904,7 +6968,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.4042063492063495</v>
+        <v>3.3934920634920633</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
@@ -6925,7 +6989,7 @@
       </c>
       <c r="C23" s="52">
         <f>Homework!J23</f>
-        <v>0.61071428571428565</v>
+        <v>0.64968749999999997</v>
       </c>
       <c r="D23" s="44">
         <f>Exams!B23</f>
@@ -6937,7 +7001,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0578571428571428</v>
+        <v>2.0968303571428573</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
@@ -6958,7 +7022,7 @@
       </c>
       <c r="C24" s="52">
         <f>Homework!J24</f>
-        <v>0.9514285714285714</v>
+        <v>0.9543750000000002</v>
       </c>
       <c r="D24" s="44">
         <f>Exams!B24</f>
@@ -6970,7 +7034,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.7576190476190474</v>
+        <v>2.7605654761904761</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
@@ -6991,7 +7055,7 @@
       </c>
       <c r="C25" s="52">
         <f>Homework!J25</f>
-        <v>0.78857142857142881</v>
+        <v>0.79875000000000007</v>
       </c>
       <c r="D25" s="44">
         <f>Exams!B25</f>
@@ -7003,7 +7067,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.804761904761905</v>
+        <v>1.8149404761904764</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
@@ -7024,7 +7088,7 @@
       </c>
       <c r="C26" s="52">
         <f>Homework!J26</f>
-        <v>1.2075</v>
+        <v>1.2215624999999999</v>
       </c>
       <c r="D26" s="44">
         <f>Exams!B26</f>
@@ -7036,7 +7100,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.1465476190476194</v>
+        <v>3.160610119047619</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7057,7 +7121,7 @@
       </c>
       <c r="C27" s="52">
         <f>Homework!J27</f>
-        <v>0.82071428571428573</v>
+        <v>0.88218750000000001</v>
       </c>
       <c r="D27" s="44">
         <f>Exams!B27</f>
@@ -7069,7 +7133,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>2.9832539682539685</v>
+        <v>3.0447271825396829</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
@@ -7090,7 +7154,7 @@
       </c>
       <c r="C28" s="52">
         <f>Homework!J28</f>
-        <v>0.62464285714285717</v>
+        <v>0.59156249999999999</v>
       </c>
       <c r="D28" s="44">
         <f>Exams!B28</f>
@@ -7102,11 +7166,11 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2736904761904762</v>
+        <v>2.2406101190476191</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
@@ -7123,7 +7187,7 @@
       </c>
       <c r="C29" s="52">
         <f>Homework!J29</f>
-        <v>1.0060714285714287</v>
+        <v>0.99562500000000009</v>
       </c>
       <c r="D29" s="44">
         <f>Exams!B29</f>
@@ -7135,7 +7199,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.7889285714285714</v>
+        <v>2.7784821428571429</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
@@ -7156,7 +7220,7 @@
       </c>
       <c r="C30" s="52">
         <f>Homework!J30</f>
-        <v>0.41357142857142865</v>
+        <v>0.43406250000000007</v>
       </c>
       <c r="D30" s="44">
         <f>Exams!B30</f>
@@ -7168,7 +7232,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.6678571428571427</v>
+        <v>2.688348214285714</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
@@ -7189,7 +7253,7 @@
       </c>
       <c r="C31" s="52">
         <f>Homework!J31</f>
-        <v>1.05</v>
+        <v>1.0528124999999999</v>
       </c>
       <c r="D31" s="44">
         <f>Exams!B31</f>
@@ -7201,7 +7265,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.324761904761905</v>
+        <v>3.3275744047619047</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
@@ -7222,7 +7286,7 @@
       </c>
       <c r="C32" s="52">
         <f>Homework!J32</f>
-        <v>1.0521428571428568</v>
+        <v>1.0546874999999998</v>
       </c>
       <c r="D32" s="44">
         <f>Exams!B32</f>
@@ -7234,7 +7298,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.2369047619047615</v>
+        <v>3.2394494047619045</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
@@ -7255,7 +7319,7 @@
       </c>
       <c r="C33" s="52">
         <f>Homework!J33</f>
-        <v>1.4282142857142859</v>
+        <v>1.430625</v>
       </c>
       <c r="D33" s="44">
         <f>Exams!B33</f>
@@ -7267,7 +7331,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5917063492063495</v>
+        <v>3.5941170634920634</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
@@ -7328,7 +7392,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="8"/>
-        <v>0.84087053571428572</v>
+        <v>0.84377929687499997</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="8"/>
@@ -7340,7 +7404,7 @@
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.5676413690476192</v>
+        <v>2.5705501302083329</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
@@ -7361,7 +7425,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="9"/>
-        <v>0.42695115122122701</v>
+        <v>0.42698069612690231</v>
       </c>
       <c r="D37" s="31">
         <f t="shared" si="9"/>
@@ -7373,11 +7437,11 @@
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1300381411287477</v>
+        <v>1.1286125886684828</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1103435969220548</v>
+        <v>1.1175830776653122</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
@@ -7394,7 +7458,7 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="10"/>
-        <v>0.93803571428571431</v>
+        <v>0.94546875000000008</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="10"/>
@@ -7406,11 +7470,11 @@
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.7261309523809523</v>
+        <v>2.7666443452380953</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H38" s="31">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2023.xlsx
+++ b/phy112/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9944DA-CF38-2E47-BAEB-5C77D5AEB6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3ACB30-DF25-024F-875B-0E7ACD3BC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="2680" windowWidth="32900" windowHeight="19240" tabRatio="334" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4182,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -5588,7 +5588,9 @@
         <f>10+8</f>
         <v>18</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="18">
+        <v>54</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -5601,7 +5603,9 @@
         <f>28+33</f>
         <v>61</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="18">
+        <v>91</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -5611,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -5624,7 +5628,9 @@
         <f>18+3</f>
         <v>21</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="18">
+        <v>38</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -5637,7 +5643,9 @@
         <f>36+59</f>
         <v>95</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="18">
+        <v>169</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -5650,7 +5658,9 @@
         <f>32+18</f>
         <v>50</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="18">
+        <v>91</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -5663,7 +5673,9 @@
         <f>26+11</f>
         <v>37</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="18">
+        <v>76</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -5673,7 +5685,7 @@
         <v>2441</v>
       </c>
       <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -5686,7 +5698,9 @@
         <f>32+50</f>
         <v>82</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="18">
+        <v>163</v>
+      </c>
       <c r="D10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5699,7 +5713,9 @@
         <f>18+6</f>
         <v>24</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="18">
+        <v>67</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -5712,7 +5728,7 @@
         <f>22+13</f>
         <v>35</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -5725,7 +5741,7 @@
         <f>10+11</f>
         <v>21</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -5738,7 +5754,7 @@
         <f>18+10</f>
         <v>28</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5751,7 +5767,9 @@
         <f>32+17</f>
         <v>49</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="18">
+        <v>94</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -5767,7 +5785,9 @@
         <f>24+20</f>
         <v>44</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="18">
+        <v>98</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5780,7 +5800,9 @@
         <f>18+12</f>
         <v>30</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="18">
+        <v>100</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -5793,7 +5815,9 @@
         <f>20+30</f>
         <v>50</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="18">
+        <v>109</v>
+      </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5804,7 +5828,9 @@
         <f>24+25</f>
         <v>49</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="18">
+        <v>88</v>
+      </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5815,7 +5841,9 @@
         <f>20+19</f>
         <v>39</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="18">
+        <v>50</v>
+      </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5826,7 +5854,9 @@
         <f>20+32</f>
         <v>52</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="18">
+        <v>116</v>
+      </c>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5837,7 +5867,9 @@
         <f>24+30</f>
         <v>54</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="18">
+        <v>112</v>
+      </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5848,7 +5880,9 @@
         <f>18+15</f>
         <v>33</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="18">
+        <v>66</v>
+      </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5859,7 +5893,9 @@
         <f>22+29</f>
         <v>51</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="18">
+        <v>90</v>
+      </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5870,7 +5906,9 @@
         <f>14+4</f>
         <v>18</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="18">
+        <v>85</v>
+      </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5881,7 +5919,9 @@
         <f>26+18</f>
         <v>44</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="18">
+        <v>113</v>
+      </c>
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5892,7 +5932,9 @@
         <f>19+37</f>
         <v>56</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="18">
+        <v>103</v>
+      </c>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5903,7 +5945,9 @@
         <f>22+19</f>
         <v>41</v>
       </c>
-      <c r="C28" s="44"/>
+      <c r="C28" s="18">
+        <v>112</v>
+      </c>
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5914,7 +5958,9 @@
         <f>16+32</f>
         <v>48</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="18">
+        <v>97</v>
+      </c>
       <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5925,7 +5971,9 @@
         <f>24+34</f>
         <v>58</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="18">
+        <v>58</v>
+      </c>
       <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5936,7 +5984,9 @@
         <f>22+37</f>
         <v>59</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="18">
+        <v>114</v>
+      </c>
       <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5947,7 +5997,9 @@
         <f>16+40</f>
         <v>56</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="18">
+        <v>118</v>
+      </c>
       <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5958,7 +6010,9 @@
         <f>24+26</f>
         <v>50</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="18">
+        <v>101.5</v>
+      </c>
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -5975,7 +6029,7 @@
         <v>100</v>
       </c>
       <c r="C35" s="42">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D35" s="19"/>
     </row>
@@ -5987,9 +6041,9 @@
         <f>AVERAGE(B$2:B$33)</f>
         <v>45.1</v>
       </c>
-      <c r="C36" s="43" t="e">
+      <c r="C36" s="43">
         <f>AVERAGE(C$2:C$33)</f>
-        <v>#DIV/0!</v>
+        <v>95.31481481481481</v>
       </c>
       <c r="D36" s="19"/>
     </row>
@@ -6001,9 +6055,9 @@
         <f>STDEV(B$2:B$33)</f>
         <v>17.55847373777117</v>
       </c>
-      <c r="C37" s="43" t="e">
+      <c r="C37" s="43">
         <f>STDEV(C$2:C$33)</f>
-        <v>#DIV/0!</v>
+        <v>29.863519083988948</v>
       </c>
       <c r="D37" s="19"/>
     </row>
@@ -6015,9 +6069,9 @@
         <f>MEDIAN(B$2:B$33)</f>
         <v>48.5</v>
       </c>
-      <c r="C38" s="43" t="e">
+      <c r="C38" s="43">
         <f>MEDIAN(C$2:C$33)</f>
-        <v>#NUM!</v>
+        <v>97</v>
       </c>
       <c r="D38" s="19"/>
     </row>
@@ -6243,7 +6297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -6303,15 +6357,15 @@
       </c>
       <c r="E2" s="45">
         <f>Exams!C2</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F2" s="35">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$35)*3+($E2/$E$35)*4.5</f>
-        <v>1.9337499999999999</v>
+        <v>3.1487499999999997</v>
       </c>
       <c r="G2" s="35">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="53">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -6337,19 +6391,19 @@
       </c>
       <c r="E3" s="45">
         <f>Exams!C3</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F3" s="35">
         <f t="shared" si="0"/>
-        <v>3.2128323412698414</v>
+        <v>5.2603323412698408</v>
       </c>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6403,15 +6457,15 @@
       </c>
       <c r="E5" s="45">
         <f>Exams!C5</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F5" s="35">
         <f t="shared" si="0"/>
-        <v>1.9636458333333335</v>
+        <v>2.8186458333333335</v>
       </c>
       <c r="G5" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="2"/>
@@ -6436,15 +6490,15 @@
       </c>
       <c r="E6" s="45">
         <f>Exams!C6</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>4.9668253968253957</v>
+        <v>8.7693253968253959</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H6" s="53">
         <f t="shared" si="2"/>
@@ -6469,19 +6523,19 @@
       </c>
       <c r="E7" s="45">
         <f>Exams!C7</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F7" s="35">
         <f t="shared" si="0"/>
-        <v>3.2740674603174602</v>
+        <v>5.3215674603174605</v>
       </c>
       <c r="G7" s="35">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6502,15 +6556,15 @@
       </c>
       <c r="E8" s="45">
         <f>Exams!C8</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="0"/>
-        <v>2.5967113095238097</v>
+        <v>4.3067113095238092</v>
       </c>
       <c r="G8" s="35">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="2"/>
@@ -6568,19 +6622,19 @@
       </c>
       <c r="E10" s="45">
         <f>Exams!C10</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="0"/>
-        <v>4.6046130952380953</v>
+        <v>8.2721130952380939</v>
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="H10" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6601,15 +6655,15 @@
       </c>
       <c r="E11" s="45">
         <f>Exams!C11</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="0"/>
-        <v>0.75187499999999996</v>
+        <v>2.2593749999999999</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="53">
         <f t="shared" si="2"/>
@@ -6733,19 +6787,19 @@
       </c>
       <c r="E15" s="45">
         <f>Exams!C15</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="0"/>
-        <v>3.3044494047619049</v>
+        <v>5.4194494047619042</v>
       </c>
       <c r="G15" s="35">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6766,19 +6820,19 @@
       </c>
       <c r="E16" s="45">
         <f>Exams!C16</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="0"/>
-        <v>2.8234523809523813</v>
+        <v>5.0284523809523813</v>
       </c>
       <c r="G16" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6799,19 +6853,19 @@
       </c>
       <c r="E17" s="45">
         <f>Exams!C17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="35">
         <f t="shared" si="0"/>
-        <v>2.5000545634920632</v>
+        <v>4.7500545634920632</v>
       </c>
       <c r="G17" s="35">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H17" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6832,19 +6886,19 @@
       </c>
       <c r="E18" s="45">
         <f>Exams!C18</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F18" s="35">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$35)*4.5</f>
-        <v>3.546964285714286</v>
+        <v>5.9994642857142857</v>
       </c>
       <c r="G18" s="35">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6865,19 +6919,19 @@
       </c>
       <c r="E19" s="45">
         <f>Exams!C19</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" ref="F19:F33" si="3">$B19+$C19+($D19/$D$35)*3+($E19/$E$35)*4.5</f>
-        <v>2.7727232142857146</v>
+        <v>4.7527232142857141</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6898,15 +6952,15 @@
       </c>
       <c r="E20" s="45">
         <f>Exams!C20</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="3"/>
-        <v>1.7892708333333331</v>
+        <v>2.9142708333333331</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="53">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
@@ -6931,19 +6985,19 @@
       </c>
       <c r="E21" s="45">
         <f>Exams!C21</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="3"/>
-        <v>3.6677529761904766</v>
+        <v>6.2777529761904765</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H21" s="53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6964,19 +7018,19 @@
       </c>
       <c r="E22" s="45">
         <f>Exams!C22</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="3"/>
-        <v>3.3934920634920633</v>
+        <v>5.9134920634920638</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H22" s="53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6997,15 +7051,15 @@
       </c>
       <c r="E23" s="45">
         <f>Exams!C23</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="3"/>
-        <v>2.0968303571428573</v>
+        <v>3.5818303571428576</v>
       </c>
       <c r="G23" s="35">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H23" s="53">
         <f t="shared" si="5"/>
@@ -7030,19 +7084,19 @@
       </c>
       <c r="E24" s="45">
         <f>Exams!C24</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="3"/>
-        <v>2.7605654761904761</v>
+        <v>4.7855654761904756</v>
       </c>
       <c r="G24" s="35">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" s="53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7063,15 +7117,15 @@
       </c>
       <c r="E25" s="45">
         <f>Exams!C25</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="3"/>
-        <v>1.8149404761904764</v>
+        <v>3.727440476190476</v>
       </c>
       <c r="G25" s="35">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H25" s="53">
         <f t="shared" si="5"/>
@@ -7096,19 +7150,19 @@
       </c>
       <c r="E26" s="45">
         <f>Exams!C26</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="3"/>
-        <v>3.160610119047619</v>
+        <v>5.7031101190476186</v>
       </c>
       <c r="G26" s="35">
         <f t="shared" ref="G26:G33" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H26" s="53">
         <f t="shared" ref="H26:H33" si="7">IF(G26&gt;4.75,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7129,19 +7183,19 @@
       </c>
       <c r="E27" s="45">
         <f>Exams!C27</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="3"/>
-        <v>3.0447271825396829</v>
+        <v>5.3622271825396828</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H27" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7162,19 +7216,19 @@
       </c>
       <c r="E28" s="45">
         <f>Exams!C28</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="3"/>
-        <v>2.2406101190476191</v>
+        <v>4.7606101190476195</v>
       </c>
       <c r="G28" s="35">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H28" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7195,19 +7249,19 @@
       </c>
       <c r="E29" s="45">
         <f>Exams!C29</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>2.7784821428571429</v>
+        <v>4.9609821428571426</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7228,15 +7282,15 @@
       </c>
       <c r="E30" s="45">
         <f>Exams!C30</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="3"/>
-        <v>2.688348214285714</v>
+        <v>3.9933482142857137</v>
       </c>
       <c r="G30" s="35">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="53">
         <f t="shared" si="7"/>
@@ -7261,19 +7315,19 @@
       </c>
       <c r="E31" s="45">
         <f>Exams!C31</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="3"/>
-        <v>3.3275744047619047</v>
+        <v>5.8925744047619046</v>
       </c>
       <c r="G31" s="35">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H31" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7294,19 +7348,19 @@
       </c>
       <c r="E32" s="45">
         <f>Exams!C32</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="3"/>
-        <v>3.2394494047619045</v>
+        <v>5.8944494047619038</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H32" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7327,19 +7381,19 @@
       </c>
       <c r="E33" s="45">
         <f>Exams!C33</f>
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="3"/>
-        <v>3.5941170634920634</v>
+        <v>5.8778670634920633</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7369,7 +7423,7 @@
         <v>100</v>
       </c>
       <c r="E35" s="41">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="41">
         <v>10</v>
@@ -7379,7 +7433,7 @@
       </c>
       <c r="H35" s="41">
         <f>SUM(H2:H33)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7400,19 +7454,19 @@
       </c>
       <c r="E36" s="31">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>80.421875</v>
       </c>
       <c r="F36" s="31">
         <f t="shared" si="8"/>
-        <v>2.5705501302083329</v>
+        <v>4.380042317708333</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="8"/>
-        <v>2.59375</v>
+        <v>4.46875</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="8"/>
-        <v>3.125E-2</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7433,19 +7487,19 @@
       </c>
       <c r="E37" s="31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>44.545936669805506</v>
       </c>
       <c r="F37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1286125886684828</v>
+        <v>2.0654369310856007</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="9"/>
-        <v>1.1175830776653122</v>
+        <v>2.1172772381589064</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="9"/>
-        <v>0.17677669529663689</v>
+        <v>0.49899091723584604</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7466,19 +7520,19 @@
       </c>
       <c r="E38" s="31">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F38" s="31">
         <f t="shared" si="10"/>
-        <v>2.7666443452380953</v>
+        <v>4.7730877976190476</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H38" s="31">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
